--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -677,15 +677,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -698,15 +711,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF1265BE"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -720,9 +734,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF1265BE"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -730,7 +776,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -745,39 +791,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -785,22 +799,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -813,8 +812,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,25 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,13 +883,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,79 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,30 +1052,6 @@
           <color theme="4"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -1317,11 +1317,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,18 +1365,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.5"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,21 +1379,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,153 +1400,153 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="19">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="20">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="24">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="19">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="19">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="20">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="22">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="19">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="26">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="34" borderId="0">
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1693,12 +1693,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1747,16 +1741,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2116,7 +2101,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -2161,19 +2146,19 @@
       <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="50" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2203,10 +2188,10 @@
       <c r="I2" s="29">
         <v>1</v>
       </c>
-      <c r="J2" s="53">
-        <v>1</v>
-      </c>
-      <c r="K2" s="54" t="s">
+      <c r="J2" s="51">
+        <v>1</v>
+      </c>
+      <c r="K2" s="52" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="31">
@@ -2240,10 +2225,10 @@
       <c r="I3" s="29">
         <v>1</v>
       </c>
-      <c r="J3" s="55">
-        <v>1</v>
-      </c>
-      <c r="K3" s="54" t="s">
+      <c r="J3" s="53">
+        <v>1</v>
+      </c>
+      <c r="K3" s="52" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="31">
@@ -2277,10 +2262,10 @@
       <c r="I4" s="29">
         <v>1</v>
       </c>
-      <c r="J4" s="53">
-        <v>1</v>
-      </c>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="51">
+        <v>1</v>
+      </c>
+      <c r="K4" s="52" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="31">
@@ -2314,10 +2299,10 @@
       <c r="I5" s="29">
         <v>1</v>
       </c>
-      <c r="J5" s="53">
-        <v>1</v>
-      </c>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="51">
+        <v>1</v>
+      </c>
+      <c r="K5" s="52" t="s">
         <v>27</v>
       </c>
       <c r="L5" s="31">
@@ -2346,9 +2331,8 @@
       <c r="H6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" ht="27.75" customHeight="1" spans="1:11">
       <c r="A7" s="41"/>
@@ -2369,9 +2353,8 @@
       <c r="H7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" ht="27.75" customHeight="1" spans="1:11">
       <c r="A8" s="41"/>
@@ -2392,11 +2375,10 @@
       <c r="H8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-    </row>
-    <row r="9" ht="27.75" customHeight="1" spans="1:11">
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" ht="27.75" customHeight="1" spans="1:13">
       <c r="A9" s="41" t="s">
         <v>32</v>
       </c>
@@ -2417,13 +2399,21 @@
       <c r="H9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="53">
-        <v>1</v>
-      </c>
-      <c r="K9" s="54"/>
-    </row>
-    <row r="10" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="51">
+        <v>1</v>
+      </c>
+      <c r="K9" s="52"/>
+      <c r="L9" s="31">
+        <v>44501</v>
+      </c>
+      <c r="M9" s="31">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="10" ht="27.75" customHeight="1" spans="1:13">
       <c r="A10" s="41"/>
       <c r="B10" s="36"/>
       <c r="C10" s="42"/>
@@ -2440,13 +2430,21 @@
       <c r="H10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="53">
-        <v>1</v>
-      </c>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="51">
+        <v>1</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="31">
+        <v>44501</v>
+      </c>
+      <c r="M10" s="31">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="11" ht="27.75" customHeight="1" spans="1:13">
       <c r="A11" s="41"/>
       <c r="B11" s="36"/>
       <c r="C11" s="42"/>
@@ -2463,13 +2461,21 @@
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="53">
-        <v>1</v>
-      </c>
-      <c r="K11" s="54"/>
-    </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="51">
+        <v>1</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="31">
+        <v>44501</v>
+      </c>
+      <c r="M11" s="31">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="12" ht="27.75" customHeight="1" spans="1:13">
       <c r="A12" s="41"/>
       <c r="B12" s="36"/>
       <c r="C12" s="42"/>
@@ -2486,11 +2492,19 @@
       <c r="H12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="53">
-        <v>1</v>
-      </c>
-      <c r="K12" s="54"/>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="51">
+        <v>1</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="31">
+        <v>44501</v>
+      </c>
+      <c r="M12" s="31">
+        <v>44504</v>
+      </c>
     </row>
     <row r="13" ht="27.75" customHeight="1" spans="1:11">
       <c r="A13" s="41"/>
@@ -2509,9 +2523,8 @@
       <c r="H13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="52"/>
     </row>
     <row r="14" ht="27.75" customHeight="1" spans="1:11">
       <c r="A14" s="41"/>
@@ -2530,11 +2543,10 @@
       <c r="H14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-    </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:11">
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" ht="27.75" customHeight="1" spans="1:13">
       <c r="A15" s="41"/>
       <c r="B15" s="36" t="s">
         <v>46</v>
@@ -2553,11 +2565,21 @@
       <c r="H15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-    </row>
-    <row r="16" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I15" s="29">
+        <v>1</v>
+      </c>
+      <c r="J15" s="51">
+        <v>1</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M15" s="31">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="16" ht="27.75" customHeight="1" spans="1:13">
       <c r="A16" s="41"/>
       <c r="B16" s="36"/>
       <c r="C16" s="42"/>
@@ -2574,11 +2596,21 @@
       <c r="H16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-    </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I16" s="29">
+        <v>1</v>
+      </c>
+      <c r="J16" s="51">
+        <v>1</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M16" s="31">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="17" ht="27.75" customHeight="1" spans="1:13">
       <c r="A17" s="41"/>
       <c r="B17" s="36"/>
       <c r="C17" s="42"/>
@@ -2595,11 +2627,21 @@
       <c r="H17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I17" s="29">
+        <v>1</v>
+      </c>
+      <c r="J17" s="51">
+        <v>1</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M17" s="31">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="18" ht="27.75" customHeight="1" spans="1:13">
       <c r="A18" s="41"/>
       <c r="B18" s="36"/>
       <c r="C18" s="42"/>
@@ -2616,9 +2658,19 @@
       <c r="H18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
+      <c r="I18" s="29">
+        <v>1</v>
+      </c>
+      <c r="J18" s="51">
+        <v>1</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M18" s="31">
+        <v>44510</v>
+      </c>
     </row>
     <row r="19" ht="27.75" customHeight="1" spans="1:11">
       <c r="A19" s="41"/>
@@ -2637,9 +2689,8 @@
       <c r="H19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" ht="27.75" customHeight="1" spans="1:11">
       <c r="A20" s="41"/>
@@ -2658,11 +2709,10 @@
       <c r="H20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" ht="27.75" customHeight="1" spans="1:11">
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" ht="27.75" customHeight="1" spans="1:13">
       <c r="A21" s="41"/>
       <c r="B21" s="36" t="s">
         <v>47</v>
@@ -2681,11 +2731,21 @@
       <c r="H21" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I21" s="29">
+        <v>1</v>
+      </c>
+      <c r="J21" s="51">
+        <v>1</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M21" s="31">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="22" ht="27.75" customHeight="1" spans="1:13">
       <c r="A22" s="41"/>
       <c r="B22" s="36"/>
       <c r="C22" s="42"/>
@@ -2702,11 +2762,21 @@
       <c r="H22" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I22" s="29">
+        <v>1</v>
+      </c>
+      <c r="J22" s="51">
+        <v>1</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M22" s="31">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="23" ht="27.75" customHeight="1" spans="1:13">
       <c r="A23" s="41"/>
       <c r="B23" s="36"/>
       <c r="C23" s="42"/>
@@ -2723,11 +2793,21 @@
       <c r="H23" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-    </row>
-    <row r="24" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I23" s="29">
+        <v>1</v>
+      </c>
+      <c r="J23" s="51">
+        <v>1</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M23" s="31">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="24" ht="27.75" customHeight="1" spans="1:13">
       <c r="A24" s="41"/>
       <c r="B24" s="36"/>
       <c r="C24" s="42"/>
@@ -2744,9 +2824,19 @@
       <c r="H24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
+      <c r="I24" s="29">
+        <v>1</v>
+      </c>
+      <c r="J24" s="51">
+        <v>1</v>
+      </c>
+      <c r="K24" s="52"/>
+      <c r="L24" s="31">
+        <v>44505</v>
+      </c>
+      <c r="M24" s="31">
+        <v>44510</v>
+      </c>
     </row>
     <row r="25" ht="27.75" customHeight="1" spans="1:11">
       <c r="A25" s="41"/>
@@ -2765,9 +2855,8 @@
       <c r="H25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="54"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="26" ht="27.75" customHeight="1" spans="1:11">
       <c r="A26" s="41"/>
@@ -2786,9 +2875,8 @@
       <c r="H26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
     </row>
     <row r="27" ht="27.75" customHeight="1" spans="1:11">
       <c r="A27" s="41" t="s">
@@ -2809,9 +2897,8 @@
       <c r="H27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="54"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
     </row>
     <row r="28" ht="27.75" customHeight="1" spans="1:11">
       <c r="A28" s="41"/>
@@ -2828,9 +2915,8 @@
       <c r="H28" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="52"/>
     </row>
     <row r="29" ht="27.75" customHeight="1" spans="1:11">
       <c r="A29" s="41"/>
@@ -2851,9 +2937,8 @@
       <c r="H29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="52"/>
     </row>
     <row r="30" ht="27.75" customHeight="1" spans="1:11">
       <c r="A30" s="41"/>
@@ -2872,9 +2957,8 @@
       <c r="H30" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="54"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="31" ht="27.75" customHeight="1" spans="1:11">
       <c r="A31" s="41"/>
@@ -2893,9 +2977,8 @@
       <c r="H31" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="1:11">
       <c r="A32" s="41"/>
@@ -2914,9 +2997,8 @@
       <c r="H32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" ht="27.75" customHeight="1" spans="1:11">
       <c r="A33" s="41"/>
@@ -2935,9 +3017,8 @@
       <c r="H33" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="54"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="52"/>
     </row>
     <row r="34" ht="27.75" customHeight="1" spans="1:11">
       <c r="A34" s="41"/>
@@ -2956,9 +3037,8 @@
       <c r="H34" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="54"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="52"/>
     </row>
     <row r="35" ht="27.75" customHeight="1" spans="1:11">
       <c r="A35" s="41" t="s">
@@ -2981,9 +3061,8 @@
       <c r="H35" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" ht="27.75" customHeight="1" spans="1:11">
       <c r="A36" s="41"/>
@@ -3002,9 +3081,8 @@
       <c r="H36" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52"/>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:11">
       <c r="A37" s="41"/>
@@ -3025,9 +3103,8 @@
       <c r="H37" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" ht="24.75" customHeight="1" spans="1:11">
       <c r="A38" s="41"/>
@@ -3046,9 +3123,8 @@
       <c r="H38" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="54"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="52"/>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:11">
       <c r="A39" s="41"/>
@@ -3069,13 +3145,12 @@
       <c r="H39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="52"/>
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:11">
       <c r="A40" s="41"/>
-      <c r="B40" s="48"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="42"/>
       <c r="D40" s="36" t="s">
         <v>44</v>
@@ -3090,9 +3165,8 @@
       <c r="H40" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="52"/>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:11">
       <c r="A41" s="41"/>
@@ -3113,9 +3187,8 @@
       <c r="H41" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="54"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="52"/>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11">
       <c r="A42" s="41"/>
@@ -3134,9 +3207,8 @@
       <c r="H42" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="52"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11">
       <c r="A43" s="41" t="s">
@@ -3159,9 +3231,8 @@
       <c r="H43" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="54"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="52"/>
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:11">
       <c r="A44" s="41"/>
@@ -3180,9 +3251,8 @@
       <c r="H44" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="54"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="52"/>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:11">
       <c r="A45" s="41"/>
@@ -3201,9 +3271,8 @@
       <c r="H45" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="54"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="52"/>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:11">
       <c r="A46" s="41"/>
@@ -3222,9 +3291,8 @@
       <c r="H46" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="54"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="52"/>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:11">
       <c r="A47" s="41"/>
@@ -3243,9 +3311,8 @@
       <c r="H47" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="52"/>
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:11">
       <c r="A48" s="41"/>
@@ -3264,9 +3331,8 @@
       <c r="H48" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="54"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="52"/>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:11">
       <c r="A49" s="41"/>
@@ -3287,9 +3353,8 @@
       <c r="H49" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="52"/>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:11">
       <c r="A50" s="41"/>
@@ -3308,9 +3373,8 @@
       <c r="H50" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="52"/>
     </row>
     <row r="51" ht="24.75" customHeight="1" spans="1:11">
       <c r="A51" s="41"/>
@@ -3329,9 +3393,8 @@
       <c r="H51" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="52"/>
     </row>
     <row r="52" ht="24.75" customHeight="1" spans="1:11">
       <c r="A52" s="41"/>
@@ -3350,9 +3413,8 @@
       <c r="H52" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="54"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="52"/>
     </row>
     <row r="53" ht="24.75" customHeight="1" spans="1:11">
       <c r="A53" s="41"/>
@@ -3371,9 +3433,8 @@
       <c r="H53" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="54"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="52"/>
     </row>
     <row r="54" ht="24.75" customHeight="1" spans="1:11">
       <c r="A54" s="41"/>
@@ -3392,9 +3453,8 @@
       <c r="H54" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="54"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="52"/>
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:11">
       <c r="A55" s="41"/>
@@ -3415,9 +3475,8 @@
       <c r="H55" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="54"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="52"/>
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:11">
       <c r="A56" s="41"/>
@@ -3436,9 +3495,8 @@
       <c r="H56" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="54"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="52"/>
     </row>
     <row r="57" ht="24.75" customHeight="1" spans="1:11">
       <c r="A57" s="41"/>
@@ -3457,9 +3515,8 @@
       <c r="H57" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="54"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="52"/>
     </row>
     <row r="58" ht="24.75" customHeight="1" spans="1:11">
       <c r="A58" s="41"/>
@@ -3478,9 +3535,8 @@
       <c r="H58" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="54"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="52"/>
     </row>
     <row r="59" ht="24.75" customHeight="1" spans="1:11">
       <c r="A59" s="41"/>
@@ -3499,9 +3555,8 @@
       <c r="H59" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="54"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="52"/>
     </row>
     <row r="60" ht="24.75" customHeight="1" spans="1:11">
       <c r="A60" s="41"/>
@@ -3520,9 +3575,8 @@
       <c r="H60" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="54"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="52"/>
     </row>
     <row r="61" ht="24.75" customHeight="1" spans="1:11">
       <c r="A61" s="41"/>
@@ -3543,13 +3597,12 @@
       <c r="H61" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="54"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="52"/>
     </row>
     <row r="62" ht="24.75" customHeight="1" spans="1:11">
       <c r="A62" s="41"/>
-      <c r="B62" s="49"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="42"/>
       <c r="D62" s="36" t="s">
         <v>36</v>
@@ -3564,13 +3617,12 @@
       <c r="H62" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="52"/>
     </row>
     <row r="63" ht="24.75" customHeight="1" spans="1:11">
       <c r="A63" s="41"/>
-      <c r="B63" s="49"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="42"/>
       <c r="D63" s="36" t="s">
         <v>38</v>
@@ -3585,13 +3637,12 @@
       <c r="H63" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="54"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="52"/>
     </row>
     <row r="64" ht="24.75" customHeight="1" spans="1:11">
       <c r="A64" s="41"/>
-      <c r="B64" s="49"/>
+      <c r="B64" s="41"/>
       <c r="C64" s="42"/>
       <c r="D64" s="36" t="s">
         <v>40</v>
@@ -3606,13 +3657,12 @@
       <c r="H64" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="54"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="52"/>
     </row>
     <row r="65" ht="24.75" customHeight="1" spans="1:11">
       <c r="A65" s="41"/>
-      <c r="B65" s="49"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="42"/>
       <c r="D65" s="36" t="s">
         <v>42</v>
@@ -3627,13 +3677,12 @@
       <c r="H65" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="54"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="52"/>
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:11">
       <c r="A66" s="41"/>
-      <c r="B66" s="49"/>
+      <c r="B66" s="41"/>
       <c r="C66" s="42"/>
       <c r="D66" s="36" t="s">
         <v>44</v>
@@ -3648,9 +3697,8 @@
       <c r="H66" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="54"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="52"/>
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:11">
       <c r="A67" s="41" t="s">
@@ -3673,9 +3721,8 @@
       <c r="H67" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="54"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="52"/>
     </row>
     <row r="68" ht="24.75" customHeight="1" spans="1:11">
       <c r="A68" s="41"/>
@@ -3694,9 +3741,8 @@
       <c r="H68" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="54"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="52"/>
     </row>
     <row r="69" ht="24.75" customHeight="1" spans="1:11">
       <c r="A69" s="41"/>
@@ -3715,9 +3761,8 @@
       <c r="H69" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="52"/>
     </row>
     <row r="70" ht="24.75" customHeight="1" spans="1:11">
       <c r="A70" s="41"/>
@@ -3736,9 +3781,8 @@
       <c r="H70" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="54"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="52"/>
     </row>
     <row r="71" ht="24.75" customHeight="1" spans="1:11">
       <c r="A71" s="41"/>
@@ -3757,9 +3801,8 @@
       <c r="H71" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="54"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="52"/>
     </row>
     <row r="72" ht="24.75" customHeight="1" spans="1:11">
       <c r="A72" s="41"/>
@@ -3778,9 +3821,8 @@
       <c r="H72" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="54"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="52"/>
     </row>
     <row r="73" ht="24.75" customHeight="1" spans="1:11">
       <c r="A73" s="41" t="s">
@@ -3797,61 +3839,58 @@
         <v>65</v>
       </c>
       <c r="F73" s="47"/>
-      <c r="G73" s="56">
+      <c r="G73" s="54">
         <v>2</v>
       </c>
       <c r="H73" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="54"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="52"/>
     </row>
     <row r="74" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A74" s="57"/>
-      <c r="B74" s="58" t="s">
+      <c r="A74" s="55"/>
+      <c r="B74" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="60" t="s">
+      <c r="C74" s="57"/>
+      <c r="D74" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63">
+      <c r="F74" s="60"/>
+      <c r="G74" s="61">
         <v>3</v>
       </c>
-      <c r="H74" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="63"/>
+      <c r="H74" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="51"/>
+      <c r="K74" s="61"/>
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="66" t="s">
+      <c r="B75" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="66" t="s">
+      <c r="C75" s="64"/>
+      <c r="D75" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="66" t="s">
+      <c r="E75" s="38" t="s">
         <v>69</v>
       </c>
       <c r="F75" s="47"/>
-      <c r="G75" s="68">
+      <c r="G75" s="39">
         <v>3</v>
       </c>
-      <c r="H75" s="69"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="70"/>
+      <c r="H75" s="40"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="65"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
@@ -3864,7 +3903,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f21e3bfc-bed7-4263-9d43-e4b8a1e7ab90}</x14:id>
+          <x14:id>{15612d7a-9dc9-41b1-951a-fd573ca02d5c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3876,7 +3915,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a245b483-f9af-4077-8595-5b469414c2bb}</x14:id>
+          <x14:id>{94ec29d0-a7d2-47f4-ab83-a152276ba5b4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3888,7 +3927,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1311345-ebe5-4e30-b9e8-64d9fbf0329a}</x14:id>
+          <x14:id>{949bf07c-0aed-4f18-8a3f-50278db4bc00}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3900,7 +3939,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb973fb8-5f84-4c7d-922e-7d04648b7054}</x14:id>
+          <x14:id>{1b4f9f0f-dcaa-4cf6-9213-2fc99454a7f8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3912,7 +3951,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a523d196-3c63-4ec7-93b8-8aa7cdbbbaff}</x14:id>
+          <x14:id>{208ff0db-6cfc-42be-afaf-3624d3fa5259}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3924,7 +3963,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84945d62-c2c9-4b62-abf7-b7bf0fec245a}</x14:id>
+          <x14:id>{cef32f9b-b309-4292-8db8-e27766886821}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3936,7 +3975,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2b8ecb3-bfb0-41c2-8fb9-e4856c138254}</x14:id>
+          <x14:id>{7a482df8-cd12-480d-ae88-603f122f4a2c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3948,7 +3987,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cd448ab-5c56-4b67-be91-d840ffed34b1}</x14:id>
+          <x14:id>{9e79673b-ae54-455d-9089-9c3280d6bebc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3960,7 +3999,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d4c1f030-b83c-4439-9f12-d2d8c6dc4c16}</x14:id>
+          <x14:id>{770adc95-9bcf-4fc5-9591-ef1e9461bf67}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3972,7 +4011,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f01d7ff0-d027-4a31-a689-ce52baf06899}</x14:id>
+          <x14:id>{4eb84b3c-80cd-4bf4-8663-5940cd98c60f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3984,7 +4023,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5b3996a-80ea-44f7-9478-410a5164cd15}</x14:id>
+          <x14:id>{a07131ba-a782-481d-a304-331a1231682f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3996,7 +4035,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ccd37263-1b47-4e54-a242-6aa64533c55e}</x14:id>
+          <x14:id>{b9a2b8eb-68f1-4ade-97f1-a59cc369e164}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4007,7 +4046,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f21e3bfc-bed7-4263-9d43-e4b8a1e7ab90}">
+          <x14:cfRule type="dataBar" id="{15612d7a-9dc9-41b1-951a-fd573ca02d5c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4017,7 +4056,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a245b483-f9af-4077-8595-5b469414c2bb}">
+          <x14:cfRule type="dataBar" id="{94ec29d0-a7d2-47f4-ab83-a152276ba5b4}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4025,7 +4064,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a1311345-ebe5-4e30-b9e8-64d9fbf0329a}">
+          <x14:cfRule type="dataBar" id="{949bf07c-0aed-4f18-8a3f-50278db4bc00}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4035,7 +4074,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{eb973fb8-5f84-4c7d-922e-7d04648b7054}">
+          <x14:cfRule type="dataBar" id="{1b4f9f0f-dcaa-4cf6-9213-2fc99454a7f8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4045,7 +4084,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a523d196-3c63-4ec7-93b8-8aa7cdbbbaff}">
+          <x14:cfRule type="dataBar" id="{208ff0db-6cfc-42be-afaf-3624d3fa5259}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4057,7 +4096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{84945d62-c2c9-4b62-abf7-b7bf0fec245a}">
+          <x14:cfRule type="dataBar" id="{cef32f9b-b309-4292-8db8-e27766886821}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4065,7 +4104,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e2b8ecb3-bfb0-41c2-8fb9-e4856c138254}">
+          <x14:cfRule type="dataBar" id="{7a482df8-cd12-480d-ae88-603f122f4a2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4077,7 +4116,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8cd448ab-5c56-4b67-be91-d840ffed34b1}">
+          <x14:cfRule type="dataBar" id="{9e79673b-ae54-455d-9089-9c3280d6bebc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4085,7 +4124,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d4c1f030-b83c-4439-9f12-d2d8c6dc4c16}">
+          <x14:cfRule type="dataBar" id="{770adc95-9bcf-4fc5-9591-ef1e9461bf67}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4097,7 +4136,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f01d7ff0-d027-4a31-a689-ce52baf06899}">
+          <x14:cfRule type="dataBar" id="{4eb84b3c-80cd-4bf4-8663-5940cd98c60f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4105,7 +4144,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d5b3996a-80ea-44f7-9478-410a5164cd15}">
+          <x14:cfRule type="dataBar" id="{a07131ba-a782-481d-a304-331a1231682f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4117,7 +4156,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ccd37263-1b47-4e54-a242-6aa64533c55e}">
+          <x14:cfRule type="dataBar" id="{b9a2b8eb-68f1-4ade-97f1-a59cc369e164}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -690,6 +690,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -697,8 +705,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF1265BE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -713,7 +745,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF1265BE"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -721,30 +776,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -760,23 +791,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -791,30 +814,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,25 +859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,73 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,31 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,7 +937,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,19 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,6 +1285,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1300,75 +1311,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1391,6 +1337,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1400,145 +1400,145 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="19">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="24">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="27">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="20">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="25">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="20">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="24">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="19">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="23">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="38" borderId="0">
@@ -2099,9 +2099,9 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -2875,10 +2875,11 @@
       <c r="H26" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="I26" s="29"/>
       <c r="J26" s="51"/>
       <c r="K26" s="52"/>
     </row>
-    <row r="27" ht="27.75" customHeight="1" spans="1:11">
+    <row r="27" ht="27.75" customHeight="1" spans="1:13">
       <c r="A27" s="41" t="s">
         <v>48</v>
       </c>
@@ -2897,10 +2898,21 @@
       <c r="H27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="51"/>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+      <c r="J27" s="51">
+        <v>1</v>
+      </c>
       <c r="K27" s="52"/>
-    </row>
-    <row r="28" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L27" s="31">
+        <v>44511</v>
+      </c>
+      <c r="M27" s="31">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="28" ht="27.75" customHeight="1" spans="1:13">
       <c r="A28" s="41"/>
       <c r="B28" s="36"/>
       <c r="C28" s="42"/>
@@ -2915,10 +2927,21 @@
       <c r="H28" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="51"/>
+      <c r="I28" s="29">
+        <v>1</v>
+      </c>
+      <c r="J28" s="51">
+        <v>1</v>
+      </c>
       <c r="K28" s="52"/>
-    </row>
-    <row r="29" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L28" s="31">
+        <v>44511</v>
+      </c>
+      <c r="M28" s="31">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="29" ht="27.75" customHeight="1" spans="1:12">
       <c r="A29" s="41"/>
       <c r="B29" s="36" t="s">
         <v>51</v>
@@ -2937,10 +2960,15 @@
       <c r="H29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="51"/>
+      <c r="J29" s="51">
+        <v>1</v>
+      </c>
       <c r="K29" s="52"/>
-    </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L29" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="30" ht="27.75" customHeight="1" spans="1:12">
       <c r="A30" s="41"/>
       <c r="B30" s="36"/>
       <c r="C30" s="42"/>
@@ -2957,10 +2985,15 @@
       <c r="H30" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="51"/>
+      <c r="J30" s="51">
+        <v>1</v>
+      </c>
       <c r="K30" s="52"/>
-    </row>
-    <row r="31" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L30" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="31" ht="27.75" customHeight="1" spans="1:12">
       <c r="A31" s="41"/>
       <c r="B31" s="36"/>
       <c r="C31" s="42"/>
@@ -2977,10 +3010,15 @@
       <c r="H31" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="51"/>
+      <c r="J31" s="51">
+        <v>1</v>
+      </c>
       <c r="K31" s="52"/>
-    </row>
-    <row r="32" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L31" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="32" ht="27.75" customHeight="1" spans="1:12">
       <c r="A32" s="41"/>
       <c r="B32" s="36"/>
       <c r="C32" s="42"/>
@@ -2997,8 +3035,13 @@
       <c r="H32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="51"/>
+      <c r="J32" s="51">
+        <v>1</v>
+      </c>
       <c r="K32" s="52"/>
+      <c r="L32" s="31">
+        <v>44513</v>
+      </c>
     </row>
     <row r="33" ht="27.75" customHeight="1" spans="1:11">
       <c r="A33" s="41"/>
@@ -3894,7 +3937,7 @@
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="I2:I1048576">
+  <conditionalFormatting sqref="I26:I28">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="percent" val="0"/>
@@ -3903,7 +3946,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15612d7a-9dc9-41b1-951a-fd573ca02d5c}</x14:id>
+          <x14:id>{52f704dc-f851-4de6-b26f-aca9f48dd71b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3915,7 +3958,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94ec29d0-a7d2-47f4-ab83-a152276ba5b4}</x14:id>
+          <x14:id>{ea524ff2-a62c-431f-8cf9-34fc5baf37a5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3927,7 +3970,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{949bf07c-0aed-4f18-8a3f-50278db4bc00}</x14:id>
+          <x14:id>{889ea6b6-9824-48fa-b132-7566394197c2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3939,7 +3982,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b4f9f0f-dcaa-4cf6-9213-2fc99454a7f8}</x14:id>
+          <x14:id>{8679ab27-86b7-45ce-b6d6-1d290dc00f3c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3951,7 +3994,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{208ff0db-6cfc-42be-afaf-3624d3fa5259}</x14:id>
+          <x14:id>{78fce2e1-609d-4556-a4e0-8dcea62d3f85}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3963,7 +4006,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cef32f9b-b309-4292-8db8-e27766886821}</x14:id>
+          <x14:id>{501c4e8a-fa92-4209-bea1-b06e8b0f279a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3975,7 +4018,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7a482df8-cd12-480d-ae88-603f122f4a2c}</x14:id>
+          <x14:id>{ecd1cc17-ed64-4342-9f9f-2528c3dfe100}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3987,7 +4030,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e79673b-ae54-455d-9089-9c3280d6bebc}</x14:id>
+          <x14:id>{b7815561-bb60-48c2-9da2-8609d351a4c6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3999,7 +4042,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{770adc95-9bcf-4fc5-9591-ef1e9461bf67}</x14:id>
+          <x14:id>{2085cba3-0536-494c-a7a9-c09ad85e586a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4011,7 +4054,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4eb84b3c-80cd-4bf4-8663-5940cd98c60f}</x14:id>
+          <x14:id>{92d00ea9-b9c5-4de4-9e11-87294a7a363e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4023,7 +4066,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a07131ba-a782-481d-a304-331a1231682f}</x14:id>
+          <x14:id>{791e1d97-01ac-4be8-8086-3cbbd7366cce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4035,7 +4078,153 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b9a2b8eb-68f1-4ade-97f1-a59cc369e164}</x14:id>
+          <x14:id>{9a4141a2-a5f5-474f-b400-06f973f9b52a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I29:I1048576">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b7202d38-a16d-41c8-9a6d-77e34986edce}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8bfb5ac8-3a38-40c2-9fc5-c54ed3536158}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9eaf4f82-9dc4-494a-b701-0fc83ec3e561}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0789fe58-675e-4603-8ff0-e6329f2d4a81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e04dd8a6-911d-4d58-a526-21b648aa3af8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ef97183c-659b-4a65-8283-1eb03541b8fb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d715c16e-759c-438d-9887-9739dee0b0f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{da26d0cf-8b05-4a0f-bfd5-35d1aefa7269}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5f6f5c1d-e975-4bad-8819-3652e74f9bb4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b78eabc0-9e0d-4bd6-83e0-11aa5606094a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0ac5d0f9-91fd-4789-9f05-a067deed2a5e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{da36926b-daba-46fb-bfac-0561e3027556}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4046,7 +4235,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15612d7a-9dc9-41b1-951a-fd573ca02d5c}">
+          <x14:cfRule type="dataBar" id="{52f704dc-f851-4de6-b26f-aca9f48dd71b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4056,7 +4245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{94ec29d0-a7d2-47f4-ab83-a152276ba5b4}">
+          <x14:cfRule type="dataBar" id="{ea524ff2-a62c-431f-8cf9-34fc5baf37a5}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4064,7 +4253,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{949bf07c-0aed-4f18-8a3f-50278db4bc00}">
+          <x14:cfRule type="dataBar" id="{889ea6b6-9824-48fa-b132-7566394197c2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4074,7 +4263,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1b4f9f0f-dcaa-4cf6-9213-2fc99454a7f8}">
+          <x14:cfRule type="dataBar" id="{8679ab27-86b7-45ce-b6d6-1d290dc00f3c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4084,7 +4273,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{208ff0db-6cfc-42be-afaf-3624d3fa5259}">
+          <x14:cfRule type="dataBar" id="{78fce2e1-609d-4556-a4e0-8dcea62d3f85}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4096,7 +4285,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cef32f9b-b309-4292-8db8-e27766886821}">
+          <x14:cfRule type="dataBar" id="{501c4e8a-fa92-4209-bea1-b06e8b0f279a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4104,7 +4293,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7a482df8-cd12-480d-ae88-603f122f4a2c}">
+          <x14:cfRule type="dataBar" id="{ecd1cc17-ed64-4342-9f9f-2528c3dfe100}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4116,7 +4305,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9e79673b-ae54-455d-9089-9c3280d6bebc}">
+          <x14:cfRule type="dataBar" id="{b7815561-bb60-48c2-9da2-8609d351a4c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4124,7 +4313,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{770adc95-9bcf-4fc5-9591-ef1e9461bf67}">
+          <x14:cfRule type="dataBar" id="{2085cba3-0536-494c-a7a9-c09ad85e586a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4136,7 +4325,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4eb84b3c-80cd-4bf4-8663-5940cd98c60f}">
+          <x14:cfRule type="dataBar" id="{92d00ea9-b9c5-4de4-9e11-87294a7a363e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4144,7 +4333,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a07131ba-a782-481d-a304-331a1231682f}">
+          <x14:cfRule type="dataBar" id="{791e1d97-01ac-4be8-8086-3cbbd7366cce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4156,7 +4345,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b9a2b8eb-68f1-4ade-97f1-a59cc369e164}">
+          <x14:cfRule type="dataBar" id="{9a4141a2-a5f5-474f-b400-06f973f9b52a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4168,7 +4357,132 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I1048576</xm:sqref>
+          <xm:sqref>I26:I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b7202d38-a16d-41c8-9a6d-77e34986edce}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8bfb5ac8-3a38-40c2-9fc5-c54ed3536158}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9eaf4f82-9dc4-494a-b701-0fc83ec3e561}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0789fe58-675e-4603-8ff0-e6329f2d4a81}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e04dd8a6-911d-4d58-a526-21b648aa3af8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ef97183c-659b-4a65-8283-1eb03541b8fb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d715c16e-759c-438d-9887-9739dee0b0f4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{da26d0cf-8b05-4a0f-bfd5-35d1aefa7269}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5f6f5c1d-e975-4bad-8819-3652e74f9bb4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b78eabc0-9e0d-4bd6-83e0-11aa5606094a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0ac5d0f9-91fd-4789-9f05-a067deed2a5e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{da36926b-daba-46fb-bfac-0561e3027556}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I2:I25 I29:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="199">
   <si>
     <t>模块</t>
   </si>
@@ -164,6 +164,27 @@
     <t>注销</t>
   </si>
   <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>字典表</t>
+  </si>
+  <si>
+    <t>字典表的字段设计，结构设计</t>
+  </si>
+  <si>
+    <t>字典服务开发</t>
+  </si>
+  <si>
+    <t>字典表相关的公共服务开发</t>
+  </si>
+  <si>
+    <t>字典测试</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
     <t>权限控制</t>
   </si>
   <si>
@@ -207,9 +228,6 @@
   </si>
   <si>
     <t>文件共享</t>
-  </si>
-  <si>
-    <t>测试</t>
   </si>
   <si>
     <t>黑盒测试</t>
@@ -605,8 +623,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -684,46 +702,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF1265BE"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -743,11 +736,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -759,25 +767,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF1265BE"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,8 +792,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -807,7 +809,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -859,24 +877,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -889,19 +889,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,133 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,6 +926,150 @@
           <color theme="4"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -1285,17 +1303,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1314,26 +1321,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,6 +1353,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1370,24 +1401,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,151 +1415,151 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="21">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="19">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="26">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="24">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="20">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="25">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2096,12 +2114,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -2875,11 +2893,10 @@
       <c r="H26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="29"/>
       <c r="J26" s="51"/>
       <c r="K26" s="52"/>
     </row>
-    <row r="27" ht="27.75" customHeight="1" spans="1:13">
+    <row r="27" ht="27.75" customHeight="1" spans="1:12">
       <c r="A27" s="41" t="s">
         <v>48</v>
       </c>
@@ -2888,75 +2905,59 @@
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="37"/>
       <c r="F27" s="47"/>
-      <c r="G27" s="39">
-        <v>1</v>
-      </c>
+      <c r="G27" s="39"/>
       <c r="H27" s="44" t="s">
         <v>17</v>
-      </c>
-      <c r="I27" s="29">
-        <v>1</v>
       </c>
       <c r="J27" s="51">
         <v>1</v>
       </c>
       <c r="K27" s="52"/>
       <c r="L27" s="31">
-        <v>44511</v>
-      </c>
-      <c r="M27" s="31">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="28" ht="27.75" customHeight="1" spans="1:13">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="28" ht="27.75" customHeight="1" spans="1:12">
       <c r="A28" s="41"/>
       <c r="B28" s="36"/>
       <c r="C28" s="42"/>
       <c r="D28" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="37"/>
+        <v>51</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="F28" s="47"/>
-      <c r="G28" s="39">
-        <v>1</v>
-      </c>
+      <c r="G28" s="39"/>
       <c r="H28" s="44" t="s">
         <v>17</v>
-      </c>
-      <c r="I28" s="29">
-        <v>1</v>
       </c>
       <c r="J28" s="51">
         <v>1</v>
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="31">
-        <v>44511</v>
-      </c>
-      <c r="M28" s="31">
-        <v>44512</v>
+        <v>44513</v>
       </c>
     </row>
     <row r="29" ht="27.75" customHeight="1" spans="1:12">
       <c r="A29" s="41"/>
-      <c r="B29" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="B29" s="36"/>
       <c r="C29" s="42"/>
       <c r="D29" s="36" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F29" s="47"/>
-      <c r="G29" s="39">
-        <v>1</v>
-      </c>
+      <c r="G29" s="39"/>
       <c r="H29" s="44" t="s">
         <v>17</v>
       </c>
@@ -2968,16 +2969,18 @@
         <v>44513</v>
       </c>
     </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A30" s="41"/>
-      <c r="B30" s="36"/>
+    <row r="30" ht="27.75" customHeight="1" spans="1:13">
+      <c r="A30" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="42"/>
       <c r="D30" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>37</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E30" s="37"/>
       <c r="F30" s="47"/>
       <c r="G30" s="39">
         <v>1</v>
@@ -2985,24 +2988,28 @@
       <c r="H30" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="I30" s="29">
+        <v>1</v>
+      </c>
       <c r="J30" s="51">
         <v>1</v>
       </c>
       <c r="K30" s="52"/>
       <c r="L30" s="31">
-        <v>44513</v>
-      </c>
-    </row>
-    <row r="31" ht="27.75" customHeight="1" spans="1:12">
+        <v>44511</v>
+      </c>
+      <c r="M30" s="31">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="31" ht="27.75" customHeight="1" spans="1:13">
       <c r="A31" s="41"/>
       <c r="B31" s="36"/>
       <c r="C31" s="42"/>
       <c r="D31" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E31" s="37"/>
       <c r="F31" s="47"/>
       <c r="G31" s="39">
         <v>1</v>
@@ -3010,27 +3017,35 @@
       <c r="H31" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="I31" s="29">
+        <v>1</v>
+      </c>
       <c r="J31" s="51">
         <v>1</v>
       </c>
       <c r="K31" s="52"/>
       <c r="L31" s="31">
-        <v>44513</v>
+        <v>44511</v>
+      </c>
+      <c r="M31" s="31">
+        <v>44512</v>
       </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="1:12">
       <c r="A32" s="41"/>
-      <c r="B32" s="36"/>
+      <c r="B32" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="C32" s="42"/>
       <c r="D32" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="44" t="s">
         <v>17</v>
@@ -3043,59 +3058,65 @@
         <v>44513</v>
       </c>
     </row>
-    <row r="33" ht="27.75" customHeight="1" spans="1:11">
+    <row r="33" ht="27.75" customHeight="1" spans="1:12">
       <c r="A33" s="41"/>
       <c r="B33" s="36"/>
       <c r="C33" s="42"/>
       <c r="D33" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" s="47"/>
       <c r="G33" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="51"/>
+      <c r="J33" s="51">
+        <v>1</v>
+      </c>
       <c r="K33" s="52"/>
-    </row>
-    <row r="34" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L33" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="34" ht="27.75" customHeight="1" spans="1:12">
       <c r="A34" s="41"/>
       <c r="B34" s="36"/>
       <c r="C34" s="42"/>
       <c r="D34" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F34" s="47"/>
       <c r="G34" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="51"/>
+      <c r="J34" s="51">
+        <v>1</v>
+      </c>
       <c r="K34" s="52"/>
-    </row>
-    <row r="35" ht="27.75" customHeight="1" spans="1:11">
-      <c r="A35" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>53</v>
-      </c>
+      <c r="L34" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="35" ht="27.75" customHeight="1" spans="1:12">
+      <c r="A35" s="41"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="42"/>
       <c r="D35" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="F35" s="47"/>
       <c r="G35" s="39">
@@ -3104,22 +3125,27 @@
       <c r="H35" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="51"/>
+      <c r="J35" s="51">
+        <v>1</v>
+      </c>
       <c r="K35" s="52"/>
+      <c r="L35" s="31">
+        <v>44513</v>
+      </c>
     </row>
     <row r="36" ht="27.75" customHeight="1" spans="1:11">
       <c r="A36" s="41"/>
       <c r="B36" s="36"/>
       <c r="C36" s="42"/>
       <c r="D36" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>17</v>
@@ -3127,21 +3153,19 @@
       <c r="J36" s="51"/>
       <c r="K36" s="52"/>
     </row>
-    <row r="37" ht="24.75" customHeight="1" spans="1:11">
+    <row r="37" ht="27.75" customHeight="1" spans="1:11">
       <c r="A37" s="41"/>
-      <c r="B37" s="36" t="s">
-        <v>54</v>
-      </c>
+      <c r="B37" s="36"/>
       <c r="C37" s="42"/>
       <c r="D37" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37" s="44" t="s">
         <v>17</v>
@@ -3149,15 +3173,19 @@
       <c r="J37" s="51"/>
       <c r="K37" s="52"/>
     </row>
-    <row r="38" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A38" s="41"/>
-      <c r="B38" s="36"/>
+    <row r="38" ht="27.75" customHeight="1" spans="1:11">
+      <c r="A38" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="C38" s="42"/>
       <c r="D38" s="36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="39">
@@ -3169,17 +3197,15 @@
       <c r="J38" s="51"/>
       <c r="K38" s="52"/>
     </row>
-    <row r="39" ht="24.75" customHeight="1" spans="1:11">
+    <row r="39" ht="27.75" customHeight="1" spans="1:11">
       <c r="A39" s="41"/>
-      <c r="B39" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="B39" s="36"/>
       <c r="C39" s="42"/>
       <c r="D39" s="36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="39">
@@ -3193,13 +3219,15 @@
     </row>
     <row r="40" ht="24.75" customHeight="1" spans="1:11">
       <c r="A40" s="41"/>
-      <c r="B40" s="37"/>
+      <c r="B40" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="C40" s="42"/>
       <c r="D40" s="36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F40" s="47"/>
       <c r="G40" s="39">
@@ -3213,15 +3241,13 @@
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:11">
       <c r="A41" s="41"/>
-      <c r="B41" s="41" t="s">
-        <v>56</v>
-      </c>
+      <c r="B41" s="36"/>
       <c r="C41" s="42"/>
       <c r="D41" s="36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="39">
@@ -3235,13 +3261,15 @@
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:11">
       <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="B42" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="C42" s="42"/>
       <c r="D42" s="36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="39">
@@ -3254,22 +3282,18 @@
       <c r="K42" s="52"/>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A43" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>58</v>
-      </c>
+      <c r="A43" s="41"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="42"/>
       <c r="D43" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F43" s="47"/>
       <c r="G43" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="44" t="s">
         <v>17</v>
@@ -3279,17 +3303,19 @@
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:11">
       <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
+      <c r="B44" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="C44" s="42"/>
       <c r="D44" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="44" t="s">
         <v>17</v>
@@ -3302,14 +3328,14 @@
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
       <c r="D45" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>17</v>
@@ -3318,18 +3344,22 @@
       <c r="K45" s="52"/>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="C46" s="42"/>
       <c r="D46" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="44" t="s">
         <v>17</v>
@@ -3342,14 +3372,14 @@
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
       <c r="D47" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F47" s="47"/>
       <c r="G47" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" s="44" t="s">
         <v>17</v>
@@ -3362,14 +3392,14 @@
       <c r="B48" s="41"/>
       <c r="C48" s="42"/>
       <c r="D48" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F48" s="47"/>
       <c r="G48" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>17</v>
@@ -3379,19 +3409,17 @@
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:11">
       <c r="A49" s="41"/>
-      <c r="B49" s="41" t="s">
-        <v>59</v>
-      </c>
+      <c r="B49" s="41"/>
       <c r="C49" s="42"/>
       <c r="D49" s="36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F49" s="47"/>
       <c r="G49" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="44" t="s">
         <v>17</v>
@@ -3404,14 +3432,14 @@
       <c r="B50" s="41"/>
       <c r="C50" s="42"/>
       <c r="D50" s="36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F50" s="47"/>
       <c r="G50" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" s="44" t="s">
         <v>17</v>
@@ -3424,14 +3452,14 @@
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
       <c r="D51" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51" s="44" t="s">
         <v>17</v>
@@ -3441,17 +3469,19 @@
     </row>
     <row r="52" ht="24.75" customHeight="1" spans="1:11">
       <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
+      <c r="B52" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="C52" s="42"/>
       <c r="D52" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F52" s="47"/>
       <c r="G52" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="44" t="s">
         <v>17</v>
@@ -3464,14 +3494,14 @@
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
       <c r="D53" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F53" s="47"/>
       <c r="G53" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>17</v>
@@ -3484,14 +3514,14 @@
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
       <c r="D54" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F54" s="47"/>
       <c r="G54" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" s="44" t="s">
         <v>17</v>
@@ -3501,19 +3531,17 @@
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:11">
       <c r="A55" s="41"/>
-      <c r="B55" s="41" t="s">
-        <v>60</v>
-      </c>
+      <c r="B55" s="41"/>
       <c r="C55" s="42"/>
       <c r="D55" s="36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>17</v>
@@ -3526,14 +3554,14 @@
       <c r="B56" s="41"/>
       <c r="C56" s="42"/>
       <c r="D56" s="36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="44" t="s">
         <v>17</v>
@@ -3546,14 +3574,14 @@
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
       <c r="D57" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F57" s="47"/>
       <c r="G57" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" s="44" t="s">
         <v>17</v>
@@ -3563,17 +3591,19 @@
     </row>
     <row r="58" ht="24.75" customHeight="1" spans="1:11">
       <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
+      <c r="B58" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="C58" s="42"/>
       <c r="D58" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F58" s="47"/>
       <c r="G58" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="44" t="s">
         <v>17</v>
@@ -3586,14 +3616,14 @@
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
       <c r="D59" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F59" s="47"/>
       <c r="G59" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" s="44" t="s">
         <v>17</v>
@@ -3606,14 +3636,14 @@
       <c r="B60" s="41"/>
       <c r="C60" s="42"/>
       <c r="D60" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F60" s="47"/>
       <c r="G60" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" s="44" t="s">
         <v>17</v>
@@ -3623,19 +3653,17 @@
     </row>
     <row r="61" ht="24.75" customHeight="1" spans="1:11">
       <c r="A61" s="41"/>
-      <c r="B61" s="41" t="s">
-        <v>61</v>
-      </c>
+      <c r="B61" s="41"/>
       <c r="C61" s="42"/>
       <c r="D61" s="36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F61" s="47"/>
       <c r="G61" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="44" t="s">
         <v>17</v>
@@ -3648,14 +3676,14 @@
       <c r="B62" s="41"/>
       <c r="C62" s="42"/>
       <c r="D62" s="36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F62" s="47"/>
       <c r="G62" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="44" t="s">
         <v>17</v>
@@ -3668,14 +3696,14 @@
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
       <c r="D63" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F63" s="47"/>
       <c r="G63" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" s="44" t="s">
         <v>17</v>
@@ -3685,17 +3713,19 @@
     </row>
     <row r="64" ht="24.75" customHeight="1" spans="1:11">
       <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
+      <c r="B64" s="41" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" s="42"/>
       <c r="D64" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F64" s="47"/>
       <c r="G64" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="44" t="s">
         <v>17</v>
@@ -3708,14 +3738,14 @@
       <c r="B65" s="41"/>
       <c r="C65" s="42"/>
       <c r="D65" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F65" s="47"/>
       <c r="G65" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="44" t="s">
         <v>17</v>
@@ -3728,14 +3758,14 @@
       <c r="B66" s="41"/>
       <c r="C66" s="42"/>
       <c r="D66" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F66" s="47"/>
       <c r="G66" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" s="44" t="s">
         <v>17</v>
@@ -3744,22 +3774,18 @@
       <c r="K66" s="52"/>
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A67" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>62</v>
-      </c>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="42"/>
       <c r="D67" s="36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F67" s="47"/>
       <c r="G67" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="44" t="s">
         <v>17</v>
@@ -3769,17 +3795,17 @@
     </row>
     <row r="68" ht="24.75" customHeight="1" spans="1:11">
       <c r="A68" s="41"/>
-      <c r="B68" s="36"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="42"/>
       <c r="D68" s="36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F68" s="47"/>
       <c r="G68" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" s="44" t="s">
         <v>17</v>
@@ -3789,17 +3815,17 @@
     </row>
     <row r="69" ht="24.75" customHeight="1" spans="1:11">
       <c r="A69" s="41"/>
-      <c r="B69" s="36"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="42"/>
       <c r="D69" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F69" s="47"/>
       <c r="G69" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" s="44" t="s">
         <v>17</v>
@@ -3808,18 +3834,22 @@
       <c r="K69" s="52"/>
     </row>
     <row r="70" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A70" s="41"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="C70" s="42"/>
       <c r="D70" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F70" s="47"/>
       <c r="G70" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="44" t="s">
         <v>17</v>
@@ -3832,14 +3862,14 @@
       <c r="B71" s="36"/>
       <c r="C71" s="42"/>
       <c r="D71" s="36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F71" s="47"/>
       <c r="G71" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" s="44" t="s">
         <v>17</v>
@@ -3852,14 +3882,14 @@
       <c r="B72" s="36"/>
       <c r="C72" s="42"/>
       <c r="D72" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F72" s="47"/>
       <c r="G72" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H72" s="44" t="s">
         <v>17</v>
@@ -3868,21 +3898,17 @@
       <c r="K72" s="52"/>
     </row>
     <row r="73" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A73" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>64</v>
-      </c>
+      <c r="A73" s="41"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="42"/>
       <c r="D73" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="F73" s="47"/>
-      <c r="G73" s="54">
+      <c r="G73" s="39">
         <v>2</v>
       </c>
       <c r="H73" s="44" t="s">
@@ -3892,53 +3918,225 @@
       <c r="K73" s="52"/>
     </row>
     <row r="74" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A74" s="55"/>
-      <c r="B74" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F74" s="60"/>
-      <c r="G74" s="61">
+      <c r="A74" s="41"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="47"/>
+      <c r="G74" s="39">
         <v>3</v>
       </c>
-      <c r="H74" s="62" t="s">
+      <c r="H74" s="44" t="s">
         <v>17</v>
       </c>
       <c r="J74" s="51"/>
-      <c r="K74" s="61"/>
+      <c r="K74" s="52"/>
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A75" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="38" t="s">
-        <v>69</v>
+      <c r="A75" s="41"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="F75" s="47"/>
       <c r="G75" s="39">
+        <v>4</v>
+      </c>
+      <c r="H75" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="51"/>
+      <c r="K75" s="52"/>
+    </row>
+    <row r="76" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A76" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="42"/>
+      <c r="D76" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="47"/>
+      <c r="G76" s="54">
+        <v>2</v>
+      </c>
+      <c r="H76" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="51"/>
+      <c r="K76" s="52"/>
+    </row>
+    <row r="77" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A77" s="55"/>
+      <c r="B77" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61">
         <v>3</v>
       </c>
-      <c r="H75" s="40"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="65"/>
+      <c r="H77" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="51"/>
+      <c r="K77" s="61"/>
+    </row>
+    <row r="78" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A78" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="64"/>
+      <c r="D78" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78" s="47"/>
+      <c r="G78" s="39">
+        <v>3</v>
+      </c>
+      <c r="H78" s="40"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="65"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="I26:I28">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="I26:I31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1015770d-4a94-4d8e-b038-6a69acd55383}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{92da153f-56f8-4d70-bb5c-ec1e7e0899e2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bdfeacfd-7867-4ef3-b86b-e77d236af023}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{84cf74e2-528d-4fd1-ac55-eea2e202955f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c2876c75-b80e-4f0c-b706-4f5a90f2c3a4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97dc8a70-593d-4728-9004-fff949af3b40}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9f08c88c-8524-4308-a0e2-de673b6b5331}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{233e6e56-a1b0-446e-9ba6-c1bf4b6e7944}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cfc4bbbe-0403-452b-a7cf-ec7d817a149a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -3946,7 +4144,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52f704dc-f851-4de6-b26f-aca9f48dd71b}</x14:id>
+          <x14:id>{773e9114-1815-493a-a36d-18a7496f828c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3958,11 +4156,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ea524ff2-a62c-431f-8cf9-34fc5baf37a5}</x14:id>
+          <x14:id>{c859ced4-190a-435b-8d2e-80f98235d135}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -3970,11 +4168,109 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{889ea6b6-9824-48fa-b132-7566394197c2}</x14:id>
+          <x14:id>{331188ae-86e9-48f5-b758-ab182a411065}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I32:I1048576">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6ab76c7c-fb0e-4294-9555-29cd983b2858}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6cfab164-5924-4b0d-8835-5e946c3756fb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3ea226c9-19cc-465b-9874-80686ba2df9c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5252f532-688a-480e-8d32-19de4c0f36fa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18679a91-1ae4-4877-acce-a30a39df65ee}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7519a2eb-9995-4000-b993-92be7be531da}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3473c1c9-7b78-4381-be50-e56b452667ed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3ed0efdb-321e-4aa4-a7e1-28ef267b4866}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -3982,109 +4278,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8679ab27-86b7-45ce-b6d6-1d290dc00f3c}</x14:id>
+          <x14:id>{ca3a6afd-dbc3-4c7a-9ccd-5003a65247e9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78fce2e1-609d-4556-a4e0-8dcea62d3f85}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{501c4e8a-fa92-4209-bea1-b06e8b0f279a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ecd1cc17-ed64-4342-9f9f-2528c3dfe100}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7815561-bb60-48c2-9da2-8609d351a4c6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2085cba3-0536-494c-a7a9-c09ad85e586a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92d00ea9-b9c5-4de4-9e11-87294a7a363e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{791e1d97-01ac-4be8-8086-3cbbd7366cce}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9a4141a2-a5f5-474f-b400-06f973f9b52a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I29:I1048576">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4092,7 +4290,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7202d38-a16d-41c8-9a6d-77e34986edce}</x14:id>
+          <x14:id>{68479a16-126f-44c2-b57a-15c30f838cff}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4104,11 +4302,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bfb5ac8-3a38-40c2-9fc5-c54ed3536158}</x14:id>
+          <x14:id>{8b7131f2-8c12-4233-b993-a92f3d85bb0f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4116,115 +4314,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9eaf4f82-9dc4-494a-b701-0fc83ec3e561}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0789fe58-675e-4603-8ff0-e6329f2d4a81}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e04dd8a6-911d-4d58-a526-21b648aa3af8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef97183c-659b-4a65-8283-1eb03541b8fb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d715c16e-759c-438d-9887-9739dee0b0f4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da26d0cf-8b05-4a0f-bfd5-35d1aefa7269}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f6f5c1d-e975-4bad-8819-3652e74f9bb4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b78eabc0-9e0d-4bd6-83e0-11aa5606094a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ac5d0f9-91fd-4789-9f05-a067deed2a5e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da36926b-daba-46fb-bfac-0561e3027556}</x14:id>
+          <x14:id>{9d4a5fbf-b3c3-4dfa-b3af-166622554a25}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4235,45 +4325,39 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{52f704dc-f851-4de6-b26f-aca9f48dd71b}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="percent">
+          <x14:cfRule type="dataBar" id="{1015770d-4a94-4d8e-b038-6a69acd55383}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{92da153f-56f8-4d70-bb5c-ec1e7e0899e2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ea524ff2-a62c-431f-8cf9-34fc5baf37a5}">
-            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+          <x14:cfRule type="dataBar" id="{bdfeacfd-7867-4ef3-b86b-e77d236af023}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
+              <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{889ea6b6-9824-48fa-b132-7566394197c2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8679ab27-86b7-45ce-b6d6-1d290dc00f3c}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{78fce2e1-609d-4556-a4e0-8dcea62d3f85}">
+          <x14:cfRule type="dataBar" id="{84cf74e2-528d-4fd1-ac55-eea2e202955f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4285,15 +4369,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{501c4e8a-fa92-4209-bea1-b06e8b0f279a}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+          <x14:cfRule type="dataBar" id="{c2876c75-b80e-4f0c-b706-4f5a90f2c3a4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ecd1cc17-ed64-4342-9f9f-2528c3dfe100}">
+          <x14:cfRule type="dataBar" id="{97dc8a70-593d-4728-9004-fff949af3b40}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4305,15 +4389,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b7815561-bb60-48c2-9da2-8609d351a4c6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+          <x14:cfRule type="dataBar" id="{9f08c88c-8524-4308-a0e2-de673b6b5331}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2085cba3-0536-494c-a7a9-c09ad85e586a}">
+          <x14:cfRule type="dataBar" id="{233e6e56-a1b0-446e-9ba6-c1bf4b6e7944}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4325,15 +4409,60 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{92d00ea9-b9c5-4de4-9e11-87294a7a363e}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+          <x14:cfRule type="dataBar" id="{cfc4bbbe-0403-452b-a7cf-ec7d817a149a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{773e9114-1815-493a-a36d-18a7496f828c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c859ced4-190a-435b-8d2e-80f98235d135}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{331188ae-86e9-48f5-b758-ab182a411065}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I26:I31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6ab76c7c-fb0e-4294-9555-29cd983b2858}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{791e1d97-01ac-4be8-8086-3cbbd7366cce}">
+          <x14:cfRule type="dataBar" id="{6cfab164-5924-4b0d-8835-5e946c3756fb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4345,60 +4474,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9a4141a2-a5f5-474f-b400-06f973f9b52a}">
+          <x14:cfRule type="dataBar" id="{3ea226c9-19cc-465b-9874-80686ba2df9c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I26:I28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b7202d38-a16d-41c8-9a6d-77e34986edce}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8bfb5ac8-3a38-40c2-9fc5-c54ed3536158}">
-            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9eaf4f82-9dc4-494a-b701-0fc83ec3e561}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0789fe58-675e-4603-8ff0-e6329f2d4a81}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e04dd8a6-911d-4d58-a526-21b648aa3af8}">
+          <x14:cfRule type="dataBar" id="{5252f532-688a-480e-8d32-19de4c0f36fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4410,15 +4494,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ef97183c-659b-4a65-8283-1eb03541b8fb}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+          <x14:cfRule type="dataBar" id="{18679a91-1ae4-4877-acce-a30a39df65ee}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d715c16e-759c-438d-9887-9739dee0b0f4}">
+          <x14:cfRule type="dataBar" id="{7519a2eb-9995-4000-b993-92be7be531da}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4430,15 +4514,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{da26d0cf-8b05-4a0f-bfd5-35d1aefa7269}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+          <x14:cfRule type="dataBar" id="{3473c1c9-7b78-4381-be50-e56b452667ed}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5f6f5c1d-e975-4bad-8819-3652e74f9bb4}">
+          <x14:cfRule type="dataBar" id="{3ed0efdb-321e-4aa4-a7e1-28ef267b4866}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4450,39 +4534,45 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b78eabc0-9e0d-4bd6-83e0-11aa5606094a}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor indexed="65"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0ac5d0f9-91fd-4789-9f05-a067deed2a5e}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
+          <x14:cfRule type="dataBar" id="{ca3a6afd-dbc3-4c7a-9ccd-5003a65247e9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{da36926b-daba-46fb-bfac-0561e3027556}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
-              <x14:cfvo type="num">
+          <x14:cfRule type="dataBar" id="{68479a16-126f-44c2-b57a-15c30f838cff}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
               </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor indexed="65"/>
+              <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25 I29:I1048576</xm:sqref>
+          <x14:cfRule type="dataBar" id="{8b7131f2-8c12-4233-b993-a92f3d85bb0f}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9d4a5fbf-b3c3-4dfa-b3af-166622554a25}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I2:I25 I32:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4531,31 +4621,31 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O1" s="24" t="s">
         <v>8</v>
@@ -4564,7 +4654,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R1" s="24" t="s">
         <v>11</v>
@@ -4575,25 +4665,25 @@
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6">
         <v>544</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -4617,12 +4707,12 @@
         <v>550</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4638,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -4648,12 +4738,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -4669,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -4681,13 +4771,13 @@
         <v>593</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E5" s="8">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -4710,14 +4800,14 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -4739,14 +4829,14 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4756,7 +4846,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="10"/>
@@ -4768,14 +4858,14 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4797,14 +4887,14 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4814,7 +4904,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="10"/>
@@ -4826,14 +4916,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -4855,14 +4945,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -4884,14 +4974,14 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -4901,7 +4991,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="10"/>
@@ -4910,21 +5000,21 @@
     </row>
     <row r="13" ht="24.75" customHeight="1" spans="1:19">
       <c r="A13" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -4940,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -4952,16 +5042,16 @@
         <v>357</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -4983,22 +5073,22 @@
     <row r="15" ht="24.75" customHeight="1" spans="1:19">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C15" s="13">
         <v>563</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -5012,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -5020,19 +5110,19 @@
     <row r="16" ht="24.75" customHeight="1" spans="1:19">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C16" s="11">
         <v>622</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -5053,22 +5143,22 @@
     <row r="17" ht="47.25" customHeight="1" spans="1:19">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C17" s="11">
         <v>569</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -5084,7 +5174,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -5096,16 +5186,16 @@
         <v>580</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -5121,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -5133,16 +5223,16 @@
         <v>581</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -5158,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -5170,16 +5260,16 @@
         <v>623</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -5203,13 +5293,13 @@
         <v>625</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
@@ -5230,19 +5320,19 @@
     <row r="22" ht="24.75" customHeight="1" spans="1:19">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C22" s="11">
         <v>582</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
@@ -5267,13 +5357,13 @@
         <v>620</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -5298,13 +5388,13 @@
         <v>621</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
@@ -5324,25 +5414,25 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:19">
       <c r="A25" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5364,22 +5454,22 @@
     <row r="26" ht="27" customHeight="1" spans="1:19">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E26" s="8">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5395,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -5403,20 +5493,20 @@
     <row r="27" ht="27" customHeight="1" spans="1:19">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E27" s="8">
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -5439,21 +5529,21 @@
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:19">
       <c r="A28" s="4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E28" s="8">
         <v>3</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -5477,16 +5567,16 @@
       <c r="B29" s="9"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E29" s="8">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -5505,23 +5595,23 @@
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="1:19">
       <c r="A30" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="18" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E30" s="8">
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -5544,25 +5634,25 @@
     </row>
     <row r="31" ht="25.5" customHeight="1" spans="1:19">
       <c r="A31" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C31" s="11">
         <v>590</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E31" s="8">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -5592,16 +5682,16 @@
         <v>591</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -5631,16 +5721,16 @@
         <v>589</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -5670,16 +5760,16 @@
         <v>588</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -5703,16 +5793,16 @@
         <v>587</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -5735,22 +5825,22 @@
     </row>
     <row r="36" ht="25.5" customHeight="1" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
@@ -5775,13 +5865,13 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
@@ -5806,13 +5896,13 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="19" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
@@ -5837,13 +5927,13 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="19" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E39" s="8">
         <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
@@ -5868,13 +5958,13 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E40" s="8">
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
@@ -5901,13 +5991,13 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="19" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E41" s="8">
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
@@ -5927,20 +6017,20 @@
     </row>
     <row r="42" ht="25.5" customHeight="1" spans="1:19">
       <c r="A42" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="11">
         <v>584</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
@@ -5967,13 +6057,13 @@
         <v>597</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E43" s="8">
         <v>3</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
@@ -5993,23 +6083,23 @@
     </row>
     <row r="44" ht="25.5" customHeight="1" spans="1:19">
       <c r="A44" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="11">
         <v>637</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E44" s="8">
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -6025,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="R44" s="27">
         <v>44501</v>
@@ -6036,23 +6126,23 @@
     </row>
     <row r="45" ht="25.5" customHeight="1" spans="1:19">
       <c r="A45" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="11">
         <v>592</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E45" s="8">
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -6068,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
@@ -6080,16 +6170,16 @@
         <v>619</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -6103,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
@@ -6113,13 +6203,13 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E47" s="8">
         <v>2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
@@ -6139,25 +6229,25 @@
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -6178,19 +6268,19 @@
       <c r="A49" s="4"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -6213,7 +6303,7 @@
     </row>
     <row r="52" customHeight="1" spans="2:4">
       <c r="B52" s="22" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -6225,7 +6315,7 @@
     </row>
     <row r="54" customHeight="1" spans="2:4">
       <c r="B54" s="23" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="207">
   <si>
     <t>模块</t>
   </si>
@@ -183,6 +183,30 @@
   </si>
   <si>
     <t>测试</t>
+  </si>
+  <si>
+    <t>MQ服务</t>
+  </si>
+  <si>
+    <t>MQ中间件搭建</t>
+  </si>
+  <si>
+    <t>使用RocketMQ搭建实时消息服务</t>
+  </si>
+  <si>
+    <t>MQ消费者</t>
+  </si>
+  <si>
+    <t>开发消息消费者功能</t>
+  </si>
+  <si>
+    <t>MQ生产者</t>
+  </si>
+  <si>
+    <t>开发消息生产者功能</t>
+  </si>
+  <si>
+    <t>测试功能</t>
   </si>
   <si>
     <t>权限控制</t>
@@ -623,9 +647,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -702,14 +726,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -723,14 +763,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1265BE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -767,28 +838,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF1265BE"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -802,37 +857,6 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -877,6 +901,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -889,7 +949,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,19 +1051,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,144 +1092,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,6 +1327,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1314,6 +1349,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,17 +1392,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,183 +1433,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="20">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="22">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="21">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="23">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="21">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="20">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="19">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="24">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="26">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="14" borderId="0">
+    <xf numFmtId="10" fontId="0" fillId="37" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2114,12 +2138,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -2969,22 +2993,20 @@
         <v>44513</v>
       </c>
     </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:13">
+    <row r="30" ht="27.75" customHeight="1" spans="1:12">
       <c r="A30" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>56</v>
-      </c>
+      <c r="B30" s="36"/>
       <c r="C30" s="42"/>
       <c r="D30" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="37"/>
       <c r="F30" s="47"/>
-      <c r="G30" s="39">
-        <v>1</v>
-      </c>
+      <c r="G30" s="39"/>
       <c r="H30" s="44" t="s">
         <v>17</v>
       </c>
@@ -2998,22 +3020,19 @@
       <c r="L30" s="31">
         <v>44511</v>
       </c>
-      <c r="M30" s="31">
-        <v>44512</v>
-      </c>
-    </row>
-    <row r="31" ht="27.75" customHeight="1" spans="1:13">
+    </row>
+    <row r="31" ht="27.75" customHeight="1" spans="1:12">
       <c r="A31" s="41"/>
       <c r="B31" s="36"/>
       <c r="C31" s="42"/>
       <c r="D31" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="37"/>
+        <v>58</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" s="47"/>
-      <c r="G31" s="39">
-        <v>1</v>
-      </c>
+      <c r="G31" s="39"/>
       <c r="H31" s="44" t="s">
         <v>17</v>
       </c>
@@ -3027,28 +3046,24 @@
       <c r="L31" s="31">
         <v>44511</v>
       </c>
-      <c r="M31" s="31">
-        <v>44512</v>
-      </c>
     </row>
     <row r="32" ht="27.75" customHeight="1" spans="1:12">
       <c r="A32" s="41"/>
-      <c r="B32" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="B32" s="36"/>
       <c r="C32" s="42"/>
       <c r="D32" s="36" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F32" s="47"/>
-      <c r="G32" s="39">
-        <v>1</v>
-      </c>
+      <c r="G32" s="39"/>
       <c r="H32" s="44" t="s">
         <v>17</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
       </c>
       <c r="J32" s="51">
         <v>1</v>
@@ -3063,15 +3078,13 @@
       <c r="B33" s="36"/>
       <c r="C33" s="42"/>
       <c r="D33" s="36" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F33" s="47"/>
-      <c r="G33" s="39">
-        <v>1</v>
-      </c>
+      <c r="G33" s="39"/>
       <c r="H33" s="44" t="s">
         <v>17</v>
       </c>
@@ -3083,22 +3096,27 @@
         <v>44513</v>
       </c>
     </row>
-    <row r="34" ht="27.75" customHeight="1" spans="1:12">
-      <c r="A34" s="41"/>
-      <c r="B34" s="36"/>
+    <row r="34" ht="27.75" customHeight="1" spans="1:13">
+      <c r="A34" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="C34" s="42"/>
       <c r="D34" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>39</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E34" s="37"/>
       <c r="F34" s="47"/>
       <c r="G34" s="39">
         <v>1</v>
       </c>
       <c r="H34" s="44" t="s">
         <v>17</v>
+      </c>
+      <c r="I34" s="29">
+        <v>1</v>
       </c>
       <c r="J34" s="51">
         <v>1</v>
@@ -3107,23 +3125,27 @@
       <c r="L34" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="35" ht="27.75" customHeight="1" spans="1:12">
+      <c r="M34" s="31">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="35" ht="27.75" customHeight="1" spans="1:13">
       <c r="A35" s="41"/>
       <c r="B35" s="36"/>
       <c r="C35" s="42"/>
       <c r="D35" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E35" s="37"/>
       <c r="F35" s="47"/>
       <c r="G35" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>17</v>
+      </c>
+      <c r="I35" s="29">
+        <v>1</v>
       </c>
       <c r="J35" s="51">
         <v>1</v>
@@ -3132,80 +3154,96 @@
       <c r="L35" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="36" ht="27.75" customHeight="1" spans="1:11">
+      <c r="M35" s="31">
+        <v>44512</v>
+      </c>
+    </row>
+    <row r="36" ht="27.75" customHeight="1" spans="1:12">
       <c r="A36" s="41"/>
-      <c r="B36" s="36"/>
+      <c r="B36" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="C36" s="42"/>
       <c r="D36" s="36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="51"/>
+      <c r="J36" s="51">
+        <v>1</v>
+      </c>
       <c r="K36" s="52"/>
-    </row>
-    <row r="37" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L36" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="37" ht="27.75" customHeight="1" spans="1:12">
       <c r="A37" s="41"/>
       <c r="B37" s="36"/>
       <c r="C37" s="42"/>
       <c r="D37" s="36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="51"/>
+      <c r="J37" s="51">
+        <v>1</v>
+      </c>
       <c r="K37" s="52"/>
-    </row>
-    <row r="38" ht="27.75" customHeight="1" spans="1:11">
-      <c r="A38" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>60</v>
-      </c>
+      <c r="L37" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="38" ht="27.75" customHeight="1" spans="1:12">
+      <c r="A38" s="41"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="42"/>
       <c r="D38" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="51"/>
+      <c r="J38" s="51">
+        <v>1</v>
+      </c>
       <c r="K38" s="52"/>
-    </row>
-    <row r="39" ht="27.75" customHeight="1" spans="1:11">
+      <c r="L38" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="39" ht="27.75" customHeight="1" spans="1:12">
       <c r="A39" s="41"/>
       <c r="B39" s="36"/>
       <c r="C39" s="42"/>
       <c r="D39" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="39">
@@ -3214,24 +3252,27 @@
       <c r="H39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="51"/>
+      <c r="J39" s="51">
+        <v>1</v>
+      </c>
       <c r="K39" s="52"/>
-    </row>
-    <row r="40" ht="24.75" customHeight="1" spans="1:11">
+      <c r="L39" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="40" ht="27.75" customHeight="1" spans="1:11">
       <c r="A40" s="41"/>
-      <c r="B40" s="36" t="s">
-        <v>61</v>
-      </c>
+      <c r="B40" s="36"/>
       <c r="C40" s="42"/>
       <c r="D40" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>57</v>
+        <v>42</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="F40" s="47"/>
       <c r="G40" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="44" t="s">
         <v>17</v>
@@ -3239,19 +3280,19 @@
       <c r="J40" s="51"/>
       <c r="K40" s="52"/>
     </row>
-    <row r="41" ht="24.75" customHeight="1" spans="1:11">
+    <row r="41" ht="27.75" customHeight="1" spans="1:11">
       <c r="A41" s="41"/>
       <c r="B41" s="36"/>
       <c r="C41" s="42"/>
       <c r="D41" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>44</v>
+      <c r="E41" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H41" s="44" t="s">
         <v>17</v>
@@ -3259,17 +3300,19 @@
       <c r="J41" s="51"/>
       <c r="K41" s="52"/>
     </row>
-    <row r="42" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A42" s="41"/>
+    <row r="42" ht="27.75" customHeight="1" spans="1:11">
+      <c r="A42" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="B42" s="36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="36" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="39">
@@ -3281,9 +3324,9 @@
       <c r="J42" s="51"/>
       <c r="K42" s="52"/>
     </row>
-    <row r="43" ht="24.75" customHeight="1" spans="1:11">
+    <row r="43" ht="27.75" customHeight="1" spans="1:11">
       <c r="A43" s="41"/>
-      <c r="B43" s="37"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="42"/>
       <c r="D43" s="36" t="s">
         <v>44</v>
@@ -3303,15 +3346,15 @@
     </row>
     <row r="44" ht="24.75" customHeight="1" spans="1:11">
       <c r="A44" s="41"/>
-      <c r="B44" s="41" t="s">
-        <v>63</v>
+      <c r="B44" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="36" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="39">
@@ -3325,7 +3368,7 @@
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:11">
       <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="42"/>
       <c r="D45" s="36" t="s">
         <v>44</v>
@@ -3344,22 +3387,20 @@
       <c r="K45" s="52"/>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A46" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>65</v>
+      <c r="A46" s="41"/>
+      <c r="B46" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="44" t="s">
         <v>17</v>
@@ -3369,17 +3410,17 @@
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:11">
       <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="42"/>
       <c r="D47" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F47" s="47"/>
       <c r="G47" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="44" t="s">
         <v>17</v>
@@ -3389,17 +3430,19 @@
     </row>
     <row r="48" ht="24.75" customHeight="1" spans="1:11">
       <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
+      <c r="B48" s="41" t="s">
+        <v>71</v>
+      </c>
       <c r="C48" s="42"/>
       <c r="D48" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="F48" s="47"/>
       <c r="G48" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" s="44" t="s">
         <v>17</v>
@@ -3412,10 +3455,10 @@
       <c r="B49" s="41"/>
       <c r="C49" s="42"/>
       <c r="D49" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F49" s="47"/>
       <c r="G49" s="39">
@@ -3428,18 +3471,22 @@
       <c r="K49" s="52"/>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>73</v>
+      </c>
       <c r="C50" s="42"/>
       <c r="D50" s="36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F50" s="47"/>
       <c r="G50" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="44" t="s">
         <v>17</v>
@@ -3452,14 +3499,14 @@
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
       <c r="D51" s="36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" s="44" t="s">
         <v>17</v>
@@ -3469,15 +3516,13 @@
     </row>
     <row r="52" ht="24.75" customHeight="1" spans="1:11">
       <c r="A52" s="41"/>
-      <c r="B52" s="41" t="s">
-        <v>66</v>
-      </c>
+      <c r="B52" s="41"/>
       <c r="C52" s="42"/>
       <c r="D52" s="36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F52" s="47"/>
       <c r="G52" s="39">
@@ -3494,14 +3539,14 @@
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
       <c r="D53" s="36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F53" s="47"/>
       <c r="G53" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="44" t="s">
         <v>17</v>
@@ -3514,14 +3559,14 @@
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
       <c r="D54" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F54" s="47"/>
       <c r="G54" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="44" t="s">
         <v>17</v>
@@ -3534,14 +3579,14 @@
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
       <c r="D55" s="36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F55" s="47"/>
       <c r="G55" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55" s="44" t="s">
         <v>17</v>
@@ -3551,17 +3596,19 @@
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:11">
       <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
+      <c r="B56" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="C56" s="42"/>
       <c r="D56" s="36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" s="44" t="s">
         <v>17</v>
@@ -3574,14 +3621,14 @@
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
       <c r="D57" s="36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F57" s="47"/>
       <c r="G57" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57" s="44" t="s">
         <v>17</v>
@@ -3591,15 +3638,13 @@
     </row>
     <row r="58" ht="24.75" customHeight="1" spans="1:11">
       <c r="A58" s="41"/>
-      <c r="B58" s="41" t="s">
-        <v>67</v>
-      </c>
+      <c r="B58" s="41"/>
       <c r="C58" s="42"/>
       <c r="D58" s="36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F58" s="47"/>
       <c r="G58" s="39">
@@ -3616,14 +3661,14 @@
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
       <c r="D59" s="36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F59" s="47"/>
       <c r="G59" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="44" t="s">
         <v>17</v>
@@ -3636,14 +3681,14 @@
       <c r="B60" s="41"/>
       <c r="C60" s="42"/>
       <c r="D60" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F60" s="47"/>
       <c r="G60" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" s="44" t="s">
         <v>17</v>
@@ -3656,14 +3701,14 @@
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
       <c r="D61" s="36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F61" s="47"/>
       <c r="G61" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H61" s="44" t="s">
         <v>17</v>
@@ -3673,17 +3718,19 @@
     </row>
     <row r="62" ht="24.75" customHeight="1" spans="1:11">
       <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
+      <c r="B62" s="41" t="s">
+        <v>75</v>
+      </c>
       <c r="C62" s="42"/>
       <c r="D62" s="36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F62" s="47"/>
       <c r="G62" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="44" t="s">
         <v>17</v>
@@ -3696,14 +3743,14 @@
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
       <c r="D63" s="36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F63" s="47"/>
       <c r="G63" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63" s="44" t="s">
         <v>17</v>
@@ -3713,15 +3760,13 @@
     </row>
     <row r="64" ht="24.75" customHeight="1" spans="1:11">
       <c r="A64" s="41"/>
-      <c r="B64" s="41" t="s">
-        <v>68</v>
-      </c>
+      <c r="B64" s="41"/>
       <c r="C64" s="42"/>
       <c r="D64" s="36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F64" s="47"/>
       <c r="G64" s="39">
@@ -3738,14 +3783,14 @@
       <c r="B65" s="41"/>
       <c r="C65" s="42"/>
       <c r="D65" s="36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F65" s="47"/>
       <c r="G65" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="44" t="s">
         <v>17</v>
@@ -3758,14 +3803,14 @@
       <c r="B66" s="41"/>
       <c r="C66" s="42"/>
       <c r="D66" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F66" s="47"/>
       <c r="G66" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" s="44" t="s">
         <v>17</v>
@@ -3778,14 +3823,14 @@
       <c r="B67" s="41"/>
       <c r="C67" s="42"/>
       <c r="D67" s="36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F67" s="47"/>
       <c r="G67" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" s="44" t="s">
         <v>17</v>
@@ -3795,17 +3840,19 @@
     </row>
     <row r="68" ht="24.75" customHeight="1" spans="1:11">
       <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
+      <c r="B68" s="41" t="s">
+        <v>76</v>
+      </c>
       <c r="C68" s="42"/>
       <c r="D68" s="36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F68" s="47"/>
       <c r="G68" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" s="44" t="s">
         <v>17</v>
@@ -3818,14 +3865,14 @@
       <c r="B69" s="41"/>
       <c r="C69" s="42"/>
       <c r="D69" s="36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F69" s="47"/>
       <c r="G69" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H69" s="44" t="s">
         <v>17</v>
@@ -3834,18 +3881,14 @@
       <c r="K69" s="52"/>
     </row>
     <row r="70" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A70" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>69</v>
-      </c>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="42"/>
       <c r="D70" s="36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F70" s="47"/>
       <c r="G70" s="39">
@@ -3859,17 +3902,17 @@
     </row>
     <row r="71" ht="24.75" customHeight="1" spans="1:11">
       <c r="A71" s="41"/>
-      <c r="B71" s="36"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="42"/>
       <c r="D71" s="36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F71" s="47"/>
       <c r="G71" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" s="44" t="s">
         <v>17</v>
@@ -3879,17 +3922,17 @@
     </row>
     <row r="72" ht="24.75" customHeight="1" spans="1:11">
       <c r="A72" s="41"/>
-      <c r="B72" s="36"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="42"/>
       <c r="D72" s="36" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F72" s="47"/>
       <c r="G72" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" s="44" t="s">
         <v>17</v>
@@ -3899,17 +3942,17 @@
     </row>
     <row r="73" ht="24.75" customHeight="1" spans="1:11">
       <c r="A73" s="41"/>
-      <c r="B73" s="36"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="42"/>
       <c r="D73" s="36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F73" s="47"/>
       <c r="G73" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H73" s="44" t="s">
         <v>17</v>
@@ -3918,18 +3961,22 @@
       <c r="K73" s="52"/>
     </row>
     <row r="74" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A74" s="41"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="C74" s="42"/>
       <c r="D74" s="36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F74" s="47"/>
       <c r="G74" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" s="44" t="s">
         <v>17</v>
@@ -3942,14 +3989,14 @@
       <c r="B75" s="36"/>
       <c r="C75" s="42"/>
       <c r="D75" s="36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F75" s="47"/>
       <c r="G75" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" s="44" t="s">
         <v>17</v>
@@ -3958,22 +4005,18 @@
       <c r="K75" s="52"/>
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A76" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>70</v>
-      </c>
+      <c r="A76" s="41"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="42"/>
       <c r="D76" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="36" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="F76" s="47"/>
-      <c r="G76" s="54">
-        <v>2</v>
+      <c r="G76" s="39">
+        <v>1</v>
       </c>
       <c r="H76" s="44" t="s">
         <v>17</v>
@@ -3982,53 +4025,269 @@
       <c r="K76" s="52"/>
     </row>
     <row r="77" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A77" s="55"/>
-      <c r="B77" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61">
-        <v>3</v>
-      </c>
-      <c r="H77" s="62" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="39">
+        <v>2</v>
+      </c>
+      <c r="H77" s="44" t="s">
         <v>17</v>
       </c>
       <c r="J77" s="51"/>
-      <c r="K77" s="61"/>
+      <c r="K77" s="52"/>
     </row>
     <row r="78" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A78" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="64"/>
-      <c r="D78" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E78" s="38" t="s">
-        <v>75</v>
+      <c r="A78" s="41"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="F78" s="47"/>
       <c r="G78" s="39">
         <v>3</v>
       </c>
-      <c r="H78" s="40"/>
+      <c r="H78" s="44" t="s">
+        <v>17</v>
+      </c>
       <c r="J78" s="51"/>
-      <c r="K78" s="65"/>
+      <c r="K78" s="52"/>
+    </row>
+    <row r="79" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A79" s="41"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="47"/>
+      <c r="G79" s="39">
+        <v>4</v>
+      </c>
+      <c r="H79" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="51"/>
+      <c r="K79" s="52"/>
+    </row>
+    <row r="80" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A80" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="42"/>
+      <c r="D80" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="47"/>
+      <c r="G80" s="54">
+        <v>2</v>
+      </c>
+      <c r="H80" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="51"/>
+      <c r="K80" s="52"/>
+    </row>
+    <row r="81" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A81" s="55"/>
+      <c r="B81" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="60"/>
+      <c r="G81" s="61">
+        <v>3</v>
+      </c>
+      <c r="H81" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="51"/>
+      <c r="K81" s="61"/>
+    </row>
+    <row r="82" ht="24.75" customHeight="1" spans="1:11">
+      <c r="A82" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="64"/>
+      <c r="D82" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F82" s="47"/>
+      <c r="G82" s="39">
+        <v>3</v>
+      </c>
+      <c r="H82" s="40"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="65"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="I26:I31">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8a8f2a24-ba97-4f47-ab7e-6880d49240a4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d811f12a-4c0a-475a-842f-6672aeaa77e7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03a77b70-b12e-4ee6-b935-e2c28520f0d3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c6bbfe52-b739-4935-a70e-85faa556e365}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b02df7d3-f8d9-4e34-8a69-e369a89cd87a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c95fee22-165f-4e7f-8949-76779745caac}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d6f7343a-2681-49bb-bee8-cb3966709990}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2fa6e716-d8fb-4177-9c89-865e4664ecbb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f621fb71-e73a-482a-a9d6-459f98a2a3f2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f3d5f6e8-a174-4b12-8cb6-1c3c695763f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{675e4f21-27af-4ec9-b173-50c03f096a5d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4036,7 +4295,275 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1015770d-4a94-4d8e-b038-6a69acd55383}</x14:id>
+          <x14:id>{52a8492a-89b0-4fe8-bd9c-7244cfc380b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6b889b04-584e-4146-bbe7-404ab6872f4c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ae5ebc91-d6de-4c0f-84e4-7235754b28b1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{87fe263b-ecf7-4531-bde9-cf93cf4aa10d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8c340d3c-5778-4722-b2d1-0bc16abd6df1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f06b8c38-6397-4c76-ab1b-583f69bb9183}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5ec524a0-d3c6-4e44-921e-073b4a2f7fd6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e9b359cd-cfc6-485d-99e7-1509523240b0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2190538f-3daa-4790-aa42-927738ce7479}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a2b079d5-d385-4c9e-b5a0-38c26339fa6a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7bb7239e-0701-4a3f-8b3c-df02a4b60373}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04b60634-a94f-4644-9d7d-e23c001c40bd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0f1a87d9-b759-4648-a747-88a2bdcedd48}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7383f8b9-d8d0-4211-b79f-8140c6bb0df6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b68b679c-5735-4234-b343-7deefa3d071f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1e9c3760-4fac-490b-9a6b-ad45e4df0e24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7a3ae82d-8baf-4ea9-8817-a60f5efd4b4b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f715fd07-2714-4bd2-ad8a-d197d145a719}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9debc849-47e3-43df-bc2e-393463255c15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{743863f5-c64f-4da3-b203-b8c49ed8ab25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4f8aac11-b294-4a3a-a890-69510b6267d3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fae3759e-69e4-443c-bce2-b2b367077d4e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fb35a25a-a6cb-420b-9776-be07fe16860b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4048,11 +4575,49 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92da153f-56f8-4d70-bb5c-ec1e7e0899e2}</x14:id>
+          <x14:id>{9125877e-c4de-4908-acfa-53756c460c10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{137bbb8e-8375-43a5-b02c-666cd7db5ea2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I36:I1048576">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ff885901-ac36-41a3-b6d7-9afc3aea03ab}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{db758562-61b9-404c-a276-0e36d21a6d6f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4060,11 +4625,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bdfeacfd-7867-4ef3-b86b-e77d236af023}</x14:id>
+          <x14:id>{5f72edca-0dd7-4d85-9405-f8c69bb19f57}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4072,11 +4637,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84cf74e2-528d-4fd1-ac55-eea2e202955f}</x14:id>
+          <x14:id>{5a97e443-bfda-4cf1-9400-9f59b136755d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4084,11 +4649,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c2876c75-b80e-4f0c-b706-4f5a90f2c3a4}</x14:id>
+          <x14:id>{39e8eae4-bf7a-4454-be5f-903a18ca6f82}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4096,11 +4661,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97dc8a70-593d-4728-9004-fff949af3b40}</x14:id>
+          <x14:id>{545c7469-16bf-4f09-85d2-e62ca9aaac51}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4108,11 +4673,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9f08c88c-8524-4308-a0e2-de673b6b5331}</x14:id>
+          <x14:id>{4afeebcb-c834-4706-b750-381e6d8f53f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4120,11 +4685,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{233e6e56-a1b0-446e-9ba6-c1bf4b6e7944}</x14:id>
+          <x14:id>{0132cbda-89f3-4ac2-92ff-9b683cfab3a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4132,11 +4697,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cfc4bbbe-0403-452b-a7cf-ec7d817a149a}</x14:id>
+          <x14:id>{c727b7d3-f0bd-4988-956a-2a6d40eed8dd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4144,11 +4709,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{773e9114-1815-493a-a36d-18a7496f828c}</x14:id>
+          <x14:id>{005af301-f3c7-4835-8a0a-0f63b839ad5c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4156,11 +4721,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c859ced4-190a-435b-8d2e-80f98235d135}</x14:id>
+          <x14:id>{b0f1d1c9-1992-45be-9a08-3f74d479d60d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4168,13 +4733,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{331188ae-86e9-48f5-b758-ab182a411065}</x14:id>
+          <x14:id>{1cb56968-e397-4869-bbfc-99f4142968d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I32:I1048576">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="I26:I29 I33:I35">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4182,11 +4747,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ab76c7c-fb0e-4294-9555-29cd983b2858}</x14:id>
+          <x14:id>{a7a72bcf-d9f5-4741-a298-fc4d924e9e29}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4194,11 +4759,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6cfab164-5924-4b0d-8835-5e946c3756fb}</x14:id>
+          <x14:id>{9c30fb87-df09-4306-be6b-f317cd583255}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4206,11 +4771,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ea226c9-19cc-465b-9874-80686ba2df9c}</x14:id>
+          <x14:id>{cc8952fb-cbf3-4b83-b429-b6b9bf22a335}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4218,11 +4783,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5252f532-688a-480e-8d32-19de4c0f36fa}</x14:id>
+          <x14:id>{22ff9e8a-42d9-484b-a323-e29021195292}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4230,11 +4795,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18679a91-1ae4-4877-acce-a30a39df65ee}</x14:id>
+          <x14:id>{c93cb744-3df9-43d8-8380-1e8227a17820}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4242,11 +4807,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7519a2eb-9995-4000-b993-92be7be531da}</x14:id>
+          <x14:id>{b4912953-7c98-48a2-8728-dd8349ce0eaf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4254,11 +4819,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3473c1c9-7b78-4381-be50-e56b452667ed}</x14:id>
+          <x14:id>{a52f33d3-132e-4a35-ae4d-5a19d9a1f1b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4266,11 +4831,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ed0efdb-321e-4aa4-a7e1-28ef267b4866}</x14:id>
+          <x14:id>{f022ae3a-a2a6-4d92-a2fa-ec64f67d3a6c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4278,11 +4843,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca3a6afd-dbc3-4c7a-9ccd-5003a65247e9}</x14:id>
+          <x14:id>{37988bb2-5c80-496e-a2cf-a702ee25fc2f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4290,11 +4855,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68479a16-126f-44c2-b57a-15c30f838cff}</x14:id>
+          <x14:id>{dfcc0be4-a4d8-448f-a6e4-a2241b8281f5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4302,11 +4867,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8b7131f2-8c12-4233-b993-a92f3d85bb0f}</x14:id>
+          <x14:id>{1a96eaeb-a15a-472d-9d65-cf1322c62651}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4314,7 +4879,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d4a5fbf-b3c3-4dfa-b3af-166622554a25}</x14:id>
+          <x14:id>{d1fbb8ce-a6a8-49a7-a8fb-bc4d30723758}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4325,7 +4890,117 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1015770d-4a94-4d8e-b038-6a69acd55383}">
+          <x14:cfRule type="dataBar" id="{8a8f2a24-ba97-4f47-ab7e-6880d49240a4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d811f12a-4c0a-475a-842f-6672aeaa77e7}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{03a77b70-b12e-4ee6-b935-e2c28520f0d3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c6bbfe52-b739-4935-a70e-85faa556e365}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b02df7d3-f8d9-4e34-8a69-e369a89cd87a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c95fee22-165f-4e7f-8949-76779745caac}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d6f7343a-2681-49bb-bee8-cb3966709990}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2fa6e716-d8fb-4177-9c89-865e4664ecbb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{f621fb71-e73a-482a-a9d6-459f98a2a3f2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{f3d5f6e8-a174-4b12-8cb6-1c3c695763f4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{675e4f21-27af-4ec9-b173-50c03f096a5d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{52a8492a-89b0-4fe8-bd9c-7244cfc380b8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4337,7 +5012,108 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{92da153f-56f8-4d70-bb5c-ec1e7e0899e2}">
+          <xm:sqref>I30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6b889b04-584e-4146-bbe7-404ab6872f4c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ae5ebc91-d6de-4c0f-84e4-7235754b28b1}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{87fe263b-ecf7-4531-bde9-cf93cf4aa10d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8c340d3c-5778-4722-b2d1-0bc16abd6df1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{f06b8c38-6397-4c76-ab1b-583f69bb9183}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5ec524a0-d3c6-4e44-921e-073b4a2f7fd6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e9b359cd-cfc6-485d-99e7-1509523240b0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2190538f-3daa-4790-aa42-927738ce7479}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a2b079d5-d385-4c9e-b5a0-38c26339fa6a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7bb7239e-0701-4a3f-8b3c-df02a4b60373}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{04b60634-a94f-4644-9d7d-e23c001c40bd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4349,15 +5125,60 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bdfeacfd-7867-4ef3-b86b-e77d236af023}">
+          <x14:cfRule type="dataBar" id="{0f1a87d9-b759-4648-a747-88a2bdcedd48}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{84cf74e2-528d-4fd1-ac55-eea2e202955f}">
+          <xm:sqref>I31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7383f8b9-d8d0-4211-b79f-8140c6bb0df6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b68b679c-5735-4234-b343-7deefa3d071f}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1e9c3760-4fac-490b-9a6b-ad45e4df0e24}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7a3ae82d-8baf-4ea9-8817-a60f5efd4b4b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{f715fd07-2714-4bd2-ad8a-d197d145a719}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4369,15 +5190,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c2876c75-b80e-4f0c-b706-4f5a90f2c3a4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+          <x14:cfRule type="dataBar" id="{9debc849-47e3-43df-bc2e-393463255c15}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{97dc8a70-593d-4728-9004-fff949af3b40}">
+          <x14:cfRule type="dataBar" id="{743863f5-c64f-4da3-b203-b8c49ed8ab25}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4389,15 +5210,15 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9f08c88c-8524-4308-a0e2-de673b6b5331}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+          <x14:cfRule type="dataBar" id="{4f8aac11-b294-4a3a-a890-69510b6267d3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{233e6e56-a1b0-446e-9ba6-c1bf4b6e7944}">
+          <x14:cfRule type="dataBar" id="{fae3759e-69e4-443c-bce2-b2b367077d4e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4409,48 +5230,27 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cfc4bbbe-0403-452b-a7cf-ec7d817a149a}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
-              <x14:cfvo type="percent">
+          <x14:cfRule type="dataBar" id="{fb35a25a-a6cb-420b-9776-be07fe16860b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9125877e-c4de-4908-acfa-53756c460c10}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{773e9114-1815-493a-a36d-18a7496f828c}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c859ced4-190a-435b-8d2e-80f98235d135}">
-            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{331188ae-86e9-48f5-b758-ab182a411065}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I26:I31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ab76c7c-fb0e-4294-9555-29cd983b2858}">
+          <x14:cfRule type="dataBar" id="{137bbb8e-8375-43a5-b02c-666cd7db5ea2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4462,7 +5262,22 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6cfab164-5924-4b0d-8835-5e946c3756fb}">
+          <xm:sqref>I32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ff885901-ac36-41a3-b6d7-9afc3aea03ab}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{db758562-61b9-404c-a276-0e36d21a6d6f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -4474,7 +5289,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3ea226c9-19cc-465b-9874-80686ba2df9c}">
+          <x14:cfRule type="dataBar" id="{5f72edca-0dd7-4d85-9405-f8c69bb19f57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4482,7 +5297,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5252f532-688a-480e-8d32-19de4c0f36fa}">
+          <x14:cfRule type="dataBar" id="{5a97e443-bfda-4cf1-9400-9f59b136755d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4494,7 +5309,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{18679a91-1ae4-4877-acce-a30a39df65ee}">
+          <x14:cfRule type="dataBar" id="{39e8eae4-bf7a-4454-be5f-903a18ca6f82}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4502,7 +5317,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7519a2eb-9995-4000-b993-92be7be531da}">
+          <x14:cfRule type="dataBar" id="{545c7469-16bf-4f09-85d2-e62ca9aaac51}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4514,7 +5329,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3473c1c9-7b78-4381-be50-e56b452667ed}">
+          <x14:cfRule type="dataBar" id="{4afeebcb-c834-4706-b750-381e6d8f53f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4522,7 +5337,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3ed0efdb-321e-4aa4-a7e1-28ef267b4866}">
+          <x14:cfRule type="dataBar" id="{0132cbda-89f3-4ac2-92ff-9b683cfab3a6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4534,7 +5349,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ca3a6afd-dbc3-4c7a-9ccd-5003a65247e9}">
+          <x14:cfRule type="dataBar" id="{c727b7d3-f0bd-4988-956a-2a6d40eed8dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4544,7 +5359,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{68479a16-126f-44c2-b57a-15c30f838cff}">
+          <x14:cfRule type="dataBar" id="{005af301-f3c7-4835-8a0a-0f63b839ad5c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4554,7 +5369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8b7131f2-8c12-4233-b993-a92f3d85bb0f}">
+          <x14:cfRule type="dataBar" id="{b0f1d1c9-1992-45be-9a08-3f74d479d60d}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4562,7 +5377,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9d4a5fbf-b3c3-4dfa-b3af-166622554a25}">
+          <x14:cfRule type="dataBar" id="{1cb56968-e397-4869-bbfc-99f4142968d9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4572,7 +5387,132 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25 I32:I1048576</xm:sqref>
+          <xm:sqref>I2:I25 I36:I1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{a7a72bcf-d9f5-4741-a298-fc4d924e9e29}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9c30fb87-df09-4306-be6b-f317cd583255}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{cc8952fb-cbf3-4b83-b429-b6b9bf22a335}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{22ff9e8a-42d9-484b-a323-e29021195292}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c93cb744-3df9-43d8-8380-1e8227a17820}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b4912953-7c98-48a2-8728-dd8349ce0eaf}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a52f33d3-132e-4a35-ae4d-5a19d9a1f1b6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{f022ae3a-a2a6-4d92-a2fa-ec64f67d3a6c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{37988bb2-5c80-496e-a2cf-a702ee25fc2f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{dfcc0be4-a4d8-448f-a6e4-a2241b8281f5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1a96eaeb-a15a-472d-9d65-cf1322c62651}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d1fbb8ce-a6a8-49a7-a8fb-bc4d30723758}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I26:I29 I33:I35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4621,31 +5561,31 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O1" s="24" t="s">
         <v>8</v>
@@ -4654,7 +5594,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="R1" s="24" t="s">
         <v>11</v>
@@ -4665,25 +5605,25 @@
     </row>
     <row r="2" ht="27.75" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C2" s="6">
         <v>544</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -4707,12 +5647,12 @@
         <v>550</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -4728,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
@@ -4738,12 +5678,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -4759,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
@@ -4771,13 +5711,13 @@
         <v>593</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E5" s="8">
         <v>2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="10"/>
@@ -4800,14 +5740,14 @@
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -4829,14 +5769,14 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -4846,7 +5786,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="10"/>
@@ -4858,14 +5798,14 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -4887,14 +5827,14 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -4904,7 +5844,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="10"/>
@@ -4916,14 +5856,14 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -4945,14 +5885,14 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -4974,14 +5914,14 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -4991,7 +5931,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="10"/>
@@ -5000,21 +5940,21 @@
     </row>
     <row r="13" ht="24.75" customHeight="1" spans="1:19">
       <c r="A13" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -5030,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -5042,16 +5982,16 @@
         <v>357</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5073,22 +6013,22 @@
     <row r="15" ht="24.75" customHeight="1" spans="1:19">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C15" s="13">
         <v>563</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E15" s="8">
         <v>3</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -5102,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
@@ -5110,19 +6050,19 @@
     <row r="16" ht="24.75" customHeight="1" spans="1:19">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C16" s="11">
         <v>622</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
@@ -5143,22 +6083,22 @@
     <row r="17" ht="47.25" customHeight="1" spans="1:19">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C17" s="11">
         <v>569</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -5174,7 +6114,7 @@
         <v>0.8</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
@@ -5186,16 +6126,16 @@
         <v>580</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -5211,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
@@ -5223,16 +6163,16 @@
         <v>581</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -5248,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -5260,16 +6200,16 @@
         <v>623</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -5293,13 +6233,13 @@
         <v>625</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="10"/>
@@ -5320,19 +6260,19 @@
     <row r="22" ht="24.75" customHeight="1" spans="1:19">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C22" s="11">
         <v>582</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E22" s="8">
         <v>1</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
@@ -5357,13 +6297,13 @@
         <v>620</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E23" s="8">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
@@ -5388,13 +6328,13 @@
         <v>621</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E24" s="8">
         <v>1</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
@@ -5414,25 +6354,25 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:19">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -5454,22 +6394,22 @@
     <row r="26" ht="27" customHeight="1" spans="1:19">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E26" s="8">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5485,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -5493,20 +6433,20 @@
     <row r="27" ht="27" customHeight="1" spans="1:19">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E27" s="8">
         <v>1</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -5529,21 +6469,21 @@
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:19">
       <c r="A28" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E28" s="8">
         <v>3</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -5567,16 +6507,16 @@
       <c r="B29" s="9"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E29" s="8">
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -5595,23 +6535,23 @@
     </row>
     <row r="30" ht="24.75" customHeight="1" spans="1:19">
       <c r="A30" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="18" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E30" s="8">
         <v>1</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -5634,25 +6574,25 @@
     </row>
     <row r="31" ht="25.5" customHeight="1" spans="1:19">
       <c r="A31" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C31" s="11">
         <v>590</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E31" s="8">
         <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -5682,16 +6622,16 @@
         <v>591</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -5721,16 +6661,16 @@
         <v>589</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -5760,16 +6700,16 @@
         <v>588</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E34" s="8">
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -5793,16 +6733,16 @@
         <v>587</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E35" s="8">
         <v>1</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -5825,22 +6765,22 @@
     </row>
     <row r="36" ht="25.5" customHeight="1" spans="1:19">
       <c r="A36" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E36" s="8">
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
@@ -5865,13 +6805,13 @@
       <c r="B37" s="9"/>
       <c r="C37" s="11"/>
       <c r="D37" s="19" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
@@ -5896,13 +6836,13 @@
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="19" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E38" s="8">
         <v>1</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
@@ -5927,13 +6867,13 @@
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
       <c r="D39" s="19" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E39" s="8">
         <v>3</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
@@ -5958,13 +6898,13 @@
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E40" s="8">
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
@@ -5991,13 +6931,13 @@
       <c r="B41" s="9"/>
       <c r="C41" s="11"/>
       <c r="D41" s="19" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E41" s="8">
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
@@ -6017,20 +6957,20 @@
     </row>
     <row r="42" ht="25.5" customHeight="1" spans="1:19">
       <c r="A42" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="11">
         <v>584</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E42" s="8">
         <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
@@ -6057,13 +6997,13 @@
         <v>597</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E43" s="8">
         <v>3</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
@@ -6083,23 +7023,23 @@
     </row>
     <row r="44" ht="25.5" customHeight="1" spans="1:19">
       <c r="A44" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="11">
         <v>637</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E44" s="8">
         <v>1</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -6115,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="R44" s="27">
         <v>44501</v>
@@ -6126,23 +7066,23 @@
     </row>
     <row r="45" ht="25.5" customHeight="1" spans="1:19">
       <c r="A45" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="11">
         <v>592</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E45" s="8">
         <v>2</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -6158,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
@@ -6170,16 +7110,16 @@
         <v>619</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E46" s="8">
         <v>1</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -6193,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
@@ -6203,13 +7143,13 @@
       <c r="B47" s="9"/>
       <c r="C47" s="11"/>
       <c r="D47" s="19" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E47" s="8">
         <v>2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
@@ -6229,25 +7169,25 @@
     </row>
     <row r="48" ht="25.5" customHeight="1" spans="1:19">
       <c r="A48" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -6268,19 +7208,19 @@
       <c r="A49" s="4"/>
       <c r="B49" s="9"/>
       <c r="C49" s="11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -6303,7 +7243,7 @@
     </row>
     <row r="52" customHeight="1" spans="2:4">
       <c r="B52" s="22" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -6315,7 +7255,7 @@
     </row>
     <row r="54" customHeight="1" spans="2:4">
       <c r="B54" s="23" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -2141,9 +2141,9 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -2920,7 +2920,7 @@
       <c r="J26" s="51"/>
       <c r="K26" s="52"/>
     </row>
-    <row r="27" ht="27.75" customHeight="1" spans="1:12">
+    <row r="27" ht="27.75" customHeight="1" spans="1:13">
       <c r="A27" s="41" t="s">
         <v>48</v>
       </c>
@@ -2946,8 +2946,11 @@
       <c r="L27" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="28" ht="27.75" customHeight="1" spans="1:12">
+      <c r="M27" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="28" ht="27.75" customHeight="1" spans="1:13">
       <c r="A28" s="41"/>
       <c r="B28" s="36"/>
       <c r="C28" s="42"/>
@@ -2969,8 +2972,11 @@
       <c r="L28" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="29" ht="27.75" customHeight="1" spans="1:12">
+      <c r="M28" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="29" ht="27.75" customHeight="1" spans="1:13">
       <c r="A29" s="41"/>
       <c r="B29" s="36"/>
       <c r="C29" s="42"/>
@@ -2992,8 +2998,11 @@
       <c r="L29" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="30" ht="27.75" customHeight="1" spans="1:12">
+      <c r="M29" s="31">
+        <v>44513</v>
+      </c>
+    </row>
+    <row r="30" ht="27.75" customHeight="1" spans="1:13">
       <c r="A30" s="41" t="s">
         <v>55</v>
       </c>
@@ -3018,10 +3027,13 @@
       </c>
       <c r="K30" s="52"/>
       <c r="L30" s="31">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="31" ht="27.75" customHeight="1" spans="1:12">
+        <v>44513</v>
+      </c>
+      <c r="M30" s="31">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="31" ht="27.75" customHeight="1" spans="1:13">
       <c r="A31" s="41"/>
       <c r="B31" s="36"/>
       <c r="C31" s="42"/>
@@ -3044,10 +3056,13 @@
       </c>
       <c r="K31" s="52"/>
       <c r="L31" s="31">
-        <v>44511</v>
-      </c>
-    </row>
-    <row r="32" ht="27.75" customHeight="1" spans="1:12">
+        <v>44513</v>
+      </c>
+      <c r="M31" s="31">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="32" ht="27.75" customHeight="1" spans="1:13">
       <c r="A32" s="41"/>
       <c r="B32" s="36"/>
       <c r="C32" s="42"/>
@@ -3072,8 +3087,11 @@
       <c r="L32" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="33" ht="27.75" customHeight="1" spans="1:12">
+      <c r="M32" s="31">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="33" ht="27.75" customHeight="1" spans="1:13">
       <c r="A33" s="41"/>
       <c r="B33" s="36"/>
       <c r="C33" s="42"/>
@@ -3088,6 +3106,9 @@
       <c r="H33" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="I33" s="29">
+        <v>1</v>
+      </c>
       <c r="J33" s="51">
         <v>1</v>
       </c>
@@ -3095,6 +3116,9 @@
       <c r="L33" s="31">
         <v>44513</v>
       </c>
+      <c r="M33" s="31">
+        <v>44515</v>
+      </c>
     </row>
     <row r="34" ht="27.75" customHeight="1" spans="1:13">
       <c r="A34" s="41" t="s">
@@ -3123,7 +3147,7 @@
       </c>
       <c r="K34" s="52"/>
       <c r="L34" s="31">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="M34" s="31">
         <v>44512</v>
@@ -3152,7 +3176,7 @@
       </c>
       <c r="K35" s="52"/>
       <c r="L35" s="31">
-        <v>44513</v>
+        <v>44511</v>
       </c>
       <c r="M35" s="31">
         <v>44512</v>
@@ -3176,6 +3200,9 @@
       </c>
       <c r="H36" s="44" t="s">
         <v>17</v>
+      </c>
+      <c r="I36" s="29">
+        <v>1</v>
       </c>
       <c r="J36" s="51">
         <v>1</v>
@@ -3202,6 +3229,9 @@
       <c r="H37" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="I37" s="29">
+        <v>1</v>
+      </c>
       <c r="J37" s="51">
         <v>1</v>
       </c>
@@ -4155,7 +4185,7 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="I30">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4163,11 +4193,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a8f2a24-ba97-4f47-ab7e-6880d49240a4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
+          <x14:id>{b970f6f9-db31-40a3-8cf7-114399f7c82d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4175,11 +4205,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d811f12a-4c0a-475a-842f-6672aeaa77e7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
+          <x14:id>{02e3c668-53ea-467e-b3b6-610184c16666}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4187,11 +4217,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03a77b70-b12e-4ee6-b935-e2c28520f0d3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="33">
+          <x14:id>{73239988-a41d-42ec-ad2c-d7d5800d6b7e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4199,11 +4229,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c6bbfe52-b739-4935-a70e-85faa556e365}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+          <x14:id>{340f93a4-10b6-49b1-aadd-298eb4167be4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4211,11 +4241,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b02df7d3-f8d9-4e34-8a69-e369a89cd87a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
+          <x14:id>{8a714b4c-e155-4f44-ac93-02fea91d20fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4223,11 +4253,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c95fee22-165f-4e7f-8949-76779745caac}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
+          <x14:id>{7fb35638-138c-48ad-bde8-13b3a653ef12}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4235,11 +4265,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d6f7343a-2681-49bb-bee8-cb3966709990}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
+          <x14:id>{30895e6e-1b7a-449b-99bc-18b6740f6e29}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4247,11 +4277,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2fa6e716-d8fb-4177-9c89-865e4664ecbb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+          <x14:id>{71b4ae33-8150-4cee-ae63-a64a902dcb35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4259,11 +4289,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f621fb71-e73a-482a-a9d6-459f98a2a3f2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+          <x14:id>{79b4743b-1f87-47bb-8b5f-d06b85e44cfa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4271,11 +4301,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f3d5f6e8-a174-4b12-8cb6-1c3c695763f4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
+          <x14:id>{83ba6351-aaa9-48b5-9414-2c8d44a18256}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4283,11 +4313,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{675e4f21-27af-4ec9-b173-50c03f096a5d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
+          <x14:id>{f367ea32-0755-4802-8701-e6ebf4c61b26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4295,13 +4325,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52a8492a-89b0-4fe8-bd9c-7244cfc380b8}</x14:id>
+          <x14:id>{ad748c2a-cd84-4ecf-8f98-1ab1bdca18cd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4309,11 +4339,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b889b04-584e-4146-bbe7-404ab6872f4c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
+          <x14:id>{5415c666-6c53-4cef-8640-132088e78fbb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4321,11 +4351,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ae5ebc91-d6de-4c0f-84e4-7235754b28b1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
+          <x14:id>{525e3c00-049f-4ef9-bbc9-86aff9f15d6c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4333,11 +4363,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87fe263b-ecf7-4531-bde9-cf93cf4aa10d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{3e476114-4bd4-49d4-8c5d-5e74f99f9b81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4345,11 +4375,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8c340d3c-5778-4722-b2d1-0bc16abd6df1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{53e2a169-9fdf-47fe-ae5b-e4ee8106fcc0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4357,11 +4387,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f06b8c38-6397-4c76-ab1b-583f69bb9183}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{5035c44e-3432-40a3-af57-a61361ff924c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4369,11 +4399,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ec524a0-d3c6-4e44-921e-073b4a2f7fd6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{2fb99425-5a43-4fde-a85a-af85b7f64b51}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4381,11 +4411,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e9b359cd-cfc6-485d-99e7-1509523240b0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{7511c6aa-239e-4595-ae1b-02d3e1e96930}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4393,11 +4423,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2190538f-3daa-4790-aa42-927738ce7479}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{aab7196b-d65a-443c-b2e2-88e1824726ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4405,11 +4435,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2b079d5-d385-4c9e-b5a0-38c26339fa6a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{1b1886c3-197c-4b74-b3b7-6595bc3403f1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4417,11 +4447,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7bb7239e-0701-4a3f-8b3c-df02a4b60373}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
+          <x14:id>{ed787ac5-29a1-485e-b9fa-68f1db5e08ab}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4429,11 +4459,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04b60634-a94f-4644-9d7d-e23c001c40bd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
+          <x14:id>{1f4cfec6-53b1-49da-8f73-792f5755e419}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4441,13 +4471,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0f1a87d9-b759-4648-a747-88a2bdcedd48}</x14:id>
+          <x14:id>{05823055-1437-4f4c-9fcf-09dae792e5b7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4455,11 +4485,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7383f8b9-d8d0-4211-b79f-8140c6bb0df6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
+          <x14:id>{f6fde70f-d7b0-44a4-8cd4-7ca25a388508}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4467,11 +4497,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b68b679c-5735-4234-b343-7deefa3d071f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
+          <x14:id>{a3d59a1d-457a-4305-81ff-1f87455591d3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4479,11 +4509,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e9c3760-4fac-490b-9a6b-ad45e4df0e24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
+          <x14:id>{b700e1bc-4d72-4c9d-8439-76f30c1f7df2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4491,11 +4521,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7a3ae82d-8baf-4ea9-8817-a60f5efd4b4b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
+          <x14:id>{1d88a642-e31d-455f-966d-a3c76aa0ca54}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4503,11 +4533,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f715fd07-2714-4bd2-ad8a-d197d145a719}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
+          <x14:id>{a1e0a1de-bc1b-47ba-870c-89fdd873a647}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4515,11 +4545,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9debc849-47e3-43df-bc2e-393463255c15}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
+          <x14:id>{3e57e895-2df7-48a5-97ff-f4452c22ffeb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4527,11 +4557,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{743863f5-c64f-4da3-b203-b8c49ed8ab25}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+          <x14:id>{155c0cf5-fa98-469d-a982-642767afbcea}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4539,11 +4569,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4f8aac11-b294-4a3a-a890-69510b6267d3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
+          <x14:id>{d541baf2-5324-442d-8dec-aa692fc9e217}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4551,11 +4581,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fae3759e-69e4-443c-bce2-b2b367077d4e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+          <x14:id>{40a3d4e4-5bb5-401a-a280-a9b0ded63b26}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4563,11 +4593,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb35a25a-a6cb-420b-9776-be07fe16860b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
+          <x14:id>{574b86b2-9119-4d1d-90b5-cde33dd1a882}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4575,11 +4605,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9125877e-c4de-4908-acfa-53756c460c10}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
+          <x14:id>{4273e4ac-6435-440f-83b8-01c5dbd68f97}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4587,13 +4617,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{137bbb8e-8375-43a5-b02c-666cd7db5ea2}</x14:id>
+          <x14:id>{c98f2dd0-d5a7-4de8-9eb4-2f7293470dea}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I36:I1048576">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dd66440c-1ef5-4cf2-acdb-a116e57cd097}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b67f0b6f-e9f3-4e97-aefd-9bf5b9da0963}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ca1a41d0-378a-4f61-a264-b35c0180fa02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{591032ca-e446-466f-8981-4b7207be7c27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9d164029-1b1d-4020-8c44-f3b7af57fd9c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7551a660-cb35-40dc-ab92-5fe34a5eeeb0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82cef17e-d2a3-4074-ac82-f919582cd633}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0bd71107-2ef3-485f-9b76-52bc0a17430a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c4e6650d-ec06-4f18-b347-430966f42817}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1ee9200c-3bc9-4876-9e9b-21d7bf6c38d2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19c3afa6-8b68-4d61-8a9f-43c554f04622}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4601,11 +4763,133 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ff885901-ac36-41a3-b6d7-9afc3aea03ab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
+          <x14:id>{5ba46b8e-c0c5-49e2-bf7c-1fe58af298da}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1a62724d-a726-483e-82ca-cad95e3c8555}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{293aef94-1772-42a0-a1bb-93892a81b41e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2f0e8bba-68f4-47a0-b5d0-3478ddda2f99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b173e0f1-78d8-4ea1-8876-65a2ae027b74}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bcc12448-92be-4887-85e3-86739501bae2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{36643581-6742-4fc7-97a0-73634135a8cc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{080f11c2-57ab-4842-b0a1-4a5e04835f4a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e5fda133-c56d-4461-90eb-64f20c9e5b0a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d5da6bc8-ee34-4198-a8ca-e17a5f17020b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7fbe5cab-bf3a-40bb-8d14-2457c95d4469}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4613,11 +4897,37 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db758562-61b9-404c-a276-0e36d21a6d6f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
+          <x14:id>{195d8142-6592-4716-820a-4f6cc0cf3bde}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{86a4b863-90bf-4c75-89fc-b81c06c795ff}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{47b32ea9-7b0c-4ff1-90a0-89e548e13cd5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4625,11 +4935,83 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f72edca-0dd7-4d85-9405-f8c69bb19f57}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
+          <x14:id>{77c24dc2-9b66-4f0d-b18a-b285d92ac28e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1acc2b5d-8e5f-41a3-822a-769858bfb7a9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a4bb8e5d-bd70-4ed3-bcdb-acd31de605a1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0b4f17ff-5b0e-42c1-b175-1948417e8c03}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00432bf5-c3ed-4f3c-9780-bebc059cddcc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e05a6097-c0bf-4d91-a8f4-9e009852477a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fbb7ff90-bc58-4921-b073-57cfc37a44e4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4637,11 +5019,97 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a97e443-bfda-4cf1-9400-9f59b136755d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
+          <x14:id>{313e9528-f880-4d33-82da-e814a986346f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97383cc0-8595-4235-880b-334778673aeb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58d5a504-9dd2-4982-8ad2-b25487948329}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d5fe4a6f-4878-4458-b214-43a633d571a1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I38:I1048576">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d34e8b33-9481-4931-9c8e-9fd9d8ad6db8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="86">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2c782825-3c04-4110-b1c5-4eb2c63189f3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="87">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a6f713a9-fc67-40a0-96cd-76b2b276bf29}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d80707d7-5a74-4b21-a35d-309ce2168a5c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4649,11 +5117,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39e8eae4-bf7a-4454-be5f-903a18ca6f82}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="54">
+          <x14:id>{99d0357b-c5fe-4133-8557-fa970f70a683}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4661,11 +5129,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{545c7469-16bf-4f09-85d2-e62ca9aaac51}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{ee8c7fd3-79b8-4fe7-a786-4c3dd01ba550}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4673,11 +5141,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4afeebcb-c834-4706-b750-381e6d8f53f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="56">
+          <x14:id>{b8e5bf4b-74b9-4f2e-926e-7de3bf18dbc1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4685,11 +5153,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0132cbda-89f3-4ac2-92ff-9b683cfab3a6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
+          <x14:id>{4258738f-8dc4-42e1-94cb-9cc2c55dbc86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4697,11 +5165,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c727b7d3-f0bd-4988-956a-2a6d40eed8dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
+          <x14:id>{06554ebc-430a-49a1-b698-f0db77886df7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4709,11 +5177,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{005af301-f3c7-4835-8a0a-0f63b839ad5c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="59">
+          <x14:id>{f9d8bbc9-8282-449b-af9f-ee03e578a6b6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4721,11 +5189,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0f1d1c9-1992-45be-9a08-3f74d479d60d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="60">
+          <x14:id>{757f6df9-a99e-4d7b-b8ba-af1c47ed4f66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4733,13 +5201,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1cb56968-e397-4869-bbfc-99f4142968d9}</x14:id>
+          <x14:id>{704eea3d-d3c2-4b23-aa5a-46250a5e556f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I29 I33:I35">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="I26:I29 I34:I35">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4747,11 +5215,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a7a72bcf-d9f5-4741-a298-fc4d924e9e29}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
+          <x14:id>{4629791c-bffc-4525-9c5d-923fd007ec1c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4759,11 +5227,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9c30fb87-df09-4306-be6b-f317cd583255}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="39">
+          <x14:id>{bb5b9d0d-c3e5-41c2-a69f-1ed83e392e15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4771,11 +5239,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc8952fb-cbf3-4b83-b429-b6b9bf22a335}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="40">
+          <x14:id>{55721627-e4cc-4874-85c4-fb08a44d8c9f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4783,11 +5251,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22ff9e8a-42d9-484b-a323-e29021195292}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
+          <x14:id>{14039455-7cbd-4d78-9cf5-48e2d1927511}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4795,11 +5263,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c93cb744-3df9-43d8-8380-1e8227a17820}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="42">
+          <x14:id>{d7f3f461-1139-4f45-9d88-16be8fdfdd05}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4807,11 +5275,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b4912953-7c98-48a2-8728-dd8349ce0eaf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
+          <x14:id>{0b3f9b96-c7c2-4892-872b-582542c4b77c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4819,11 +5287,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a52f33d3-132e-4a35-ae4d-5a19d9a1f1b6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
+          <x14:id>{97fdf6fe-262c-4813-bef2-4fc83e19161d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4831,11 +5299,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f022ae3a-a2a6-4d92-a2fa-ec64f67d3a6c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="45">
+          <x14:id>{427a2175-ff7c-4655-8cd7-c1c486ae3679}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4843,11 +5311,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37988bb2-5c80-496e-a2cf-a702ee25fc2f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="46">
+          <x14:id>{d75e456e-05fe-4e50-9808-bca84c7baec2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4855,11 +5323,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dfcc0be4-a4d8-448f-a6e4-a2241b8281f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="47">
+          <x14:id>{fbb3b994-8a8c-4a85-9315-037cf4be3829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4867,11 +5335,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1a96eaeb-a15a-472d-9d65-cf1322c62651}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="48">
+          <x14:id>{59b2425d-1578-4708-abf9-319635344898}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4879,18 +5347,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d1fbb8ce-a6a8-49a7-a8fb-bc4d30723758}</x14:id>
+          <x14:id>{2790fee8-28b7-4efb-8d90-a6f1c39d07ac}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8a8f2a24-ba97-4f47-ab7e-6880d49240a4}">
+          <x14:cfRule type="dataBar" id="{b970f6f9-db31-40a3-8cf7-114399f7c82d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4900,7 +5369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d811f12a-4c0a-475a-842f-6672aeaa77e7}">
+          <x14:cfRule type="dataBar" id="{02e3c668-53ea-467e-b3b6-610184c16666}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4908,7 +5377,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{03a77b70-b12e-4ee6-b935-e2c28520f0d3}">
+          <x14:cfRule type="dataBar" id="{73239988-a41d-42ec-ad2c-d7d5800d6b7e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4918,7 +5387,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c6bbfe52-b739-4935-a70e-85faa556e365}">
+          <x14:cfRule type="dataBar" id="{340f93a4-10b6-49b1-aadd-298eb4167be4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4928,7 +5397,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b02df7d3-f8d9-4e34-8a69-e369a89cd87a}">
+          <x14:cfRule type="dataBar" id="{8a714b4c-e155-4f44-ac93-02fea91d20fe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4940,7 +5409,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c95fee22-165f-4e7f-8949-76779745caac}">
+          <x14:cfRule type="dataBar" id="{7fb35638-138c-48ad-bde8-13b3a653ef12}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4948,7 +5417,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d6f7343a-2681-49bb-bee8-cb3966709990}">
+          <x14:cfRule type="dataBar" id="{30895e6e-1b7a-449b-99bc-18b6740f6e29}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4960,7 +5429,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2fa6e716-d8fb-4177-9c89-865e4664ecbb}">
+          <x14:cfRule type="dataBar" id="{71b4ae33-8150-4cee-ae63-a64a902dcb35}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4968,7 +5437,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f621fb71-e73a-482a-a9d6-459f98a2a3f2}">
+          <x14:cfRule type="dataBar" id="{79b4743b-1f87-47bb-8b5f-d06b85e44cfa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4980,7 +5449,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f3d5f6e8-a174-4b12-8cb6-1c3c695763f4}">
+          <x14:cfRule type="dataBar" id="{83ba6351-aaa9-48b5-9414-2c8d44a18256}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4988,7 +5457,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{675e4f21-27af-4ec9-b173-50c03f096a5d}">
+          <x14:cfRule type="dataBar" id="{f367ea32-0755-4802-8701-e6ebf4c61b26}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5000,7 +5469,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{52a8492a-89b0-4fe8-bd9c-7244cfc380b8}">
+          <x14:cfRule type="dataBar" id="{ad748c2a-cd84-4ecf-8f98-1ab1bdca18cd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5015,7 +5484,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b889b04-584e-4146-bbe7-404ab6872f4c}">
+          <x14:cfRule type="dataBar" id="{5415c666-6c53-4cef-8640-132088e78fbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5025,7 +5494,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ae5ebc91-d6de-4c0f-84e4-7235754b28b1}">
+          <x14:cfRule type="dataBar" id="{525e3c00-049f-4ef9-bbc9-86aff9f15d6c}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5033,7 +5502,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{87fe263b-ecf7-4531-bde9-cf93cf4aa10d}">
+          <x14:cfRule type="dataBar" id="{3e476114-4bd4-49d4-8c5d-5e74f99f9b81}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5043,7 +5512,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8c340d3c-5778-4722-b2d1-0bc16abd6df1}">
+          <x14:cfRule type="dataBar" id="{53e2a169-9fdf-47fe-ae5b-e4ee8106fcc0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5053,7 +5522,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f06b8c38-6397-4c76-ab1b-583f69bb9183}">
+          <x14:cfRule type="dataBar" id="{5035c44e-3432-40a3-af57-a61361ff924c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5065,7 +5534,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5ec524a0-d3c6-4e44-921e-073b4a2f7fd6}">
+          <x14:cfRule type="dataBar" id="{2fb99425-5a43-4fde-a85a-af85b7f64b51}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5073,7 +5542,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e9b359cd-cfc6-485d-99e7-1509523240b0}">
+          <x14:cfRule type="dataBar" id="{7511c6aa-239e-4595-ae1b-02d3e1e96930}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5085,7 +5554,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2190538f-3daa-4790-aa42-927738ce7479}">
+          <x14:cfRule type="dataBar" id="{aab7196b-d65a-443c-b2e2-88e1824726ba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5093,7 +5562,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a2b079d5-d385-4c9e-b5a0-38c26339fa6a}">
+          <x14:cfRule type="dataBar" id="{1b1886c3-197c-4b74-b3b7-6595bc3403f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5105,7 +5574,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7bb7239e-0701-4a3f-8b3c-df02a4b60373}">
+          <x14:cfRule type="dataBar" id="{ed787ac5-29a1-485e-b9fa-68f1db5e08ab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5113,7 +5582,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{04b60634-a94f-4644-9d7d-e23c001c40bd}">
+          <x14:cfRule type="dataBar" id="{1f4cfec6-53b1-49da-8f73-792f5755e419}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5125,7 +5594,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0f1a87d9-b759-4648-a747-88a2bdcedd48}">
+          <x14:cfRule type="dataBar" id="{05823055-1437-4f4c-9fcf-09dae792e5b7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5140,7 +5609,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7383f8b9-d8d0-4211-b79f-8140c6bb0df6}">
+          <x14:cfRule type="dataBar" id="{f6fde70f-d7b0-44a4-8cd4-7ca25a388508}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5150,7 +5619,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b68b679c-5735-4234-b343-7deefa3d071f}">
+          <x14:cfRule type="dataBar" id="{a3d59a1d-457a-4305-81ff-1f87455591d3}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5158,7 +5627,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1e9c3760-4fac-490b-9a6b-ad45e4df0e24}">
+          <x14:cfRule type="dataBar" id="{b700e1bc-4d72-4c9d-8439-76f30c1f7df2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5168,7 +5637,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7a3ae82d-8baf-4ea9-8817-a60f5efd4b4b}">
+          <x14:cfRule type="dataBar" id="{1d88a642-e31d-455f-966d-a3c76aa0ca54}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5178,7 +5647,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f715fd07-2714-4bd2-ad8a-d197d145a719}">
+          <x14:cfRule type="dataBar" id="{a1e0a1de-bc1b-47ba-870c-89fdd873a647}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5190,7 +5659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9debc849-47e3-43df-bc2e-393463255c15}">
+          <x14:cfRule type="dataBar" id="{3e57e895-2df7-48a5-97ff-f4452c22ffeb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5198,7 +5667,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{743863f5-c64f-4da3-b203-b8c49ed8ab25}">
+          <x14:cfRule type="dataBar" id="{155c0cf5-fa98-469d-a982-642767afbcea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5210,7 +5679,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4f8aac11-b294-4a3a-a890-69510b6267d3}">
+          <x14:cfRule type="dataBar" id="{d541baf2-5324-442d-8dec-aa692fc9e217}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5218,7 +5687,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fae3759e-69e4-443c-bce2-b2b367077d4e}">
+          <x14:cfRule type="dataBar" id="{40a3d4e4-5bb5-401a-a280-a9b0ded63b26}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5230,7 +5699,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fb35a25a-a6cb-420b-9776-be07fe16860b}">
+          <x14:cfRule type="dataBar" id="{574b86b2-9119-4d1d-90b5-cde33dd1a882}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5238,7 +5707,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9125877e-c4de-4908-acfa-53756c460c10}">
+          <x14:cfRule type="dataBar" id="{4273e4ac-6435-440f-83b8-01c5dbd68f97}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5250,7 +5719,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{137bbb8e-8375-43a5-b02c-666cd7db5ea2}">
+          <x14:cfRule type="dataBar" id="{c98f2dd0-d5a7-4de8-9eb4-2f7293470dea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5265,7 +5734,117 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ff885901-ac36-41a3-b6d7-9afc3aea03ab}">
+          <x14:cfRule type="dataBar" id="{dd66440c-1ef5-4cf2-acdb-a116e57cd097}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b67f0b6f-e9f3-4e97-aefd-9bf5b9da0963}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ca1a41d0-378a-4f61-a264-b35c0180fa02}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{591032ca-e446-466f-8981-4b7207be7c27}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9d164029-1b1d-4020-8c44-f3b7af57fd9c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7551a660-cb35-40dc-ab92-5fe34a5eeeb0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{82cef17e-d2a3-4074-ac82-f919582cd633}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0bd71107-2ef3-485f-9b76-52bc0a17430a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c4e6650d-ec06-4f18-b347-430966f42817}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1ee9200c-3bc9-4876-9e9b-21d7bf6c38d2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{19c3afa6-8b68-4d61-8a9f-43c554f04622}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5ba46b8e-c0c5-49e2-bf7c-1fe58af298da}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5277,7 +5856,108 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{db758562-61b9-404c-a276-0e36d21a6d6f}">
+          <xm:sqref>I33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1a62724d-a726-483e-82ca-cad95e3c8555}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{293aef94-1772-42a0-a1bb-93892a81b41e}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2f0e8bba-68f4-47a0-b5d0-3478ddda2f99}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b173e0f1-78d8-4ea1-8876-65a2ae027b74}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{bcc12448-92be-4887-85e3-86739501bae2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{36643581-6742-4fc7-97a0-73634135a8cc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{080f11c2-57ab-4842-b0a1-4a5e04835f4a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e5fda133-c56d-4461-90eb-64f20c9e5b0a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d5da6bc8-ee34-4198-a8ca-e17a5f17020b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7fbe5cab-bf3a-40bb-8d14-2457c95d4469}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{195d8142-6592-4716-820a-4f6cc0cf3bde}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5289,7 +5969,112 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5f72edca-0dd7-4d85-9405-f8c69bb19f57}">
+          <x14:cfRule type="dataBar" id="{86a4b863-90bf-4c75-89fc-b81c06c795ff}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{47b32ea9-7b0c-4ff1-90a0-89e548e13cd5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{77c24dc2-9b66-4f0d-b18a-b285d92ac28e}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1acc2b5d-8e5f-41a3-822a-769858bfb7a9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a4bb8e5d-bd70-4ed3-bcdb-acd31de605a1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0b4f17ff-5b0e-42c1-b175-1948417e8c03}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{00432bf5-c3ed-4f3c-9780-bebc059cddcc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e05a6097-c0bf-4d91-a8f4-9e009852477a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{fbb7ff90-bc58-4921-b073-57cfc37a44e4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{313e9528-f880-4d33-82da-e814a986346f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{97383cc0-8595-4235-880b-334778673aeb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5297,7 +6082,66 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5a97e443-bfda-4cf1-9400-9f59b136755d}">
+          <x14:cfRule type="dataBar" id="{58d5a504-9dd2-4982-8ad2-b25487948329}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d5fe4a6f-4878-4458-b214-43a633d571a1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{d34e8b33-9481-4931-9c8e-9fd9d8ad6db8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2c782825-3c04-4110-b1c5-4eb2c63189f3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a6f713a9-fc67-40a0-96cd-76b2b276bf29}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d80707d7-5a74-4b21-a35d-309ce2168a5c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5309,7 +6153,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{39e8eae4-bf7a-4454-be5f-903a18ca6f82}">
+          <x14:cfRule type="dataBar" id="{99d0357b-c5fe-4133-8557-fa970f70a683}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5317,7 +6161,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{545c7469-16bf-4f09-85d2-e62ca9aaac51}">
+          <x14:cfRule type="dataBar" id="{ee8c7fd3-79b8-4fe7-a786-4c3dd01ba550}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5329,7 +6173,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4afeebcb-c834-4706-b750-381e6d8f53f5}">
+          <x14:cfRule type="dataBar" id="{b8e5bf4b-74b9-4f2e-926e-7de3bf18dbc1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5337,7 +6181,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0132cbda-89f3-4ac2-92ff-9b683cfab3a6}">
+          <x14:cfRule type="dataBar" id="{4258738f-8dc4-42e1-94cb-9cc2c55dbc86}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5349,7 +6193,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c727b7d3-f0bd-4988-956a-2a6d40eed8dd}">
+          <x14:cfRule type="dataBar" id="{06554ebc-430a-49a1-b698-f0db77886df7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5359,7 +6203,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{005af301-f3c7-4835-8a0a-0f63b839ad5c}">
+          <x14:cfRule type="dataBar" id="{f9d8bbc9-8282-449b-af9f-ee03e578a6b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5369,7 +6213,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b0f1d1c9-1992-45be-9a08-3f74d479d60d}">
+          <x14:cfRule type="dataBar" id="{757f6df9-a99e-4d7b-b8ba-af1c47ed4f66}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5377,7 +6221,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1cb56968-e397-4869-bbfc-99f4142968d9}">
+          <x14:cfRule type="dataBar" id="{704eea3d-d3c2-4b23-aa5a-46250a5e556f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5387,10 +6231,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25 I36:I1048576</xm:sqref>
+          <xm:sqref>I2:I25 I38:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a7a72bcf-d9f5-4741-a298-fc4d924e9e29}">
+          <x14:cfRule type="dataBar" id="{4629791c-bffc-4525-9c5d-923fd007ec1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5402,7 +6246,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9c30fb87-df09-4306-be6b-f317cd583255}">
+          <x14:cfRule type="dataBar" id="{bb5b9d0d-c3e5-41c2-a69f-1ed83e392e15}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5414,7 +6258,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cc8952fb-cbf3-4b83-b429-b6b9bf22a335}">
+          <x14:cfRule type="dataBar" id="{55721627-e4cc-4874-85c4-fb08a44d8c9f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5422,7 +6266,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{22ff9e8a-42d9-484b-a323-e29021195292}">
+          <x14:cfRule type="dataBar" id="{14039455-7cbd-4d78-9cf5-48e2d1927511}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5434,7 +6278,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c93cb744-3df9-43d8-8380-1e8227a17820}">
+          <x14:cfRule type="dataBar" id="{d7f3f461-1139-4f45-9d88-16be8fdfdd05}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5442,7 +6286,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b4912953-7c98-48a2-8728-dd8349ce0eaf}">
+          <x14:cfRule type="dataBar" id="{0b3f9b96-c7c2-4892-872b-582542c4b77c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5454,7 +6298,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a52f33d3-132e-4a35-ae4d-5a19d9a1f1b6}">
+          <x14:cfRule type="dataBar" id="{97fdf6fe-262c-4813-bef2-4fc83e19161d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5462,7 +6306,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f022ae3a-a2a6-4d92-a2fa-ec64f67d3a6c}">
+          <x14:cfRule type="dataBar" id="{427a2175-ff7c-4655-8cd7-c1c486ae3679}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5474,7 +6318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{37988bb2-5c80-496e-a2cf-a702ee25fc2f}">
+          <x14:cfRule type="dataBar" id="{d75e456e-05fe-4e50-9808-bca84c7baec2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5484,7 +6328,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dfcc0be4-a4d8-448f-a6e4-a2241b8281f5}">
+          <x14:cfRule type="dataBar" id="{fbb3b994-8a8c-4a85-9315-037cf4be3829}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5494,7 +6338,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1a96eaeb-a15a-472d-9d65-cf1322c62651}">
+          <x14:cfRule type="dataBar" id="{59b2425d-1578-4708-abf9-319635344898}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5502,7 +6346,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d1fbb8ce-a6a8-49a7-a8fb-bc4d30723758}">
+          <x14:cfRule type="dataBar" id="{2790fee8-28b7-4efb-8d90-a6f1c39d07ac}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5512,7 +6356,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I26:I29 I33:I35</xm:sqref>
+          <xm:sqref>I26:I29 I34:I35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -2141,9 +2141,9 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -2935,7 +2935,9 @@
         <v>50</v>
       </c>
       <c r="F27" s="47"/>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39">
+        <v>1</v>
+      </c>
       <c r="H27" s="44" t="s">
         <v>17</v>
       </c>
@@ -2961,7 +2963,9 @@
         <v>52</v>
       </c>
       <c r="F28" s="47"/>
-      <c r="G28" s="39"/>
+      <c r="G28" s="39">
+        <v>1</v>
+      </c>
       <c r="H28" s="44" t="s">
         <v>17</v>
       </c>
@@ -2987,7 +2991,9 @@
         <v>54</v>
       </c>
       <c r="F29" s="47"/>
-      <c r="G29" s="39"/>
+      <c r="G29" s="39">
+        <v>1</v>
+      </c>
       <c r="H29" s="44" t="s">
         <v>17</v>
       </c>
@@ -3015,7 +3021,9 @@
         <v>57</v>
       </c>
       <c r="F30" s="47"/>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39">
+        <v>1</v>
+      </c>
       <c r="H30" s="44" t="s">
         <v>17</v>
       </c>
@@ -3044,7 +3052,9 @@
         <v>59</v>
       </c>
       <c r="F31" s="47"/>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39">
+        <v>1</v>
+      </c>
       <c r="H31" s="44" t="s">
         <v>17</v>
       </c>
@@ -3073,7 +3083,9 @@
         <v>61</v>
       </c>
       <c r="F32" s="47"/>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39">
+        <v>1</v>
+      </c>
       <c r="H32" s="44" t="s">
         <v>17</v>
       </c>
@@ -3102,7 +3114,9 @@
         <v>62</v>
       </c>
       <c r="F33" s="47"/>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39">
+        <v>1</v>
+      </c>
       <c r="H33" s="44" t="s">
         <v>17</v>
       </c>
@@ -4193,7 +4207,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b970f6f9-db31-40a3-8cf7-114399f7c82d}</x14:id>
+          <x14:id>{c993e34c-2dd9-4b0a-944f-77e690dd48eb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4205,7 +4219,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02e3c668-53ea-467e-b3b6-610184c16666}</x14:id>
+          <x14:id>{4ca5e8b7-5768-43c5-bc17-cc5a37e07bf3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4217,7 +4231,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73239988-a41d-42ec-ad2c-d7d5800d6b7e}</x14:id>
+          <x14:id>{e0066aa0-94ba-44bb-8191-22683949d1dc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4229,7 +4243,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{340f93a4-10b6-49b1-aadd-298eb4167be4}</x14:id>
+          <x14:id>{8993ae89-0ed1-4255-97ca-c755240a862d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4241,7 +4255,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a714b4c-e155-4f44-ac93-02fea91d20fe}</x14:id>
+          <x14:id>{876f44ad-fa61-497d-883c-66d0f0311db4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4253,7 +4267,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7fb35638-138c-48ad-bde8-13b3a653ef12}</x14:id>
+          <x14:id>{91cd0d66-8a04-4347-9056-33320a320881}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4265,7 +4279,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30895e6e-1b7a-449b-99bc-18b6740f6e29}</x14:id>
+          <x14:id>{299f55d6-5f30-401b-bbbc-7323a8a53727}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4277,7 +4291,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71b4ae33-8150-4cee-ae63-a64a902dcb35}</x14:id>
+          <x14:id>{5972eba7-61de-410d-a6eb-47b6e52fe5fc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4289,7 +4303,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79b4743b-1f87-47bb-8b5f-d06b85e44cfa}</x14:id>
+          <x14:id>{79b8979b-1145-41fb-bc0d-6d7166f6e1e8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4301,7 +4315,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83ba6351-aaa9-48b5-9414-2c8d44a18256}</x14:id>
+          <x14:id>{aebfee52-4c7e-4ee5-86a0-0735a5f2c135}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4313,7 +4327,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f367ea32-0755-4802-8701-e6ebf4c61b26}</x14:id>
+          <x14:id>{16afae4e-53e1-47a3-a8e8-e06f00999986}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4325,7 +4339,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ad748c2a-cd84-4ecf-8f98-1ab1bdca18cd}</x14:id>
+          <x14:id>{bf251395-883d-4ae6-9411-96d36e1b1d13}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4339,7 +4353,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5415c666-6c53-4cef-8640-132088e78fbb}</x14:id>
+          <x14:id>{4c404cf8-b918-4ad2-bd5e-315686f9f6cf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4351,7 +4365,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{525e3c00-049f-4ef9-bbc9-86aff9f15d6c}</x14:id>
+          <x14:id>{0d2d3d69-e7d7-4158-ba98-6413afced017}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4363,7 +4377,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e476114-4bd4-49d4-8c5d-5e74f99f9b81}</x14:id>
+          <x14:id>{cfbbd45c-219e-474f-9fa6-c902787d1b1d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4375,7 +4389,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{53e2a169-9fdf-47fe-ae5b-e4ee8106fcc0}</x14:id>
+          <x14:id>{765fae75-fefd-48ba-9d39-22de03338575}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4387,7 +4401,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5035c44e-3432-40a3-af57-a61361ff924c}</x14:id>
+          <x14:id>{c53127af-1e64-46bf-8d9e-3f2a26507fbd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4399,7 +4413,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2fb99425-5a43-4fde-a85a-af85b7f64b51}</x14:id>
+          <x14:id>{99aa5ad1-1e00-4c05-8094-5688bc35f5de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4411,7 +4425,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7511c6aa-239e-4595-ae1b-02d3e1e96930}</x14:id>
+          <x14:id>{035878e8-9460-4ff8-a043-468bda989611}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4423,7 +4437,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aab7196b-d65a-443c-b2e2-88e1824726ba}</x14:id>
+          <x14:id>{210e808f-010b-483e-9e2d-a16a53ffb9ed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4435,7 +4449,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b1886c3-197c-4b74-b3b7-6595bc3403f1}</x14:id>
+          <x14:id>{97b4bfdd-d966-4c30-89ab-709d157e2b76}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4447,7 +4461,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ed787ac5-29a1-485e-b9fa-68f1db5e08ab}</x14:id>
+          <x14:id>{affed4ff-6ff9-4f60-9bb9-e2a62cc58554}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4459,7 +4473,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f4cfec6-53b1-49da-8f73-792f5755e419}</x14:id>
+          <x14:id>{88e4d8ac-1ddd-4782-8937-c02d11c0748a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4471,7 +4485,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{05823055-1437-4f4c-9fcf-09dae792e5b7}</x14:id>
+          <x14:id>{856ce465-f18e-49dd-88e7-757dcfadb3ed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4485,7 +4499,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f6fde70f-d7b0-44a4-8cd4-7ca25a388508}</x14:id>
+          <x14:id>{61ca6726-1859-4689-92ee-23a9c1727e42}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4497,7 +4511,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3d59a1d-457a-4305-81ff-1f87455591d3}</x14:id>
+          <x14:id>{e8ced0c2-4d23-4a6f-bd3f-9a1ecb175b3b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4509,7 +4523,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b700e1bc-4d72-4c9d-8439-76f30c1f7df2}</x14:id>
+          <x14:id>{88a1073d-e41d-4f2f-ba64-f12a182f4968}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4521,7 +4535,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1d88a642-e31d-455f-966d-a3c76aa0ca54}</x14:id>
+          <x14:id>{54e90554-41e7-4622-83e4-643285b3ed1c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4533,7 +4547,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1e0a1de-bc1b-47ba-870c-89fdd873a647}</x14:id>
+          <x14:id>{22694628-0016-4c15-89b3-32ef52ea5f3d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4545,7 +4559,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e57e895-2df7-48a5-97ff-f4452c22ffeb}</x14:id>
+          <x14:id>{02c5687e-de22-4904-aff7-8471f2c72f8f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4557,7 +4571,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{155c0cf5-fa98-469d-a982-642767afbcea}</x14:id>
+          <x14:id>{df51ceb9-e256-485c-ae3b-9b1c25c5e0dc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4569,7 +4583,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d541baf2-5324-442d-8dec-aa692fc9e217}</x14:id>
+          <x14:id>{d180224b-0427-4e4b-9553-f25ab76594b7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4581,7 +4595,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40a3d4e4-5bb5-401a-a280-a9b0ded63b26}</x14:id>
+          <x14:id>{5065d2a4-ae95-4d48-a911-b080441f61ae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4593,7 +4607,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{574b86b2-9119-4d1d-90b5-cde33dd1a882}</x14:id>
+          <x14:id>{e7629984-87f9-4b8e-9152-d0e54b8da761}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4605,7 +4619,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4273e4ac-6435-440f-83b8-01c5dbd68f97}</x14:id>
+          <x14:id>{d696df6c-bfe3-4400-ad06-162edb97f363}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4617,7 +4631,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c98f2dd0-d5a7-4de8-9eb4-2f7293470dea}</x14:id>
+          <x14:id>{28724c40-94a5-4a7e-850b-577d948773d9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4631,7 +4645,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd66440c-1ef5-4cf2-acdb-a116e57cd097}</x14:id>
+          <x14:id>{68389685-6e8b-4b3a-b0e6-a9702d3d6582}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4643,7 +4657,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b67f0b6f-e9f3-4e97-aefd-9bf5b9da0963}</x14:id>
+          <x14:id>{425f2676-9333-4ed0-9ef0-0fd4affe0d35}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4655,7 +4669,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ca1a41d0-378a-4f61-a264-b35c0180fa02}</x14:id>
+          <x14:id>{4ece6884-8725-4656-a65a-1c217fae1ec2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4667,7 +4681,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{591032ca-e446-466f-8981-4b7207be7c27}</x14:id>
+          <x14:id>{81d87ece-768c-4c9c-8e1c-dc9345b018b8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4679,7 +4693,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d164029-1b1d-4020-8c44-f3b7af57fd9c}</x14:id>
+          <x14:id>{efbadf35-dc02-4237-988a-486aac964b6f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4691,7 +4705,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7551a660-cb35-40dc-ab92-5fe34a5eeeb0}</x14:id>
+          <x14:id>{e8b05671-ff53-439a-b3b4-bd9a08cf06f7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4703,7 +4717,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82cef17e-d2a3-4074-ac82-f919582cd633}</x14:id>
+          <x14:id>{e14edcf0-8184-4058-9ad6-ce15fad78734}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4715,7 +4729,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0bd71107-2ef3-485f-9b76-52bc0a17430a}</x14:id>
+          <x14:id>{db66617a-b9d1-40af-b32f-d921d61f68a6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4727,7 +4741,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c4e6650d-ec06-4f18-b347-430966f42817}</x14:id>
+          <x14:id>{59abe19e-969b-4de7-9452-52ff751666e1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4739,7 +4753,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1ee9200c-3bc9-4876-9e9b-21d7bf6c38d2}</x14:id>
+          <x14:id>{5a7639f9-2224-4da5-98bf-80d8ba1633c1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4751,7 +4765,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19c3afa6-8b68-4d61-8a9f-43c554f04622}</x14:id>
+          <x14:id>{1ead316a-33cb-4657-a683-b4700eabc7ea}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4763,7 +4777,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ba46b8e-c0c5-49e2-bf7c-1fe58af298da}</x14:id>
+          <x14:id>{b21ace01-14d6-452d-b6ee-019ec0437e79}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4777,7 +4791,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1a62724d-a726-483e-82ca-cad95e3c8555}</x14:id>
+          <x14:id>{a38a622a-cf1a-4627-83ed-20db907bf666}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4789,7 +4803,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{293aef94-1772-42a0-a1bb-93892a81b41e}</x14:id>
+          <x14:id>{79331a2e-06e4-4b1f-ba02-cb907c2d8472}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4801,7 +4815,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f0e8bba-68f4-47a0-b5d0-3478ddda2f99}</x14:id>
+          <x14:id>{c468226a-62ed-4275-8d81-0b6a3d471ef6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4813,7 +4827,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b173e0f1-78d8-4ea1-8876-65a2ae027b74}</x14:id>
+          <x14:id>{adcaa23d-1ab4-42f4-a512-58cf199e486d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4825,7 +4839,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bcc12448-92be-4887-85e3-86739501bae2}</x14:id>
+          <x14:id>{8a867fa0-7af5-41f4-b0a7-1c37b99d9245}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4837,7 +4851,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36643581-6742-4fc7-97a0-73634135a8cc}</x14:id>
+          <x14:id>{04b980d7-e91d-47d6-ab9f-ab5ef46cd033}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4849,7 +4863,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{080f11c2-57ab-4842-b0a1-4a5e04835f4a}</x14:id>
+          <x14:id>{76b82fd8-3a6d-447e-bb0f-17e3fd3074ea}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4861,7 +4875,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e5fda133-c56d-4461-90eb-64f20c9e5b0a}</x14:id>
+          <x14:id>{7c2265f0-4768-424d-8396-77122598673c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4873,7 +4887,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5da6bc8-ee34-4198-a8ca-e17a5f17020b}</x14:id>
+          <x14:id>{2b07be1f-2262-4a2b-8914-0c5f6c4ac0ae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4885,7 +4899,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7fbe5cab-bf3a-40bb-8d14-2457c95d4469}</x14:id>
+          <x14:id>{0e6a55ea-a636-4ecd-aab3-42dcd941fcfc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4897,7 +4911,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{195d8142-6592-4716-820a-4f6cc0cf3bde}</x14:id>
+          <x14:id>{bdb3dfac-0503-4fb2-bff5-16dadad0f3da}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4909,7 +4923,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86a4b863-90bf-4c75-89fc-b81c06c795ff}</x14:id>
+          <x14:id>{dfa04657-e3ec-43c6-967d-e28f776c4b6d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4923,7 +4937,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47b32ea9-7b0c-4ff1-90a0-89e548e13cd5}</x14:id>
+          <x14:id>{b752a68b-4b83-4cc1-bbe6-3513275bba21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4935,7 +4949,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77c24dc2-9b66-4f0d-b18a-b285d92ac28e}</x14:id>
+          <x14:id>{3378da41-5fbb-4a7c-9abd-68e85bbaa295}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4947,7 +4961,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1acc2b5d-8e5f-41a3-822a-769858bfb7a9}</x14:id>
+          <x14:id>{ba91439e-81c7-4a36-9c92-bcff64afa75e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4959,7 +4973,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a4bb8e5d-bd70-4ed3-bcdb-acd31de605a1}</x14:id>
+          <x14:id>{ec44bc68-bd42-4d1a-bdc1-59f9fc5a0bfb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4971,7 +4985,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b4f17ff-5b0e-42c1-b175-1948417e8c03}</x14:id>
+          <x14:id>{28f953ca-4af6-4657-bece-a97b3450e8c8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4983,7 +4997,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00432bf5-c3ed-4f3c-9780-bebc059cddcc}</x14:id>
+          <x14:id>{f193a457-0451-4062-bfd3-3d778db1870a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4995,7 +5009,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e05a6097-c0bf-4d91-a8f4-9e009852477a}</x14:id>
+          <x14:id>{c3abeae4-1d9c-4512-ad62-126e372935e0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5007,7 +5021,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fbb7ff90-bc58-4921-b073-57cfc37a44e4}</x14:id>
+          <x14:id>{e994d5f2-53c4-4292-b18c-ad2abe4fa16c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5019,7 +5033,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{313e9528-f880-4d33-82da-e814a986346f}</x14:id>
+          <x14:id>{5b746f82-3ac5-4c70-811c-6b30387c4d2d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5031,7 +5045,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97383cc0-8595-4235-880b-334778673aeb}</x14:id>
+          <x14:id>{eba72184-eaea-4c7a-a640-74969319b2cf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5043,7 +5057,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58d5a504-9dd2-4982-8ad2-b25487948329}</x14:id>
+          <x14:id>{2bee67e4-40c3-46dc-8c71-371fa029f3cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5055,7 +5069,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5fe4a6f-4878-4458-b214-43a633d571a1}</x14:id>
+          <x14:id>{206b5aa7-6027-4886-a3ae-858f5665925d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5069,7 +5083,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d34e8b33-9481-4931-9c8e-9fd9d8ad6db8}</x14:id>
+          <x14:id>{c580fb9b-8f5f-4e6f-afa2-331572887c6f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5081,7 +5095,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2c782825-3c04-4110-b1c5-4eb2c63189f3}</x14:id>
+          <x14:id>{45fafe30-06c2-4b63-932a-c1a508be3216}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5093,7 +5107,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a6f713a9-fc67-40a0-96cd-76b2b276bf29}</x14:id>
+          <x14:id>{89354f2d-0e16-47ec-8c30-7f0d22a0145f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5105,7 +5119,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d80707d7-5a74-4b21-a35d-309ce2168a5c}</x14:id>
+          <x14:id>{ac175e1d-3296-4c67-a7fc-5ce00f40050b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5117,7 +5131,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99d0357b-c5fe-4133-8557-fa970f70a683}</x14:id>
+          <x14:id>{584c3144-60b7-43c3-8b94-b879e47e823c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5129,7 +5143,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ee8c7fd3-79b8-4fe7-a786-4c3dd01ba550}</x14:id>
+          <x14:id>{9fb3a9f5-0db6-4621-b92e-63eaeb39b051}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5141,7 +5155,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8e5bf4b-74b9-4f2e-926e-7de3bf18dbc1}</x14:id>
+          <x14:id>{6d2abfeb-6916-4e09-9299-23827cbe6329}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5153,7 +5167,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4258738f-8dc4-42e1-94cb-9cc2c55dbc86}</x14:id>
+          <x14:id>{7dd1b045-c81b-4074-be62-f360425d5583}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5165,7 +5179,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06554ebc-430a-49a1-b698-f0db77886df7}</x14:id>
+          <x14:id>{98c12a70-94b3-4c4b-b822-82631dbc9122}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5177,7 +5191,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9d8bbc9-8282-449b-af9f-ee03e578a6b6}</x14:id>
+          <x14:id>{99e1450e-5797-42df-809d-662581d13cd9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5189,7 +5203,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{757f6df9-a99e-4d7b-b8ba-af1c47ed4f66}</x14:id>
+          <x14:id>{516b10b5-6204-4403-ba22-99a13d12f912}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5201,7 +5215,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{704eea3d-d3c2-4b23-aa5a-46250a5e556f}</x14:id>
+          <x14:id>{1c41aeba-6d4d-4151-bb2f-d3711489b837}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5215,7 +5229,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4629791c-bffc-4525-9c5d-923fd007ec1c}</x14:id>
+          <x14:id>{f57af2eb-938a-45c8-a7b4-18746d15e024}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5227,7 +5241,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bb5b9d0d-c3e5-41c2-a69f-1ed83e392e15}</x14:id>
+          <x14:id>{79a9f669-e8f9-47e2-bc22-e17faeb0160d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5239,7 +5253,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55721627-e4cc-4874-85c4-fb08a44d8c9f}</x14:id>
+          <x14:id>{d7a579b8-cde8-499a-a1f9-0ff488826720}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5251,7 +5265,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{14039455-7cbd-4d78-9cf5-48e2d1927511}</x14:id>
+          <x14:id>{64e5defd-af73-490d-86ff-c8325ddf2b30}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5263,7 +5277,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d7f3f461-1139-4f45-9d88-16be8fdfdd05}</x14:id>
+          <x14:id>{53a73064-88eb-4e75-8dd1-a44fb980c23e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5275,7 +5289,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b3f9b96-c7c2-4892-872b-582542c4b77c}</x14:id>
+          <x14:id>{70c31965-5834-425b-87db-240bc3517dfa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5287,7 +5301,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97fdf6fe-262c-4813-bef2-4fc83e19161d}</x14:id>
+          <x14:id>{56ee5fb1-b427-470d-9487-749dce56107f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5299,7 +5313,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{427a2175-ff7c-4655-8cd7-c1c486ae3679}</x14:id>
+          <x14:id>{ec6a5984-4efd-4ea6-8861-f19db2492ec6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5311,7 +5325,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d75e456e-05fe-4e50-9808-bca84c7baec2}</x14:id>
+          <x14:id>{3e62a31c-eb38-4142-a21c-38c90dfeceb4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5323,7 +5337,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fbb3b994-8a8c-4a85-9315-037cf4be3829}</x14:id>
+          <x14:id>{d881f3b5-3791-410d-9a99-2a103ba0dfe4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5335,7 +5349,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59b2425d-1578-4708-abf9-319635344898}</x14:id>
+          <x14:id>{b929f55d-e45b-4389-a8c8-9e592a1b9537}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5347,7 +5361,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2790fee8-28b7-4efb-8d90-a6f1c39d07ac}</x14:id>
+          <x14:id>{be160a95-33c7-4be5-a68f-6946a9713661}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5359,7 +5373,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b970f6f9-db31-40a3-8cf7-114399f7c82d}">
+          <x14:cfRule type="dataBar" id="{c993e34c-2dd9-4b0a-944f-77e690dd48eb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5369,7 +5383,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{02e3c668-53ea-467e-b3b6-610184c16666}">
+          <x14:cfRule type="dataBar" id="{4ca5e8b7-5768-43c5-bc17-cc5a37e07bf3}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5377,7 +5391,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{73239988-a41d-42ec-ad2c-d7d5800d6b7e}">
+          <x14:cfRule type="dataBar" id="{e0066aa0-94ba-44bb-8191-22683949d1dc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5387,7 +5401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{340f93a4-10b6-49b1-aadd-298eb4167be4}">
+          <x14:cfRule type="dataBar" id="{8993ae89-0ed1-4255-97ca-c755240a862d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5397,7 +5411,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8a714b4c-e155-4f44-ac93-02fea91d20fe}">
+          <x14:cfRule type="dataBar" id="{876f44ad-fa61-497d-883c-66d0f0311db4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5409,7 +5423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7fb35638-138c-48ad-bde8-13b3a653ef12}">
+          <x14:cfRule type="dataBar" id="{91cd0d66-8a04-4347-9056-33320a320881}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5417,7 +5431,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{30895e6e-1b7a-449b-99bc-18b6740f6e29}">
+          <x14:cfRule type="dataBar" id="{299f55d6-5f30-401b-bbbc-7323a8a53727}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5429,7 +5443,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{71b4ae33-8150-4cee-ae63-a64a902dcb35}">
+          <x14:cfRule type="dataBar" id="{5972eba7-61de-410d-a6eb-47b6e52fe5fc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5437,7 +5451,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{79b4743b-1f87-47bb-8b5f-d06b85e44cfa}">
+          <x14:cfRule type="dataBar" id="{79b8979b-1145-41fb-bc0d-6d7166f6e1e8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5449,7 +5463,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{83ba6351-aaa9-48b5-9414-2c8d44a18256}">
+          <x14:cfRule type="dataBar" id="{aebfee52-4c7e-4ee5-86a0-0735a5f2c135}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5457,7 +5471,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f367ea32-0755-4802-8701-e6ebf4c61b26}">
+          <x14:cfRule type="dataBar" id="{16afae4e-53e1-47a3-a8e8-e06f00999986}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5469,7 +5483,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ad748c2a-cd84-4ecf-8f98-1ab1bdca18cd}">
+          <x14:cfRule type="dataBar" id="{bf251395-883d-4ae6-9411-96d36e1b1d13}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5484,7 +5498,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5415c666-6c53-4cef-8640-132088e78fbb}">
+          <x14:cfRule type="dataBar" id="{4c404cf8-b918-4ad2-bd5e-315686f9f6cf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5494,7 +5508,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{525e3c00-049f-4ef9-bbc9-86aff9f15d6c}">
+          <x14:cfRule type="dataBar" id="{0d2d3d69-e7d7-4158-ba98-6413afced017}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5502,7 +5516,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3e476114-4bd4-49d4-8c5d-5e74f99f9b81}">
+          <x14:cfRule type="dataBar" id="{cfbbd45c-219e-474f-9fa6-c902787d1b1d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5512,7 +5526,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{53e2a169-9fdf-47fe-ae5b-e4ee8106fcc0}">
+          <x14:cfRule type="dataBar" id="{765fae75-fefd-48ba-9d39-22de03338575}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5522,7 +5536,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5035c44e-3432-40a3-af57-a61361ff924c}">
+          <x14:cfRule type="dataBar" id="{c53127af-1e64-46bf-8d9e-3f2a26507fbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5534,7 +5548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2fb99425-5a43-4fde-a85a-af85b7f64b51}">
+          <x14:cfRule type="dataBar" id="{99aa5ad1-1e00-4c05-8094-5688bc35f5de}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5542,7 +5556,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7511c6aa-239e-4595-ae1b-02d3e1e96930}">
+          <x14:cfRule type="dataBar" id="{035878e8-9460-4ff8-a043-468bda989611}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5554,7 +5568,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{aab7196b-d65a-443c-b2e2-88e1824726ba}">
+          <x14:cfRule type="dataBar" id="{210e808f-010b-483e-9e2d-a16a53ffb9ed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5562,7 +5576,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1b1886c3-197c-4b74-b3b7-6595bc3403f1}">
+          <x14:cfRule type="dataBar" id="{97b4bfdd-d966-4c30-89ab-709d157e2b76}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5574,7 +5588,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ed787ac5-29a1-485e-b9fa-68f1db5e08ab}">
+          <x14:cfRule type="dataBar" id="{affed4ff-6ff9-4f60-9bb9-e2a62cc58554}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5582,7 +5596,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1f4cfec6-53b1-49da-8f73-792f5755e419}">
+          <x14:cfRule type="dataBar" id="{88e4d8ac-1ddd-4782-8937-c02d11c0748a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5594,7 +5608,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{05823055-1437-4f4c-9fcf-09dae792e5b7}">
+          <x14:cfRule type="dataBar" id="{856ce465-f18e-49dd-88e7-757dcfadb3ed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5609,7 +5623,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f6fde70f-d7b0-44a4-8cd4-7ca25a388508}">
+          <x14:cfRule type="dataBar" id="{61ca6726-1859-4689-92ee-23a9c1727e42}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5619,7 +5633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a3d59a1d-457a-4305-81ff-1f87455591d3}">
+          <x14:cfRule type="dataBar" id="{e8ced0c2-4d23-4a6f-bd3f-9a1ecb175b3b}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5627,7 +5641,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b700e1bc-4d72-4c9d-8439-76f30c1f7df2}">
+          <x14:cfRule type="dataBar" id="{88a1073d-e41d-4f2f-ba64-f12a182f4968}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5637,7 +5651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1d88a642-e31d-455f-966d-a3c76aa0ca54}">
+          <x14:cfRule type="dataBar" id="{54e90554-41e7-4622-83e4-643285b3ed1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5647,7 +5661,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a1e0a1de-bc1b-47ba-870c-89fdd873a647}">
+          <x14:cfRule type="dataBar" id="{22694628-0016-4c15-89b3-32ef52ea5f3d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5659,7 +5673,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3e57e895-2df7-48a5-97ff-f4452c22ffeb}">
+          <x14:cfRule type="dataBar" id="{02c5687e-de22-4904-aff7-8471f2c72f8f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5667,7 +5681,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{155c0cf5-fa98-469d-a982-642767afbcea}">
+          <x14:cfRule type="dataBar" id="{df51ceb9-e256-485c-ae3b-9b1c25c5e0dc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5679,7 +5693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d541baf2-5324-442d-8dec-aa692fc9e217}">
+          <x14:cfRule type="dataBar" id="{d180224b-0427-4e4b-9553-f25ab76594b7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5687,7 +5701,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{40a3d4e4-5bb5-401a-a280-a9b0ded63b26}">
+          <x14:cfRule type="dataBar" id="{5065d2a4-ae95-4d48-a911-b080441f61ae}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5699,7 +5713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{574b86b2-9119-4d1d-90b5-cde33dd1a882}">
+          <x14:cfRule type="dataBar" id="{e7629984-87f9-4b8e-9152-d0e54b8da761}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5707,7 +5721,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4273e4ac-6435-440f-83b8-01c5dbd68f97}">
+          <x14:cfRule type="dataBar" id="{d696df6c-bfe3-4400-ad06-162edb97f363}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5719,7 +5733,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c98f2dd0-d5a7-4de8-9eb4-2f7293470dea}">
+          <x14:cfRule type="dataBar" id="{28724c40-94a5-4a7e-850b-577d948773d9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5734,7 +5748,7 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dd66440c-1ef5-4cf2-acdb-a116e57cd097}">
+          <x14:cfRule type="dataBar" id="{68389685-6e8b-4b3a-b0e6-a9702d3d6582}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5744,7 +5758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b67f0b6f-e9f3-4e97-aefd-9bf5b9da0963}">
+          <x14:cfRule type="dataBar" id="{425f2676-9333-4ed0-9ef0-0fd4affe0d35}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5752,7 +5766,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ca1a41d0-378a-4f61-a264-b35c0180fa02}">
+          <x14:cfRule type="dataBar" id="{4ece6884-8725-4656-a65a-1c217fae1ec2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5762,7 +5776,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{591032ca-e446-466f-8981-4b7207be7c27}">
+          <x14:cfRule type="dataBar" id="{81d87ece-768c-4c9c-8e1c-dc9345b018b8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5772,7 +5786,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9d164029-1b1d-4020-8c44-f3b7af57fd9c}">
+          <x14:cfRule type="dataBar" id="{efbadf35-dc02-4237-988a-486aac964b6f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5784,7 +5798,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7551a660-cb35-40dc-ab92-5fe34a5eeeb0}">
+          <x14:cfRule type="dataBar" id="{e8b05671-ff53-439a-b3b4-bd9a08cf06f7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5792,7 +5806,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{82cef17e-d2a3-4074-ac82-f919582cd633}">
+          <x14:cfRule type="dataBar" id="{e14edcf0-8184-4058-9ad6-ce15fad78734}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5804,7 +5818,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0bd71107-2ef3-485f-9b76-52bc0a17430a}">
+          <x14:cfRule type="dataBar" id="{db66617a-b9d1-40af-b32f-d921d61f68a6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5812,7 +5826,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c4e6650d-ec06-4f18-b347-430966f42817}">
+          <x14:cfRule type="dataBar" id="{59abe19e-969b-4de7-9452-52ff751666e1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5824,7 +5838,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1ee9200c-3bc9-4876-9e9b-21d7bf6c38d2}">
+          <x14:cfRule type="dataBar" id="{5a7639f9-2224-4da5-98bf-80d8ba1633c1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5832,7 +5846,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{19c3afa6-8b68-4d61-8a9f-43c554f04622}">
+          <x14:cfRule type="dataBar" id="{1ead316a-33cb-4657-a683-b4700eabc7ea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5844,7 +5858,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5ba46b8e-c0c5-49e2-bf7c-1fe58af298da}">
+          <x14:cfRule type="dataBar" id="{b21ace01-14d6-452d-b6ee-019ec0437e79}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5859,7 +5873,7 @@
           <xm:sqref>I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1a62724d-a726-483e-82ca-cad95e3c8555}">
+          <x14:cfRule type="dataBar" id="{a38a622a-cf1a-4627-83ed-20db907bf666}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5869,7 +5883,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{293aef94-1772-42a0-a1bb-93892a81b41e}">
+          <x14:cfRule type="dataBar" id="{79331a2e-06e4-4b1f-ba02-cb907c2d8472}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5877,7 +5891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2f0e8bba-68f4-47a0-b5d0-3478ddda2f99}">
+          <x14:cfRule type="dataBar" id="{c468226a-62ed-4275-8d81-0b6a3d471ef6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5887,7 +5901,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b173e0f1-78d8-4ea1-8876-65a2ae027b74}">
+          <x14:cfRule type="dataBar" id="{adcaa23d-1ab4-42f4-a512-58cf199e486d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5897,7 +5911,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bcc12448-92be-4887-85e3-86739501bae2}">
+          <x14:cfRule type="dataBar" id="{8a867fa0-7af5-41f4-b0a7-1c37b99d9245}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5909,7 +5923,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{36643581-6742-4fc7-97a0-73634135a8cc}">
+          <x14:cfRule type="dataBar" id="{04b980d7-e91d-47d6-ab9f-ab5ef46cd033}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5917,7 +5931,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{080f11c2-57ab-4842-b0a1-4a5e04835f4a}">
+          <x14:cfRule type="dataBar" id="{76b82fd8-3a6d-447e-bb0f-17e3fd3074ea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5929,7 +5943,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e5fda133-c56d-4461-90eb-64f20c9e5b0a}">
+          <x14:cfRule type="dataBar" id="{7c2265f0-4768-424d-8396-77122598673c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5937,7 +5951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d5da6bc8-ee34-4198-a8ca-e17a5f17020b}">
+          <x14:cfRule type="dataBar" id="{2b07be1f-2262-4a2b-8914-0c5f6c4ac0ae}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5949,7 +5963,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7fbe5cab-bf3a-40bb-8d14-2457c95d4469}">
+          <x14:cfRule type="dataBar" id="{0e6a55ea-a636-4ecd-aab3-42dcd941fcfc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5957,7 +5971,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{195d8142-6592-4716-820a-4f6cc0cf3bde}">
+          <x14:cfRule type="dataBar" id="{bdb3dfac-0503-4fb2-bff5-16dadad0f3da}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5969,7 +5983,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{86a4b863-90bf-4c75-89fc-b81c06c795ff}">
+          <x14:cfRule type="dataBar" id="{dfa04657-e3ec-43c6-967d-e28f776c4b6d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5984,7 +5998,7 @@
           <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{47b32ea9-7b0c-4ff1-90a0-89e548e13cd5}">
+          <x14:cfRule type="dataBar" id="{b752a68b-4b83-4cc1-bbe6-3513275bba21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5994,7 +6008,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{77c24dc2-9b66-4f0d-b18a-b285d92ac28e}">
+          <x14:cfRule type="dataBar" id="{3378da41-5fbb-4a7c-9abd-68e85bbaa295}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6002,7 +6016,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1acc2b5d-8e5f-41a3-822a-769858bfb7a9}">
+          <x14:cfRule type="dataBar" id="{ba91439e-81c7-4a36-9c92-bcff64afa75e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6012,7 +6026,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a4bb8e5d-bd70-4ed3-bcdb-acd31de605a1}">
+          <x14:cfRule type="dataBar" id="{ec44bc68-bd42-4d1a-bdc1-59f9fc5a0bfb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6022,7 +6036,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0b4f17ff-5b0e-42c1-b175-1948417e8c03}">
+          <x14:cfRule type="dataBar" id="{28f953ca-4af6-4657-bece-a97b3450e8c8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6034,7 +6048,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{00432bf5-c3ed-4f3c-9780-bebc059cddcc}">
+          <x14:cfRule type="dataBar" id="{f193a457-0451-4062-bfd3-3d778db1870a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6042,7 +6056,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e05a6097-c0bf-4d91-a8f4-9e009852477a}">
+          <x14:cfRule type="dataBar" id="{c3abeae4-1d9c-4512-ad62-126e372935e0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6054,7 +6068,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fbb7ff90-bc58-4921-b073-57cfc37a44e4}">
+          <x14:cfRule type="dataBar" id="{e994d5f2-53c4-4292-b18c-ad2abe4fa16c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6062,7 +6076,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{313e9528-f880-4d33-82da-e814a986346f}">
+          <x14:cfRule type="dataBar" id="{5b746f82-3ac5-4c70-811c-6b30387c4d2d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6074,7 +6088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{97383cc0-8595-4235-880b-334778673aeb}">
+          <x14:cfRule type="dataBar" id="{eba72184-eaea-4c7a-a640-74969319b2cf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6082,7 +6096,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{58d5a504-9dd2-4982-8ad2-b25487948329}">
+          <x14:cfRule type="dataBar" id="{2bee67e4-40c3-46dc-8c71-371fa029f3cb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6094,7 +6108,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d5fe4a6f-4878-4458-b214-43a633d571a1}">
+          <x14:cfRule type="dataBar" id="{206b5aa7-6027-4886-a3ae-858f5665925d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6109,7 +6123,7 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d34e8b33-9481-4931-9c8e-9fd9d8ad6db8}">
+          <x14:cfRule type="dataBar" id="{c580fb9b-8f5f-4e6f-afa2-331572887c6f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6121,7 +6135,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2c782825-3c04-4110-b1c5-4eb2c63189f3}">
+          <x14:cfRule type="dataBar" id="{45fafe30-06c2-4b63-932a-c1a508be3216}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6133,7 +6147,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a6f713a9-fc67-40a0-96cd-76b2b276bf29}">
+          <x14:cfRule type="dataBar" id="{89354f2d-0e16-47ec-8c30-7f0d22a0145f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6141,7 +6155,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d80707d7-5a74-4b21-a35d-309ce2168a5c}">
+          <x14:cfRule type="dataBar" id="{ac175e1d-3296-4c67-a7fc-5ce00f40050b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6153,7 +6167,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{99d0357b-c5fe-4133-8557-fa970f70a683}">
+          <x14:cfRule type="dataBar" id="{584c3144-60b7-43c3-8b94-b879e47e823c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6161,7 +6175,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ee8c7fd3-79b8-4fe7-a786-4c3dd01ba550}">
+          <x14:cfRule type="dataBar" id="{9fb3a9f5-0db6-4621-b92e-63eaeb39b051}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6173,7 +6187,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b8e5bf4b-74b9-4f2e-926e-7de3bf18dbc1}">
+          <x14:cfRule type="dataBar" id="{6d2abfeb-6916-4e09-9299-23827cbe6329}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6181,7 +6195,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4258738f-8dc4-42e1-94cb-9cc2c55dbc86}">
+          <x14:cfRule type="dataBar" id="{7dd1b045-c81b-4074-be62-f360425d5583}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6193,7 +6207,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{06554ebc-430a-49a1-b698-f0db77886df7}">
+          <x14:cfRule type="dataBar" id="{98c12a70-94b3-4c4b-b822-82631dbc9122}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6203,7 +6217,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f9d8bbc9-8282-449b-af9f-ee03e578a6b6}">
+          <x14:cfRule type="dataBar" id="{99e1450e-5797-42df-809d-662581d13cd9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6213,7 +6227,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{757f6df9-a99e-4d7b-b8ba-af1c47ed4f66}">
+          <x14:cfRule type="dataBar" id="{516b10b5-6204-4403-ba22-99a13d12f912}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6221,7 +6235,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{704eea3d-d3c2-4b23-aa5a-46250a5e556f}">
+          <x14:cfRule type="dataBar" id="{1c41aeba-6d4d-4151-bb2f-d3711489b837}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6234,7 +6248,7 @@
           <xm:sqref>I2:I25 I38:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4629791c-bffc-4525-9c5d-923fd007ec1c}">
+          <x14:cfRule type="dataBar" id="{f57af2eb-938a-45c8-a7b4-18746d15e024}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6246,7 +6260,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bb5b9d0d-c3e5-41c2-a69f-1ed83e392e15}">
+          <x14:cfRule type="dataBar" id="{79a9f669-e8f9-47e2-bc22-e17faeb0160d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6258,7 +6272,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{55721627-e4cc-4874-85c4-fb08a44d8c9f}">
+          <x14:cfRule type="dataBar" id="{d7a579b8-cde8-499a-a1f9-0ff488826720}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6266,7 +6280,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{14039455-7cbd-4d78-9cf5-48e2d1927511}">
+          <x14:cfRule type="dataBar" id="{64e5defd-af73-490d-86ff-c8325ddf2b30}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6278,7 +6292,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d7f3f461-1139-4f45-9d88-16be8fdfdd05}">
+          <x14:cfRule type="dataBar" id="{53a73064-88eb-4e75-8dd1-a44fb980c23e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6286,7 +6300,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0b3f9b96-c7c2-4892-872b-582542c4b77c}">
+          <x14:cfRule type="dataBar" id="{70c31965-5834-425b-87db-240bc3517dfa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6298,7 +6312,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{97fdf6fe-262c-4813-bef2-4fc83e19161d}">
+          <x14:cfRule type="dataBar" id="{56ee5fb1-b427-470d-9487-749dce56107f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6306,7 +6320,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{427a2175-ff7c-4655-8cd7-c1c486ae3679}">
+          <x14:cfRule type="dataBar" id="{ec6a5984-4efd-4ea6-8861-f19db2492ec6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6318,7 +6332,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d75e456e-05fe-4e50-9808-bca84c7baec2}">
+          <x14:cfRule type="dataBar" id="{3e62a31c-eb38-4142-a21c-38c90dfeceb4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6328,7 +6342,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fbb3b994-8a8c-4a85-9315-037cf4be3829}">
+          <x14:cfRule type="dataBar" id="{d881f3b5-3791-410d-9a99-2a103ba0dfe4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6338,7 +6352,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{59b2425d-1578-4708-abf9-319635344898}">
+          <x14:cfRule type="dataBar" id="{b929f55d-e45b-4389-a8c8-9e592a1b9537}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6346,7 +6360,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2790fee8-28b7-4efb-8d90-a6f1c39d07ac}">
+          <x14:cfRule type="dataBar" id="{be160a95-33c7-4be5-a68f-6946a9713661}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -646,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -726,7 +726,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -747,34 +770,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -792,36 +792,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -830,17 +800,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -857,6 +827,36 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,6 +901,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -913,151 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,7 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +1085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,17 +1327,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1349,6 +1338,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,6 +1373,33 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,64 +1433,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="19">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="20">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
@@ -1472,118 +1472,118 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="21">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="21">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="23">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="26">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="20">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="24">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="27">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="37" borderId="0">
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2141,9 +2141,9 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -3196,7 +3196,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="36" ht="27.75" customHeight="1" spans="1:12">
+    <row r="36" ht="27.75" customHeight="1" spans="1:13">
       <c r="A36" s="41"/>
       <c r="B36" s="36" t="s">
         <v>66</v>
@@ -3225,8 +3225,11 @@
       <c r="L36" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="37" ht="27.75" customHeight="1" spans="1:12">
+      <c r="M36" s="31">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="37" ht="27.75" customHeight="1" spans="1:13">
       <c r="A37" s="41"/>
       <c r="B37" s="36"/>
       <c r="C37" s="42"/>
@@ -3253,8 +3256,11 @@
       <c r="L37" s="31">
         <v>44513</v>
       </c>
-    </row>
-    <row r="38" ht="27.75" customHeight="1" spans="1:12">
+      <c r="M37" s="31">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="38" ht="27.75" customHeight="1" spans="1:13">
       <c r="A38" s="41"/>
       <c r="B38" s="36"/>
       <c r="C38" s="42"/>
@@ -3271,15 +3277,21 @@
       <c r="H38" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="I38" s="29">
+        <v>1</v>
+      </c>
       <c r="J38" s="51">
         <v>1</v>
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="31">
-        <v>44513</v>
-      </c>
-    </row>
-    <row r="39" ht="27.75" customHeight="1" spans="1:12">
+        <v>44515</v>
+      </c>
+      <c r="M38" s="31">
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="39" ht="27.75" customHeight="1" spans="1:13">
       <c r="A39" s="41"/>
       <c r="B39" s="36"/>
       <c r="C39" s="42"/>
@@ -3296,12 +3308,18 @@
       <c r="H39" s="44" t="s">
         <v>17</v>
       </c>
+      <c r="I39" s="29">
+        <v>1</v>
+      </c>
       <c r="J39" s="51">
         <v>1</v>
       </c>
       <c r="K39" s="52"/>
       <c r="L39" s="31">
-        <v>44513</v>
+        <v>44515</v>
+      </c>
+      <c r="M39" s="31">
+        <v>44517</v>
       </c>
     </row>
     <row r="40" ht="27.75" customHeight="1" spans="1:11">
@@ -4199,7 +4217,7 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="I30">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4207,11 +4225,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c993e34c-2dd9-4b0a-944f-77e690dd48eb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+          <x14:id>{7169822f-5594-4498-bd9b-e3de27f8e1be}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4219,11 +4237,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ca5e8b7-5768-43c5-bc17-cc5a37e07bf3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="70">
+          <x14:id>{61547906-bcf7-4aac-bb9f-5a8db3344133}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4231,11 +4249,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e0066aa0-94ba-44bb-8191-22683949d1dc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="69">
+          <x14:id>{d55f7be9-65f1-4cc0-8e80-ec925666cf4f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4243,11 +4261,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8993ae89-0ed1-4255-97ca-c755240a862d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="68">
+          <x14:id>{c1e18ef1-dfda-4457-8cfd-50d8138dea45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4255,11 +4273,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{876f44ad-fa61-497d-883c-66d0f0311db4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="67">
+          <x14:id>{5121452c-9aa0-4297-8b99-35ffe3a34884}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4267,11 +4285,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{91cd0d66-8a04-4347-9056-33320a320881}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="66">
+          <x14:id>{32ec7a2c-d23c-45c2-bd0e-94255ed1bf16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4279,11 +4297,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{299f55d6-5f30-401b-bbbc-7323a8a53727}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="65">
+          <x14:id>{3db90519-513e-4ef7-b6b4-6406626289b9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4291,11 +4309,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5972eba7-61de-410d-a6eb-47b6e52fe5fc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="64">
+          <x14:id>{fcba6e3a-81e7-4fb6-b87a-9cdb2ca28555}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4303,11 +4321,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79b8979b-1145-41fb-bc0d-6d7166f6e1e8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="63">
+          <x14:id>{1fdf9122-296b-4e3e-b776-2c6fbc4eac16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4315,11 +4333,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aebfee52-4c7e-4ee5-86a0-0735a5f2c135}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="62">
+          <x14:id>{67a82292-7c3d-4766-ab52-71abba120d99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4327,11 +4345,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{16afae4e-53e1-47a3-a8e8-e06f00999986}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
+          <x14:id>{390b22f2-6fcd-4d29-86c3-b4a820857ea2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4339,13 +4357,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bf251395-883d-4ae6-9411-96d36e1b1d13}</x14:id>
+          <x14:id>{c550e519-f746-4b91-b9c3-735d78d8b85b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4353,11 +4371,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c404cf8-b918-4ad2-bd5e-315686f9f6cf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="59">
+          <x14:id>{2428b250-877d-4827-a7fc-4df7ba8e6e81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4365,11 +4383,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d2d3d69-e7d7-4158-ba98-6413afced017}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
+          <x14:id>{b0102445-9781-4a60-a270-57010dddb154}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4377,11 +4395,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cfbbd45c-219e-474f-9fa6-c902787d1b1d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
+          <x14:id>{329ca748-9acf-47df-a3d4-3b4cba26d4be}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4389,11 +4407,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{765fae75-fefd-48ba-9d39-22de03338575}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="56">
+          <x14:id>{67a31cd4-5ed3-46ca-b4da-27ac5027e51d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4401,11 +4419,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c53127af-1e64-46bf-8d9e-3f2a26507fbd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{e3d6e201-f0b7-4be6-b083-7ede2a11988b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4413,11 +4431,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99aa5ad1-1e00-4c05-8094-5688bc35f5de}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="54">
+          <x14:id>{3925dbd2-d806-40cf-8ec5-fdf7d928de47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4425,11 +4443,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{035878e8-9460-4ff8-a043-468bda989611}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
+          <x14:id>{7fecb45e-c815-4d49-b3cc-608d471d7a04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4437,11 +4455,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{210e808f-010b-483e-9e2d-a16a53ffb9ed}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
+          <x14:id>{9d308085-2865-4716-95a6-62b684d8855e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4449,11 +4467,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97b4bfdd-d966-4c30-89ab-709d157e2b76}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
+          <x14:id>{ae526d65-53d0-45a0-8de2-bceeb1a82c45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4461,11 +4479,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{affed4ff-6ff9-4f60-9bb9-e2a62cc58554}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
+          <x14:id>{7e726693-4cae-408a-8a1d-b20cf6bcfaf3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4473,11 +4491,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88e4d8ac-1ddd-4782-8937-c02d11c0748a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="49">
+          <x14:id>{981a3a2a-bea2-49da-969e-c9de85eb6ef0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4485,13 +4503,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{856ce465-f18e-49dd-88e7-757dcfadb3ed}</x14:id>
+          <x14:id>{4e584019-aca2-4aa3-8114-48f9bd17af4f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4499,11 +4517,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61ca6726-1859-4689-92ee-23a9c1727e42}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="47">
+          <x14:id>{058402f8-4613-4743-9bf2-b3c0c2f3f7af}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4511,11 +4529,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e8ced0c2-4d23-4a6f-bd3f-9a1ecb175b3b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="46">
+          <x14:id>{f8c31193-d529-4f71-9e88-ba8110cadada}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4523,11 +4541,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88a1073d-e41d-4f2f-ba64-f12a182f4968}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="45">
+          <x14:id>{7c0c2cc5-233d-4193-ab96-b29d897d47b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4535,11 +4553,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{54e90554-41e7-4622-83e4-643285b3ed1c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
+          <x14:id>{f666458c-5d0a-4745-a877-1f9342e94aa5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4547,11 +4565,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22694628-0016-4c15-89b3-32ef52ea5f3d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
+          <x14:id>{0f1801d0-a720-4584-a6ac-3e48e1328d82}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4559,11 +4577,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02c5687e-de22-4904-aff7-8471f2c72f8f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="42">
+          <x14:id>{c92b3e5d-ee09-47d1-84cd-da7e3fc10755}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4571,11 +4589,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{df51ceb9-e256-485c-ae3b-9b1c25c5e0dc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
+          <x14:id>{cdd84746-ad97-4edd-b235-b5cbfc310d04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4583,11 +4601,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d180224b-0427-4e4b-9553-f25ab76594b7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="40">
+          <x14:id>{8c232f24-ccb4-4654-89f6-6b10d3503b09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4595,11 +4613,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5065d2a4-ae95-4d48-a911-b080441f61ae}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="39">
+          <x14:id>{ecd0efd9-1ab2-4090-a01b-9e6e7bf55bb9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4607,11 +4625,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e7629984-87f9-4b8e-9152-d0e54b8da761}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
+          <x14:id>{ce5db213-ba82-4f90-8228-eeef08e28b65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4619,11 +4637,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d696df6c-bfe3-4400-ad06-162edb97f363}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="37">
+          <x14:id>{09cc5128-ff9d-461c-a132-eb7be9501365}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4631,13 +4649,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28724c40-94a5-4a7e-850b-577d948773d9}</x14:id>
+          <x14:id>{ba4c0e7e-162d-474b-baff-188b2330ab21}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4645,11 +4663,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68389685-6e8b-4b3a-b0e6-a9702d3d6582}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
+          <x14:id>{65fbad52-ef42-4cd7-ad39-a74ea37a7a38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4657,11 +4675,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{425f2676-9333-4ed0-9ef0-0fd4affe0d35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
+          <x14:id>{9ab058b0-0990-47d2-af93-ce3a1d7f4ea0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4669,11 +4687,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ece6884-8725-4656-a65a-1c217fae1ec2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="33">
+          <x14:id>{db065755-bfff-48b0-926d-339fe23ba06e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4681,11 +4699,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81d87ece-768c-4c9c-8e1c-dc9345b018b8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+          <x14:id>{52b10ef3-9fa6-4e6e-9e47-9e2aeff7e29e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4693,11 +4711,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{efbadf35-dc02-4237-988a-486aac964b6f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
+          <x14:id>{283f7d51-cec2-4a48-b5ab-1f42c5ce3fad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4705,11 +4723,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e8b05671-ff53-439a-b3b4-bd9a08cf06f7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
+          <x14:id>{3b812379-8166-465e-a3c9-d1e3949c9581}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4717,11 +4735,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e14edcf0-8184-4058-9ad6-ce15fad78734}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
+          <x14:id>{1796bb11-e38b-4936-9155-91d06ff45bb2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4729,11 +4747,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db66617a-b9d1-40af-b32f-d921d61f68a6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+          <x14:id>{180358d9-9318-4306-8c13-dceb2921ce2b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4741,11 +4759,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59abe19e-969b-4de7-9452-52ff751666e1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+          <x14:id>{3e5bb65c-83f0-4ee3-838a-c2cb95bc08c4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4753,11 +4771,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a7639f9-2224-4da5-98bf-80d8ba1633c1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
+          <x14:id>{2ac2690e-f35a-40eb-9700-624a0a64b39c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4765,11 +4783,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1ead316a-33cb-4657-a683-b4700eabc7ea}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
+          <x14:id>{f3c937a4-6746-4da2-9224-63d92c9a693c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4777,13 +4795,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b21ace01-14d6-452d-b6ee-019ec0437e79}</x14:id>
+          <x14:id>{450ddd1a-e312-452a-84cd-31f7fccc8fec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4791,11 +4809,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a38a622a-cf1a-4627-83ed-20db907bf666}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
+          <x14:id>{dc06bd28-e86e-4737-a3d2-114715f1dc27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4803,11 +4821,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79331a2e-06e4-4b1f-ba02-cb907c2d8472}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
+          <x14:id>{4bb0ceff-63d7-4d68-87c5-f7eaa988023c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4815,11 +4833,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c468226a-62ed-4275-8d81-0b6a3d471ef6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{030a0a6e-81a1-400f-b542-37cf7941eaa8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4827,11 +4845,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adcaa23d-1ab4-42f4-a512-58cf199e486d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{77a77ae5-b736-4d0e-9b49-1102d30a4bc0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4839,11 +4857,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a867fa0-7af5-41f4-b0a7-1c37b99d9245}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{7a83755d-4b09-4b14-b52f-249ec17d8cee}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4851,11 +4869,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04b980d7-e91d-47d6-ab9f-ab5ef46cd033}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{d74fbf66-5766-45d1-b5be-05f23975e52f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4863,11 +4881,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76b82fd8-3a6d-447e-bb0f-17e3fd3074ea}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{d2ad4533-5237-497d-a2af-35c5016190d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4875,11 +4893,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c2265f0-4768-424d-8396-77122598673c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{fddc16fe-0605-40f6-87e0-d4ee13ae1327}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4887,11 +4905,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b07be1f-2262-4a2b-8914-0c5f6c4ac0ae}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{6e9b5cfb-77c1-4776-a8fd-7871b93b2849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4899,11 +4917,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e6a55ea-a636-4ecd-aab3-42dcd941fcfc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
+          <x14:id>{3f25681c-4dd8-4abe-a712-6d4a62e2677b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4911,11 +4929,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bdb3dfac-0503-4fb2-bff5-16dadad0f3da}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
+          <x14:id>{77b734a7-5e1e-404c-b17c-0cfff8aa261f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4923,13 +4941,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dfa04657-e3ec-43c6-967d-e28f776c4b6d}</x14:id>
+          <x14:id>{8977d719-ccaa-4dc1-92be-04b492648a47}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4937,11 +4955,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b752a68b-4b83-4cc1-bbe6-3513275bba21}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
+          <x14:id>{f9c57b05-7924-4d65-bd45-f012cb15e904}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4949,11 +4967,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3378da41-5fbb-4a7c-9abd-68e85bbaa295}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
+          <x14:id>{107378a3-8a11-44eb-8ee1-e50efc04013e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4961,11 +4979,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba91439e-81c7-4a36-9c92-bcff64afa75e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
+          <x14:id>{fb4c157b-69ae-47d3-8291-089c1cb8196b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4973,11 +4991,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ec44bc68-bd42-4d1a-bdc1-59f9fc5a0bfb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
+          <x14:id>{6e270f04-9300-4489-8b06-1a0cd0cf08dc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4985,11 +5003,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28f953ca-4af6-4657-bece-a97b3450e8c8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
+          <x14:id>{86a89df5-17e5-47d2-83c3-a9762e360d79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4997,11 +5015,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f193a457-0451-4062-bfd3-3d778db1870a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
+          <x14:id>{80171d28-b9cb-4fc3-be84-3727a4b33fec}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5009,11 +5027,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3abeae4-1d9c-4512-ad62-126e372935e0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+          <x14:id>{b263779b-da0f-4f26-8c77-b7c19bfbb6eb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5021,11 +5039,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e994d5f2-53c4-4292-b18c-ad2abe4fa16c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
+          <x14:id>{83bb33ff-5b6e-4d81-8968-8ee97a13b105}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5033,11 +5051,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5b746f82-3ac5-4c70-811c-6b30387c4d2d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+          <x14:id>{99d700cb-540a-4c82-92b0-65a80a6894fa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5045,11 +5063,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eba72184-eaea-4c7a-a640-74969319b2cf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
+          <x14:id>{6519a616-0f93-4c25-9d4a-290300598098}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5057,11 +5075,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2bee67e4-40c3-46dc-8c71-371fa029f3cb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
+          <x14:id>{db921058-128f-4698-ad90-61ed5e253e04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5069,13 +5087,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{206b5aa7-6027-4886-a3ae-858f5665925d}</x14:id>
+          <x14:id>{d464c60f-56aa-4e61-979c-135bfc5e197f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I38:I1048576">
-    <cfRule type="dataBar" priority="85">
+  <conditionalFormatting sqref="I38">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ba8d43ec-5707-494e-9f86-df1ea084406c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fd7077f0-9131-40a7-bdee-b5b9bd93962e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{23137534-e9ec-4308-b227-d5598f819517}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{929abfe2-bb3d-49cd-b175-a4e5670e4914}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ed1a1340-61bc-4ff6-813c-14a97711bf4f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{906b152c-6efc-428a-8005-fe6bd7a3c567}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a0992a8a-b513-4c96-8ebf-80f0aadcff8e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88b5e2c6-361f-4667-8cfd-38dd480ac985}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{19172ecc-2793-4e8d-96da-f1f36bfd6f7d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3d2251f6-d86a-4bf2-9dc2-4be3a731920a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03fce62c-e0cf-40b8-9ce2-0f51f246dbe9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5083,11 +5233,133 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c580fb9b-8f5f-4e6f-afa2-331572887c6f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="86">
+          <x14:id>{183b7f25-b433-4612-bd2f-cebd3f863868}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73da11e7-563e-4634-a87a-c5023494029a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{db05578f-33e8-4efb-889a-9583a2b4f287}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7acd4fcf-945c-45ff-868a-398e0e05ae93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d8bad897-fe9b-4d32-ba0f-7ae7250e2d0e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b09466b2-a2cf-499f-a558-e33c2222e81d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ee38b224-e1fb-4533-88ec-d760fcef0e0e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b4e31fd5-7bec-49db-8cc2-1b9fad1193bd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{abcffdd1-15c2-4d8f-8b0d-bfd8bec8acaa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{80f5a448-7bb5-4a0b-90da-d80045a7c4df}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ccc654c6-844d-4ef3-8d8c-8e6704445460}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5095,11 +5367,49 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45fafe30-06c2-4b63-932a-c1a508be3216}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="87">
+          <x14:id>{5d3ba7d3-b29f-4aa8-bd44-7f14040b94c6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e6a23276-1094-44ed-9c20-263df039f137}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I40:I1048576">
+    <cfRule type="dataBar" priority="109">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6ce092bf-6441-4e53-a696-649e813d8a9e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="110">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f6526b86-cdad-495a-a1b7-47f7241ea588}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5107,11 +5417,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89354f2d-0e16-47ec-8c30-7f0d22a0145f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="88">
+          <x14:id>{38f56a58-cc63-4bd3-931a-e1fcaac5cff4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5119,11 +5429,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ac175e1d-3296-4c67-a7fc-5ce00f40050b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="89">
+          <x14:id>{87ffd272-ee05-490d-bc03-15c90dde069a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5131,11 +5441,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{584c3144-60b7-43c3-8b94-b879e47e823c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="90">
+          <x14:id>{c8c0def8-9a10-49fd-bcdb-51e3a35b1aea}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5143,11 +5453,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9fb3a9f5-0db6-4621-b92e-63eaeb39b051}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="91">
+          <x14:id>{b18ba910-3f94-4d5a-9c9e-f2339112faaa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5155,11 +5465,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d2abfeb-6916-4e09-9299-23827cbe6329}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="92">
+          <x14:id>{d68766be-231d-49b6-adff-5764423511b4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5167,11 +5477,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7dd1b045-c81b-4074-be62-f360425d5583}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="93">
+          <x14:id>{b9508a22-be4b-4ebf-9c0d-336ca8c9ad9f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5179,11 +5489,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98c12a70-94b3-4c4b-b822-82631dbc9122}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="94">
+          <x14:id>{d866607b-0723-4703-acb2-0b5d0bc92a53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5191,11 +5501,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99e1450e-5797-42df-809d-662581d13cd9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="95">
+          <x14:id>{fe7d6fca-6a91-4d71-a9ad-458db2aa74c2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5203,11 +5513,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{516b10b5-6204-4403-ba22-99a13d12f912}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="96">
+          <x14:id>{4852d67b-a050-45e5-91fb-b657d3850f84}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5215,13 +5525,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c41aeba-6d4d-4151-bb2f-d3711489b837}</x14:id>
+          <x14:id>{93c4af6e-8e60-4a9f-95bf-714511d5518f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I29 I34:I35">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5229,11 +5539,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f57af2eb-938a-45c8-a7b4-18746d15e024}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="74">
+          <x14:id>{19e8230e-cc06-4004-b329-4a69d4c7af35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5241,11 +5551,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79a9f669-e8f9-47e2-bc22-e17faeb0160d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="75">
+          <x14:id>{fed642d9-3929-4870-8444-012f2b6390db}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5253,11 +5563,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d7a579b8-cde8-499a-a1f9-0ff488826720}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="76">
+          <x14:id>{a93192e4-3d14-4b6d-b656-f2b85e08a35c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5265,11 +5575,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64e5defd-af73-490d-86ff-c8325ddf2b30}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="77">
+          <x14:id>{bb086a8a-1fdc-43bd-845d-24bb53d03db2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5277,11 +5587,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{53a73064-88eb-4e75-8dd1-a44fb980c23e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="78">
+          <x14:id>{f187f651-f988-48a4-89de-57b512ac8d33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5289,11 +5599,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70c31965-5834-425b-87db-240bc3517dfa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="79">
+          <x14:id>{f93f0ff3-6a7e-4c82-8bb9-e263eb2dce59}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5301,11 +5611,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56ee5fb1-b427-470d-9487-749dce56107f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="80">
+          <x14:id>{0547ee6c-60f5-4e6a-b7b0-1c1edafd7502}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5313,11 +5623,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ec6a5984-4efd-4ea6-8861-f19db2492ec6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
+          <x14:id>{4b1e4b07-13b8-4919-9b6c-cd5ea82c8673}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5325,11 +5635,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e62a31c-eb38-4142-a21c-38c90dfeceb4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="82">
+          <x14:id>{8895295d-7da1-4e36-a5f0-ee41cd25a114}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5337,11 +5647,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d881f3b5-3791-410d-9a99-2a103ba0dfe4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="83">
+          <x14:id>{ae0a7763-1dda-4333-80c8-e4e5242b6fea}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5349,11 +5659,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b929f55d-e45b-4389-a8c8-9e592a1b9537}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="84">
+          <x14:id>{a3da1168-7f6f-4411-acf1-1662b665b9c3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5361,7 +5671,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be160a95-33c7-4be5-a68f-6946a9713661}</x14:id>
+          <x14:id>{ff61c509-a909-43b3-8fb7-03f811bc9f5e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5373,7 +5683,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c993e34c-2dd9-4b0a-944f-77e690dd48eb}">
+          <x14:cfRule type="dataBar" id="{7169822f-5594-4498-bd9b-e3de27f8e1be}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5383,7 +5693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4ca5e8b7-5768-43c5-bc17-cc5a37e07bf3}">
+          <x14:cfRule type="dataBar" id="{61547906-bcf7-4aac-bb9f-5a8db3344133}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5391,7 +5701,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e0066aa0-94ba-44bb-8191-22683949d1dc}">
+          <x14:cfRule type="dataBar" id="{d55f7be9-65f1-4cc0-8e80-ec925666cf4f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5401,7 +5711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8993ae89-0ed1-4255-97ca-c755240a862d}">
+          <x14:cfRule type="dataBar" id="{c1e18ef1-dfda-4457-8cfd-50d8138dea45}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5411,7 +5721,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{876f44ad-fa61-497d-883c-66d0f0311db4}">
+          <x14:cfRule type="dataBar" id="{5121452c-9aa0-4297-8b99-35ffe3a34884}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5423,7 +5733,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{91cd0d66-8a04-4347-9056-33320a320881}">
+          <x14:cfRule type="dataBar" id="{32ec7a2c-d23c-45c2-bd0e-94255ed1bf16}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5431,7 +5741,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{299f55d6-5f30-401b-bbbc-7323a8a53727}">
+          <x14:cfRule type="dataBar" id="{3db90519-513e-4ef7-b6b4-6406626289b9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5443,7 +5753,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5972eba7-61de-410d-a6eb-47b6e52fe5fc}">
+          <x14:cfRule type="dataBar" id="{fcba6e3a-81e7-4fb6-b87a-9cdb2ca28555}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5451,7 +5761,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{79b8979b-1145-41fb-bc0d-6d7166f6e1e8}">
+          <x14:cfRule type="dataBar" id="{1fdf9122-296b-4e3e-b776-2c6fbc4eac16}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5463,7 +5773,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{aebfee52-4c7e-4ee5-86a0-0735a5f2c135}">
+          <x14:cfRule type="dataBar" id="{67a82292-7c3d-4766-ab52-71abba120d99}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5471,7 +5781,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{16afae4e-53e1-47a3-a8e8-e06f00999986}">
+          <x14:cfRule type="dataBar" id="{390b22f2-6fcd-4d29-86c3-b4a820857ea2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5483,7 +5793,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bf251395-883d-4ae6-9411-96d36e1b1d13}">
+          <x14:cfRule type="dataBar" id="{c550e519-f746-4b91-b9c3-735d78d8b85b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5498,7 +5808,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4c404cf8-b918-4ad2-bd5e-315686f9f6cf}">
+          <x14:cfRule type="dataBar" id="{2428b250-877d-4827-a7fc-4df7ba8e6e81}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5508,7 +5818,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0d2d3d69-e7d7-4158-ba98-6413afced017}">
+          <x14:cfRule type="dataBar" id="{b0102445-9781-4a60-a270-57010dddb154}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5516,7 +5826,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cfbbd45c-219e-474f-9fa6-c902787d1b1d}">
+          <x14:cfRule type="dataBar" id="{329ca748-9acf-47df-a3d4-3b4cba26d4be}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5526,7 +5836,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{765fae75-fefd-48ba-9d39-22de03338575}">
+          <x14:cfRule type="dataBar" id="{67a31cd4-5ed3-46ca-b4da-27ac5027e51d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5536,7 +5846,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c53127af-1e64-46bf-8d9e-3f2a26507fbd}">
+          <x14:cfRule type="dataBar" id="{e3d6e201-f0b7-4be6-b083-7ede2a11988b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5548,7 +5858,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{99aa5ad1-1e00-4c05-8094-5688bc35f5de}">
+          <x14:cfRule type="dataBar" id="{3925dbd2-d806-40cf-8ec5-fdf7d928de47}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5556,7 +5866,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{035878e8-9460-4ff8-a043-468bda989611}">
+          <x14:cfRule type="dataBar" id="{7fecb45e-c815-4d49-b3cc-608d471d7a04}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5568,7 +5878,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{210e808f-010b-483e-9e2d-a16a53ffb9ed}">
+          <x14:cfRule type="dataBar" id="{9d308085-2865-4716-95a6-62b684d8855e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5576,7 +5886,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{97b4bfdd-d966-4c30-89ab-709d157e2b76}">
+          <x14:cfRule type="dataBar" id="{ae526d65-53d0-45a0-8de2-bceeb1a82c45}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5588,7 +5898,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{affed4ff-6ff9-4f60-9bb9-e2a62cc58554}">
+          <x14:cfRule type="dataBar" id="{7e726693-4cae-408a-8a1d-b20cf6bcfaf3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5596,7 +5906,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{88e4d8ac-1ddd-4782-8937-c02d11c0748a}">
+          <x14:cfRule type="dataBar" id="{981a3a2a-bea2-49da-969e-c9de85eb6ef0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5608,7 +5918,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{856ce465-f18e-49dd-88e7-757dcfadb3ed}">
+          <x14:cfRule type="dataBar" id="{4e584019-aca2-4aa3-8114-48f9bd17af4f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5623,7 +5933,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{61ca6726-1859-4689-92ee-23a9c1727e42}">
+          <x14:cfRule type="dataBar" id="{058402f8-4613-4743-9bf2-b3c0c2f3f7af}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5633,7 +5943,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e8ced0c2-4d23-4a6f-bd3f-9a1ecb175b3b}">
+          <x14:cfRule type="dataBar" id="{f8c31193-d529-4f71-9e88-ba8110cadada}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5641,7 +5951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{88a1073d-e41d-4f2f-ba64-f12a182f4968}">
+          <x14:cfRule type="dataBar" id="{7c0c2cc5-233d-4193-ab96-b29d897d47b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5651,7 +5961,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{54e90554-41e7-4622-83e4-643285b3ed1c}">
+          <x14:cfRule type="dataBar" id="{f666458c-5d0a-4745-a877-1f9342e94aa5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5661,7 +5971,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{22694628-0016-4c15-89b3-32ef52ea5f3d}">
+          <x14:cfRule type="dataBar" id="{0f1801d0-a720-4584-a6ac-3e48e1328d82}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5673,7 +5983,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{02c5687e-de22-4904-aff7-8471f2c72f8f}">
+          <x14:cfRule type="dataBar" id="{c92b3e5d-ee09-47d1-84cd-da7e3fc10755}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5681,7 +5991,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{df51ceb9-e256-485c-ae3b-9b1c25c5e0dc}">
+          <x14:cfRule type="dataBar" id="{cdd84746-ad97-4edd-b235-b5cbfc310d04}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5693,7 +6003,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d180224b-0427-4e4b-9553-f25ab76594b7}">
+          <x14:cfRule type="dataBar" id="{8c232f24-ccb4-4654-89f6-6b10d3503b09}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5701,7 +6011,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5065d2a4-ae95-4d48-a911-b080441f61ae}">
+          <x14:cfRule type="dataBar" id="{ecd0efd9-1ab2-4090-a01b-9e6e7bf55bb9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5713,7 +6023,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e7629984-87f9-4b8e-9152-d0e54b8da761}">
+          <x14:cfRule type="dataBar" id="{ce5db213-ba82-4f90-8228-eeef08e28b65}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5721,7 +6031,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d696df6c-bfe3-4400-ad06-162edb97f363}">
+          <x14:cfRule type="dataBar" id="{09cc5128-ff9d-461c-a132-eb7be9501365}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5733,7 +6043,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{28724c40-94a5-4a7e-850b-577d948773d9}">
+          <x14:cfRule type="dataBar" id="{ba4c0e7e-162d-474b-baff-188b2330ab21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5748,7 +6058,7 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68389685-6e8b-4b3a-b0e6-a9702d3d6582}">
+          <x14:cfRule type="dataBar" id="{65fbad52-ef42-4cd7-ad39-a74ea37a7a38}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5758,7 +6068,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{425f2676-9333-4ed0-9ef0-0fd4affe0d35}">
+          <x14:cfRule type="dataBar" id="{9ab058b0-0990-47d2-af93-ce3a1d7f4ea0}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5766,7 +6076,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4ece6884-8725-4656-a65a-1c217fae1ec2}">
+          <x14:cfRule type="dataBar" id="{db065755-bfff-48b0-926d-339fe23ba06e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5776,7 +6086,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{81d87ece-768c-4c9c-8e1c-dc9345b018b8}">
+          <x14:cfRule type="dataBar" id="{52b10ef3-9fa6-4e6e-9e47-9e2aeff7e29e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5786,7 +6096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{efbadf35-dc02-4237-988a-486aac964b6f}">
+          <x14:cfRule type="dataBar" id="{283f7d51-cec2-4a48-b5ab-1f42c5ce3fad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5798,7 +6108,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e8b05671-ff53-439a-b3b4-bd9a08cf06f7}">
+          <x14:cfRule type="dataBar" id="{3b812379-8166-465e-a3c9-d1e3949c9581}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5806,7 +6116,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e14edcf0-8184-4058-9ad6-ce15fad78734}">
+          <x14:cfRule type="dataBar" id="{1796bb11-e38b-4936-9155-91d06ff45bb2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5818,7 +6128,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{db66617a-b9d1-40af-b32f-d921d61f68a6}">
+          <x14:cfRule type="dataBar" id="{180358d9-9318-4306-8c13-dceb2921ce2b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5826,7 +6136,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{59abe19e-969b-4de7-9452-52ff751666e1}">
+          <x14:cfRule type="dataBar" id="{3e5bb65c-83f0-4ee3-838a-c2cb95bc08c4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5838,7 +6148,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5a7639f9-2224-4da5-98bf-80d8ba1633c1}">
+          <x14:cfRule type="dataBar" id="{2ac2690e-f35a-40eb-9700-624a0a64b39c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5846,7 +6156,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1ead316a-33cb-4657-a683-b4700eabc7ea}">
+          <x14:cfRule type="dataBar" id="{f3c937a4-6746-4da2-9224-63d92c9a693c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5858,7 +6168,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b21ace01-14d6-452d-b6ee-019ec0437e79}">
+          <x14:cfRule type="dataBar" id="{450ddd1a-e312-452a-84cd-31f7fccc8fec}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5873,7 +6183,7 @@
           <xm:sqref>I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a38a622a-cf1a-4627-83ed-20db907bf666}">
+          <x14:cfRule type="dataBar" id="{dc06bd28-e86e-4737-a3d2-114715f1dc27}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5883,7 +6193,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{79331a2e-06e4-4b1f-ba02-cb907c2d8472}">
+          <x14:cfRule type="dataBar" id="{4bb0ceff-63d7-4d68-87c5-f7eaa988023c}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5891,7 +6201,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c468226a-62ed-4275-8d81-0b6a3d471ef6}">
+          <x14:cfRule type="dataBar" id="{030a0a6e-81a1-400f-b542-37cf7941eaa8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5901,7 +6211,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{adcaa23d-1ab4-42f4-a512-58cf199e486d}">
+          <x14:cfRule type="dataBar" id="{77a77ae5-b736-4d0e-9b49-1102d30a4bc0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5911,7 +6221,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8a867fa0-7af5-41f4-b0a7-1c37b99d9245}">
+          <x14:cfRule type="dataBar" id="{7a83755d-4b09-4b14-b52f-249ec17d8cee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5923,7 +6233,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{04b980d7-e91d-47d6-ab9f-ab5ef46cd033}">
+          <x14:cfRule type="dataBar" id="{d74fbf66-5766-45d1-b5be-05f23975e52f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5931,7 +6241,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{76b82fd8-3a6d-447e-bb0f-17e3fd3074ea}">
+          <x14:cfRule type="dataBar" id="{d2ad4533-5237-497d-a2af-35c5016190d7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5943,7 +6253,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7c2265f0-4768-424d-8396-77122598673c}">
+          <x14:cfRule type="dataBar" id="{fddc16fe-0605-40f6-87e0-d4ee13ae1327}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5951,7 +6261,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2b07be1f-2262-4a2b-8914-0c5f6c4ac0ae}">
+          <x14:cfRule type="dataBar" id="{6e9b5cfb-77c1-4776-a8fd-7871b93b2849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5963,7 +6273,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0e6a55ea-a636-4ecd-aab3-42dcd941fcfc}">
+          <x14:cfRule type="dataBar" id="{3f25681c-4dd8-4abe-a712-6d4a62e2677b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5971,7 +6281,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bdb3dfac-0503-4fb2-bff5-16dadad0f3da}">
+          <x14:cfRule type="dataBar" id="{77b734a7-5e1e-404c-b17c-0cfff8aa261f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5983,7 +6293,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dfa04657-e3ec-43c6-967d-e28f776c4b6d}">
+          <x14:cfRule type="dataBar" id="{8977d719-ccaa-4dc1-92be-04b492648a47}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5998,7 +6308,7 @@
           <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b752a68b-4b83-4cc1-bbe6-3513275bba21}">
+          <x14:cfRule type="dataBar" id="{f9c57b05-7924-4d65-bd45-f012cb15e904}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6008,7 +6318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3378da41-5fbb-4a7c-9abd-68e85bbaa295}">
+          <x14:cfRule type="dataBar" id="{107378a3-8a11-44eb-8ee1-e50efc04013e}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6016,7 +6326,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ba91439e-81c7-4a36-9c92-bcff64afa75e}">
+          <x14:cfRule type="dataBar" id="{fb4c157b-69ae-47d3-8291-089c1cb8196b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6026,7 +6336,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ec44bc68-bd42-4d1a-bdc1-59f9fc5a0bfb}">
+          <x14:cfRule type="dataBar" id="{6e270f04-9300-4489-8b06-1a0cd0cf08dc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6036,7 +6346,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{28f953ca-4af6-4657-bece-a97b3450e8c8}">
+          <x14:cfRule type="dataBar" id="{86a89df5-17e5-47d2-83c3-a9762e360d79}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6048,7 +6358,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f193a457-0451-4062-bfd3-3d778db1870a}">
+          <x14:cfRule type="dataBar" id="{80171d28-b9cb-4fc3-be84-3727a4b33fec}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6056,7 +6366,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c3abeae4-1d9c-4512-ad62-126e372935e0}">
+          <x14:cfRule type="dataBar" id="{b263779b-da0f-4f26-8c77-b7c19bfbb6eb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6068,7 +6378,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e994d5f2-53c4-4292-b18c-ad2abe4fa16c}">
+          <x14:cfRule type="dataBar" id="{83bb33ff-5b6e-4d81-8968-8ee97a13b105}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6076,7 +6386,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5b746f82-3ac5-4c70-811c-6b30387c4d2d}">
+          <x14:cfRule type="dataBar" id="{99d700cb-540a-4c82-92b0-65a80a6894fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6088,7 +6398,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{eba72184-eaea-4c7a-a640-74969319b2cf}">
+          <x14:cfRule type="dataBar" id="{6519a616-0f93-4c25-9d4a-290300598098}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6096,7 +6406,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2bee67e4-40c3-46dc-8c71-371fa029f3cb}">
+          <x14:cfRule type="dataBar" id="{db921058-128f-4698-ad90-61ed5e253e04}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6108,7 +6418,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{206b5aa7-6027-4886-a3ae-858f5665925d}">
+          <x14:cfRule type="dataBar" id="{d464c60f-56aa-4e61-979c-135bfc5e197f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6123,7 +6433,117 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c580fb9b-8f5f-4e6f-afa2-331572887c6f}">
+          <x14:cfRule type="dataBar" id="{ba8d43ec-5707-494e-9f86-df1ea084406c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{fd7077f0-9131-40a7-bdee-b5b9bd93962e}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{23137534-e9ec-4308-b227-d5598f819517}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{929abfe2-bb3d-49cd-b175-a4e5670e4914}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ed1a1340-61bc-4ff6-813c-14a97711bf4f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{906b152c-6efc-428a-8005-fe6bd7a3c567}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a0992a8a-b513-4c96-8ebf-80f0aadcff8e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{88b5e2c6-361f-4667-8cfd-38dd480ac985}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{19172ecc-2793-4e8d-96da-f1f36bfd6f7d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3d2251f6-d86a-4bf2-9dc2-4be3a731920a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{03fce62c-e0cf-40b8-9ce2-0f51f246dbe9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{183b7f25-b433-4612-bd2f-cebd3f863868}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6135,7 +6555,108 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{45fafe30-06c2-4b63-932a-c1a508be3216}">
+          <xm:sqref>I38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73da11e7-563e-4634-a87a-c5023494029a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{db05578f-33e8-4efb-889a-9583a2b4f287}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7acd4fcf-945c-45ff-868a-398e0e05ae93}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d8bad897-fe9b-4d32-ba0f-7ae7250e2d0e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b09466b2-a2cf-499f-a558-e33c2222e81d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ee38b224-e1fb-4533-88ec-d760fcef0e0e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b4e31fd5-7bec-49db-8cc2-1b9fad1193bd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{abcffdd1-15c2-4d8f-8b0d-bfd8bec8acaa}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{80f5a448-7bb5-4a0b-90da-d80045a7c4df}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ccc654c6-844d-4ef3-8d8c-8e6704445460}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5d3ba7d3-b29f-4aa8-bd44-7f14040b94c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6147,7 +6668,46 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{89354f2d-0e16-47ec-8c30-7f0d22a0145f}">
+          <x14:cfRule type="dataBar" id="{e6a23276-1094-44ed-9c20-263df039f137}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6ce092bf-6441-4e53-a696-649e813d8a9e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{f6526b86-cdad-495a-a1b7-47f7241ea588}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{38f56a58-cc63-4bd3-931a-e1fcaac5cff4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6155,7 +6715,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ac175e1d-3296-4c67-a7fc-5ce00f40050b}">
+          <x14:cfRule type="dataBar" id="{87ffd272-ee05-490d-bc03-15c90dde069a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6167,7 +6727,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{584c3144-60b7-43c3-8b94-b879e47e823c}">
+          <x14:cfRule type="dataBar" id="{c8c0def8-9a10-49fd-bcdb-51e3a35b1aea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6175,7 +6735,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9fb3a9f5-0db6-4621-b92e-63eaeb39b051}">
+          <x14:cfRule type="dataBar" id="{b18ba910-3f94-4d5a-9c9e-f2339112faaa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6187,7 +6747,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6d2abfeb-6916-4e09-9299-23827cbe6329}">
+          <x14:cfRule type="dataBar" id="{d68766be-231d-49b6-adff-5764423511b4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6195,7 +6755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7dd1b045-c81b-4074-be62-f360425d5583}">
+          <x14:cfRule type="dataBar" id="{b9508a22-be4b-4ebf-9c0d-336ca8c9ad9f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6207,7 +6767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{98c12a70-94b3-4c4b-b822-82631dbc9122}">
+          <x14:cfRule type="dataBar" id="{d866607b-0723-4703-acb2-0b5d0bc92a53}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6217,7 +6777,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{99e1450e-5797-42df-809d-662581d13cd9}">
+          <x14:cfRule type="dataBar" id="{fe7d6fca-6a91-4d71-a9ad-458db2aa74c2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6227,7 +6787,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{516b10b5-6204-4403-ba22-99a13d12f912}">
+          <x14:cfRule type="dataBar" id="{4852d67b-a050-45e5-91fb-b657d3850f84}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6235,7 +6795,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1c41aeba-6d4d-4151-bb2f-d3711489b837}">
+          <x14:cfRule type="dataBar" id="{93c4af6e-8e60-4a9f-95bf-714511d5518f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6245,10 +6805,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25 I38:I1048576</xm:sqref>
+          <xm:sqref>I2:I25 I40:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f57af2eb-938a-45c8-a7b4-18746d15e024}">
+          <x14:cfRule type="dataBar" id="{19e8230e-cc06-4004-b329-4a69d4c7af35}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6260,7 +6820,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{79a9f669-e8f9-47e2-bc22-e17faeb0160d}">
+          <x14:cfRule type="dataBar" id="{fed642d9-3929-4870-8444-012f2b6390db}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6272,7 +6832,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d7a579b8-cde8-499a-a1f9-0ff488826720}">
+          <x14:cfRule type="dataBar" id="{a93192e4-3d14-4b6d-b656-f2b85e08a35c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6280,7 +6840,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{64e5defd-af73-490d-86ff-c8325ddf2b30}">
+          <x14:cfRule type="dataBar" id="{bb086a8a-1fdc-43bd-845d-24bb53d03db2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6292,7 +6852,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{53a73064-88eb-4e75-8dd1-a44fb980c23e}">
+          <x14:cfRule type="dataBar" id="{f187f651-f988-48a4-89de-57b512ac8d33}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6300,7 +6860,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{70c31965-5834-425b-87db-240bc3517dfa}">
+          <x14:cfRule type="dataBar" id="{f93f0ff3-6a7e-4c82-8bb9-e263eb2dce59}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6312,7 +6872,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{56ee5fb1-b427-470d-9487-749dce56107f}">
+          <x14:cfRule type="dataBar" id="{0547ee6c-60f5-4e6a-b7b0-1c1edafd7502}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6320,7 +6880,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ec6a5984-4efd-4ea6-8861-f19db2492ec6}">
+          <x14:cfRule type="dataBar" id="{4b1e4b07-13b8-4919-9b6c-cd5ea82c8673}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6332,7 +6892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3e62a31c-eb38-4142-a21c-38c90dfeceb4}">
+          <x14:cfRule type="dataBar" id="{8895295d-7da1-4e36-a5f0-ee41cd25a114}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6342,7 +6902,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d881f3b5-3791-410d-9a99-2a103ba0dfe4}">
+          <x14:cfRule type="dataBar" id="{ae0a7763-1dda-4333-80c8-e4e5242b6fea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6352,7 +6912,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b929f55d-e45b-4389-a8c8-9e592a1b9537}">
+          <x14:cfRule type="dataBar" id="{a3da1168-7f6f-4411-acf1-1662b665b9c3}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6360,7 +6920,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{be160a95-33c7-4be5-a68f-6946a9713661}">
+          <x14:cfRule type="dataBar" id="{ff61c509-a909-43b3-8fb7-03f811bc9f5e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="525"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="525"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="207">
   <si>
     <t>模块</t>
   </si>
@@ -646,8 +646,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -726,7 +726,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -739,9 +747,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -749,7 +756,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -764,21 +771,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -800,6 +801,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -808,25 +816,9 @@
       <scheme val="major"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -841,15 +833,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -857,6 +849,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,7 +901,161 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,73 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,106 +1091,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="0"/>
-        </stop>
-        <stop position="1">
-          <color theme="4"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1175,21 +1175,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1217,6 +1202,21 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1272,6 +1272,30 @@
     <border>
       <left/>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
@@ -1315,14 +1339,21 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,13 +1373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1368,20 +1403,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,38 +1430,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,156 +1461,156 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="19">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="24">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="25">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="21">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="26">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="19">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="36" borderId="0">
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1678,115 +1700,121 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="11">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="9" xfId="11" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="11" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="15" xfId="11" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="11" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="6" xfId="11" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="13" xfId="11" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2141,9 +2169,9 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -2191,16 +2219,16 @@
       <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="48" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2224,22 +2252,22 @@
       <c r="G2" s="40">
         <v>1</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="29">
-        <v>1</v>
-      </c>
-      <c r="J2" s="51">
-        <v>1</v>
-      </c>
-      <c r="K2" s="52" t="s">
+      <c r="I2" s="51">
+        <v>1</v>
+      </c>
+      <c r="J2" s="52">
+        <v>1</v>
+      </c>
+      <c r="K2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="53">
         <v>44136</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="53">
         <v>44149</v>
       </c>
     </row>
@@ -2264,19 +2292,19 @@
       <c r="H3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="29">
-        <v>1</v>
-      </c>
-      <c r="J3" s="53">
-        <v>1</v>
-      </c>
-      <c r="K3" s="52" t="s">
+      <c r="I3" s="51">
+        <v>1</v>
+      </c>
+      <c r="J3" s="54">
+        <v>1</v>
+      </c>
+      <c r="K3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="53">
         <v>44150</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="53">
         <v>44156</v>
       </c>
     </row>
@@ -2301,19 +2329,19 @@
       <c r="H4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="29">
-        <v>1</v>
-      </c>
-      <c r="J4" s="51">
-        <v>1</v>
-      </c>
-      <c r="K4" s="52" t="s">
+      <c r="I4" s="51">
+        <v>1</v>
+      </c>
+      <c r="J4" s="52">
+        <v>1</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="53">
         <v>44157</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="53">
         <v>44163</v>
       </c>
     </row>
@@ -2338,23 +2366,23 @@
       <c r="H5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="29">
-        <v>1</v>
-      </c>
-      <c r="J5" s="51">
-        <v>1</v>
-      </c>
-      <c r="K5" s="52" t="s">
+      <c r="I5" s="51">
+        <v>1</v>
+      </c>
+      <c r="J5" s="52">
+        <v>1</v>
+      </c>
+      <c r="K5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="53">
         <v>44164</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="53">
         <v>44196</v>
       </c>
     </row>
-    <row r="6" ht="27.75" customHeight="1" spans="1:11">
+    <row r="6" ht="27.75" customHeight="1" spans="1:13">
       <c r="A6" s="41"/>
       <c r="B6" s="36" t="s">
         <v>28</v>
@@ -2373,10 +2401,13 @@
       <c r="H6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" ht="27.75" customHeight="1" spans="1:13">
       <c r="A7" s="41"/>
       <c r="B7" s="36" t="s">
         <v>30</v>
@@ -2395,10 +2426,13 @@
       <c r="H7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
-    </row>
-    <row r="8" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1" spans="1:13">
       <c r="A8" s="41"/>
       <c r="B8" s="36" t="s">
         <v>31</v>
@@ -2417,8 +2451,11 @@
       <c r="H8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" ht="27.75" customHeight="1" spans="1:13">
       <c r="A9" s="41" t="s">
@@ -2441,17 +2478,17 @@
       <c r="H9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="29">
-        <v>1</v>
-      </c>
-      <c r="J9" s="51">
-        <v>1</v>
-      </c>
-      <c r="K9" s="52"/>
-      <c r="L9" s="31">
+      <c r="I9" s="51">
+        <v>1</v>
+      </c>
+      <c r="J9" s="52">
+        <v>1</v>
+      </c>
+      <c r="K9" s="44"/>
+      <c r="L9" s="53">
         <v>44501</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="53">
         <v>44504</v>
       </c>
     </row>
@@ -2472,17 +2509,17 @@
       <c r="H10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="51">
-        <v>1</v>
-      </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="31">
+      <c r="I10" s="51">
+        <v>1</v>
+      </c>
+      <c r="J10" s="52">
+        <v>1</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="53">
         <v>44501</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="53">
         <v>44504</v>
       </c>
     </row>
@@ -2503,17 +2540,17 @@
       <c r="H11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="29">
-        <v>1</v>
-      </c>
-      <c r="J11" s="51">
-        <v>1</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="31">
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="J11" s="52">
+        <v>1</v>
+      </c>
+      <c r="K11" s="44"/>
+      <c r="L11" s="53">
         <v>44501</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="53">
         <v>44504</v>
       </c>
     </row>
@@ -2534,21 +2571,21 @@
       <c r="H12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="29">
-        <v>1</v>
-      </c>
-      <c r="J12" s="51">
-        <v>1</v>
-      </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="31">
+      <c r="I12" s="51">
+        <v>1</v>
+      </c>
+      <c r="J12" s="52">
+        <v>1</v>
+      </c>
+      <c r="K12" s="44"/>
+      <c r="L12" s="53">
         <v>44501</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="53">
         <v>44504</v>
       </c>
     </row>
-    <row r="13" ht="27.75" customHeight="1" spans="1:11">
+    <row r="13" ht="27.75" customHeight="1" spans="1:13">
       <c r="A13" s="41"/>
       <c r="B13" s="36"/>
       <c r="C13" s="42"/>
@@ -2565,10 +2602,13 @@
       <c r="H13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="52"/>
-    </row>
-    <row r="14" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" ht="27.75" customHeight="1" spans="1:13">
       <c r="A14" s="41"/>
       <c r="B14" s="36"/>
       <c r="C14" s="42"/>
@@ -2585,8 +2625,11 @@
       <c r="H14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
     </row>
     <row r="15" ht="27.75" customHeight="1" spans="1:13">
       <c r="A15" s="41"/>
@@ -2607,17 +2650,17 @@
       <c r="H15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="29">
-        <v>1</v>
-      </c>
-      <c r="J15" s="51">
-        <v>1</v>
-      </c>
-      <c r="K15" s="52"/>
-      <c r="L15" s="31">
+      <c r="I15" s="51">
+        <v>1</v>
+      </c>
+      <c r="J15" s="52">
+        <v>1</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="53">
         <v>44505</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="53">
         <v>44510</v>
       </c>
     </row>
@@ -2638,17 +2681,17 @@
       <c r="H16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="29">
-        <v>1</v>
-      </c>
-      <c r="J16" s="51">
-        <v>1</v>
-      </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="31">
+      <c r="I16" s="51">
+        <v>1</v>
+      </c>
+      <c r="J16" s="52">
+        <v>1</v>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="53">
         <v>44505</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="53">
         <v>44510</v>
       </c>
     </row>
@@ -2669,17 +2712,17 @@
       <c r="H17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="29">
-        <v>1</v>
-      </c>
-      <c r="J17" s="51">
-        <v>1</v>
-      </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="31">
+      <c r="I17" s="51">
+        <v>1</v>
+      </c>
+      <c r="J17" s="52">
+        <v>1</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="53">
         <v>44505</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="53">
         <v>44510</v>
       </c>
     </row>
@@ -2700,21 +2743,21 @@
       <c r="H18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="29">
-        <v>1</v>
-      </c>
-      <c r="J18" s="51">
-        <v>1</v>
-      </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="31">
+      <c r="I18" s="51">
+        <v>1</v>
+      </c>
+      <c r="J18" s="52">
+        <v>1</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="53">
         <v>44505</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="53">
         <v>44510</v>
       </c>
     </row>
-    <row r="19" ht="27.75" customHeight="1" spans="1:11">
+    <row r="19" ht="27.75" customHeight="1" spans="1:13">
       <c r="A19" s="41"/>
       <c r="B19" s="36"/>
       <c r="C19" s="42"/>
@@ -2731,10 +2774,13 @@
       <c r="H19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-    </row>
-    <row r="20" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" ht="27.75" customHeight="1" spans="1:13">
       <c r="A20" s="41"/>
       <c r="B20" s="36"/>
       <c r="C20" s="42"/>
@@ -2751,8 +2797,11 @@
       <c r="H20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
     </row>
     <row r="21" ht="27.75" customHeight="1" spans="1:13">
       <c r="A21" s="41"/>
@@ -2773,17 +2822,17 @@
       <c r="H21" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="29">
-        <v>1</v>
-      </c>
-      <c r="J21" s="51">
-        <v>1</v>
-      </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="31">
+      <c r="I21" s="51">
+        <v>1</v>
+      </c>
+      <c r="J21" s="52">
+        <v>1</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="53">
         <v>44505</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="53">
         <v>44510</v>
       </c>
     </row>
@@ -2804,17 +2853,17 @@
       <c r="H22" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="29">
-        <v>1</v>
-      </c>
-      <c r="J22" s="51">
-        <v>1</v>
-      </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="31">
+      <c r="I22" s="51">
+        <v>1</v>
+      </c>
+      <c r="J22" s="52">
+        <v>1</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="53">
         <v>44505</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="53">
         <v>44510</v>
       </c>
     </row>
@@ -2835,17 +2884,17 @@
       <c r="H23" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="29">
-        <v>1</v>
-      </c>
-      <c r="J23" s="51">
-        <v>1</v>
-      </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="31">
+      <c r="I23" s="51">
+        <v>1</v>
+      </c>
+      <c r="J23" s="52">
+        <v>1</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="53">
         <v>44505</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="53">
         <v>44510</v>
       </c>
     </row>
@@ -2866,21 +2915,21 @@
       <c r="H24" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="29">
-        <v>1</v>
-      </c>
-      <c r="J24" s="51">
-        <v>1</v>
-      </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="31">
+      <c r="I24" s="51">
+        <v>1</v>
+      </c>
+      <c r="J24" s="52">
+        <v>1</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="53">
         <v>44505</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="53">
         <v>44510</v>
       </c>
     </row>
-    <row r="25" ht="27.75" customHeight="1" spans="1:11">
+    <row r="25" ht="27.75" customHeight="1" spans="1:13">
       <c r="A25" s="41"/>
       <c r="B25" s="36"/>
       <c r="C25" s="42"/>
@@ -2897,10 +2946,13 @@
       <c r="H25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-    </row>
-    <row r="26" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" ht="27.75" customHeight="1" spans="1:13">
       <c r="A26" s="41"/>
       <c r="B26" s="36"/>
       <c r="C26" s="42"/>
@@ -2917,8 +2969,11 @@
       <c r="H26" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
     </row>
     <row r="27" ht="27.75" customHeight="1" spans="1:13">
       <c r="A27" s="41" t="s">
@@ -2941,14 +2996,17 @@
       <c r="H27" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="51">
-        <v>1</v>
-      </c>
-      <c r="K27" s="52"/>
-      <c r="L27" s="31">
+      <c r="I27" s="51">
+        <v>1</v>
+      </c>
+      <c r="J27" s="52">
+        <v>1</v>
+      </c>
+      <c r="K27" s="44"/>
+      <c r="L27" s="53">
         <v>44513</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="53">
         <v>44513</v>
       </c>
     </row>
@@ -2969,14 +3027,17 @@
       <c r="H28" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="51">
-        <v>1</v>
-      </c>
-      <c r="K28" s="52"/>
-      <c r="L28" s="31">
+      <c r="I28" s="51">
+        <v>1</v>
+      </c>
+      <c r="J28" s="55">
+        <v>1</v>
+      </c>
+      <c r="K28" s="44"/>
+      <c r="L28" s="53">
         <v>44513</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="53">
         <v>44513</v>
       </c>
     </row>
@@ -2997,14 +3058,17 @@
       <c r="H29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="51">
-        <v>1</v>
-      </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="31">
+      <c r="I29" s="51">
+        <v>1</v>
+      </c>
+      <c r="J29" s="52">
+        <v>1</v>
+      </c>
+      <c r="K29" s="44"/>
+      <c r="L29" s="53">
         <v>44513</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="53">
         <v>44513</v>
       </c>
     </row>
@@ -3027,17 +3091,17 @@
       <c r="H30" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="29">
-        <v>1</v>
-      </c>
-      <c r="J30" s="51">
-        <v>1</v>
-      </c>
-      <c r="K30" s="52"/>
-      <c r="L30" s="31">
+      <c r="I30" s="51">
+        <v>1</v>
+      </c>
+      <c r="J30" s="52">
+        <v>1</v>
+      </c>
+      <c r="K30" s="44"/>
+      <c r="L30" s="53">
         <v>44513</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="53">
         <v>44515</v>
       </c>
     </row>
@@ -3058,17 +3122,17 @@
       <c r="H31" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="29">
-        <v>1</v>
-      </c>
-      <c r="J31" s="51">
-        <v>1</v>
-      </c>
-      <c r="K31" s="52"/>
-      <c r="L31" s="31">
+      <c r="I31" s="51">
+        <v>1</v>
+      </c>
+      <c r="J31" s="52">
+        <v>1</v>
+      </c>
+      <c r="K31" s="44"/>
+      <c r="L31" s="53">
         <v>44513</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="53">
         <v>44515</v>
       </c>
     </row>
@@ -3089,17 +3153,17 @@
       <c r="H32" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="29">
-        <v>1</v>
-      </c>
-      <c r="J32" s="51">
-        <v>1</v>
-      </c>
-      <c r="K32" s="52"/>
-      <c r="L32" s="31">
+      <c r="I32" s="51">
+        <v>1</v>
+      </c>
+      <c r="J32" s="52">
+        <v>1</v>
+      </c>
+      <c r="K32" s="44"/>
+      <c r="L32" s="53">
         <v>44513</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="53">
         <v>44515</v>
       </c>
     </row>
@@ -3120,17 +3184,17 @@
       <c r="H33" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="29">
-        <v>1</v>
-      </c>
-      <c r="J33" s="51">
-        <v>1</v>
-      </c>
-      <c r="K33" s="52"/>
-      <c r="L33" s="31">
+      <c r="I33" s="51">
+        <v>1</v>
+      </c>
+      <c r="J33" s="52">
+        <v>1</v>
+      </c>
+      <c r="K33" s="44"/>
+      <c r="L33" s="53">
         <v>44513</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="53">
         <v>44515</v>
       </c>
     </row>
@@ -3153,17 +3217,17 @@
       <c r="H34" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="29">
-        <v>1</v>
-      </c>
-      <c r="J34" s="51">
-        <v>1</v>
-      </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="31">
+      <c r="I34" s="51">
+        <v>1</v>
+      </c>
+      <c r="J34" s="52">
+        <v>1</v>
+      </c>
+      <c r="K34" s="44"/>
+      <c r="L34" s="53">
         <v>44511</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="53">
         <v>44512</v>
       </c>
     </row>
@@ -3182,17 +3246,17 @@
       <c r="H35" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="29">
-        <v>1</v>
-      </c>
-      <c r="J35" s="51">
-        <v>1</v>
-      </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="31">
+      <c r="I35" s="51">
+        <v>1</v>
+      </c>
+      <c r="J35" s="52">
+        <v>1</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="53">
         <v>44511</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="53">
         <v>44512</v>
       </c>
     </row>
@@ -3215,17 +3279,17 @@
       <c r="H36" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="29">
-        <v>1</v>
-      </c>
-      <c r="J36" s="51">
-        <v>1</v>
-      </c>
-      <c r="K36" s="52"/>
-      <c r="L36" s="31">
+      <c r="I36" s="51">
+        <v>1</v>
+      </c>
+      <c r="J36" s="52">
+        <v>1</v>
+      </c>
+      <c r="K36" s="44"/>
+      <c r="L36" s="53">
         <v>44513</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="53">
         <v>44515</v>
       </c>
     </row>
@@ -3246,17 +3310,17 @@
       <c r="H37" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="29">
-        <v>1</v>
-      </c>
-      <c r="J37" s="51">
-        <v>1</v>
-      </c>
-      <c r="K37" s="52"/>
-      <c r="L37" s="31">
+      <c r="I37" s="51">
+        <v>1</v>
+      </c>
+      <c r="J37" s="52">
+        <v>1</v>
+      </c>
+      <c r="K37" s="44"/>
+      <c r="L37" s="53">
         <v>44513</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M37" s="53">
         <v>44515</v>
       </c>
     </row>
@@ -3277,17 +3341,17 @@
       <c r="H38" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="29">
-        <v>1</v>
-      </c>
-      <c r="J38" s="51">
-        <v>1</v>
-      </c>
-      <c r="K38" s="52"/>
-      <c r="L38" s="31">
+      <c r="I38" s="51">
+        <v>1</v>
+      </c>
+      <c r="J38" s="52">
+        <v>1</v>
+      </c>
+      <c r="K38" s="44"/>
+      <c r="L38" s="53">
         <v>44515</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="53">
         <v>44517</v>
       </c>
     </row>
@@ -3308,21 +3372,21 @@
       <c r="H39" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="29">
-        <v>1</v>
-      </c>
-      <c r="J39" s="51">
-        <v>1</v>
-      </c>
-      <c r="K39" s="52"/>
-      <c r="L39" s="31">
+      <c r="I39" s="51">
+        <v>1</v>
+      </c>
+      <c r="J39" s="52">
+        <v>1</v>
+      </c>
+      <c r="K39" s="44"/>
+      <c r="L39" s="53">
         <v>44515</v>
       </c>
-      <c r="M39" s="31">
+      <c r="M39" s="53">
         <v>44517</v>
       </c>
     </row>
-    <row r="40" ht="27.75" customHeight="1" spans="1:11">
+    <row r="40" ht="27.75" customHeight="1" spans="1:13">
       <c r="A40" s="41"/>
       <c r="B40" s="36"/>
       <c r="C40" s="42"/>
@@ -3339,10 +3403,13 @@
       <c r="H40" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="52"/>
-    </row>
-    <row r="41" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+    </row>
+    <row r="41" ht="27.75" customHeight="1" spans="1:13">
       <c r="A41" s="41"/>
       <c r="B41" s="36"/>
       <c r="C41" s="42"/>
@@ -3359,10 +3426,13 @@
       <c r="H41" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="52"/>
-    </row>
-    <row r="42" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+    </row>
+    <row r="42" ht="27.75" customHeight="1" spans="1:13">
       <c r="A42" s="41" t="s">
         <v>67</v>
       </c>
@@ -3383,10 +3453,13 @@
       <c r="H42" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="51"/>
-      <c r="K42" s="52"/>
-    </row>
-    <row r="43" ht="27.75" customHeight="1" spans="1:11">
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+    </row>
+    <row r="43" ht="27.75" customHeight="1" spans="1:13">
       <c r="A43" s="41"/>
       <c r="B43" s="36"/>
       <c r="C43" s="42"/>
@@ -3403,10 +3476,13 @@
       <c r="H43" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="51"/>
-      <c r="K43" s="52"/>
-    </row>
-    <row r="44" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+    </row>
+    <row r="44" ht="24.75" customHeight="1" spans="1:13">
       <c r="A44" s="41"/>
       <c r="B44" s="36" t="s">
         <v>69</v>
@@ -3425,10 +3501,13 @@
       <c r="H44" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="52"/>
-    </row>
-    <row r="45" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+    </row>
+    <row r="45" ht="24.75" customHeight="1" spans="1:13">
       <c r="A45" s="41"/>
       <c r="B45" s="36"/>
       <c r="C45" s="42"/>
@@ -3445,10 +3524,13 @@
       <c r="H45" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="52"/>
-    </row>
-    <row r="46" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+    </row>
+    <row r="46" ht="24.75" customHeight="1" spans="1:13">
       <c r="A46" s="41"/>
       <c r="B46" s="36" t="s">
         <v>70</v>
@@ -3467,10 +3549,13 @@
       <c r="H46" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="51"/>
-      <c r="K46" s="52"/>
-    </row>
-    <row r="47" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+    </row>
+    <row r="47" ht="24.75" customHeight="1" spans="1:13">
       <c r="A47" s="41"/>
       <c r="B47" s="37"/>
       <c r="C47" s="42"/>
@@ -3487,10 +3572,13 @@
       <c r="H47" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="51"/>
-      <c r="K47" s="52"/>
-    </row>
-    <row r="48" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53"/>
+    </row>
+    <row r="48" ht="24.75" customHeight="1" spans="1:13">
       <c r="A48" s="41"/>
       <c r="B48" s="41" t="s">
         <v>71</v>
@@ -3509,10 +3597,13 @@
       <c r="H48" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="51"/>
-      <c r="K48" s="52"/>
-    </row>
-    <row r="49" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+    </row>
+    <row r="49" ht="24.75" customHeight="1" spans="1:13">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="42"/>
@@ -3529,10 +3620,13 @@
       <c r="H49" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="51"/>
-      <c r="K49" s="52"/>
-    </row>
-    <row r="50" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I49" s="51"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+    </row>
+    <row r="50" ht="24.75" customHeight="1" spans="1:13">
       <c r="A50" s="41" t="s">
         <v>72</v>
       </c>
@@ -3553,10 +3647,13 @@
       <c r="H50" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="51"/>
-      <c r="K50" s="52"/>
-    </row>
-    <row r="51" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I50" s="51"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="53"/>
+      <c r="M50" s="53"/>
+    </row>
+    <row r="51" ht="24.75" customHeight="1" spans="1:13">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
@@ -3573,10 +3670,13 @@
       <c r="H51" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="51"/>
-      <c r="K51" s="52"/>
-    </row>
-    <row r="52" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I51" s="51"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+    </row>
+    <row r="52" ht="24.75" customHeight="1" spans="1:13">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="42"/>
@@ -3593,10 +3693,13 @@
       <c r="H52" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J52" s="51"/>
-      <c r="K52" s="52"/>
-    </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I52" s="51"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+    </row>
+    <row r="53" ht="24.75" customHeight="1" spans="1:13">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
@@ -3613,10 +3716,13 @@
       <c r="H53" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="51"/>
-      <c r="K53" s="52"/>
-    </row>
-    <row r="54" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I53" s="51"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+    </row>
+    <row r="54" ht="24.75" customHeight="1" spans="1:13">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="42"/>
@@ -3633,10 +3739,13 @@
       <c r="H54" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="51"/>
-      <c r="K54" s="52"/>
-    </row>
-    <row r="55" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I54" s="51"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+    </row>
+    <row r="55" ht="24.75" customHeight="1" spans="1:13">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
@@ -3653,10 +3762,13 @@
       <c r="H55" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="51"/>
-      <c r="K55" s="52"/>
-    </row>
-    <row r="56" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I55" s="51"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+    </row>
+    <row r="56" ht="24.75" customHeight="1" spans="1:13">
       <c r="A56" s="41"/>
       <c r="B56" s="41" t="s">
         <v>74</v>
@@ -3675,10 +3787,13 @@
       <c r="H56" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="51"/>
-      <c r="K56" s="52"/>
-    </row>
-    <row r="57" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I56" s="51"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+    </row>
+    <row r="57" ht="24.75" customHeight="1" spans="1:13">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
@@ -3695,10 +3810,13 @@
       <c r="H57" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="51"/>
-      <c r="K57" s="52"/>
-    </row>
-    <row r="58" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I57" s="51"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+    </row>
+    <row r="58" ht="24.75" customHeight="1" spans="1:13">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="42"/>
@@ -3715,10 +3833,13 @@
       <c r="H58" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="51"/>
-      <c r="K58" s="52"/>
-    </row>
-    <row r="59" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I58" s="51"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+    </row>
+    <row r="59" ht="24.75" customHeight="1" spans="1:13">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
@@ -3735,10 +3856,13 @@
       <c r="H59" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="51"/>
-      <c r="K59" s="52"/>
-    </row>
-    <row r="60" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I59" s="51"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+    </row>
+    <row r="60" ht="24.75" customHeight="1" spans="1:13">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="42"/>
@@ -3755,10 +3879,13 @@
       <c r="H60" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="51"/>
-      <c r="K60" s="52"/>
-    </row>
-    <row r="61" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I60" s="51"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+    </row>
+    <row r="61" ht="24.75" customHeight="1" spans="1:13">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
@@ -3775,10 +3902,13 @@
       <c r="H61" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="51"/>
-      <c r="K61" s="52"/>
-    </row>
-    <row r="62" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I61" s="51"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+    </row>
+    <row r="62" ht="24.75" customHeight="1" spans="1:13">
       <c r="A62" s="41"/>
       <c r="B62" s="41" t="s">
         <v>75</v>
@@ -3797,10 +3927,13 @@
       <c r="H62" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="51"/>
-      <c r="K62" s="52"/>
-    </row>
-    <row r="63" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I62" s="51"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+    </row>
+    <row r="63" ht="24.75" customHeight="1" spans="1:13">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="42"/>
@@ -3817,10 +3950,13 @@
       <c r="H63" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="51"/>
-      <c r="K63" s="52"/>
-    </row>
-    <row r="64" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I63" s="51"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+    </row>
+    <row r="64" ht="24.75" customHeight="1" spans="1:13">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="42"/>
@@ -3837,10 +3973,13 @@
       <c r="H64" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="51"/>
-      <c r="K64" s="52"/>
-    </row>
-    <row r="65" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I64" s="51"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+    </row>
+    <row r="65" ht="24.75" customHeight="1" spans="1:13">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="42"/>
@@ -3857,10 +3996,13 @@
       <c r="H65" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="51"/>
-      <c r="K65" s="52"/>
-    </row>
-    <row r="66" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I65" s="51"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+    </row>
+    <row r="66" ht="24.75" customHeight="1" spans="1:13">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="42"/>
@@ -3877,10 +4019,13 @@
       <c r="H66" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="51"/>
-      <c r="K66" s="52"/>
-    </row>
-    <row r="67" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I66" s="51"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+    </row>
+    <row r="67" ht="24.75" customHeight="1" spans="1:13">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="42"/>
@@ -3897,10 +4042,13 @@
       <c r="H67" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="51"/>
-      <c r="K67" s="52"/>
-    </row>
-    <row r="68" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I67" s="51"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+    </row>
+    <row r="68" ht="24.75" customHeight="1" spans="1:13">
       <c r="A68" s="41"/>
       <c r="B68" s="41" t="s">
         <v>76</v>
@@ -3919,10 +4067,13 @@
       <c r="H68" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="51"/>
-      <c r="K68" s="52"/>
-    </row>
-    <row r="69" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I68" s="51"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+    </row>
+    <row r="69" ht="24.75" customHeight="1" spans="1:13">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="42"/>
@@ -3939,10 +4090,13 @@
       <c r="H69" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="51"/>
-      <c r="K69" s="52"/>
-    </row>
-    <row r="70" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I69" s="51"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+    </row>
+    <row r="70" ht="24.75" customHeight="1" spans="1:13">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="42"/>
@@ -3959,10 +4113,13 @@
       <c r="H70" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="51"/>
-      <c r="K70" s="52"/>
-    </row>
-    <row r="71" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I70" s="51"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+    </row>
+    <row r="71" ht="24.75" customHeight="1" spans="1:13">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="42"/>
@@ -3979,10 +4136,13 @@
       <c r="H71" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="51"/>
-      <c r="K71" s="52"/>
-    </row>
-    <row r="72" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I71" s="51"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="53"/>
+      <c r="M71" s="53"/>
+    </row>
+    <row r="72" ht="24.75" customHeight="1" spans="1:13">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="42"/>
@@ -3999,10 +4159,13 @@
       <c r="H72" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="51"/>
-      <c r="K72" s="52"/>
-    </row>
-    <row r="73" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I72" s="51"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+    </row>
+    <row r="73" ht="24.75" customHeight="1" spans="1:13">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="42"/>
@@ -4019,10 +4182,13 @@
       <c r="H73" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="51"/>
-      <c r="K73" s="52"/>
-    </row>
-    <row r="74" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I73" s="51"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="53"/>
+      <c r="M73" s="53"/>
+    </row>
+    <row r="74" ht="24.75" customHeight="1" spans="1:13">
       <c r="A74" s="41" t="s">
         <v>77</v>
       </c>
@@ -4043,10 +4209,13 @@
       <c r="H74" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J74" s="51"/>
-      <c r="K74" s="52"/>
-    </row>
-    <row r="75" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I74" s="51"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="53"/>
+      <c r="M74" s="53"/>
+    </row>
+    <row r="75" ht="24.75" customHeight="1" spans="1:13">
       <c r="A75" s="41"/>
       <c r="B75" s="36"/>
       <c r="C75" s="42"/>
@@ -4063,10 +4232,13 @@
       <c r="H75" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="51"/>
-      <c r="K75" s="52"/>
-    </row>
-    <row r="76" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I75" s="51"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="53"/>
+      <c r="M75" s="53"/>
+    </row>
+    <row r="76" ht="24.75" customHeight="1" spans="1:13">
       <c r="A76" s="41"/>
       <c r="B76" s="36"/>
       <c r="C76" s="42"/>
@@ -4083,10 +4255,13 @@
       <c r="H76" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="51"/>
-      <c r="K76" s="52"/>
-    </row>
-    <row r="77" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I76" s="51"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="53"/>
+      <c r="M76" s="53"/>
+    </row>
+    <row r="77" ht="24.75" customHeight="1" spans="1:13">
       <c r="A77" s="41"/>
       <c r="B77" s="36"/>
       <c r="C77" s="42"/>
@@ -4103,10 +4278,13 @@
       <c r="H77" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="51"/>
-      <c r="K77" s="52"/>
-    </row>
-    <row r="78" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I77" s="51"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="53"/>
+      <c r="M77" s="53"/>
+    </row>
+    <row r="78" ht="24.75" customHeight="1" spans="1:13">
       <c r="A78" s="41"/>
       <c r="B78" s="36"/>
       <c r="C78" s="42"/>
@@ -4123,10 +4301,13 @@
       <c r="H78" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="51"/>
-      <c r="K78" s="52"/>
-    </row>
-    <row r="79" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I78" s="51"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+    </row>
+    <row r="79" ht="24.75" customHeight="1" spans="1:13">
       <c r="A79" s="41"/>
       <c r="B79" s="36"/>
       <c r="C79" s="42"/>
@@ -4143,10 +4324,13 @@
       <c r="H79" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="51"/>
-      <c r="K79" s="52"/>
-    </row>
-    <row r="80" ht="24.75" customHeight="1" spans="1:11">
+      <c r="I79" s="51"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="53"/>
+      <c r="M79" s="53"/>
+    </row>
+    <row r="80" ht="24.75" customHeight="1" spans="1:13">
       <c r="A80" s="41" t="s">
         <v>54</v>
       </c>
@@ -4161,45 +4345,51 @@
         <v>79</v>
       </c>
       <c r="F80" s="47"/>
-      <c r="G80" s="54">
+      <c r="G80" s="56">
         <v>2</v>
       </c>
       <c r="H80" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="51"/>
-      <c r="K80" s="52"/>
-    </row>
-    <row r="81" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A81" s="55"/>
-      <c r="B81" s="56" t="s">
+      <c r="I80" s="51"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="53"/>
+    </row>
+    <row r="81" ht="24.75" customHeight="1" spans="1:13">
+      <c r="A81" s="57"/>
+      <c r="B81" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58" t="s">
+      <c r="C81" s="59"/>
+      <c r="D81" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61">
+      <c r="F81" s="62"/>
+      <c r="G81" s="63">
         <v>3</v>
       </c>
-      <c r="H81" s="62" t="s">
+      <c r="H81" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="51"/>
-      <c r="K81" s="61"/>
-    </row>
-    <row r="82" ht="24.75" customHeight="1" spans="1:11">
-      <c r="A82" s="63" t="s">
+      <c r="I81" s="51"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="53"/>
+      <c r="M81" s="53"/>
+    </row>
+    <row r="82" ht="24.75" customHeight="1" spans="1:13">
+      <c r="A82" s="65" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="64"/>
+      <c r="C82" s="66"/>
       <c r="D82" s="38" t="s">
         <v>83</v>
       </c>
@@ -4210,14 +4400,19 @@
       <c r="G82" s="39">
         <v>3</v>
       </c>
-      <c r="H82" s="40"/>
-      <c r="J82" s="51"/>
-      <c r="K82" s="65"/>
+      <c r="H82" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="51"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="dataBar" priority="96">
+  <conditionalFormatting sqref="I27">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4225,11 +4420,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7169822f-5594-4498-bd9b-e3de27f8e1be}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="95">
+          <x14:id>{4de6766b-a0ad-444c-8dbe-272290642380}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4237,11 +4432,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{61547906-bcf7-4aac-bb9f-5a8db3344133}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="94">
+          <x14:id>{8ce1f216-f27f-4499-9de0-795ffdd6ab4a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4249,11 +4444,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d55f7be9-65f1-4cc0-8e80-ec925666cf4f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="93">
+          <x14:id>{697bec7b-142e-455d-a057-91cee171f479}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4261,11 +4456,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c1e18ef1-dfda-4457-8cfd-50d8138dea45}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="92">
+          <x14:id>{b9680be9-192d-40e2-aa42-328e25f968db}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4273,11 +4468,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5121452c-9aa0-4297-8b99-35ffe3a34884}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="91">
+          <x14:id>{5b6ca424-89d1-4e56-87c0-39f6105a3b0f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4285,11 +4480,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32ec7a2c-d23c-45c2-bd0e-94255ed1bf16}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="90">
+          <x14:id>{7631908d-5781-41b1-9309-5f335f0d7331}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4297,11 +4492,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3db90519-513e-4ef7-b6b4-6406626289b9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="89">
+          <x14:id>{7de1ef47-65ca-490a-a2a9-989521e1485b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4309,11 +4504,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fcba6e3a-81e7-4fb6-b87a-9cdb2ca28555}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="88">
+          <x14:id>{ada92a2f-7475-472c-9a0f-424cc9e845e0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4321,11 +4516,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1fdf9122-296b-4e3e-b776-2c6fbc4eac16}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="87">
+          <x14:id>{6dbe196f-ec47-4d53-a3b2-d230202a4c1f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4333,11 +4528,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67a82292-7c3d-4766-ab52-71abba120d99}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="86">
+          <x14:id>{51f75099-a871-4b2c-abe9-d1a347cbe123}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4345,11 +4540,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{390b22f2-6fcd-4d29-86c3-b4a820857ea2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="85">
+          <x14:id>{77692b60-bb7c-4eb9-b496-99b9e0149a79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4357,13 +4552,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c550e519-f746-4b91-b9c3-735d78d8b85b}</x14:id>
+          <x14:id>{4ddccf92-6a75-4878-80ac-5b66ae7d3bab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="dataBar" priority="84">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4371,11 +4566,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2428b250-877d-4827-a7fc-4df7ba8e6e81}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="83">
+          <x14:id>{e38c4055-b4c9-44c6-ae12-0c472a6533fc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4383,11 +4578,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0102445-9781-4a60-a270-57010dddb154}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="82">
+          <x14:id>{cab839ec-3193-40d3-917c-a19fcd20556e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4395,11 +4590,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{329ca748-9acf-47df-a3d4-3b4cba26d4be}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
+          <x14:id>{49bf27f3-f4cb-4230-ad20-1105515c5b51}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4407,11 +4602,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{67a31cd4-5ed3-46ca-b4da-27ac5027e51d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="80">
+          <x14:id>{ab65b296-54fa-427c-a723-897c927d4adf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4419,11 +4614,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3d6e201-f0b7-4be6-b083-7ede2a11988b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="79">
+          <x14:id>{b7e86663-8813-4b31-9668-e29e1f7777df}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4431,11 +4626,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3925dbd2-d806-40cf-8ec5-fdf7d928de47}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="78">
+          <x14:id>{78471535-5640-4ee5-912c-27cf28bfeeb2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4443,11 +4638,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7fecb45e-c815-4d49-b3cc-608d471d7a04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="77">
+          <x14:id>{98717b63-66a7-45b9-a195-db88643b450a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4455,11 +4650,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d308085-2865-4716-95a6-62b684d8855e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="76">
+          <x14:id>{c30d08f4-cf9e-4556-9a12-93de2fc24c7d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4467,11 +4662,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ae526d65-53d0-45a0-8de2-bceeb1a82c45}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="75">
+          <x14:id>{803422fa-7e0a-4874-b487-e9383b3213ef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4479,11 +4674,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e726693-4cae-408a-8a1d-b20cf6bcfaf3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="74">
+          <x14:id>{caac22fb-4ca4-4da5-be77-c1f9892c3eed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4491,11 +4686,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{981a3a2a-bea2-49da-969e-c9de85eb6ef0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="73">
+          <x14:id>{2cc71357-3563-44f1-9e83-8798d9fd303b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4503,13 +4698,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e584019-aca2-4aa3-8114-48f9bd17af4f}</x14:id>
+          <x14:id>{846ae973-f7f4-48c1-86f7-3cfb7a970e1f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="72">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4517,11 +4712,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{058402f8-4613-4743-9bf2-b3c0c2f3f7af}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+          <x14:id>{dee2e684-f33f-4e12-9f6e-f6a789fad4d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4529,11 +4724,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f8c31193-d529-4f71-9e88-ba8110cadada}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="70">
+          <x14:id>{7e3c3d99-fa70-4291-ad66-67964cb9da06}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4541,11 +4736,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c0c2cc5-233d-4193-ab96-b29d897d47b3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="69">
+          <x14:id>{d810d644-b74f-4464-be2a-d63d9759fc9b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4553,11 +4748,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f666458c-5d0a-4745-a877-1f9342e94aa5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="68">
+          <x14:id>{b3719265-19d3-46b7-8924-5069794061f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4565,11 +4760,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0f1801d0-a720-4584-a6ac-3e48e1328d82}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="67">
+          <x14:id>{35630626-2f99-4437-a369-ceaa70b9599b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4577,11 +4772,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c92b3e5d-ee09-47d1-84cd-da7e3fc10755}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="66">
+          <x14:id>{c8afe814-bb5f-4c0a-a6f1-24d7eb4389fb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4589,11 +4784,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cdd84746-ad97-4edd-b235-b5cbfc310d04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="65">
+          <x14:id>{554decbd-2a13-491e-937c-e6547297c0bf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4601,11 +4796,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8c232f24-ccb4-4654-89f6-6b10d3503b09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="64">
+          <x14:id>{94ce5bdc-1fa2-4b7c-9bf4-9f923e9cc653}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4613,11 +4808,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ecd0efd9-1ab2-4090-a01b-9e6e7bf55bb9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="63">
+          <x14:id>{8faac6a9-5755-474a-af2d-b6d6bc047911}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4625,11 +4820,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce5db213-ba82-4f90-8228-eeef08e28b65}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="62">
+          <x14:id>{79110fd5-01c2-4472-87b4-adceb20d66a9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4637,11 +4832,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{09cc5128-ff9d-461c-a132-eb7be9501365}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
+          <x14:id>{2ff28139-a1fa-4bae-b8bb-e7134debe8e2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4649,13 +4844,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba4c0e7e-162d-474b-baff-188b2330ab21}</x14:id>
+          <x14:id>{03914cda-53e0-475e-9ca1-7627abbc5154}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="dataBar" priority="60">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4663,11 +4858,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65fbad52-ef42-4cd7-ad39-a74ea37a7a38}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="59">
+          <x14:id>{e513403d-d22c-4594-ad61-89a9aeb312d8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4675,11 +4870,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ab058b0-0990-47d2-af93-ce3a1d7f4ea0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
+          <x14:id>{a3e28192-7cc9-4165-8d47-733c4135c4a3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4687,11 +4882,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db065755-bfff-48b0-926d-339fe23ba06e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
+          <x14:id>{0ae31533-2f6d-4d1d-8171-f12493dc72eb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4699,11 +4894,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52b10ef3-9fa6-4e6e-9e47-9e2aeff7e29e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="56">
+          <x14:id>{9477a52a-7fcb-4757-b4ac-7a3e0f9596b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4711,11 +4906,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{283f7d51-cec2-4a48-b5ab-1f42c5ce3fad}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{973f17df-1b5d-449e-b80f-c2732e11edc4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4723,11 +4918,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3b812379-8166-465e-a3c9-d1e3949c9581}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="54">
+          <x14:id>{b10620bf-cc10-4ac6-aa0c-c093ba714c3f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4735,11 +4930,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1796bb11-e38b-4936-9155-91d06ff45bb2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
+          <x14:id>{c145ed15-bd0c-4129-80f9-a3f5ee3e9d32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4747,11 +4942,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{180358d9-9318-4306-8c13-dceb2921ce2b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
+          <x14:id>{9a56feac-44b2-4282-bc3c-82fb1de38bf5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4759,11 +4954,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e5bb65c-83f0-4ee3-838a-c2cb95bc08c4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
+          <x14:id>{4502305f-ff82-4aba-9ef0-b3a2a984d925}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4771,11 +4966,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2ac2690e-f35a-40eb-9700-624a0a64b39c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
+          <x14:id>{3467604d-c662-4e4e-99b9-35e8868c59c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4783,11 +4978,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f3c937a4-6746-4da2-9224-63d92c9a693c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="49">
+          <x14:id>{30b598cf-fb8a-48dc-bcc6-4c8e46eb0fb8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4795,13 +4990,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{450ddd1a-e312-452a-84cd-31f7fccc8fec}</x14:id>
+          <x14:id>{41d0c9da-c9e9-4bbc-8417-8ac5f12a6939}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4809,11 +5004,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc06bd28-e86e-4737-a3d2-114715f1dc27}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="47">
+          <x14:id>{2ef28c75-e16e-4d63-b540-52cbacbe8906}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4821,11 +5016,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4bb0ceff-63d7-4d68-87c5-f7eaa988023c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="46">
+          <x14:id>{d99c27cb-ecab-4c6f-b4ca-a0a473b7bba8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4833,11 +5028,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{030a0a6e-81a1-400f-b542-37cf7941eaa8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="45">
+          <x14:id>{c047a5de-7805-4252-bd66-974e78f6c640}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4845,11 +5040,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77a77ae5-b736-4d0e-9b49-1102d30a4bc0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
+          <x14:id>{266fc494-3a00-4c8f-9b23-b7b54db9f9a2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4857,11 +5052,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7a83755d-4b09-4b14-b52f-249ec17d8cee}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
+          <x14:id>{6147725c-727d-49e2-90de-b9763f2cc8ea}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4869,11 +5064,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d74fbf66-5766-45d1-b5be-05f23975e52f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="42">
+          <x14:id>{a96a44b1-7fcb-45b4-a42d-387af4799976}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4881,11 +5076,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2ad4533-5237-497d-a2af-35c5016190d7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
+          <x14:id>{63d045cb-a7f4-410a-b58d-bab53bed3be5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4893,11 +5088,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fddc16fe-0605-40f6-87e0-d4ee13ae1327}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="40">
+          <x14:id>{992ad2e5-c936-4d76-b387-aacc6b271aac}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4905,11 +5100,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e9b5cfb-77c1-4776-a8fd-7871b93b2849}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="39">
+          <x14:id>{2e9adbbc-4273-4a53-929a-3f36f4c36f66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4917,11 +5112,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f25681c-4dd8-4abe-a712-6d4a62e2677b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
+          <x14:id>{789c7839-d2c3-476a-97d6-74a0d7c1a0c3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4929,11 +5124,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77b734a7-5e1e-404c-b17c-0cfff8aa261f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="37">
+          <x14:id>{51c802ae-3f4b-42a7-9d95-be90d07902e2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4941,13 +5136,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8977d719-ccaa-4dc1-92be-04b492648a47}</x14:id>
+          <x14:id>{d3c097e7-3f4c-4b83-84c8-314ae9333036}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="dataBar" priority="36">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4955,11 +5150,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9c57b05-7924-4d65-bd45-f012cb15e904}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
+          <x14:id>{3dd5d6f0-db4f-45e4-8477-db47508049c0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4967,11 +5162,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{107378a3-8a11-44eb-8ee1-e50efc04013e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
+          <x14:id>{095cbf0a-5db7-425b-b40c-c7e44cd20260}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4979,11 +5174,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb4c157b-69ae-47d3-8291-089c1cb8196b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="33">
+          <x14:id>{d2385c32-67ee-4eda-827e-abb4518c1ea9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4991,11 +5186,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e270f04-9300-4489-8b06-1a0cd0cf08dc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+          <x14:id>{c0c76965-b1c9-4193-816e-1104a27e6de0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5003,11 +5198,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86a89df5-17e5-47d2-83c3-a9762e360d79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
+          <x14:id>{aa7c6139-0a95-40c2-93a7-bfc24af66944}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5015,11 +5210,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80171d28-b9cb-4fc3-be84-3727a4b33fec}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
+          <x14:id>{ff435644-6752-4408-81fe-c20dbe467c3b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5027,11 +5222,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b263779b-da0f-4f26-8c77-b7c19bfbb6eb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
+          <x14:id>{587afa18-f8d2-4578-aed5-bcebfb7bc1a1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5039,11 +5234,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83bb33ff-5b6e-4d81-8968-8ee97a13b105}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+          <x14:id>{06a27052-c070-42e3-89ab-ba70bdbfa57b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5051,11 +5246,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99d700cb-540a-4c82-92b0-65a80a6894fa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+          <x14:id>{8d1bc362-d39a-4e6f-8010-24ed82952bd6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5063,11 +5258,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6519a616-0f93-4c25-9d4a-290300598098}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
+          <x14:id>{28a906a6-5b1c-4b44-8af5-6a68354182e0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5075,11 +5270,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db921058-128f-4698-ad90-61ed5e253e04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
+          <x14:id>{e2d91799-15a3-48e9-b208-7fb03854ac18}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5087,13 +5282,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d464c60f-56aa-4e61-979c-135bfc5e197f}</x14:id>
+          <x14:id>{18525f00-6360-4c06-992b-b033fed2df3d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5101,11 +5296,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ba8d43ec-5707-494e-9f86-df1ea084406c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
+          <x14:id>{fa2cd040-8f22-4f53-a48d-9f3ba4c27186}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5113,11 +5308,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd7077f0-9131-40a7-bdee-b5b9bd93962e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
+          <x14:id>{858ade7e-74c2-43c2-850c-9b2c4dfb4f5b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5125,11 +5320,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23137534-e9ec-4308-b227-d5598f819517}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{f2d0784e-70e8-402f-a125-7088c0c5bcee}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5137,11 +5332,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{929abfe2-bb3d-49cd-b175-a4e5670e4914}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{68b8eae2-d717-4418-9768-009cb8dda0c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5149,11 +5344,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ed1a1340-61bc-4ff6-813c-14a97711bf4f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{0272b3e8-938d-4328-84f1-63efa9458e09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5161,11 +5356,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{906b152c-6efc-428a-8005-fe6bd7a3c567}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{b9687057-cfb7-46ec-af20-43f7822176f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5173,11 +5368,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a0992a8a-b513-4c96-8ebf-80f0aadcff8e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{43254053-0357-444b-a738-5e829cf944bb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5185,11 +5380,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88b5e2c6-361f-4667-8cfd-38dd480ac985}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{6bae68ca-0e58-4ebc-ab1e-f991757a833d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5197,11 +5392,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19172ecc-2793-4e8d-96da-f1f36bfd6f7d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{5c45adc8-9135-4eff-b6fd-b9438cf2a577}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5209,11 +5404,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d2251f6-d86a-4bf2-9dc2-4be3a731920a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
+          <x14:id>{ebfbffca-8ac3-46e7-a406-67b1f6cce954}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5221,11 +5416,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03fce62c-e0cf-40b8-9ce2-0f51f246dbe9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
+          <x14:id>{353177fb-ef9f-43de-bda6-0d98c2db73d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5233,13 +5428,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{183b7f25-b433-4612-bd2f-cebd3f863868}</x14:id>
+          <x14:id>{da25c154-b88c-4f8b-b788-9f6f0988dda7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="I36">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5247,11 +5442,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73da11e7-563e-4634-a87a-c5023494029a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
+          <x14:id>{4580c65d-47ba-43bd-bdaa-3b89c734ed48}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5259,11 +5454,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db05578f-33e8-4efb-889a-9583a2b4f287}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
+          <x14:id>{3866d817-4847-4615-bd25-89b8a57a5cb8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5271,11 +5466,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7acd4fcf-945c-45ff-868a-398e0e05ae93}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
+          <x14:id>{1c72dd2e-de05-4c40-b897-c1f8a2a96ed6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5283,11 +5478,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d8bad897-fe9b-4d32-ba0f-7ae7250e2d0e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
+          <x14:id>{b0b5205e-2e00-4c72-9d40-62b889c87c0f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5295,11 +5490,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b09466b2-a2cf-499f-a558-e33c2222e81d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
+          <x14:id>{27107bbb-7668-4318-a652-c877ea6d73f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5307,11 +5502,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ee38b224-e1fb-4533-88ec-d760fcef0e0e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
+          <x14:id>{232be71f-fadd-4e36-9031-1f339b79f622}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5319,11 +5514,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b4e31fd5-7bec-49db-8cc2-1b9fad1193bd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+          <x14:id>{a055c8e5-616d-4843-96f9-6702e657e05a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5331,11 +5526,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{abcffdd1-15c2-4d8f-8b0d-bfd8bec8acaa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
+          <x14:id>{08826988-ab17-485a-b51c-a7f94ac2052b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5343,11 +5538,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80f5a448-7bb5-4a0b-90da-d80045a7c4df}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+          <x14:id>{4cfb167a-a1bd-47b5-9f3f-905baafe85b5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5355,11 +5550,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ccc654c6-844d-4ef3-8d8c-8e6704445460}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
+          <x14:id>{92703614-9f2d-4f95-a5d1-ad2a5675021a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5367,11 +5562,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5d3ba7d3-b29f-4aa8-bd44-7f14040b94c6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
+          <x14:id>{274c19fd-a09c-4ff7-9d3e-54e384702705}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5379,13 +5574,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e6a23276-1094-44ed-9c20-263df039f137}</x14:id>
+          <x14:id>{bb6cdf02-6a37-49f0-af6e-476f66bff86e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I40:I1048576">
-    <cfRule type="dataBar" priority="109">
+  <conditionalFormatting sqref="I37">
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bce866c0-b78e-45fa-a280-cc745a8f9def}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a91014d8-bc26-457e-9a92-bd750c7411f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5caba113-84d0-4283-82ed-da87e542f91b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68d8f00f-6490-4ab5-8c86-5aa49a9cc20b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a839fbd9-78cc-4838-8cc1-0e3a3a50760f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5c6c4ca3-68e8-4078-830a-f3984becc4b2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98a29332-e692-4b34-b929-dac285efe59a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{11b5227e-32e7-49b8-926b-955c3c6f5ba8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cce5ee31-bd68-41b5-bde5-856799f8927f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="63">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f907109f-9ce5-4413-8563-b8f739c079f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1571c081-228f-4c33-9a62-74595bc1ac70}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5393,11 +5720,133 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ce092bf-6441-4e53-a696-649e813d8a9e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="110">
+          <x14:id>{291db943-1581-4409-b556-d30ba0410b99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a5bf5c46-1e93-4729-8267-ef012abd37aa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7152779b-725d-4682-bb05-5cb369ec83e0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22d0f9d1-e50d-472a-ac96-4f79a90057da}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c9078e22-c76d-4b8f-af7f-9ae1f6e33d64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69ac17b4-f837-401e-abe2-b0a7658ea8af}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="55">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3c9e697b-44a7-423f-9a26-61ea92278336}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fed91f8c-dd9c-4ef9-8c16-44602f5dfcd4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04d08c15-8bb7-439e-84f9-2c5f1d82e620}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4d57805d-b4ee-4f6f-b8d0-0cf5f87e26ab}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{005749a0-a56b-4cff-96a3-ef47a28d2aad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5405,11 +5854,37 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f6526b86-cdad-495a-a1b7-47f7241ea588}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="111">
+          <x14:id>{88114f84-3340-4158-8431-872409ec3d05}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{59925a05-419f-4876-bd0e-f8f4eb1db266}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d60e6d6d-1af7-4f9b-a6f9-5a4ede2f9c0f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5417,11 +5892,83 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38f56a58-cc63-4bd3-931a-e1fcaac5cff4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="112">
+          <x14:id>{190f1137-032f-43a3-850c-5f801c118c84}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c3d5418a-494e-4f0e-a16f-6b4166d8c76a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9ddb7287-04b7-4331-a6b4-701b4d09f8c6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e183b738-88a0-4552-8d1a-5d51f0f33b77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e1115ca2-1207-4a8f-a946-e77aca5da6ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{353d76f0-2d14-4fc1-a2ef-d4e0315da558}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{af81df62-9211-4871-b710-56bcf12d4ffe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5429,11 +5976,97 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87ffd272-ee05-490d-bc03-15c90dde069a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="113">
+          <x14:id>{b927fe0e-41e8-41f2-b533-0519358a3e09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ebe4e8a2-ca3f-4a3f-a6f7-9c06f3b74c8a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b6936a8d-3439-4d6c-a12d-badb0acd1f9d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{be608674-c8fd-4b11-9c01-478b0979835d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I40:I1048576">
+    <cfRule type="dataBar" priority="145">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8c898504-96ed-46a1-bdd3-d8cfc669f390}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="146">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3eda14fd-572b-41c0-9a4b-a58f72d42aaa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="147">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0091a630-c130-4ccb-ab20-3f5db650b0aa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="148">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{db7ef040-0b22-4854-b870-495a56468e1e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5441,11 +6074,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c8c0def8-9a10-49fd-bcdb-51e3a35b1aea}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="114">
+          <x14:id>{66a4e28a-695b-436d-8f68-856a515ac991}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5453,11 +6086,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b18ba910-3f94-4d5a-9c9e-f2339112faaa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="115">
+          <x14:id>{8179f2cf-6269-43b8-9198-fa75d73c1415}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5465,11 +6098,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d68766be-231d-49b6-adff-5764423511b4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="116">
+          <x14:id>{1d5020b6-6b97-465a-9c25-37fb1e076f5e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5477,11 +6110,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b9508a22-be4b-4ebf-9c0d-336ca8c9ad9f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="117">
+          <x14:id>{52462e86-8349-430d-93cd-e9a8790c8d16}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5489,11 +6122,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d866607b-0723-4703-acb2-0b5d0bc92a53}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="118">
+          <x14:id>{0e387adb-f652-4751-a318-a1156ab84aab}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5501,11 +6134,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fe7d6fca-6a91-4d71-a9ad-458db2aa74c2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="119">
+          <x14:id>{75b1c0d3-6868-473f-99ae-d707b14c0d7f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5513,11 +6146,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4852d67b-a050-45e5-91fb-b657d3850f84}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="120">
+          <x14:id>{f680125a-5f33-4b0a-b140-ab9ac73e8cf6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5525,13 +6158,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93c4af6e-8e60-4a9f-95bf-714511d5518f}</x14:id>
+          <x14:id>{832518e8-3a8f-4a1d-af83-ffc2855686dd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I29 I34:I35">
-    <cfRule type="dataBar" priority="97">
+  <conditionalFormatting sqref="I26 I34:I35">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5539,11 +6172,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19e8230e-cc06-4004-b329-4a69d4c7af35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="98">
+          <x14:id>{ff783e41-6a9c-40b9-bf1e-c1ac416b7b3d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5551,11 +6184,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fed642d9-3929-4870-8444-012f2b6390db}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="99">
+          <x14:id>{ecb82aad-594d-4aa8-981d-240c50536dbf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5563,11 +6196,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a93192e4-3d14-4b6d-b656-f2b85e08a35c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="100">
+          <x14:id>{fb777078-5271-4b4f-a330-018a5e5b7d65}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5575,11 +6208,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bb086a8a-1fdc-43bd-845d-24bb53d03db2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="101">
+          <x14:id>{e1a4e6e6-e84a-49cb-817c-ee36cc6e74a3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5587,11 +6220,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f187f651-f988-48a4-89de-57b512ac8d33}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="102">
+          <x14:id>{36f02870-efff-4889-8bb8-520f5fcd800e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5599,11 +6232,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f93f0ff3-6a7e-4c82-8bb9-e263eb2dce59}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="103">
+          <x14:id>{3d1d7f23-0ab4-4bef-9aa1-b61654cd60b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5611,11 +6244,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0547ee6c-60f5-4e6a-b7b0-1c1edafd7502}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="104">
+          <x14:id>{805680ba-e56d-4fca-a1ef-68187f91fac2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5623,11 +6256,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4b1e4b07-13b8-4919-9b6c-cd5ea82c8673}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="105">
+          <x14:id>{5df65dd9-0d5c-4dd5-b941-5c10d29a57ae}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5635,11 +6268,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8895295d-7da1-4e36-a5f0-ee41cd25a114}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="106">
+          <x14:id>{5bc9b9a4-00b2-4fed-9779-14991340993b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5647,11 +6280,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ae0a7763-1dda-4333-80c8-e4e5242b6fea}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="107">
+          <x14:id>{0ab8bb5f-b0db-4673-9f74-1159f0e4e809}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5659,11 +6292,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3da1168-7f6f-4411-acf1-1662b665b9c3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="108">
+          <x14:id>{76fce90c-5669-4edb-ab04-0121328f760b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5671,7 +6304,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ff61c509-a909-43b3-8fb7-03f811bc9f5e}</x14:id>
+          <x14:id>{34acdca0-d4ef-4f3f-be6d-d197756de8cb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5683,7 +6316,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7169822f-5594-4498-bd9b-e3de27f8e1be}">
+          <x14:cfRule type="dataBar" id="{4de6766b-a0ad-444c-8dbe-272290642380}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5693,7 +6326,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{61547906-bcf7-4aac-bb9f-5a8db3344133}">
+          <x14:cfRule type="dataBar" id="{8ce1f216-f27f-4499-9de0-795ffdd6ab4a}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5701,7 +6334,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d55f7be9-65f1-4cc0-8e80-ec925666cf4f}">
+          <x14:cfRule type="dataBar" id="{697bec7b-142e-455d-a057-91cee171f479}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5711,7 +6344,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c1e18ef1-dfda-4457-8cfd-50d8138dea45}">
+          <x14:cfRule type="dataBar" id="{b9680be9-192d-40e2-aa42-328e25f968db}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5721,7 +6354,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5121452c-9aa0-4297-8b99-35ffe3a34884}">
+          <x14:cfRule type="dataBar" id="{5b6ca424-89d1-4e56-87c0-39f6105a3b0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5733,7 +6366,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{32ec7a2c-d23c-45c2-bd0e-94255ed1bf16}">
+          <x14:cfRule type="dataBar" id="{7631908d-5781-41b1-9309-5f335f0d7331}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5741,7 +6374,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3db90519-513e-4ef7-b6b4-6406626289b9}">
+          <x14:cfRule type="dataBar" id="{7de1ef47-65ca-490a-a2a9-989521e1485b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5753,7 +6386,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fcba6e3a-81e7-4fb6-b87a-9cdb2ca28555}">
+          <x14:cfRule type="dataBar" id="{ada92a2f-7475-472c-9a0f-424cc9e845e0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5761,7 +6394,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1fdf9122-296b-4e3e-b776-2c6fbc4eac16}">
+          <x14:cfRule type="dataBar" id="{6dbe196f-ec47-4d53-a3b2-d230202a4c1f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5773,7 +6406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{67a82292-7c3d-4766-ab52-71abba120d99}">
+          <x14:cfRule type="dataBar" id="{51f75099-a871-4b2c-abe9-d1a347cbe123}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5781,7 +6414,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{390b22f2-6fcd-4d29-86c3-b4a820857ea2}">
+          <x14:cfRule type="dataBar" id="{77692b60-bb7c-4eb9-b496-99b9e0149a79}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5793,7 +6426,382 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c550e519-f746-4b91-b9c3-735d78d8b85b}">
+          <x14:cfRule type="dataBar" id="{4ddccf92-6a75-4878-80ac-5b66ae7d3bab}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e38c4055-b4c9-44c6-ae12-0c472a6533fc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{cab839ec-3193-40d3-917c-a19fcd20556e}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{49bf27f3-f4cb-4230-ad20-1105515c5b51}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ab65b296-54fa-427c-a723-897c927d4adf}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b7e86663-8813-4b31-9668-e29e1f7777df}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{78471535-5640-4ee5-912c-27cf28bfeeb2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{98717b63-66a7-45b9-a195-db88643b450a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c30d08f4-cf9e-4556-9a12-93de2fc24c7d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{803422fa-7e0a-4874-b487-e9383b3213ef}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{caac22fb-4ca4-4da5-be77-c1f9892c3eed}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2cc71357-3563-44f1-9e83-8798d9fd303b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{846ae973-f7f4-48c1-86f7-3cfb7a970e1f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{dee2e684-f33f-4e12-9f6e-f6a789fad4d6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7e3c3d99-fa70-4291-ad66-67964cb9da06}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d810d644-b74f-4464-be2a-d63d9759fc9b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b3719265-19d3-46b7-8924-5069794061f5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{35630626-2f99-4437-a369-ceaa70b9599b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c8afe814-bb5f-4c0a-a6f1-24d7eb4389fb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{554decbd-2a13-491e-937c-e6547297c0bf}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{94ce5bdc-1fa2-4b7c-9bf4-9f923e9cc653}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8faac6a9-5755-474a-af2d-b6d6bc047911}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{79110fd5-01c2-4472-87b4-adceb20d66a9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2ff28139-a1fa-4bae-b8bb-e7134debe8e2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{03914cda-53e0-475e-9ca1-7627abbc5154}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e513403d-d22c-4594-ad61-89a9aeb312d8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a3e28192-7cc9-4165-8d47-733c4135c4a3}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0ae31533-2f6d-4d1d-8171-f12493dc72eb}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9477a52a-7fcb-4757-b4ac-7a3e0f9596b8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{973f17df-1b5d-449e-b80f-c2732e11edc4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b10620bf-cc10-4ac6-aa0c-c093ba714c3f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c145ed15-bd0c-4129-80f9-a3f5ee3e9d32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9a56feac-44b2-4282-bc3c-82fb1de38bf5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4502305f-ff82-4aba-9ef0-b3a2a984d925}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3467604d-c662-4e4e-99b9-35e8868c59c5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{30b598cf-fb8a-48dc-bcc6-4c8e46eb0fb8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{41d0c9da-c9e9-4bbc-8417-8ac5f12a6939}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5808,7 +6816,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2428b250-877d-4827-a7fc-4df7ba8e6e81}">
+          <x14:cfRule type="dataBar" id="{2ef28c75-e16e-4d63-b540-52cbacbe8906}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5818,7 +6826,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b0102445-9781-4a60-a270-57010dddb154}">
+          <x14:cfRule type="dataBar" id="{d99c27cb-ecab-4c6f-b4ca-a0a473b7bba8}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5826,7 +6834,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{329ca748-9acf-47df-a3d4-3b4cba26d4be}">
+          <x14:cfRule type="dataBar" id="{c047a5de-7805-4252-bd66-974e78f6c640}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5836,7 +6844,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{67a31cd4-5ed3-46ca-b4da-27ac5027e51d}">
+          <x14:cfRule type="dataBar" id="{266fc494-3a00-4c8f-9b23-b7b54db9f9a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5846,7 +6854,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e3d6e201-f0b7-4be6-b083-7ede2a11988b}">
+          <x14:cfRule type="dataBar" id="{6147725c-727d-49e2-90de-b9763f2cc8ea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5858,7 +6866,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3925dbd2-d806-40cf-8ec5-fdf7d928de47}">
+          <x14:cfRule type="dataBar" id="{a96a44b1-7fcb-45b4-a42d-387af4799976}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5866,7 +6874,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7fecb45e-c815-4d49-b3cc-608d471d7a04}">
+          <x14:cfRule type="dataBar" id="{63d045cb-a7f4-410a-b58d-bab53bed3be5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5878,7 +6886,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9d308085-2865-4716-95a6-62b684d8855e}">
+          <x14:cfRule type="dataBar" id="{992ad2e5-c936-4d76-b387-aacc6b271aac}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5886,7 +6894,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ae526d65-53d0-45a0-8de2-bceeb1a82c45}">
+          <x14:cfRule type="dataBar" id="{2e9adbbc-4273-4a53-929a-3f36f4c36f66}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5898,7 +6906,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7e726693-4cae-408a-8a1d-b20cf6bcfaf3}">
+          <x14:cfRule type="dataBar" id="{789c7839-d2c3-476a-97d6-74a0d7c1a0c3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5906,7 +6914,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{981a3a2a-bea2-49da-969e-c9de85eb6ef0}">
+          <x14:cfRule type="dataBar" id="{51c802ae-3f4b-42a7-9d95-be90d07902e2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5918,7 +6926,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4e584019-aca2-4aa3-8114-48f9bd17af4f}">
+          <x14:cfRule type="dataBar" id="{d3c097e7-3f4c-4b83-84c8-314ae9333036}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -5933,7 +6941,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{058402f8-4613-4743-9bf2-b3c0c2f3f7af}">
+          <x14:cfRule type="dataBar" id="{3dd5d6f0-db4f-45e4-8477-db47508049c0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5943,7 +6951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f8c31193-d529-4f71-9e88-ba8110cadada}">
+          <x14:cfRule type="dataBar" id="{095cbf0a-5db7-425b-b40c-c7e44cd20260}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5951,7 +6959,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7c0c2cc5-233d-4193-ab96-b29d897d47b3}">
+          <x14:cfRule type="dataBar" id="{d2385c32-67ee-4eda-827e-abb4518c1ea9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5961,7 +6969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f666458c-5d0a-4745-a877-1f9342e94aa5}">
+          <x14:cfRule type="dataBar" id="{c0c76965-b1c9-4193-816e-1104a27e6de0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5971,7 +6979,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0f1801d0-a720-4584-a6ac-3e48e1328d82}">
+          <x14:cfRule type="dataBar" id="{aa7c6139-0a95-40c2-93a7-bfc24af66944}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5983,7 +6991,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c92b3e5d-ee09-47d1-84cd-da7e3fc10755}">
+          <x14:cfRule type="dataBar" id="{ff435644-6752-4408-81fe-c20dbe467c3b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5991,7 +6999,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cdd84746-ad97-4edd-b235-b5cbfc310d04}">
+          <x14:cfRule type="dataBar" id="{587afa18-f8d2-4578-aed5-bcebfb7bc1a1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6003,7 +7011,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8c232f24-ccb4-4654-89f6-6b10d3503b09}">
+          <x14:cfRule type="dataBar" id="{06a27052-c070-42e3-89ab-ba70bdbfa57b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6011,7 +7019,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ecd0efd9-1ab2-4090-a01b-9e6e7bf55bb9}">
+          <x14:cfRule type="dataBar" id="{8d1bc362-d39a-4e6f-8010-24ed82952bd6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6023,7 +7031,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ce5db213-ba82-4f90-8228-eeef08e28b65}">
+          <x14:cfRule type="dataBar" id="{28a906a6-5b1c-4b44-8af5-6a68354182e0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6031,7 +7039,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{09cc5128-ff9d-461c-a132-eb7be9501365}">
+          <x14:cfRule type="dataBar" id="{e2d91799-15a3-48e9-b208-7fb03854ac18}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6043,7 +7051,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ba4c0e7e-162d-474b-baff-188b2330ab21}">
+          <x14:cfRule type="dataBar" id="{18525f00-6360-4c06-992b-b033fed2df3d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6058,7 +7066,7 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65fbad52-ef42-4cd7-ad39-a74ea37a7a38}">
+          <x14:cfRule type="dataBar" id="{fa2cd040-8f22-4f53-a48d-9f3ba4c27186}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6068,7 +7076,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9ab058b0-0990-47d2-af93-ce3a1d7f4ea0}">
+          <x14:cfRule type="dataBar" id="{858ade7e-74c2-43c2-850c-9b2c4dfb4f5b}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6076,7 +7084,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{db065755-bfff-48b0-926d-339fe23ba06e}">
+          <x14:cfRule type="dataBar" id="{f2d0784e-70e8-402f-a125-7088c0c5bcee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6086,7 +7094,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{52b10ef3-9fa6-4e6e-9e47-9e2aeff7e29e}">
+          <x14:cfRule type="dataBar" id="{68b8eae2-d717-4418-9768-009cb8dda0c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6096,7 +7104,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{283f7d51-cec2-4a48-b5ab-1f42c5ce3fad}">
+          <x14:cfRule type="dataBar" id="{0272b3e8-938d-4328-84f1-63efa9458e09}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6108,7 +7116,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3b812379-8166-465e-a3c9-d1e3949c9581}">
+          <x14:cfRule type="dataBar" id="{b9687057-cfb7-46ec-af20-43f7822176f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6116,7 +7124,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1796bb11-e38b-4936-9155-91d06ff45bb2}">
+          <x14:cfRule type="dataBar" id="{43254053-0357-444b-a738-5e829cf944bb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6128,7 +7136,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{180358d9-9318-4306-8c13-dceb2921ce2b}">
+          <x14:cfRule type="dataBar" id="{6bae68ca-0e58-4ebc-ab1e-f991757a833d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6136,7 +7144,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3e5bb65c-83f0-4ee3-838a-c2cb95bc08c4}">
+          <x14:cfRule type="dataBar" id="{5c45adc8-9135-4eff-b6fd-b9438cf2a577}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6148,7 +7156,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2ac2690e-f35a-40eb-9700-624a0a64b39c}">
+          <x14:cfRule type="dataBar" id="{ebfbffca-8ac3-46e7-a406-67b1f6cce954}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6156,7 +7164,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f3c937a4-6746-4da2-9224-63d92c9a693c}">
+          <x14:cfRule type="dataBar" id="{353177fb-ef9f-43de-bda6-0d98c2db73d6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6168,7 +7176,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{450ddd1a-e312-452a-84cd-31f7fccc8fec}">
+          <x14:cfRule type="dataBar" id="{da25c154-b88c-4f8b-b788-9f6f0988dda7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6183,7 +7191,7 @@
           <xm:sqref>I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc06bd28-e86e-4737-a3d2-114715f1dc27}">
+          <x14:cfRule type="dataBar" id="{4580c65d-47ba-43bd-bdaa-3b89c734ed48}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6193,7 +7201,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4bb0ceff-63d7-4d68-87c5-f7eaa988023c}">
+          <x14:cfRule type="dataBar" id="{3866d817-4847-4615-bd25-89b8a57a5cb8}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6201,7 +7209,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{030a0a6e-81a1-400f-b542-37cf7941eaa8}">
+          <x14:cfRule type="dataBar" id="{1c72dd2e-de05-4c40-b897-c1f8a2a96ed6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6211,7 +7219,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{77a77ae5-b736-4d0e-9b49-1102d30a4bc0}">
+          <x14:cfRule type="dataBar" id="{b0b5205e-2e00-4c72-9d40-62b889c87c0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6221,7 +7229,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7a83755d-4b09-4b14-b52f-249ec17d8cee}">
+          <x14:cfRule type="dataBar" id="{27107bbb-7668-4318-a652-c877ea6d73f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6233,7 +7241,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d74fbf66-5766-45d1-b5be-05f23975e52f}">
+          <x14:cfRule type="dataBar" id="{232be71f-fadd-4e36-9031-1f339b79f622}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6241,7 +7249,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d2ad4533-5237-497d-a2af-35c5016190d7}">
+          <x14:cfRule type="dataBar" id="{a055c8e5-616d-4843-96f9-6702e657e05a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6253,7 +7261,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fddc16fe-0605-40f6-87e0-d4ee13ae1327}">
+          <x14:cfRule type="dataBar" id="{08826988-ab17-485a-b51c-a7f94ac2052b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6261,7 +7269,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6e9b5cfb-77c1-4776-a8fd-7871b93b2849}">
+          <x14:cfRule type="dataBar" id="{4cfb167a-a1bd-47b5-9f3f-905baafe85b5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6273,7 +7281,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3f25681c-4dd8-4abe-a712-6d4a62e2677b}">
+          <x14:cfRule type="dataBar" id="{92703614-9f2d-4f95-a5d1-ad2a5675021a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6281,7 +7289,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{77b734a7-5e1e-404c-b17c-0cfff8aa261f}">
+          <x14:cfRule type="dataBar" id="{274c19fd-a09c-4ff7-9d3e-54e384702705}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6293,7 +7301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8977d719-ccaa-4dc1-92be-04b492648a47}">
+          <x14:cfRule type="dataBar" id="{bb6cdf02-6a37-49f0-af6e-476f66bff86e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6308,7 +7316,7 @@
           <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9c57b05-7924-4d65-bd45-f012cb15e904}">
+          <x14:cfRule type="dataBar" id="{bce866c0-b78e-45fa-a280-cc745a8f9def}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6318,7 +7326,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{107378a3-8a11-44eb-8ee1-e50efc04013e}">
+          <x14:cfRule type="dataBar" id="{a91014d8-bc26-457e-9a92-bd750c7411f5}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6326,7 +7334,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fb4c157b-69ae-47d3-8291-089c1cb8196b}">
+          <x14:cfRule type="dataBar" id="{5caba113-84d0-4283-82ed-da87e542f91b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6336,7 +7344,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6e270f04-9300-4489-8b06-1a0cd0cf08dc}">
+          <x14:cfRule type="dataBar" id="{68d8f00f-6490-4ab5-8c86-5aa49a9cc20b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6346,7 +7354,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{86a89df5-17e5-47d2-83c3-a9762e360d79}">
+          <x14:cfRule type="dataBar" id="{a839fbd9-78cc-4838-8cc1-0e3a3a50760f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6358,7 +7366,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{80171d28-b9cb-4fc3-be84-3727a4b33fec}">
+          <x14:cfRule type="dataBar" id="{5c6c4ca3-68e8-4078-830a-f3984becc4b2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6366,7 +7374,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b263779b-da0f-4f26-8c77-b7c19bfbb6eb}">
+          <x14:cfRule type="dataBar" id="{98a29332-e692-4b34-b929-dac285efe59a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6378,7 +7386,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{83bb33ff-5b6e-4d81-8968-8ee97a13b105}">
+          <x14:cfRule type="dataBar" id="{11b5227e-32e7-49b8-926b-955c3c6f5ba8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6386,7 +7394,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{99d700cb-540a-4c82-92b0-65a80a6894fa}">
+          <x14:cfRule type="dataBar" id="{cce5ee31-bd68-41b5-bde5-856799f8927f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6398,7 +7406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6519a616-0f93-4c25-9d4a-290300598098}">
+          <x14:cfRule type="dataBar" id="{f907109f-9ce5-4413-8563-b8f739c079f8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6406,7 +7414,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{db921058-128f-4698-ad90-61ed5e253e04}">
+          <x14:cfRule type="dataBar" id="{1571c081-228f-4c33-9a62-74595bc1ac70}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6418,7 +7426,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d464c60f-56aa-4e61-979c-135bfc5e197f}">
+          <x14:cfRule type="dataBar" id="{291db943-1581-4409-b556-d30ba0410b99}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6433,7 +7441,7 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ba8d43ec-5707-494e-9f86-df1ea084406c}">
+          <x14:cfRule type="dataBar" id="{a5bf5c46-1e93-4729-8267-ef012abd37aa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6443,7 +7451,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fd7077f0-9131-40a7-bdee-b5b9bd93962e}">
+          <x14:cfRule type="dataBar" id="{7152779b-725d-4682-bb05-5cb369ec83e0}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6451,7 +7459,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{23137534-e9ec-4308-b227-d5598f819517}">
+          <x14:cfRule type="dataBar" id="{22d0f9d1-e50d-472a-ac96-4f79a90057da}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6461,7 +7469,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{929abfe2-bb3d-49cd-b175-a4e5670e4914}">
+          <x14:cfRule type="dataBar" id="{c9078e22-c76d-4b8f-af7f-9ae1f6e33d64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6471,7 +7479,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ed1a1340-61bc-4ff6-813c-14a97711bf4f}">
+          <x14:cfRule type="dataBar" id="{69ac17b4-f837-401e-abe2-b0a7658ea8af}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6483,7 +7491,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{906b152c-6efc-428a-8005-fe6bd7a3c567}">
+          <x14:cfRule type="dataBar" id="{3c9e697b-44a7-423f-9a26-61ea92278336}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6491,7 +7499,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a0992a8a-b513-4c96-8ebf-80f0aadcff8e}">
+          <x14:cfRule type="dataBar" id="{fed91f8c-dd9c-4ef9-8c16-44602f5dfcd4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6503,7 +7511,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{88b5e2c6-361f-4667-8cfd-38dd480ac985}">
+          <x14:cfRule type="dataBar" id="{04d08c15-8bb7-439e-84f9-2c5f1d82e620}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6511,7 +7519,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{19172ecc-2793-4e8d-96da-f1f36bfd6f7d}">
+          <x14:cfRule type="dataBar" id="{4d57805d-b4ee-4f6f-b8d0-0cf5f87e26ab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6523,7 +7531,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3d2251f6-d86a-4bf2-9dc2-4be3a731920a}">
+          <x14:cfRule type="dataBar" id="{005749a0-a56b-4cff-96a3-ef47a28d2aad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6531,7 +7539,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{03fce62c-e0cf-40b8-9ce2-0f51f246dbe9}">
+          <x14:cfRule type="dataBar" id="{88114f84-3340-4158-8431-872409ec3d05}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6543,7 +7551,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{183b7f25-b433-4612-bd2f-cebd3f863868}">
+          <x14:cfRule type="dataBar" id="{59925a05-419f-4876-bd0e-f8f4eb1db266}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6558,7 +7566,7 @@
           <xm:sqref>I38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{73da11e7-563e-4634-a87a-c5023494029a}">
+          <x14:cfRule type="dataBar" id="{d60e6d6d-1af7-4f9b-a6f9-5a4ede2f9c0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6568,7 +7576,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{db05578f-33e8-4efb-889a-9583a2b4f287}">
+          <x14:cfRule type="dataBar" id="{190f1137-032f-43a3-850c-5f801c118c84}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6576,7 +7584,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7acd4fcf-945c-45ff-868a-398e0e05ae93}">
+          <x14:cfRule type="dataBar" id="{c3d5418a-494e-4f0e-a16f-6b4166d8c76a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6586,7 +7594,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d8bad897-fe9b-4d32-ba0f-7ae7250e2d0e}">
+          <x14:cfRule type="dataBar" id="{9ddb7287-04b7-4331-a6b4-701b4d09f8c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6596,7 +7604,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b09466b2-a2cf-499f-a558-e33c2222e81d}">
+          <x14:cfRule type="dataBar" id="{e183b738-88a0-4552-8d1a-5d51f0f33b77}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6608,7 +7616,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ee38b224-e1fb-4533-88ec-d760fcef0e0e}">
+          <x14:cfRule type="dataBar" id="{e1115ca2-1207-4a8f-a946-e77aca5da6ba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6616,7 +7624,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b4e31fd5-7bec-49db-8cc2-1b9fad1193bd}">
+          <x14:cfRule type="dataBar" id="{353d76f0-2d14-4fc1-a2ef-d4e0315da558}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6628,7 +7636,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{abcffdd1-15c2-4d8f-8b0d-bfd8bec8acaa}">
+          <x14:cfRule type="dataBar" id="{af81df62-9211-4871-b710-56bcf12d4ffe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6636,7 +7644,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{80f5a448-7bb5-4a0b-90da-d80045a7c4df}">
+          <x14:cfRule type="dataBar" id="{b927fe0e-41e8-41f2-b533-0519358a3e09}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6648,7 +7656,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ccc654c6-844d-4ef3-8d8c-8e6704445460}">
+          <x14:cfRule type="dataBar" id="{ebe4e8a2-ca3f-4a3f-a6f7-9c06f3b74c8a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6656,7 +7664,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5d3ba7d3-b29f-4aa8-bd44-7f14040b94c6}">
+          <x14:cfRule type="dataBar" id="{b6936a8d-3439-4d6c-a12d-badb0acd1f9d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6668,7 +7676,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e6a23276-1094-44ed-9c20-263df039f137}">
+          <x14:cfRule type="dataBar" id="{be608674-c8fd-4b11-9c01-478b0979835d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6683,7 +7691,7 @@
           <xm:sqref>I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ce092bf-6441-4e53-a696-649e813d8a9e}">
+          <x14:cfRule type="dataBar" id="{8c898504-96ed-46a1-bdd3-d8cfc669f390}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6695,7 +7703,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f6526b86-cdad-495a-a1b7-47f7241ea588}">
+          <x14:cfRule type="dataBar" id="{3eda14fd-572b-41c0-9a4b-a58f72d42aaa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6707,7 +7715,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{38f56a58-cc63-4bd3-931a-e1fcaac5cff4}">
+          <x14:cfRule type="dataBar" id="{0091a630-c130-4ccb-ab20-3f5db650b0aa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6715,7 +7723,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{87ffd272-ee05-490d-bc03-15c90dde069a}">
+          <x14:cfRule type="dataBar" id="{db7ef040-0b22-4854-b870-495a56468e1e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6727,7 +7735,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c8c0def8-9a10-49fd-bcdb-51e3a35b1aea}">
+          <x14:cfRule type="dataBar" id="{66a4e28a-695b-436d-8f68-856a515ac991}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6735,7 +7743,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b18ba910-3f94-4d5a-9c9e-f2339112faaa}">
+          <x14:cfRule type="dataBar" id="{8179f2cf-6269-43b8-9198-fa75d73c1415}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6747,7 +7755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d68766be-231d-49b6-adff-5764423511b4}">
+          <x14:cfRule type="dataBar" id="{1d5020b6-6b97-465a-9c25-37fb1e076f5e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6755,7 +7763,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b9508a22-be4b-4ebf-9c0d-336ca8c9ad9f}">
+          <x14:cfRule type="dataBar" id="{52462e86-8349-430d-93cd-e9a8790c8d16}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6767,7 +7775,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d866607b-0723-4703-acb2-0b5d0bc92a53}">
+          <x14:cfRule type="dataBar" id="{0e387adb-f652-4751-a318-a1156ab84aab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6777,7 +7785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fe7d6fca-6a91-4d71-a9ad-458db2aa74c2}">
+          <x14:cfRule type="dataBar" id="{75b1c0d3-6868-473f-99ae-d707b14c0d7f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6787,7 +7795,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4852d67b-a050-45e5-91fb-b657d3850f84}">
+          <x14:cfRule type="dataBar" id="{f680125a-5f33-4b0a-b140-ab9ac73e8cf6}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6795,7 +7803,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{93c4af6e-8e60-4a9f-95bf-714511d5518f}">
+          <x14:cfRule type="dataBar" id="{832518e8-3a8f-4a1d-af83-ffc2855686dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6808,7 +7816,7 @@
           <xm:sqref>I2:I25 I40:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19e8230e-cc06-4004-b329-4a69d4c7af35}">
+          <x14:cfRule type="dataBar" id="{ff783e41-6a9c-40b9-bf1e-c1ac416b7b3d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6820,7 +7828,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fed642d9-3929-4870-8444-012f2b6390db}">
+          <x14:cfRule type="dataBar" id="{ecb82aad-594d-4aa8-981d-240c50536dbf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6832,7 +7840,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a93192e4-3d14-4b6d-b656-f2b85e08a35c}">
+          <x14:cfRule type="dataBar" id="{fb777078-5271-4b4f-a330-018a5e5b7d65}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6840,7 +7848,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bb086a8a-1fdc-43bd-845d-24bb53d03db2}">
+          <x14:cfRule type="dataBar" id="{e1a4e6e6-e84a-49cb-817c-ee36cc6e74a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6852,7 +7860,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f187f651-f988-48a4-89de-57b512ac8d33}">
+          <x14:cfRule type="dataBar" id="{36f02870-efff-4889-8bb8-520f5fcd800e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6860,7 +7868,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f93f0ff3-6a7e-4c82-8bb9-e263eb2dce59}">
+          <x14:cfRule type="dataBar" id="{3d1d7f23-0ab4-4bef-9aa1-b61654cd60b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6872,7 +7880,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0547ee6c-60f5-4e6a-b7b0-1c1edafd7502}">
+          <x14:cfRule type="dataBar" id="{805680ba-e56d-4fca-a1ef-68187f91fac2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6880,7 +7888,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4b1e4b07-13b8-4919-9b6c-cd5ea82c8673}">
+          <x14:cfRule type="dataBar" id="{5df65dd9-0d5c-4dd5-b941-5c10d29a57ae}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6892,7 +7900,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8895295d-7da1-4e36-a5f0-ee41cd25a114}">
+          <x14:cfRule type="dataBar" id="{5bc9b9a4-00b2-4fed-9779-14991340993b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6902,7 +7910,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ae0a7763-1dda-4333-80c8-e4e5242b6fea}">
+          <x14:cfRule type="dataBar" id="{0ab8bb5f-b0db-4673-9f74-1159f0e4e809}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6912,7 +7920,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a3da1168-7f6f-4411-acf1-1662b665b9c3}">
+          <x14:cfRule type="dataBar" id="{76fce90c-5669-4edb-ab04-0121328f760b}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6920,7 +7928,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ff61c509-a909-43b3-8fb7-03f811bc9f5e}">
+          <x14:cfRule type="dataBar" id="{34acdca0-d4ef-4f3f-be6d-d197756de8cb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6930,7 +7938,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I26:I29 I34:I35</xm:sqref>
+          <xm:sqref>I26 I34:I35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -646,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -719,7 +719,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -733,53 +770,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -795,9 +787,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,17 +824,17 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -849,14 +857,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,37 +901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +919,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,6 +971,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -971,37 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,85 +1079,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,11 +1349,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,6 +1375,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,17 +1420,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,15 +1441,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.4"/>
       </bottom>
@@ -1447,11 +1449,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,148 +1464,148 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="25">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="21">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="24">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="22">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="24">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="25">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="22">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="23">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="15" borderId="0">
+    <xf numFmtId="10" fontId="0" fillId="17" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2168,10 +2168,10 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -4067,10 +4067,16 @@
       <c r="H68" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="51"/>
-      <c r="J68" s="52"/>
+      <c r="I68" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="52">
+        <v>1</v>
+      </c>
       <c r="K68" s="44"/>
-      <c r="L68" s="53"/>
+      <c r="L68" s="53">
+        <v>44522</v>
+      </c>
       <c r="M68" s="53"/>
     </row>
     <row r="69" ht="24.75" customHeight="1" spans="1:13">
@@ -4090,10 +4096,16 @@
       <c r="H69" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="51"/>
-      <c r="J69" s="52"/>
+      <c r="I69" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="52">
+        <v>1</v>
+      </c>
       <c r="K69" s="44"/>
-      <c r="L69" s="53"/>
+      <c r="L69" s="53">
+        <v>44522</v>
+      </c>
       <c r="M69" s="53"/>
     </row>
     <row r="70" ht="24.75" customHeight="1" spans="1:13">
@@ -4113,10 +4125,16 @@
       <c r="H70" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I70" s="51"/>
-      <c r="J70" s="52"/>
+      <c r="I70" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="J70" s="52">
+        <v>1</v>
+      </c>
       <c r="K70" s="44"/>
-      <c r="L70" s="53"/>
+      <c r="L70" s="53">
+        <v>44522</v>
+      </c>
       <c r="M70" s="53"/>
     </row>
     <row r="71" ht="24.75" customHeight="1" spans="1:13">
@@ -4136,10 +4154,16 @@
       <c r="H71" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I71" s="51"/>
-      <c r="J71" s="52"/>
+      <c r="I71" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="52">
+        <v>1</v>
+      </c>
       <c r="K71" s="44"/>
-      <c r="L71" s="53"/>
+      <c r="L71" s="53">
+        <v>44522</v>
+      </c>
       <c r="M71" s="53"/>
     </row>
     <row r="72" ht="24.75" customHeight="1" spans="1:13">
@@ -4412,7 +4436,7 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="I27">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4420,11 +4444,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4de6766b-a0ad-444c-8dbe-272290642380}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
+          <x14:id>{6d501277-e5c3-434f-aa8c-65f9871d3fc5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4432,11 +4456,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8ce1f216-f27f-4499-9de0-795ffdd6ab4a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
+          <x14:id>{7eb94751-7911-4edf-bd05-76e6d6ee3371}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4444,11 +4468,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{697bec7b-142e-455d-a057-91cee171f479}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="33">
+          <x14:id>{c83b0840-08fb-4a18-a299-a7344ad43351}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4456,11 +4480,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b9680be9-192d-40e2-aa42-328e25f968db}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+          <x14:id>{244b92bc-9a1f-40dc-b864-9363fa4693ce}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4468,11 +4492,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5b6ca424-89d1-4e56-87c0-39f6105a3b0f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
+          <x14:id>{2b093bb1-e170-4871-b44a-1c2b5cdde8ed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4480,11 +4504,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7631908d-5781-41b1-9309-5f335f0d7331}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
+          <x14:id>{84d79481-092f-4a1c-a83f-8f6ee22d7ea9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4492,11 +4516,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7de1ef47-65ca-490a-a2a9-989521e1485b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
+          <x14:id>{f67919c0-5949-4cbe-8b9c-421835421a6e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4504,11 +4528,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ada92a2f-7475-472c-9a0f-424cc9e845e0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+          <x14:id>{2c1faa63-a98d-4c84-8ada-e07141f973fa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4516,11 +4540,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6dbe196f-ec47-4d53-a3b2-d230202a4c1f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+          <x14:id>{90d4fb48-1a21-4b62-aecf-b6da0699854d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4528,11 +4552,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51f75099-a871-4b2c-abe9-d1a347cbe123}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
+          <x14:id>{19820d32-a437-4e6e-a670-4ffeadda7a4a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4540,11 +4564,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77692b60-bb7c-4eb9-b496-99b9e0149a79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
+          <x14:id>{687b882c-9001-4249-aae0-eedce21b2114}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4552,13 +4576,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4ddccf92-6a75-4878-80ac-5b66ae7d3bab}</x14:id>
+          <x14:id>{96eebc88-fb85-4be8-bdae-f08e8336f8c5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4566,11 +4590,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e38c4055-b4c9-44c6-ae12-0c472a6533fc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
+          <x14:id>{eb67c237-d9e7-42fd-b8be-033b950ecb23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4578,11 +4602,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cab839ec-3193-40d3-917c-a19fcd20556e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
+          <x14:id>{40812ce9-c7ae-4379-8f9f-e064e471b677}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4590,11 +4614,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49bf27f3-f4cb-4230-ad20-1105515c5b51}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{922efbf5-732f-4197-963a-14d733396023}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4602,11 +4626,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ab65b296-54fa-427c-a723-897c927d4adf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{31eed29d-bd32-4870-be31-db259628425b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4614,11 +4638,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b7e86663-8813-4b31-9668-e29e1f7777df}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{bfcc6a30-619d-439a-9002-ef23b7edfb8e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4626,11 +4650,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78471535-5640-4ee5-912c-27cf28bfeeb2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{523d7a10-42e3-40f1-a70c-00dfa17888a6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4638,11 +4662,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98717b63-66a7-45b9-a195-db88643b450a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{3763d2bf-1be0-405f-b6ab-39ea32279120}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4650,11 +4674,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c30d08f4-cf9e-4556-9a12-93de2fc24c7d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{03599efd-eaa2-48e9-8b8e-3b4056dbd6e3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4662,11 +4686,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{803422fa-7e0a-4874-b487-e9383b3213ef}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{24118815-9648-4d58-a34d-18761ddd181b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4674,11 +4698,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{caac22fb-4ca4-4da5-be77-c1f9892c3eed}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
+          <x14:id>{9e13e9ac-cc5b-4109-8a18-b766d4dd92dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4686,11 +4710,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2cc71357-3563-44f1-9e83-8798d9fd303b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
+          <x14:id>{fc8bcd0a-a7fc-4e12-9cd3-983affbb7c52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4698,13 +4722,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{846ae973-f7f4-48c1-86f7-3cfb7a970e1f}</x14:id>
+          <x14:id>{65a5db9c-d448-4d2b-9979-31905058ac62}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4712,11 +4736,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dee2e684-f33f-4e12-9f6e-f6a789fad4d6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
+          <x14:id>{57f8a287-6851-4c94-8d9f-bef2e55e8e5e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4724,11 +4748,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e3c3d99-fa70-4291-ad66-67964cb9da06}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
+          <x14:id>{62036c0b-9cb2-4745-9c43-66c54ba34b8b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4736,11 +4760,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d810d644-b74f-4464-be2a-d63d9759fc9b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
+          <x14:id>{09aeb23a-cd31-40b3-9d51-ffa36ee40f81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4748,11 +4772,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3719265-19d3-46b7-8924-5069794061f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
+          <x14:id>{58945ddf-33d7-4209-a8d2-84e3bbe089c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4760,11 +4784,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35630626-2f99-4437-a369-ceaa70b9599b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
+          <x14:id>{22b426e4-f98f-4463-be56-fb769a281f0d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4772,11 +4796,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c8afe814-bb5f-4c0a-a6f1-24d7eb4389fb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
+          <x14:id>{98d5b920-fb2e-4665-8e5f-f5a5947b6948}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4784,11 +4808,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{554decbd-2a13-491e-937c-e6547297c0bf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+          <x14:id>{b36bdb9e-adb2-4481-b65e-5990a814cd03}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4796,11 +4820,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94ce5bdc-1fa2-4b7c-9bf4-9f923e9cc653}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
+          <x14:id>{84246e59-07d0-4ba7-9b6f-5056337db90c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4808,11 +4832,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8faac6a9-5755-474a-af2d-b6d6bc047911}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+          <x14:id>{edaca753-6cfa-4409-9d18-bc22159a2525}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4820,11 +4844,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79110fd5-01c2-4472-87b4-adceb20d66a9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
+          <x14:id>{1c67fe66-e305-4093-ac8d-ab5fccf4e226}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4832,11 +4856,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2ff28139-a1fa-4bae-b8bb-e7134debe8e2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
+          <x14:id>{2e159c50-d035-4c35-96db-276cdfe156f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4844,13 +4868,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03914cda-53e0-475e-9ca1-7627abbc5154}</x14:id>
+          <x14:id>{7c80ea9e-9491-4cb8-9676-6453a73a9064}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="dataBar" priority="132">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4858,11 +4882,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e513403d-d22c-4594-ad61-89a9aeb312d8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="131">
+          <x14:id>{2e4c6586-fdaf-4c99-9486-710fb6c71d24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4870,11 +4894,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3e28192-7cc9-4165-8d47-733c4135c4a3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="130">
+          <x14:id>{be2dc268-5ce4-47e1-b87b-54e0abf9ce36}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4882,11 +4906,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ae31533-2f6d-4d1d-8171-f12493dc72eb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="129">
+          <x14:id>{76944b85-2fb8-446d-9d86-91191d4257aa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4894,11 +4918,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9477a52a-7fcb-4757-b4ac-7a3e0f9596b8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="128">
+          <x14:id>{dac0d70b-b160-4cea-93e7-0ef3c445086a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4906,11 +4930,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{973f17df-1b5d-449e-b80f-c2732e11edc4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="127">
+          <x14:id>{fde59c4a-eb70-43ff-afaa-ce90b4689037}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4918,11 +4942,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b10620bf-cc10-4ac6-aa0c-c093ba714c3f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="126">
+          <x14:id>{cd6593f4-5ed9-4156-ab3e-0d1545b1bcef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4930,11 +4954,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c145ed15-bd0c-4129-80f9-a3f5ee3e9d32}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="125">
+          <x14:id>{59c61461-5d92-4677-8528-e18d6a8b716d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4942,11 +4966,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9a56feac-44b2-4282-bc3c-82fb1de38bf5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="124">
+          <x14:id>{37e8bdaa-b1db-4f55-a564-be36b82c8ddd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4954,11 +4978,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4502305f-ff82-4aba-9ef0-b3a2a984d925}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="123">
+          <x14:id>{841b6fce-de46-4880-aa85-c50c76ebbf54}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4966,11 +4990,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3467604d-c662-4e4e-99b9-35e8868c59c5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="122">
+          <x14:id>{4d6f82c2-d1cb-48cc-b092-317e9a7afae7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4978,11 +5002,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30b598cf-fb8a-48dc-bcc6-4c8e46eb0fb8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="121">
+          <x14:id>{86e2a82f-9ff9-4a12-9ee3-add7cac6e6c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4990,13 +5014,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41d0c9da-c9e9-4bbc-8417-8ac5f12a6939}</x14:id>
+          <x14:id>{1626b266-b046-4191-9d64-7a77654bd259}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5004,11 +5028,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2ef28c75-e16e-4d63-b540-52cbacbe8906}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="119">
+          <x14:id>{ec89afe2-675d-4b5a-9ecd-170196567aca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5016,11 +5040,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d99c27cb-ecab-4c6f-b4ca-a0a473b7bba8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="118">
+          <x14:id>{62c7f4d4-69cf-4ea2-9b58-9745ebf170d0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5028,11 +5052,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c047a5de-7805-4252-bd66-974e78f6c640}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="117">
+          <x14:id>{7332d2a6-50e1-4002-93ca-6b9affc1ca76}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5040,11 +5064,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{266fc494-3a00-4c8f-9b23-b7b54db9f9a2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="116">
+          <x14:id>{005bbac7-851a-4744-95d9-68ec5f252f0a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5052,11 +5076,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6147725c-727d-49e2-90de-b9763f2cc8ea}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="115">
+          <x14:id>{a93c50c4-47f1-4814-af58-0d864b24a0d4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5064,11 +5088,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a96a44b1-7fcb-45b4-a42d-387af4799976}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="114">
+          <x14:id>{18b90c0a-309e-4427-af20-077e4e5472f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5076,11 +5100,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63d045cb-a7f4-410a-b58d-bab53bed3be5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="113">
+          <x14:id>{2ce74cbf-3799-49fe-89fb-dc0f98d7754d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5088,11 +5112,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{992ad2e5-c936-4d76-b387-aacc6b271aac}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="112">
+          <x14:id>{5aee9664-6218-4ef5-85ab-d5be5a7eaf8b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5100,11 +5124,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e9adbbc-4273-4a53-929a-3f36f4c36f66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="111">
+          <x14:id>{9f53e534-b519-42b2-957e-3f8e6401056e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5112,11 +5136,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{789c7839-d2c3-476a-97d6-74a0d7c1a0c3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="110">
+          <x14:id>{8830eeda-e7b6-43e9-8799-83ed912639c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5124,11 +5148,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51c802ae-3f4b-42a7-9d95-be90d07902e2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="109">
+          <x14:id>{99ca46aa-6d68-4be4-825c-d0aba0139438}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5136,13 +5160,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d3c097e7-3f4c-4b83-84c8-314ae9333036}</x14:id>
+          <x14:id>{cc1f794c-b959-419f-ab1a-a005dd941080}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5150,11 +5174,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3dd5d6f0-db4f-45e4-8477-db47508049c0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="107">
+          <x14:id>{6738c8f5-7824-4293-8619-5f1a75271cf9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5162,11 +5186,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{095cbf0a-5db7-425b-b40c-c7e44cd20260}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="106">
+          <x14:id>{925236a5-b405-475c-be1d-0a921efcab1f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5174,11 +5198,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2385c32-67ee-4eda-827e-abb4518c1ea9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="105">
+          <x14:id>{3630b47c-faa1-4a64-8f4c-4a2dd198aad7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5186,11 +5210,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c0c76965-b1c9-4193-816e-1104a27e6de0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="104">
+          <x14:id>{258e2f23-5d2f-4a87-8895-302410920146}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5198,11 +5222,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aa7c6139-0a95-40c2-93a7-bfc24af66944}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="103">
+          <x14:id>{f2d8dcb3-17fa-4934-9fdd-2ab7d1391d6a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5210,11 +5234,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ff435644-6752-4408-81fe-c20dbe467c3b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="102">
+          <x14:id>{2207cd4e-f6e0-4d38-a20f-054035e43ea8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5222,11 +5246,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{587afa18-f8d2-4578-aed5-bcebfb7bc1a1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="101">
+          <x14:id>{0b9c49d4-d733-4791-bb1a-01f784d4a72f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5234,11 +5258,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06a27052-c070-42e3-89ab-ba70bdbfa57b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="100">
+          <x14:id>{f635dd64-9f16-4196-9ed7-ca6c40590475}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5246,11 +5270,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d1bc362-d39a-4e6f-8010-24ed82952bd6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="99">
+          <x14:id>{41a6e32a-8043-4ccb-96dd-dc5db0f84462}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5258,11 +5282,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28a906a6-5b1c-4b44-8af5-6a68354182e0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="98">
+          <x14:id>{b3e97de2-666b-422c-8edb-8825e2e3ea68}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5270,11 +5294,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2d91799-15a3-48e9-b208-7fb03854ac18}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="97">
+          <x14:id>{46b57160-a991-4b96-86bd-7331b398154a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5282,13 +5306,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18525f00-6360-4c06-992b-b033fed2df3d}</x14:id>
+          <x14:id>{49a463ac-4b54-4818-b18a-70d5eb708813}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5296,11 +5320,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa2cd040-8f22-4f53-a48d-9f3ba4c27186}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="95">
+          <x14:id>{513ee22d-b3bb-4413-9d0c-3a070bbeb40e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5308,11 +5332,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{858ade7e-74c2-43c2-850c-9b2c4dfb4f5b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="94">
+          <x14:id>{9472b21f-1fe4-43ba-bf2d-8c5530c6c382}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5320,11 +5344,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2d0784e-70e8-402f-a125-7088c0c5bcee}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="93">
+          <x14:id>{50fe63f9-4179-4432-b572-44c877ecbd04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5332,11 +5356,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68b8eae2-d717-4418-9768-009cb8dda0c5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="92">
+          <x14:id>{a09ed840-f382-49a5-9de9-10fd1d1c749d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5344,11 +5368,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0272b3e8-938d-4328-84f1-63efa9458e09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="91">
+          <x14:id>{c3829030-eac1-4fec-8174-d7c7a56bd4a3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5356,11 +5380,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b9687057-cfb7-46ec-af20-43f7822176f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="90">
+          <x14:id>{2a483a47-3f3e-48c8-8b06-c990bb97a117}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5368,11 +5392,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43254053-0357-444b-a738-5e829cf944bb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="89">
+          <x14:id>{a3982cbc-63b4-425c-85d1-0b393784cf5a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5380,11 +5404,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6bae68ca-0e58-4ebc-ab1e-f991757a833d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="88">
+          <x14:id>{f55c67f7-c9a6-4cf2-b2e1-860ed912e879}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5392,11 +5416,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c45adc8-9135-4eff-b6fd-b9438cf2a577}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="87">
+          <x14:id>{90e6e214-4acd-4212-9fff-cda8f181d933}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5404,11 +5428,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebfbffca-8ac3-46e7-a406-67b1f6cce954}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="86">
+          <x14:id>{2d422193-37d8-4990-be48-0dffb94b59a7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5416,11 +5440,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{353177fb-ef9f-43de-bda6-0d98c2db73d6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="85">
+          <x14:id>{65741c8d-a7a6-4ead-8f16-8f4ffefdd05a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5428,13 +5452,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da25c154-b88c-4f8b-b788-9f6f0988dda7}</x14:id>
+          <x14:id>{3e52febe-cd27-4a36-9701-894ae7d24e1b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5442,11 +5466,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4580c65d-47ba-43bd-bdaa-3b89c734ed48}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="83">
+          <x14:id>{5845ec59-fee2-46e7-8794-0b3db23b5ed2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5454,11 +5478,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3866d817-4847-4615-bd25-89b8a57a5cb8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="82">
+          <x14:id>{8e0b02ef-d901-44e8-8cd2-4f151a09c6ed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5466,11 +5490,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c72dd2e-de05-4c40-b897-c1f8a2a96ed6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
+          <x14:id>{cf506082-8e02-4d71-a24a-7055b7d77e64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5478,11 +5502,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0b5205e-2e00-4c72-9d40-62b889c87c0f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="80">
+          <x14:id>{f595af45-c5e3-438f-83b3-f1ad515fba71}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5490,11 +5514,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{27107bbb-7668-4318-a652-c877ea6d73f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="79">
+          <x14:id>{6985e71c-ff6d-498f-9282-061ba1d28c28}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5502,11 +5526,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{232be71f-fadd-4e36-9031-1f339b79f622}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="78">
+          <x14:id>{f8acc096-cff2-4ec1-9480-9693a9dbf6a4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5514,11 +5538,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a055c8e5-616d-4843-96f9-6702e657e05a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="77">
+          <x14:id>{b888106d-2fa1-4b52-b0de-6379d8ed397c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5526,11 +5550,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08826988-ab17-485a-b51c-a7f94ac2052b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="76">
+          <x14:id>{3c29a422-929e-42c8-ab7d-cfc4715548c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5538,11 +5562,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4cfb167a-a1bd-47b5-9f3f-905baafe85b5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="75">
+          <x14:id>{a09aac9c-63ac-4734-b731-2fc6329aa268}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5550,11 +5574,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92703614-9f2d-4f95-a5d1-ad2a5675021a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="74">
+          <x14:id>{cd783a7e-cce7-44eb-97f0-4cda95b93807}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5562,11 +5586,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{274c19fd-a09c-4ff7-9d3e-54e384702705}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="73">
+          <x14:id>{f0f39acc-4d29-420a-9f83-b1b99c949811}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5574,13 +5598,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bb6cdf02-6a37-49f0-af6e-476f66bff86e}</x14:id>
+          <x14:id>{b0f76a7e-05a4-4b32-8c50-2a5b9ed48267}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5588,11 +5612,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bce866c0-b78e-45fa-a280-cc745a8f9def}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+          <x14:id>{0bffdb2a-0247-4137-bc47-efaa39e9f8a3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5600,11 +5624,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a91014d8-bc26-457e-9a92-bd750c7411f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="70">
+          <x14:id>{f84e5190-90e0-4590-bfce-f4afb9cfa1dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5612,11 +5636,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5caba113-84d0-4283-82ed-da87e542f91b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="69">
+          <x14:id>{1fa690b9-2c46-48c6-93d6-074229bf756b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5624,11 +5648,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68d8f00f-6490-4ab5-8c86-5aa49a9cc20b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="68">
+          <x14:id>{4f60a672-bb4e-4a64-8ef6-44105781f950}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5636,11 +5660,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a839fbd9-78cc-4838-8cc1-0e3a3a50760f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="67">
+          <x14:id>{c45ce8ad-78c9-4e2b-a323-718b813025d1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5648,11 +5672,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c6c4ca3-68e8-4078-830a-f3984becc4b2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="66">
+          <x14:id>{2290ae47-2c93-45b2-aca5-40f8179774d1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5660,11 +5684,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98a29332-e692-4b34-b929-dac285efe59a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="65">
+          <x14:id>{755ccaa5-6d6e-4e6e-ad62-ab7a6d83750c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5672,11 +5696,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{11b5227e-32e7-49b8-926b-955c3c6f5ba8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="64">
+          <x14:id>{97c940a4-2f68-485e-abcb-744668beb08a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5684,11 +5708,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cce5ee31-bd68-41b5-bde5-856799f8927f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="63">
+          <x14:id>{b52598ca-d34f-4756-866d-bbb1540b3d5a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5696,11 +5720,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f907109f-9ce5-4413-8563-b8f739c079f8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="62">
+          <x14:id>{98baf017-bfea-465e-bc31-f5bfd3a37fda}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5708,11 +5732,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1571c081-228f-4c33-9a62-74595bc1ac70}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
+          <x14:id>{4a5d90fe-87fd-4434-a79d-cdf3eb7770d5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5720,13 +5744,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{291db943-1581-4409-b556-d30ba0410b99}</x14:id>
+          <x14:id>{60d09c0d-1950-4c0b-b4e0-e355d18cdf64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5734,11 +5758,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a5bf5c46-1e93-4729-8267-ef012abd37aa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="59">
+          <x14:id>{aa23e510-ef7c-42fd-ae8e-74b1a2f26120}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5746,11 +5770,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7152779b-725d-4682-bb05-5cb369ec83e0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
+          <x14:id>{508d8f00-53aa-47f5-ac2c-2edbb9d8068f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5758,11 +5782,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22d0f9d1-e50d-472a-ac96-4f79a90057da}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
+          <x14:id>{6a2600d8-8b6a-4b7a-80a1-e0c0b1f288b0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5770,11 +5794,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c9078e22-c76d-4b8f-af7f-9ae1f6e33d64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="56">
+          <x14:id>{4f55e5fe-2783-47e2-a4e7-e88295654a56}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5782,11 +5806,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69ac17b4-f837-401e-abe2-b0a7658ea8af}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{2b2fa001-4f7f-466f-be30-6def67ea6955}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5794,11 +5818,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c9e697b-44a7-423f-9a26-61ea92278336}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="54">
+          <x14:id>{8d15e0d8-7fc8-4751-bb15-cf453325e3cc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5806,11 +5830,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fed91f8c-dd9c-4ef9-8c16-44602f5dfcd4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
+          <x14:id>{b43dc8b6-06b3-45f4-b12e-5f0b91c4dd4d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5818,11 +5842,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04d08c15-8bb7-439e-84f9-2c5f1d82e620}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
+          <x14:id>{8e1115b0-8cf1-4a0f-8c2c-1c0b7efd9837}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5830,11 +5854,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4d57805d-b4ee-4f6f-b8d0-0cf5f87e26ab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
+          <x14:id>{f5458b1a-061a-4d91-9e2b-ec7091190009}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5842,11 +5866,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{005749a0-a56b-4cff-96a3-ef47a28d2aad}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
+          <x14:id>{b4026d45-e392-4708-aa7b-7a7603bd8a09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5854,11 +5878,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88114f84-3340-4158-8431-872409ec3d05}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="49">
+          <x14:id>{f2d010a8-247b-4207-9ac6-8ad2ff9c1a4c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5866,13 +5890,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59925a05-419f-4876-bd0e-f8f4eb1db266}</x14:id>
+          <x14:id>{8dbe9e1e-0496-4e95-9d94-ae7589b2a2e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5880,11 +5904,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d60e6d6d-1af7-4f9b-a6f9-5a4ede2f9c0f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="47">
+          <x14:id>{17e6dac8-2d13-445f-a7d7-e9a9ffc49a45}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5892,11 +5916,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{190f1137-032f-43a3-850c-5f801c118c84}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="46">
+          <x14:id>{ae9fdb8f-e4a3-4122-af67-183cab793659}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5904,11 +5928,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3d5418a-494e-4f0e-a16f-6b4166d8c76a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="45">
+          <x14:id>{98bde785-6065-4e10-991e-59b750a1d47c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5916,11 +5940,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ddb7287-04b7-4331-a6b4-701b4d09f8c6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
+          <x14:id>{a1fc274c-3b83-4e5f-add8-8f5e3274c88f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5928,11 +5952,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e183b738-88a0-4552-8d1a-5d51f0f33b77}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
+          <x14:id>{44e00081-7bce-467c-8692-67e3ab68122f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5940,11 +5964,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1115ca2-1207-4a8f-a946-e77aca5da6ba}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="42">
+          <x14:id>{779805e5-4042-49ab-bd61-d0c34ff90034}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5952,11 +5976,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{353d76f0-2d14-4fc1-a2ef-d4e0315da558}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
+          <x14:id>{579e0fbf-618d-4b31-b969-49beeac75846}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5964,11 +5988,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{af81df62-9211-4871-b710-56bcf12d4ffe}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="40">
+          <x14:id>{71bc23d2-6587-4423-80df-b45ef695f918}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5976,11 +6000,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b927fe0e-41e8-41f2-b533-0519358a3e09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="39">
+          <x14:id>{4bd9b8c9-8cef-4e76-b411-c41312246d59}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5988,11 +6012,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebe4e8a2-ca3f-4a3f-a6f7-9c06f3b74c8a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
+          <x14:id>{79efb023-49e4-4e1f-b794-dd8cab0e4299}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6000,11 +6024,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6936a8d-3439-4d6c-a12d-badb0acd1f9d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="37">
+          <x14:id>{45345bc0-6f42-481e-ad35-dafa4ea0c5de}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6012,13 +6036,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be608674-c8fd-4b11-9c01-478b0979835d}</x14:id>
+          <x14:id>{94e402e2-21ff-4571-9c39-705a1c6bed00}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I40:I1048576">
-    <cfRule type="dataBar" priority="145">
+  <conditionalFormatting sqref="I68">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0c8960ed-720b-4646-8d70-b967889cad2e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e11feeb8-d230-423a-a662-b5af98f8578d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{39bbb0a2-d9b2-496c-8a0b-6a5a93361726}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8c60d841-ff51-4b68-b58b-d6b80cbffd9c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{092e4a44-d4f4-43c7-a8d3-a3ace924aed3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3ddae45d-9b2d-46d2-95f0-49bd2fbcdc1d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5a7fbb13-442a-426f-b37b-2efb86f3d2f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5ee68963-3d90-4a78-9e87-460afd39c87b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6c7c3a20-6320-4b4d-beef-902d6e43b39b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8869eeb2-aac1-4584-9204-e6658e1986c4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0657ccf5-99cd-4aa3-ba81-bd1bd313ea30}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6026,23 +6182,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8c898504-96ed-46a1-bdd3-d8cfc669f390}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="146">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3eda14fd-572b-41c0-9a4b-a58f72d42aaa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="147">
+          <x14:id>{e4ff64bc-61bf-4285-ab66-138e9bfa80d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I71">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6798f51e-a0ac-49ae-a894-72959d95088d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6050,35 +6208,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0091a630-c130-4ccb-ab20-3f5db650b0aa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="148">
+          <x14:id>{4dd47447-b887-4fab-9aae-503a83e027eb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db7ef040-0b22-4854-b870-495a56468e1e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="149">
-      <dataBar>
-        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ababeca2-4c73-4799-845e-3b2077e5e3d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
         <color rgb="FF92D050"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{66a4e28a-695b-436d-8f68-856a515ac991}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="150">
+          <x14:id>{47bb8b31-e936-42ed-9b26-66e60571526e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6086,11 +6244,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8179f2cf-6269-43b8-9198-fa75d73c1415}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="151">
+          <x14:id>{9076e674-9d3c-42fd-816c-7cc26cdda081}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6098,11 +6256,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1d5020b6-6b97-465a-9c25-37fb1e076f5e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="152">
+          <x14:id>{42bc0c73-cd04-40a3-8542-8271200b898f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6110,35 +6268,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52462e86-8349-430d-93cd-e9a8790c8d16}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="153">
+          <x14:id>{0b7968ca-3ccf-477a-869c-8190e1133b5d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42dd33f7-8719-4e2f-b12a-7ec4c1be6953}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e387adb-f652-4751-a318-a1156ab84aab}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="154">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75b1c0d3-6868-473f-99ae-d707b14c0d7f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="155">
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5fae0578-b7fd-402b-9a75-9012c66d5116}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6146,25 +6304,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f680125a-5f33-4b0a-b140-ab9ac73e8cf6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="156">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{832518e8-3a8f-4a1d-af83-ffc2855686dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26 I34:I35">
-    <cfRule type="dataBar" priority="133">
+          <x14:id>{eada73a1-e3d9-4d47-aece-deacf2f4c80c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{df46f238-e338-4861-915e-77a26431db5f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6172,23 +6328,37 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ff783e41-6a9c-40b9-bf1e-c1ac416b7b3d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="134">
+          <x14:id>{a9dea78a-54a0-4df5-ac2d-9a74772e4ef4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I40:I67 I72:I1048576">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ecb82aad-594d-4aa8-981d-240c50536dbf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="135">
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6a777c43-1304-44b4-8b8c-b92fc9e83d56}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="170">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{dee2443b-3e70-4ff4-905b-50b451caffd8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6196,11 +6366,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb777078-5271-4b4f-a330-018a5e5b7d65}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="136">
+          <x14:id>{488f6f58-9987-4c8f-8b53-3b40fdc10452}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6208,11 +6378,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1a4e6e6-e84a-49cb-817c-ee36cc6e74a3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="137">
+          <x14:id>{93a7c487-3f11-4709-a3d8-88549c712ab1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6220,11 +6390,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36f02870-efff-4889-8bb8-520f5fcd800e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="138">
+          <x14:id>{c6dfda56-6997-48e1-a3e8-f2506551605c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6232,11 +6402,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d1d7f23-0ab4-4bef-9aa1-b61654cd60b3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="139">
+          <x14:id>{ed1adb1d-8b73-4d66-91d4-643f447ed942}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6244,11 +6414,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{805680ba-e56d-4fca-a1ef-68187f91fac2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="140">
+          <x14:id>{2a16c493-c5bc-4767-a23f-292b359ca818}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6256,11 +6426,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5df65dd9-0d5c-4dd5-b941-5c10d29a57ae}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="141">
+          <x14:id>{44af832a-b504-4f1d-b363-71517a4f4ce1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6268,11 +6438,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5bc9b9a4-00b2-4fed-9779-14991340993b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="142">
+          <x14:id>{092810f9-048b-4ed0-87ef-58e8ff796bd4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6280,11 +6450,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ab8bb5f-b0db-4673-9f74-1159f0e4e809}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="143">
+          <x14:id>{fa619455-b38c-45bd-923c-4eaae1f786ac}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6292,11 +6462,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76fce90c-5669-4edb-ab04-0121328f760b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="144">
+          <x14:id>{c403c774-f7b3-4b06-b270-4011f3a967ca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6304,7 +6474,153 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{34acdca0-d4ef-4f3f-be6d-d197756de8cb}</x14:id>
+          <x14:id>{5924f066-57c8-411e-b7b5-c924542da603}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26 I34:I35">
+    <cfRule type="dataBar" priority="157">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0944ace8-703f-46b3-a745-c0db3f90140a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="158">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73fcb426-54b9-4f9d-b074-91051b1e93e8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="159">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bcb78b26-4480-4fc6-afa0-f099f59c2bb1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="160">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f55db104-b063-49f3-8bda-78de38eb81a1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="161">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1895d3c6-18a9-4800-9b5a-12c20d8d8b6e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="162">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3f7b60e1-765c-462f-9c17-8464ed09b159}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="163">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b2cb743f-ff92-422a-8f08-dc40fcb0672f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="164">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e28e356e-02cd-4ebd-89fc-5f779618f6a7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="165">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cfd91d88-8ebb-46dd-9a9c-bf5b6968ba59}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="166">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c0145eb6-45e3-4985-a1c8-ce514c2b2c81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="167">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8d667760-9a53-4509-b6d5-51dc8ce5ea7b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="168">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7f44d8ce-dc47-449d-b546-57f87f0b7851}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6316,7 +6632,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4de6766b-a0ad-444c-8dbe-272290642380}">
+          <x14:cfRule type="dataBar" id="{6d501277-e5c3-434f-aa8c-65f9871d3fc5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6326,7 +6642,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8ce1f216-f27f-4499-9de0-795ffdd6ab4a}">
+          <x14:cfRule type="dataBar" id="{7eb94751-7911-4edf-bd05-76e6d6ee3371}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6334,7 +6650,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{697bec7b-142e-455d-a057-91cee171f479}">
+          <x14:cfRule type="dataBar" id="{c83b0840-08fb-4a18-a299-a7344ad43351}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6344,7 +6660,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b9680be9-192d-40e2-aa42-328e25f968db}">
+          <x14:cfRule type="dataBar" id="{244b92bc-9a1f-40dc-b864-9363fa4693ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6354,7 +6670,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5b6ca424-89d1-4e56-87c0-39f6105a3b0f}">
+          <x14:cfRule type="dataBar" id="{2b093bb1-e170-4871-b44a-1c2b5cdde8ed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6366,7 +6682,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7631908d-5781-41b1-9309-5f335f0d7331}">
+          <x14:cfRule type="dataBar" id="{84d79481-092f-4a1c-a83f-8f6ee22d7ea9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6374,7 +6690,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7de1ef47-65ca-490a-a2a9-989521e1485b}">
+          <x14:cfRule type="dataBar" id="{f67919c0-5949-4cbe-8b9c-421835421a6e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6386,7 +6702,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ada92a2f-7475-472c-9a0f-424cc9e845e0}">
+          <x14:cfRule type="dataBar" id="{2c1faa63-a98d-4c84-8ada-e07141f973fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6394,7 +6710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6dbe196f-ec47-4d53-a3b2-d230202a4c1f}">
+          <x14:cfRule type="dataBar" id="{90d4fb48-1a21-4b62-aecf-b6da0699854d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6406,7 +6722,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{51f75099-a871-4b2c-abe9-d1a347cbe123}">
+          <x14:cfRule type="dataBar" id="{19820d32-a437-4e6e-a670-4ffeadda7a4a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6414,7 +6730,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{77692b60-bb7c-4eb9-b496-99b9e0149a79}">
+          <x14:cfRule type="dataBar" id="{687b882c-9001-4249-aae0-eedce21b2114}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6426,7 +6742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4ddccf92-6a75-4878-80ac-5b66ae7d3bab}">
+          <x14:cfRule type="dataBar" id="{96eebc88-fb85-4be8-bdae-f08e8336f8c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6441,7 +6757,7 @@
           <xm:sqref>I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e38c4055-b4c9-44c6-ae12-0c472a6533fc}">
+          <x14:cfRule type="dataBar" id="{eb67c237-d9e7-42fd-b8be-033b950ecb23}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6451,7 +6767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cab839ec-3193-40d3-917c-a19fcd20556e}">
+          <x14:cfRule type="dataBar" id="{40812ce9-c7ae-4379-8f9f-e064e471b677}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6459,7 +6775,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{49bf27f3-f4cb-4230-ad20-1105515c5b51}">
+          <x14:cfRule type="dataBar" id="{922efbf5-732f-4197-963a-14d733396023}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6469,7 +6785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ab65b296-54fa-427c-a723-897c927d4adf}">
+          <x14:cfRule type="dataBar" id="{31eed29d-bd32-4870-be31-db259628425b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6479,7 +6795,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b7e86663-8813-4b31-9668-e29e1f7777df}">
+          <x14:cfRule type="dataBar" id="{bfcc6a30-619d-439a-9002-ef23b7edfb8e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6491,7 +6807,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{78471535-5640-4ee5-912c-27cf28bfeeb2}">
+          <x14:cfRule type="dataBar" id="{523d7a10-42e3-40f1-a70c-00dfa17888a6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6499,7 +6815,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{98717b63-66a7-45b9-a195-db88643b450a}">
+          <x14:cfRule type="dataBar" id="{3763d2bf-1be0-405f-b6ab-39ea32279120}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6511,7 +6827,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c30d08f4-cf9e-4556-9a12-93de2fc24c7d}">
+          <x14:cfRule type="dataBar" id="{03599efd-eaa2-48e9-8b8e-3b4056dbd6e3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6519,7 +6835,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{803422fa-7e0a-4874-b487-e9383b3213ef}">
+          <x14:cfRule type="dataBar" id="{24118815-9648-4d58-a34d-18761ddd181b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6531,7 +6847,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{caac22fb-4ca4-4da5-be77-c1f9892c3eed}">
+          <x14:cfRule type="dataBar" id="{9e13e9ac-cc5b-4109-8a18-b766d4dd92dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6539,7 +6855,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2cc71357-3563-44f1-9e83-8798d9fd303b}">
+          <x14:cfRule type="dataBar" id="{fc8bcd0a-a7fc-4e12-9cd3-983affbb7c52}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6551,7 +6867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{846ae973-f7f4-48c1-86f7-3cfb7a970e1f}">
+          <x14:cfRule type="dataBar" id="{65a5db9c-d448-4d2b-9979-31905058ac62}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6566,7 +6882,7 @@
           <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dee2e684-f33f-4e12-9f6e-f6a789fad4d6}">
+          <x14:cfRule type="dataBar" id="{57f8a287-6851-4c94-8d9f-bef2e55e8e5e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6576,7 +6892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7e3c3d99-fa70-4291-ad66-67964cb9da06}">
+          <x14:cfRule type="dataBar" id="{62036c0b-9cb2-4745-9c43-66c54ba34b8b}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6584,7 +6900,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d810d644-b74f-4464-be2a-d63d9759fc9b}">
+          <x14:cfRule type="dataBar" id="{09aeb23a-cd31-40b3-9d51-ffa36ee40f81}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6594,7 +6910,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b3719265-19d3-46b7-8924-5069794061f5}">
+          <x14:cfRule type="dataBar" id="{58945ddf-33d7-4209-a8d2-84e3bbe089c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6604,7 +6920,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{35630626-2f99-4437-a369-ceaa70b9599b}">
+          <x14:cfRule type="dataBar" id="{22b426e4-f98f-4463-be56-fb769a281f0d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6616,7 +6932,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c8afe814-bb5f-4c0a-a6f1-24d7eb4389fb}">
+          <x14:cfRule type="dataBar" id="{98d5b920-fb2e-4665-8e5f-f5a5947b6948}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6624,7 +6940,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{554decbd-2a13-491e-937c-e6547297c0bf}">
+          <x14:cfRule type="dataBar" id="{b36bdb9e-adb2-4481-b65e-5990a814cd03}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6636,7 +6952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{94ce5bdc-1fa2-4b7c-9bf4-9f923e9cc653}">
+          <x14:cfRule type="dataBar" id="{84246e59-07d0-4ba7-9b6f-5056337db90c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6644,7 +6960,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8faac6a9-5755-474a-af2d-b6d6bc047911}">
+          <x14:cfRule type="dataBar" id="{edaca753-6cfa-4409-9d18-bc22159a2525}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6656,7 +6972,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{79110fd5-01c2-4472-87b4-adceb20d66a9}">
+          <x14:cfRule type="dataBar" id="{1c67fe66-e305-4093-ac8d-ab5fccf4e226}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6664,7 +6980,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2ff28139-a1fa-4bae-b8bb-e7134debe8e2}">
+          <x14:cfRule type="dataBar" id="{2e159c50-d035-4c35-96db-276cdfe156f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6676,7 +6992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{03914cda-53e0-475e-9ca1-7627abbc5154}">
+          <x14:cfRule type="dataBar" id="{7c80ea9e-9491-4cb8-9676-6453a73a9064}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6691,7 +7007,7 @@
           <xm:sqref>I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e513403d-d22c-4594-ad61-89a9aeb312d8}">
+          <x14:cfRule type="dataBar" id="{2e4c6586-fdaf-4c99-9486-710fb6c71d24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6701,7 +7017,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a3e28192-7cc9-4165-8d47-733c4135c4a3}">
+          <x14:cfRule type="dataBar" id="{be2dc268-5ce4-47e1-b87b-54e0abf9ce36}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6709,7 +7025,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0ae31533-2f6d-4d1d-8171-f12493dc72eb}">
+          <x14:cfRule type="dataBar" id="{76944b85-2fb8-446d-9d86-91191d4257aa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6719,7 +7035,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9477a52a-7fcb-4757-b4ac-7a3e0f9596b8}">
+          <x14:cfRule type="dataBar" id="{dac0d70b-b160-4cea-93e7-0ef3c445086a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6729,7 +7045,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{973f17df-1b5d-449e-b80f-c2732e11edc4}">
+          <x14:cfRule type="dataBar" id="{fde59c4a-eb70-43ff-afaa-ce90b4689037}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6741,7 +7057,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b10620bf-cc10-4ac6-aa0c-c093ba714c3f}">
+          <x14:cfRule type="dataBar" id="{cd6593f4-5ed9-4156-ab3e-0d1545b1bcef}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6749,7 +7065,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c145ed15-bd0c-4129-80f9-a3f5ee3e9d32}">
+          <x14:cfRule type="dataBar" id="{59c61461-5d92-4677-8528-e18d6a8b716d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6761,7 +7077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9a56feac-44b2-4282-bc3c-82fb1de38bf5}">
+          <x14:cfRule type="dataBar" id="{37e8bdaa-b1db-4f55-a564-be36b82c8ddd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6769,7 +7085,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4502305f-ff82-4aba-9ef0-b3a2a984d925}">
+          <x14:cfRule type="dataBar" id="{841b6fce-de46-4880-aa85-c50c76ebbf54}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6781,7 +7097,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3467604d-c662-4e4e-99b9-35e8868c59c5}">
+          <x14:cfRule type="dataBar" id="{4d6f82c2-d1cb-48cc-b092-317e9a7afae7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6789,7 +7105,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{30b598cf-fb8a-48dc-bcc6-4c8e46eb0fb8}">
+          <x14:cfRule type="dataBar" id="{86e2a82f-9ff9-4a12-9ee3-add7cac6e6c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6801,7 +7117,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{41d0c9da-c9e9-4bbc-8417-8ac5f12a6939}">
+          <x14:cfRule type="dataBar" id="{1626b266-b046-4191-9d64-7a77654bd259}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6816,7 +7132,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2ef28c75-e16e-4d63-b540-52cbacbe8906}">
+          <x14:cfRule type="dataBar" id="{ec89afe2-675d-4b5a-9ecd-170196567aca}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6826,7 +7142,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d99c27cb-ecab-4c6f-b4ca-a0a473b7bba8}">
+          <x14:cfRule type="dataBar" id="{62c7f4d4-69cf-4ea2-9b58-9745ebf170d0}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6834,7 +7150,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c047a5de-7805-4252-bd66-974e78f6c640}">
+          <x14:cfRule type="dataBar" id="{7332d2a6-50e1-4002-93ca-6b9affc1ca76}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6844,7 +7160,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{266fc494-3a00-4c8f-9b23-b7b54db9f9a2}">
+          <x14:cfRule type="dataBar" id="{005bbac7-851a-4744-95d9-68ec5f252f0a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6854,7 +7170,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6147725c-727d-49e2-90de-b9763f2cc8ea}">
+          <x14:cfRule type="dataBar" id="{a93c50c4-47f1-4814-af58-0d864b24a0d4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6866,7 +7182,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a96a44b1-7fcb-45b4-a42d-387af4799976}">
+          <x14:cfRule type="dataBar" id="{18b90c0a-309e-4427-af20-077e4e5472f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6874,7 +7190,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{63d045cb-a7f4-410a-b58d-bab53bed3be5}">
+          <x14:cfRule type="dataBar" id="{2ce74cbf-3799-49fe-89fb-dc0f98d7754d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6886,7 +7202,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{992ad2e5-c936-4d76-b387-aacc6b271aac}">
+          <x14:cfRule type="dataBar" id="{5aee9664-6218-4ef5-85ab-d5be5a7eaf8b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6894,7 +7210,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2e9adbbc-4273-4a53-929a-3f36f4c36f66}">
+          <x14:cfRule type="dataBar" id="{9f53e534-b519-42b2-957e-3f8e6401056e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6906,7 +7222,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{789c7839-d2c3-476a-97d6-74a0d7c1a0c3}">
+          <x14:cfRule type="dataBar" id="{8830eeda-e7b6-43e9-8799-83ed912639c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6914,7 +7230,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{51c802ae-3f4b-42a7-9d95-be90d07902e2}">
+          <x14:cfRule type="dataBar" id="{99ca46aa-6d68-4be4-825c-d0aba0139438}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6926,7 +7242,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d3c097e7-3f4c-4b83-84c8-314ae9333036}">
+          <x14:cfRule type="dataBar" id="{cc1f794c-b959-419f-ab1a-a005dd941080}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6941,7 +7257,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3dd5d6f0-db4f-45e4-8477-db47508049c0}">
+          <x14:cfRule type="dataBar" id="{6738c8f5-7824-4293-8619-5f1a75271cf9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6951,7 +7267,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{095cbf0a-5db7-425b-b40c-c7e44cd20260}">
+          <x14:cfRule type="dataBar" id="{925236a5-b405-475c-be1d-0a921efcab1f}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6959,7 +7275,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d2385c32-67ee-4eda-827e-abb4518c1ea9}">
+          <x14:cfRule type="dataBar" id="{3630b47c-faa1-4a64-8f4c-4a2dd198aad7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6969,7 +7285,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c0c76965-b1c9-4193-816e-1104a27e6de0}">
+          <x14:cfRule type="dataBar" id="{258e2f23-5d2f-4a87-8895-302410920146}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6979,7 +7295,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{aa7c6139-0a95-40c2-93a7-bfc24af66944}">
+          <x14:cfRule type="dataBar" id="{f2d8dcb3-17fa-4934-9fdd-2ab7d1391d6a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6991,7 +7307,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ff435644-6752-4408-81fe-c20dbe467c3b}">
+          <x14:cfRule type="dataBar" id="{2207cd4e-f6e0-4d38-a20f-054035e43ea8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6999,7 +7315,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{587afa18-f8d2-4578-aed5-bcebfb7bc1a1}">
+          <x14:cfRule type="dataBar" id="{0b9c49d4-d733-4791-bb1a-01f784d4a72f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7011,7 +7327,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{06a27052-c070-42e3-89ab-ba70bdbfa57b}">
+          <x14:cfRule type="dataBar" id="{f635dd64-9f16-4196-9ed7-ca6c40590475}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7019,7 +7335,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8d1bc362-d39a-4e6f-8010-24ed82952bd6}">
+          <x14:cfRule type="dataBar" id="{41a6e32a-8043-4ccb-96dd-dc5db0f84462}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7031,7 +7347,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{28a906a6-5b1c-4b44-8af5-6a68354182e0}">
+          <x14:cfRule type="dataBar" id="{b3e97de2-666b-422c-8edb-8825e2e3ea68}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7039,7 +7355,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e2d91799-15a3-48e9-b208-7fb03854ac18}">
+          <x14:cfRule type="dataBar" id="{46b57160-a991-4b96-86bd-7331b398154a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7051,7 +7367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{18525f00-6360-4c06-992b-b033fed2df3d}">
+          <x14:cfRule type="dataBar" id="{49a463ac-4b54-4818-b18a-70d5eb708813}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7066,7 +7382,7 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa2cd040-8f22-4f53-a48d-9f3ba4c27186}">
+          <x14:cfRule type="dataBar" id="{513ee22d-b3bb-4413-9d0c-3a070bbeb40e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7076,7 +7392,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{858ade7e-74c2-43c2-850c-9b2c4dfb4f5b}">
+          <x14:cfRule type="dataBar" id="{9472b21f-1fe4-43ba-bf2d-8c5530c6c382}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7084,7 +7400,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f2d0784e-70e8-402f-a125-7088c0c5bcee}">
+          <x14:cfRule type="dataBar" id="{50fe63f9-4179-4432-b572-44c877ecbd04}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7094,7 +7410,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{68b8eae2-d717-4418-9768-009cb8dda0c5}">
+          <x14:cfRule type="dataBar" id="{a09ed840-f382-49a5-9de9-10fd1d1c749d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7104,7 +7420,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0272b3e8-938d-4328-84f1-63efa9458e09}">
+          <x14:cfRule type="dataBar" id="{c3829030-eac1-4fec-8174-d7c7a56bd4a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7116,7 +7432,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b9687057-cfb7-46ec-af20-43f7822176f5}">
+          <x14:cfRule type="dataBar" id="{2a483a47-3f3e-48c8-8b06-c990bb97a117}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7124,7 +7440,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{43254053-0357-444b-a738-5e829cf944bb}">
+          <x14:cfRule type="dataBar" id="{a3982cbc-63b4-425c-85d1-0b393784cf5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7136,7 +7452,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6bae68ca-0e58-4ebc-ab1e-f991757a833d}">
+          <x14:cfRule type="dataBar" id="{f55c67f7-c9a6-4cf2-b2e1-860ed912e879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7144,7 +7460,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5c45adc8-9135-4eff-b6fd-b9438cf2a577}">
+          <x14:cfRule type="dataBar" id="{90e6e214-4acd-4212-9fff-cda8f181d933}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7156,7 +7472,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ebfbffca-8ac3-46e7-a406-67b1f6cce954}">
+          <x14:cfRule type="dataBar" id="{2d422193-37d8-4990-be48-0dffb94b59a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7164,7 +7480,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{353177fb-ef9f-43de-bda6-0d98c2db73d6}">
+          <x14:cfRule type="dataBar" id="{65741c8d-a7a6-4ead-8f16-8f4ffefdd05a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7176,7 +7492,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{da25c154-b88c-4f8b-b788-9f6f0988dda7}">
+          <x14:cfRule type="dataBar" id="{3e52febe-cd27-4a36-9701-894ae7d24e1b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7191,7 +7507,7 @@
           <xm:sqref>I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4580c65d-47ba-43bd-bdaa-3b89c734ed48}">
+          <x14:cfRule type="dataBar" id="{5845ec59-fee2-46e7-8794-0b3db23b5ed2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7201,7 +7517,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3866d817-4847-4615-bd25-89b8a57a5cb8}">
+          <x14:cfRule type="dataBar" id="{8e0b02ef-d901-44e8-8cd2-4f151a09c6ed}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7209,7 +7525,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1c72dd2e-de05-4c40-b897-c1f8a2a96ed6}">
+          <x14:cfRule type="dataBar" id="{cf506082-8e02-4d71-a24a-7055b7d77e64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7219,7 +7535,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b0b5205e-2e00-4c72-9d40-62b889c87c0f}">
+          <x14:cfRule type="dataBar" id="{f595af45-c5e3-438f-83b3-f1ad515fba71}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7229,7 +7545,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{27107bbb-7668-4318-a652-c877ea6d73f5}">
+          <x14:cfRule type="dataBar" id="{6985e71c-ff6d-498f-9282-061ba1d28c28}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7241,7 +7557,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{232be71f-fadd-4e36-9031-1f339b79f622}">
+          <x14:cfRule type="dataBar" id="{f8acc096-cff2-4ec1-9480-9693a9dbf6a4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7249,7 +7565,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a055c8e5-616d-4843-96f9-6702e657e05a}">
+          <x14:cfRule type="dataBar" id="{b888106d-2fa1-4b52-b0de-6379d8ed397c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7261,7 +7577,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{08826988-ab17-485a-b51c-a7f94ac2052b}">
+          <x14:cfRule type="dataBar" id="{3c29a422-929e-42c8-ab7d-cfc4715548c5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7269,7 +7585,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4cfb167a-a1bd-47b5-9f3f-905baafe85b5}">
+          <x14:cfRule type="dataBar" id="{a09aac9c-63ac-4734-b731-2fc6329aa268}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7281,7 +7597,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{92703614-9f2d-4f95-a5d1-ad2a5675021a}">
+          <x14:cfRule type="dataBar" id="{cd783a7e-cce7-44eb-97f0-4cda95b93807}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7289,7 +7605,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{274c19fd-a09c-4ff7-9d3e-54e384702705}">
+          <x14:cfRule type="dataBar" id="{f0f39acc-4d29-420a-9f83-b1b99c949811}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7301,7 +7617,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bb6cdf02-6a37-49f0-af6e-476f66bff86e}">
+          <x14:cfRule type="dataBar" id="{b0f76a7e-05a4-4b32-8c50-2a5b9ed48267}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7316,7 +7632,7 @@
           <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bce866c0-b78e-45fa-a280-cc745a8f9def}">
+          <x14:cfRule type="dataBar" id="{0bffdb2a-0247-4137-bc47-efaa39e9f8a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7326,7 +7642,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a91014d8-bc26-457e-9a92-bd750c7411f5}">
+          <x14:cfRule type="dataBar" id="{f84e5190-90e0-4590-bfce-f4afb9cfa1dd}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7334,7 +7650,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5caba113-84d0-4283-82ed-da87e542f91b}">
+          <x14:cfRule type="dataBar" id="{1fa690b9-2c46-48c6-93d6-074229bf756b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7344,7 +7660,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{68d8f00f-6490-4ab5-8c86-5aa49a9cc20b}">
+          <x14:cfRule type="dataBar" id="{4f60a672-bb4e-4a64-8ef6-44105781f950}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7354,7 +7670,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a839fbd9-78cc-4838-8cc1-0e3a3a50760f}">
+          <x14:cfRule type="dataBar" id="{c45ce8ad-78c9-4e2b-a323-718b813025d1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7366,7 +7682,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5c6c4ca3-68e8-4078-830a-f3984becc4b2}">
+          <x14:cfRule type="dataBar" id="{2290ae47-2c93-45b2-aca5-40f8179774d1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7374,7 +7690,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{98a29332-e692-4b34-b929-dac285efe59a}">
+          <x14:cfRule type="dataBar" id="{755ccaa5-6d6e-4e6e-ad62-ab7a6d83750c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7386,7 +7702,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{11b5227e-32e7-49b8-926b-955c3c6f5ba8}">
+          <x14:cfRule type="dataBar" id="{97c940a4-2f68-485e-abcb-744668beb08a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7394,7 +7710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cce5ee31-bd68-41b5-bde5-856799f8927f}">
+          <x14:cfRule type="dataBar" id="{b52598ca-d34f-4756-866d-bbb1540b3d5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7406,7 +7722,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f907109f-9ce5-4413-8563-b8f739c079f8}">
+          <x14:cfRule type="dataBar" id="{98baf017-bfea-465e-bc31-f5bfd3a37fda}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7414,7 +7730,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1571c081-228f-4c33-9a62-74595bc1ac70}">
+          <x14:cfRule type="dataBar" id="{4a5d90fe-87fd-4434-a79d-cdf3eb7770d5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7426,7 +7742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{291db943-1581-4409-b556-d30ba0410b99}">
+          <x14:cfRule type="dataBar" id="{60d09c0d-1950-4c0b-b4e0-e355d18cdf64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7441,7 +7757,7 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a5bf5c46-1e93-4729-8267-ef012abd37aa}">
+          <x14:cfRule type="dataBar" id="{aa23e510-ef7c-42fd-ae8e-74b1a2f26120}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7451,7 +7767,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7152779b-725d-4682-bb05-5cb369ec83e0}">
+          <x14:cfRule type="dataBar" id="{508d8f00-53aa-47f5-ac2c-2edbb9d8068f}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7459,7 +7775,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{22d0f9d1-e50d-472a-ac96-4f79a90057da}">
+          <x14:cfRule type="dataBar" id="{6a2600d8-8b6a-4b7a-80a1-e0c0b1f288b0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7469,7 +7785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c9078e22-c76d-4b8f-af7f-9ae1f6e33d64}">
+          <x14:cfRule type="dataBar" id="{4f55e5fe-2783-47e2-a4e7-e88295654a56}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7479,7 +7795,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{69ac17b4-f837-401e-abe2-b0a7658ea8af}">
+          <x14:cfRule type="dataBar" id="{2b2fa001-4f7f-466f-be30-6def67ea6955}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7491,7 +7807,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3c9e697b-44a7-423f-9a26-61ea92278336}">
+          <x14:cfRule type="dataBar" id="{8d15e0d8-7fc8-4751-bb15-cf453325e3cc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7499,7 +7815,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fed91f8c-dd9c-4ef9-8c16-44602f5dfcd4}">
+          <x14:cfRule type="dataBar" id="{b43dc8b6-06b3-45f4-b12e-5f0b91c4dd4d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7511,7 +7827,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{04d08c15-8bb7-439e-84f9-2c5f1d82e620}">
+          <x14:cfRule type="dataBar" id="{8e1115b0-8cf1-4a0f-8c2c-1c0b7efd9837}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7519,7 +7835,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4d57805d-b4ee-4f6f-b8d0-0cf5f87e26ab}">
+          <x14:cfRule type="dataBar" id="{f5458b1a-061a-4d91-9e2b-ec7091190009}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7531,7 +7847,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{005749a0-a56b-4cff-96a3-ef47a28d2aad}">
+          <x14:cfRule type="dataBar" id="{b4026d45-e392-4708-aa7b-7a7603bd8a09}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7539,7 +7855,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{88114f84-3340-4158-8431-872409ec3d05}">
+          <x14:cfRule type="dataBar" id="{f2d010a8-247b-4207-9ac6-8ad2ff9c1a4c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7551,7 +7867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{59925a05-419f-4876-bd0e-f8f4eb1db266}">
+          <x14:cfRule type="dataBar" id="{8dbe9e1e-0496-4e95-9d94-ae7589b2a2e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7566,7 +7882,7 @@
           <xm:sqref>I38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d60e6d6d-1af7-4f9b-a6f9-5a4ede2f9c0f}">
+          <x14:cfRule type="dataBar" id="{17e6dac8-2d13-445f-a7d7-e9a9ffc49a45}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7576,7 +7892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{190f1137-032f-43a3-850c-5f801c118c84}">
+          <x14:cfRule type="dataBar" id="{ae9fdb8f-e4a3-4122-af67-183cab793659}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7584,7 +7900,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c3d5418a-494e-4f0e-a16f-6b4166d8c76a}">
+          <x14:cfRule type="dataBar" id="{98bde785-6065-4e10-991e-59b750a1d47c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7594,7 +7910,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9ddb7287-04b7-4331-a6b4-701b4d09f8c6}">
+          <x14:cfRule type="dataBar" id="{a1fc274c-3b83-4e5f-add8-8f5e3274c88f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7604,7 +7920,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e183b738-88a0-4552-8d1a-5d51f0f33b77}">
+          <x14:cfRule type="dataBar" id="{44e00081-7bce-467c-8692-67e3ab68122f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7616,7 +7932,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e1115ca2-1207-4a8f-a946-e77aca5da6ba}">
+          <x14:cfRule type="dataBar" id="{779805e5-4042-49ab-bd61-d0c34ff90034}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7624,7 +7940,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{353d76f0-2d14-4fc1-a2ef-d4e0315da558}">
+          <x14:cfRule type="dataBar" id="{579e0fbf-618d-4b31-b969-49beeac75846}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7636,7 +7952,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{af81df62-9211-4871-b710-56bcf12d4ffe}">
+          <x14:cfRule type="dataBar" id="{71bc23d2-6587-4423-80df-b45ef695f918}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7644,7 +7960,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b927fe0e-41e8-41f2-b533-0519358a3e09}">
+          <x14:cfRule type="dataBar" id="{4bd9b8c9-8cef-4e76-b411-c41312246d59}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7656,7 +7972,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ebe4e8a2-ca3f-4a3f-a6f7-9c06f3b74c8a}">
+          <x14:cfRule type="dataBar" id="{79efb023-49e4-4e1f-b794-dd8cab0e4299}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7664,7 +7980,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b6936a8d-3439-4d6c-a12d-badb0acd1f9d}">
+          <x14:cfRule type="dataBar" id="{45345bc0-6f42-481e-ad35-dafa4ea0c5de}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7676,7 +7992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{be608674-c8fd-4b11-9c01-478b0979835d}">
+          <x14:cfRule type="dataBar" id="{94e402e2-21ff-4571-9c39-705a1c6bed00}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7691,7 +8007,117 @@
           <xm:sqref>I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8c898504-96ed-46a1-bdd3-d8cfc669f390}">
+          <x14:cfRule type="dataBar" id="{0c8960ed-720b-4646-8d70-b967889cad2e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e11feeb8-d230-423a-a662-b5af98f8578d}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{39bbb0a2-d9b2-496c-8a0b-6a5a93361726}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8c60d841-ff51-4b68-b58b-d6b80cbffd9c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{092e4a44-d4f4-43c7-a8d3-a3ace924aed3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{3ddae45d-9b2d-46d2-95f0-49bd2fbcdc1d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5a7fbb13-442a-426f-b37b-2efb86f3d2f8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5ee68963-3d90-4a78-9e87-460afd39c87b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{6c7c3a20-6320-4b4d-beef-902d6e43b39b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8869eeb2-aac1-4584-9204-e6658e1986c4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0657ccf5-99cd-4aa3-ba81-bd1bd313ea30}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e4ff64bc-61bf-4285-ab66-138e9bfa80d6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7703,7 +8129,108 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3eda14fd-572b-41c0-9a4b-a58f72d42aaa}">
+          <xm:sqref>I68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6798f51e-a0ac-49ae-a894-72959d95088d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4dd47447-b887-4fab-9aae-503a83e027eb}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ababeca2-4c73-4799-845e-3b2077e5e3d6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{47bb8b31-e936-42ed-9b26-66e60571526e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9076e674-9d3c-42fd-816c-7cc26cdda081}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{42bc0c73-cd04-40a3-8542-8271200b898f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0b7968ca-3ccf-477a-869c-8190e1133b5d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{42dd33f7-8719-4e2f-b12a-7ec4c1be6953}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5fae0578-b7fd-402b-9a75-9012c66d5116}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{eada73a1-e3d9-4d47-aece-deacf2f4c80c}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{df46f238-e338-4861-915e-77a26431db5f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7715,7 +8242,46 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0091a630-c130-4ccb-ab20-3f5db650b0aa}">
+          <x14:cfRule type="dataBar" id="{a9dea78a-54a0-4df5-ac2d-9a74772e4ef4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I69:I71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6a777c43-1304-44b4-8b8c-b92fc9e83d56}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{dee2443b-3e70-4ff4-905b-50b451caffd8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{488f6f58-9987-4c8f-8b53-3b40fdc10452}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7723,7 +8289,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{db7ef040-0b22-4854-b870-495a56468e1e}">
+          <x14:cfRule type="dataBar" id="{93a7c487-3f11-4709-a3d8-88549c712ab1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7735,7 +8301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{66a4e28a-695b-436d-8f68-856a515ac991}">
+          <x14:cfRule type="dataBar" id="{c6dfda56-6997-48e1-a3e8-f2506551605c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7743,7 +8309,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8179f2cf-6269-43b8-9198-fa75d73c1415}">
+          <x14:cfRule type="dataBar" id="{ed1adb1d-8b73-4d66-91d4-643f447ed942}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7755,7 +8321,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1d5020b6-6b97-465a-9c25-37fb1e076f5e}">
+          <x14:cfRule type="dataBar" id="{2a16c493-c5bc-4767-a23f-292b359ca818}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7763,7 +8329,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{52462e86-8349-430d-93cd-e9a8790c8d16}">
+          <x14:cfRule type="dataBar" id="{44af832a-b504-4f1d-b363-71517a4f4ce1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7775,7 +8341,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0e387adb-f652-4751-a318-a1156ab84aab}">
+          <x14:cfRule type="dataBar" id="{092810f9-048b-4ed0-87ef-58e8ff796bd4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7785,7 +8351,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{75b1c0d3-6868-473f-99ae-d707b14c0d7f}">
+          <x14:cfRule type="dataBar" id="{fa619455-b38c-45bd-923c-4eaae1f786ac}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7795,7 +8361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f680125a-5f33-4b0a-b140-ab9ac73e8cf6}">
+          <x14:cfRule type="dataBar" id="{c403c774-f7b3-4b06-b270-4011f3a967ca}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7803,7 +8369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{832518e8-3a8f-4a1d-af83-ffc2855686dd}">
+          <x14:cfRule type="dataBar" id="{5924f066-57c8-411e-b7b5-c924542da603}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7813,10 +8379,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25 I40:I1048576</xm:sqref>
+          <xm:sqref>I2:I25 I40:I67 I72:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ff783e41-6a9c-40b9-bf1e-c1ac416b7b3d}">
+          <x14:cfRule type="dataBar" id="{0944ace8-703f-46b3-a745-c0db3f90140a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7828,7 +8394,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ecb82aad-594d-4aa8-981d-240c50536dbf}">
+          <x14:cfRule type="dataBar" id="{73fcb426-54b9-4f9d-b074-91051b1e93e8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7840,7 +8406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fb777078-5271-4b4f-a330-018a5e5b7d65}">
+          <x14:cfRule type="dataBar" id="{bcb78b26-4480-4fc6-afa0-f099f59c2bb1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7848,7 +8414,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e1a4e6e6-e84a-49cb-817c-ee36cc6e74a3}">
+          <x14:cfRule type="dataBar" id="{f55db104-b063-49f3-8bda-78de38eb81a1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7860,7 +8426,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{36f02870-efff-4889-8bb8-520f5fcd800e}">
+          <x14:cfRule type="dataBar" id="{1895d3c6-18a9-4800-9b5a-12c20d8d8b6e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7868,7 +8434,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3d1d7f23-0ab4-4bef-9aa1-b61654cd60b3}">
+          <x14:cfRule type="dataBar" id="{3f7b60e1-765c-462f-9c17-8464ed09b159}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7880,7 +8446,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{805680ba-e56d-4fca-a1ef-68187f91fac2}">
+          <x14:cfRule type="dataBar" id="{b2cb743f-ff92-422a-8f08-dc40fcb0672f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7888,7 +8454,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5df65dd9-0d5c-4dd5-b941-5c10d29a57ae}">
+          <x14:cfRule type="dataBar" id="{e28e356e-02cd-4ebd-89fc-5f779618f6a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7900,7 +8466,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5bc9b9a4-00b2-4fed-9779-14991340993b}">
+          <x14:cfRule type="dataBar" id="{cfd91d88-8ebb-46dd-9a9c-bf5b6968ba59}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7910,7 +8476,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0ab8bb5f-b0db-4673-9f74-1159f0e4e809}">
+          <x14:cfRule type="dataBar" id="{c0145eb6-45e3-4985-a1c8-ce514c2b2c81}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7920,7 +8486,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{76fce90c-5669-4edb-ab04-0121328f760b}">
+          <x14:cfRule type="dataBar" id="{8d667760-9a53-4509-b6d5-51dc8ce5ea7b}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7928,7 +8494,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{34acdca0-d4ef-4f3f-be6d-d197756de8cb}">
+          <x14:cfRule type="dataBar" id="{7f44d8ce-dc47-449d-b546-57f87f0b7851}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -646,10 +646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -725,6 +725,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -732,16 +733,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -762,16 +769,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -780,22 +780,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF1265BE"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -811,6 +795,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -841,15 +833,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,13 +901,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,13 +931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,95 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="0"/>
-        </stop>
-        <stop position="1">
-          <color theme="4"/>
-        </stop>
-      </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,19 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,13 +985,59 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,13 +1049,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,17 +1349,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,26 +1386,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,7 +1412,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,25 +1421,37 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.5"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,151 +1461,151 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="22">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="25">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="29">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="28">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="25">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="21">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="22">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="24">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="25" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2168,10 +2168,10 @@
   <sheetPr/>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -3647,11 +3647,19 @@
       <c r="H50" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="51"/>
-      <c r="J50" s="52"/>
+      <c r="I50" s="51">
+        <v>1</v>
+      </c>
+      <c r="J50" s="52">
+        <v>1</v>
+      </c>
       <c r="K50" s="44"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
+      <c r="L50" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M50" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="51" ht="24.75" customHeight="1" spans="1:13">
       <c r="A51" s="41"/>
@@ -3670,11 +3678,19 @@
       <c r="H51" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="51"/>
-      <c r="J51" s="52"/>
+      <c r="I51" s="51">
+        <v>1</v>
+      </c>
+      <c r="J51" s="52">
+        <v>1</v>
+      </c>
       <c r="K51" s="44"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
+      <c r="L51" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M51" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="52" ht="24.75" customHeight="1" spans="1:13">
       <c r="A52" s="41"/>
@@ -3693,11 +3709,19 @@
       <c r="H52" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="51"/>
-      <c r="J52" s="52"/>
+      <c r="I52" s="51">
+        <v>1</v>
+      </c>
+      <c r="J52" s="52">
+        <v>1</v>
+      </c>
       <c r="K52" s="44"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
+      <c r="L52" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M52" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="53" ht="24.75" customHeight="1" spans="1:13">
       <c r="A53" s="41"/>
@@ -3717,7 +3741,9 @@
         <v>17</v>
       </c>
       <c r="I53" s="51"/>
-      <c r="J53" s="52"/>
+      <c r="J53" s="52">
+        <v>1</v>
+      </c>
       <c r="K53" s="44"/>
       <c r="L53" s="53"/>
       <c r="M53" s="53"/>
@@ -3787,11 +3813,19 @@
       <c r="H56" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I56" s="51"/>
-      <c r="J56" s="52"/>
+      <c r="I56" s="51">
+        <v>1</v>
+      </c>
+      <c r="J56" s="52">
+        <v>1</v>
+      </c>
       <c r="K56" s="44"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
+      <c r="L56" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M56" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="57" ht="24.75" customHeight="1" spans="1:13">
       <c r="A57" s="41"/>
@@ -3810,11 +3844,19 @@
       <c r="H57" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="51"/>
-      <c r="J57" s="52"/>
+      <c r="I57" s="51">
+        <v>1</v>
+      </c>
+      <c r="J57" s="52">
+        <v>1</v>
+      </c>
       <c r="K57" s="44"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
+      <c r="L57" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M57" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="58" ht="24.75" customHeight="1" spans="1:13">
       <c r="A58" s="41"/>
@@ -3833,11 +3875,19 @@
       <c r="H58" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="51"/>
-      <c r="J58" s="52"/>
+      <c r="I58" s="51">
+        <v>1</v>
+      </c>
+      <c r="J58" s="52">
+        <v>1</v>
+      </c>
       <c r="K58" s="44"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
+      <c r="L58" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M58" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="59" ht="24.75" customHeight="1" spans="1:13">
       <c r="A59" s="41"/>
@@ -3857,7 +3907,9 @@
         <v>17</v>
       </c>
       <c r="I59" s="51"/>
-      <c r="J59" s="52"/>
+      <c r="J59" s="52">
+        <v>1</v>
+      </c>
       <c r="K59" s="44"/>
       <c r="L59" s="53"/>
       <c r="M59" s="53"/>
@@ -3927,11 +3979,19 @@
       <c r="H62" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="51"/>
-      <c r="J62" s="52"/>
+      <c r="I62" s="51">
+        <v>1</v>
+      </c>
+      <c r="J62" s="52">
+        <v>1</v>
+      </c>
       <c r="K62" s="44"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
+      <c r="L62" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M62" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="63" ht="24.75" customHeight="1" spans="1:13">
       <c r="A63" s="41"/>
@@ -3950,11 +4010,19 @@
       <c r="H63" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="51"/>
-      <c r="J63" s="52"/>
+      <c r="I63" s="51">
+        <v>1</v>
+      </c>
+      <c r="J63" s="52">
+        <v>1</v>
+      </c>
       <c r="K63" s="44"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
+      <c r="L63" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M63" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="64" ht="24.75" customHeight="1" spans="1:13">
       <c r="A64" s="41"/>
@@ -3973,11 +4041,19 @@
       <c r="H64" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="51"/>
-      <c r="J64" s="52"/>
+      <c r="I64" s="51">
+        <v>1</v>
+      </c>
+      <c r="J64" s="52">
+        <v>1</v>
+      </c>
       <c r="K64" s="44"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
+      <c r="L64" s="53">
+        <v>44521</v>
+      </c>
+      <c r="M64" s="53">
+        <v>44524</v>
+      </c>
     </row>
     <row r="65" ht="24.75" customHeight="1" spans="1:13">
       <c r="A65" s="41"/>
@@ -3997,7 +4073,9 @@
         <v>17</v>
       </c>
       <c r="I65" s="51"/>
-      <c r="J65" s="52"/>
+      <c r="J65" s="52">
+        <v>1</v>
+      </c>
       <c r="K65" s="44"/>
       <c r="L65" s="53"/>
       <c r="M65" s="53"/>
@@ -4068,16 +4146,18 @@
         <v>17</v>
       </c>
       <c r="I68" s="51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J68" s="52">
         <v>1</v>
       </c>
       <c r="K68" s="44"/>
       <c r="L68" s="53">
-        <v>44522</v>
-      </c>
-      <c r="M68" s="53"/>
+        <v>44517</v>
+      </c>
+      <c r="M68" s="53">
+        <v>44521</v>
+      </c>
     </row>
     <row r="69" ht="24.75" customHeight="1" spans="1:13">
       <c r="A69" s="41"/>
@@ -4097,16 +4177,18 @@
         <v>17</v>
       </c>
       <c r="I69" s="51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J69" s="52">
         <v>1</v>
       </c>
       <c r="K69" s="44"/>
       <c r="L69" s="53">
-        <v>44522</v>
-      </c>
-      <c r="M69" s="53"/>
+        <v>44517</v>
+      </c>
+      <c r="M69" s="53">
+        <v>44521</v>
+      </c>
     </row>
     <row r="70" ht="24.75" customHeight="1" spans="1:13">
       <c r="A70" s="41"/>
@@ -4126,16 +4208,18 @@
         <v>17</v>
       </c>
       <c r="I70" s="51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J70" s="52">
         <v>1</v>
       </c>
       <c r="K70" s="44"/>
       <c r="L70" s="53">
-        <v>44522</v>
-      </c>
-      <c r="M70" s="53"/>
+        <v>44517</v>
+      </c>
+      <c r="M70" s="53">
+        <v>44521</v>
+      </c>
     </row>
     <row r="71" ht="24.75" customHeight="1" spans="1:13">
       <c r="A71" s="41"/>
@@ -4155,16 +4239,18 @@
         <v>17</v>
       </c>
       <c r="I71" s="51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J71" s="52">
         <v>1</v>
       </c>
       <c r="K71" s="44"/>
       <c r="L71" s="53">
-        <v>44522</v>
-      </c>
-      <c r="M71" s="53"/>
+        <v>44517</v>
+      </c>
+      <c r="M71" s="53">
+        <v>44521</v>
+      </c>
     </row>
     <row r="72" ht="24.75" customHeight="1" spans="1:13">
       <c r="A72" s="41"/>
@@ -4436,7 +4522,7 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="I27">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4444,11 +4530,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d501277-e5c3-434f-aa8c-65f9871d3fc5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="59">
+          <x14:id>{dc06319c-abe6-4e91-9c67-006ae940b3b6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4456,11 +4542,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7eb94751-7911-4edf-bd05-76e6d6ee3371}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
+          <x14:id>{6314c903-cac7-42a3-a381-d22c10600923}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4468,11 +4554,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c83b0840-08fb-4a18-a299-a7344ad43351}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
+          <x14:id>{1bc03e89-587b-476e-9466-547a7757ed60}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4480,11 +4566,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{244b92bc-9a1f-40dc-b864-9363fa4693ce}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="56">
+          <x14:id>{2f075caf-1b26-4dd5-b0ec-816eeee5c38f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4492,11 +4578,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b093bb1-e170-4871-b44a-1c2b5cdde8ed}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{687e2a47-f2fc-4b64-b691-2e7354d0be20}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4504,11 +4590,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84d79481-092f-4a1c-a83f-8f6ee22d7ea9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="54">
+          <x14:id>{7bb30879-84dc-4222-9570-f81e271554b4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4516,11 +4602,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f67919c0-5949-4cbe-8b9c-421835421a6e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
+          <x14:id>{9d732ef5-c5d9-4363-8f01-4264a8e8d0ef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4528,11 +4614,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2c1faa63-a98d-4c84-8ada-e07141f973fa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
+          <x14:id>{ce724a29-19bb-443d-a15d-0f126de8ab06}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4540,11 +4626,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90d4fb48-1a21-4b62-aecf-b6da0699854d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
+          <x14:id>{88fea2d4-1716-4302-beeb-ba45de3ffd02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4552,11 +4638,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19820d32-a437-4e6e-a670-4ffeadda7a4a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
+          <x14:id>{cd6deae7-0eca-4828-9816-9d1e7c21ad60}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4564,11 +4650,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{687b882c-9001-4249-aae0-eedce21b2114}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="49">
+          <x14:id>{0acb5d17-ca1d-464e-9f91-3e5e72d7f3f0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4576,13 +4662,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96eebc88-fb85-4be8-bdae-f08e8336f8c5}</x14:id>
+          <x14:id>{a2e88288-3e4b-44ff-b6a6-0632d16b8d52}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4590,11 +4676,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb67c237-d9e7-42fd-b8be-033b950ecb23}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="47">
+          <x14:id>{c8d5144a-dab7-4313-a41d-c9df249dcf27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4602,11 +4688,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40812ce9-c7ae-4379-8f9f-e064e471b677}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="46">
+          <x14:id>{4abce8eb-e034-4ebb-9a8e-e4a93c108bc4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4614,11 +4700,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{922efbf5-732f-4197-963a-14d733396023}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="45">
+          <x14:id>{2de6fcde-5548-419b-ad14-1b77d33247fd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4626,11 +4712,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31eed29d-bd32-4870-be31-db259628425b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
+          <x14:id>{fd5c0437-efb5-4dc9-8a49-6fd6286dae44}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4638,11 +4724,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bfcc6a30-619d-439a-9002-ef23b7edfb8e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
+          <x14:id>{c16d7471-f1f8-4d9d-a0c3-0a5025ac3384}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4650,11 +4736,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{523d7a10-42e3-40f1-a70c-00dfa17888a6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="42">
+          <x14:id>{06a2bcc6-f3a0-4489-a978-83bb1f58a9f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4662,11 +4748,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3763d2bf-1be0-405f-b6ab-39ea32279120}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
+          <x14:id>{f74b1975-a5a8-4e80-a93a-f8083c40b1c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4674,11 +4760,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03599efd-eaa2-48e9-8b8e-3b4056dbd6e3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="40">
+          <x14:id>{3e069ba9-bba4-4b30-99c8-7a050b2cfc1b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4686,11 +4772,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24118815-9648-4d58-a34d-18761ddd181b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="39">
+          <x14:id>{dc4b8f77-bb1d-4144-8f05-813993160cd9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4698,11 +4784,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e13e9ac-cc5b-4109-8a18-b766d4dd92dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
+          <x14:id>{699dba08-4ef1-437c-975a-24f2bcaca3c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4710,11 +4796,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fc8bcd0a-a7fc-4e12-9cd3-983affbb7c52}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="37">
+          <x14:id>{bf358dfc-f3b2-4839-a7cc-71400be2d6c1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4722,13 +4808,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65a5db9c-d448-4d2b-9979-31905058ac62}</x14:id>
+          <x14:id>{05314fde-869a-4098-8cb3-169d90754e99}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4736,11 +4822,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{57f8a287-6851-4c94-8d9f-bef2e55e8e5e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
+          <x14:id>{b6f1f1a1-9c9a-47db-abbb-46b7d5a77647}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4748,11 +4834,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62036c0b-9cb2-4745-9c43-66c54ba34b8b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
+          <x14:id>{e044c38f-c608-4f88-9754-9d2b2e166570}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4760,11 +4846,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{09aeb23a-cd31-40b3-9d51-ffa36ee40f81}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="33">
+          <x14:id>{71d580f5-2e7d-4a88-a261-056a5f19c242}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4772,11 +4858,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58945ddf-33d7-4209-a8d2-84e3bbe089c5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+          <x14:id>{fb64639d-58f7-4cae-abcf-b77a62324da7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4784,11 +4870,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22b426e4-f98f-4463-be56-fb769a281f0d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
+          <x14:id>{ac848ceb-0338-4ed8-90a2-282ecdf662ce}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4796,11 +4882,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98d5b920-fb2e-4665-8e5f-f5a5947b6948}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
+          <x14:id>{9e5af884-8708-4ba4-98d9-498a82fd0a4f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4808,11 +4894,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b36bdb9e-adb2-4481-b65e-5990a814cd03}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
+          <x14:id>{15b2a535-ae98-457e-8305-ee28a1a5b247}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4820,11 +4906,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84246e59-07d0-4ba7-9b6f-5056337db90c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+          <x14:id>{6f391ec8-2f2e-4b3e-a818-725f47817d6d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4832,11 +4918,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{edaca753-6cfa-4409-9d18-bc22159a2525}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+          <x14:id>{6e97584d-71f0-4811-8ae0-04804708a655}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4844,11 +4930,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1c67fe66-e305-4093-ac8d-ab5fccf4e226}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
+          <x14:id>{e6ef4419-5c5b-4368-bba0-80a88d398b66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4856,11 +4942,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e159c50-d035-4c35-96db-276cdfe156f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
+          <x14:id>{dd3460bb-c617-4851-a5dd-13da04039834}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4868,13 +4954,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c80ea9e-9491-4cb8-9676-6453a73a9064}</x14:id>
+          <x14:id>{908af32b-0706-440e-9c0a-349e9b6b5e60}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="192">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4882,11 +4968,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e4c6586-fdaf-4c99-9486-710fb6c71d24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="155">
+          <x14:id>{b594430b-1e87-4331-ac24-213991fc99c2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4894,11 +4980,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be2dc268-5ce4-47e1-b87b-54e0abf9ce36}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="154">
+          <x14:id>{e45b9cde-1857-4323-a4ab-671d25f0b9bb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4906,11 +4992,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76944b85-2fb8-446d-9d86-91191d4257aa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="153">
+          <x14:id>{c568b2d4-12fe-4d55-acdb-f895be921eca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4918,11 +5004,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dac0d70b-b160-4cea-93e7-0ef3c445086a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="152">
+          <x14:id>{686e4b3d-79ec-4407-8566-9aef24ac57fd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4930,11 +5016,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fde59c4a-eb70-43ff-afaa-ce90b4689037}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="151">
+          <x14:id>{7fb65915-46fd-4466-aeed-e9dc1a8abe2a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4942,11 +5028,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd6593f4-5ed9-4156-ab3e-0d1545b1bcef}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="150">
+          <x14:id>{cba2a959-27e2-43b7-aee6-32453bb3ec8b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4954,11 +5040,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{59c61461-5d92-4677-8528-e18d6a8b716d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="149">
+          <x14:id>{de2c41a9-4295-4d51-896f-307229d32650}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4966,11 +5052,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37e8bdaa-b1db-4f55-a564-be36b82c8ddd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="148">
+          <x14:id>{28457014-f18f-4c37-a7f3-8fcd60705606}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4978,11 +5064,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{841b6fce-de46-4880-aa85-c50c76ebbf54}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="147">
+          <x14:id>{06d6f48d-6475-42ba-be48-e061a7d59414}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4990,11 +5076,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4d6f82c2-d1cb-48cc-b092-317e9a7afae7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="146">
+          <x14:id>{51c17455-5b9b-4387-a530-4de23e1fa82d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5002,11 +5088,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86e2a82f-9ff9-4a12-9ee3-add7cac6e6c5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="145">
+          <x14:id>{70ce2721-5e46-4e7a-944f-4c0ac8d469ad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5014,13 +5100,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1626b266-b046-4191-9d64-7a77654bd259}</x14:id>
+          <x14:id>{32a586bb-6ac9-4266-8064-cc477f571d65}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="dataBar" priority="144">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5028,11 +5114,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ec89afe2-675d-4b5a-9ecd-170196567aca}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="143">
+          <x14:id>{0d47ffb0-b656-4d86-85c3-b385deeff5ad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5040,11 +5126,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62c7f4d4-69cf-4ea2-9b58-9745ebf170d0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="142">
+          <x14:id>{a4448331-8afa-4e20-987f-fa7301bfbba4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5052,11 +5138,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7332d2a6-50e1-4002-93ca-6b9affc1ca76}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="141">
+          <x14:id>{d8f4a59d-61ad-4e46-98df-53dee9a4d67e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5064,11 +5150,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{005bbac7-851a-4744-95d9-68ec5f252f0a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="140">
+          <x14:id>{f4950ab9-2b5e-41f9-9d37-a52177e7d251}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5076,11 +5162,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a93c50c4-47f1-4814-af58-0d864b24a0d4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="139">
+          <x14:id>{ccca399c-b1a3-48d6-b4d6-eded63e0dc28}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5088,11 +5174,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18b90c0a-309e-4427-af20-077e4e5472f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="138">
+          <x14:id>{fd917a9c-f3d2-4743-a74c-a3bf48d03f5a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5100,11 +5186,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2ce74cbf-3799-49fe-89fb-dc0f98d7754d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="137">
+          <x14:id>{668e4f7b-f3a7-43d6-8b8f-8ef568421b99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5112,11 +5198,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5aee9664-6218-4ef5-85ab-d5be5a7eaf8b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="136">
+          <x14:id>{fc87a12f-446c-4807-8a34-29971804f957}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5124,11 +5210,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9f53e534-b519-42b2-957e-3f8e6401056e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="135">
+          <x14:id>{e4e70164-4ecc-46d7-8097-4bc091212c63}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5136,11 +5222,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8830eeda-e7b6-43e9-8799-83ed912639c5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="134">
+          <x14:id>{338f9986-f5bd-43cc-bddb-8bdff532f46e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5148,11 +5234,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99ca46aa-6d68-4be4-825c-d0aba0139438}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="133">
+          <x14:id>{cb695c21-9a68-4ac2-97da-1138f1f535dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5160,13 +5246,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc1f794c-b959-419f-ab1a-a005dd941080}</x14:id>
+          <x14:id>{e4fe1092-eb79-47b8-a88e-c037c7931bcf}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="132">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5174,11 +5260,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6738c8f5-7824-4293-8619-5f1a75271cf9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="131">
+          <x14:id>{4126fd2d-1b22-4098-8b73-ea7ff4511667}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5186,11 +5272,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{925236a5-b405-475c-be1d-0a921efcab1f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="130">
+          <x14:id>{244684f6-fc83-40d9-96f3-76dcd075474f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5198,11 +5284,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3630b47c-faa1-4a64-8f4c-4a2dd198aad7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="129">
+          <x14:id>{0e4de1e2-6e1c-4744-a297-e0c69593aa5c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5210,11 +5296,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{258e2f23-5d2f-4a87-8895-302410920146}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="128">
+          <x14:id>{a56625f9-35ef-43e1-8fb5-c92597fbce24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5222,11 +5308,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2d8dcb3-17fa-4934-9fdd-2ab7d1391d6a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="127">
+          <x14:id>{46deb763-ec28-4b1e-85eb-a802cbd5de7c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5234,11 +5320,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2207cd4e-f6e0-4d38-a20f-054035e43ea8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="126">
+          <x14:id>{db2b3ed1-6917-4e9a-a332-d10346909d32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5246,11 +5332,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b9c49d4-d733-4791-bb1a-01f784d4a72f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="125">
+          <x14:id>{eff80fdd-743e-4b8c-8c86-9a98fe143ae4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5258,11 +5344,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f635dd64-9f16-4196-9ed7-ca6c40590475}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="124">
+          <x14:id>{5b330c7e-b467-4c84-abc7-a79ab5497a1f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5270,11 +5356,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41a6e32a-8043-4ccb-96dd-dc5db0f84462}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="123">
+          <x14:id>{e069475a-f2a3-4b85-95f0-e97c460904c8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5282,11 +5368,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b3e97de2-666b-422c-8edb-8825e2e3ea68}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="122">
+          <x14:id>{12d3ffad-7c39-4479-a32e-644d0be7573b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5294,11 +5380,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46b57160-a991-4b96-86bd-7331b398154a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="121">
+          <x14:id>{8bbd8230-abd8-4f05-a0e0-23780bfbe024}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5306,13 +5392,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49a463ac-4b54-4818-b18a-70d5eb708813}</x14:id>
+          <x14:id>{3b70208c-fac9-4637-98fa-070fa29304a9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="156">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5320,11 +5406,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{513ee22d-b3bb-4413-9d0c-3a070bbeb40e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="119">
+          <x14:id>{dda4c192-9297-4b46-a2c2-024868c42e57}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5332,11 +5418,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9472b21f-1fe4-43ba-bf2d-8c5530c6c382}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="118">
+          <x14:id>{a09ba0e2-c8bb-49d4-a86b-9e00bbbc571e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="154">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5344,11 +5430,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50fe63f9-4179-4432-b572-44c877ecbd04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="117">
+          <x14:id>{1860d3bb-14bc-41ca-9e2c-8c62e92feb57}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5356,11 +5442,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a09ed840-f382-49a5-9de9-10fd1d1c749d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="116">
+          <x14:id>{3d846d00-9d54-4eeb-b6d6-efe525d2c241}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5368,11 +5454,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3829030-eac1-4fec-8174-d7c7a56bd4a3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="115">
+          <x14:id>{f7b0850b-8364-46f1-a03e-5d3ae414de77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5380,11 +5466,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a483a47-3f3e-48c8-8b06-c990bb97a117}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="114">
+          <x14:id>{bc002dca-67ca-44d6-94ab-90aadc14411e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5392,11 +5478,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3982cbc-63b4-425c-85d1-0b393784cf5a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="113">
+          <x14:id>{c7e3c389-248e-46c6-b4bf-3f813ebd9a23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5404,11 +5490,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f55c67f7-c9a6-4cf2-b2e1-860ed912e879}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="112">
+          <x14:id>{8b4a5cff-420d-4b07-b867-583103e7db50}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5416,11 +5502,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90e6e214-4acd-4212-9fff-cda8f181d933}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="111">
+          <x14:id>{ff5627fb-3b60-4683-8ab8-e257b9ba4db8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5428,11 +5514,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d422193-37d8-4990-be48-0dffb94b59a7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="110">
+          <x14:id>{f2d373c2-3375-4618-a908-d16e5b08ce33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5440,11 +5526,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65741c8d-a7a6-4ead-8f16-8f4ffefdd05a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="109">
+          <x14:id>{99c27fb9-5edc-4f34-88ce-d68f78c64d9f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5452,13 +5538,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e52febe-cd27-4a36-9701-894ae7d24e1b}</x14:id>
+          <x14:id>{97ff73b0-df2b-4f4a-b9c2-74de7bb3db75}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="144">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5466,11 +5552,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5845ec59-fee2-46e7-8794-0b3db23b5ed2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="107">
+          <x14:id>{c5e917b6-6632-4555-8d79-6af343eafa1d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5478,11 +5564,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e0b02ef-d901-44e8-8cd2-4f151a09c6ed}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="106">
+          <x14:id>{8f7698ff-4c7e-49d5-8aca-e7ebb08cbdcb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5490,11 +5576,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cf506082-8e02-4d71-a24a-7055b7d77e64}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="105">
+          <x14:id>{84dc218f-7983-4e27-8996-0a4851ac1003}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5502,11 +5588,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f595af45-c5e3-438f-83b3-f1ad515fba71}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="104">
+          <x14:id>{787a50ae-34ec-4e10-8e72-ef4134da6ea7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5514,11 +5600,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6985e71c-ff6d-498f-9282-061ba1d28c28}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="103">
+          <x14:id>{28a9b258-ef2e-4840-a203-3ba6d563cf35}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5526,11 +5612,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f8acc096-cff2-4ec1-9480-9693a9dbf6a4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="102">
+          <x14:id>{cd5822c1-6724-4525-80b6-3a0de248e1c3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5538,11 +5624,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b888106d-2fa1-4b52-b0de-6379d8ed397c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="101">
+          <x14:id>{9e3f271f-e229-4524-bf86-d03935a2fe0f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5550,11 +5636,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c29a422-929e-42c8-ab7d-cfc4715548c5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="100">
+          <x14:id>{9052de8b-a760-4b1f-b790-6c72feb86c92}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5562,11 +5648,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a09aac9c-63ac-4734-b731-2fc6329aa268}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="99">
+          <x14:id>{0a33261e-dfd3-4faa-8c77-a4d4f091f2fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5574,11 +5660,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd783a7e-cce7-44eb-97f0-4cda95b93807}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="98">
+          <x14:id>{3770736d-0f3b-47d5-88c6-35854b868fe7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5586,11 +5672,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f0f39acc-4d29-420a-9f83-b1b99c949811}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="97">
+          <x14:id>{f2a2c59a-baf1-4c71-8ddd-eb97913da1f9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5598,13 +5684,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0f76a7e-05a4-4b32-8c50-2a5b9ed48267}</x14:id>
+          <x14:id>{6f1b88fa-404e-44c5-aa88-15edc67d2ea6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="132">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5612,11 +5698,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0bffdb2a-0247-4137-bc47-efaa39e9f8a3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="95">
+          <x14:id>{2887adab-5a73-4062-b764-6c3042a9e75d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5624,11 +5710,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f84e5190-90e0-4590-bfce-f4afb9cfa1dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="94">
+          <x14:id>{7cabe039-ed90-4254-8910-384107335bc4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5636,11 +5722,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1fa690b9-2c46-48c6-93d6-074229bf756b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="93">
+          <x14:id>{18305b64-71df-4457-af93-e6fddb953666}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5648,11 +5734,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4f60a672-bb4e-4a64-8ef6-44105781f950}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="92">
+          <x14:id>{c93479ce-936d-4289-ab4b-569583d65c36}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5660,11 +5746,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c45ce8ad-78c9-4e2b-a323-718b813025d1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="91">
+          <x14:id>{2298282b-f292-4977-8e32-d469cc962f90}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5672,11 +5758,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2290ae47-2c93-45b2-aca5-40f8179774d1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="90">
+          <x14:id>{7246dfab-d342-4bb0-b394-c0950df1f89f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5684,11 +5770,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{755ccaa5-6d6e-4e6e-ad62-ab7a6d83750c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="89">
+          <x14:id>{fb92035a-e175-4017-b287-88b17778b687}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5696,11 +5782,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97c940a4-2f68-485e-abcb-744668beb08a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="88">
+          <x14:id>{76eec916-3dfb-4a06-94b2-7635d3aef81f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5708,11 +5794,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b52598ca-d34f-4756-866d-bbb1540b3d5a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="87">
+          <x14:id>{cac3e7dd-80b1-48b1-85f4-713280c6e989}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5720,11 +5806,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98baf017-bfea-465e-bc31-f5bfd3a37fda}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="86">
+          <x14:id>{a07bb891-88f8-4295-ae7d-384248aa200f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5732,11 +5818,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4a5d90fe-87fd-4434-a79d-cdf3eb7770d5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="85">
+          <x14:id>{05482d38-b90f-4722-986c-82d2d61f803b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5744,13 +5830,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{60d09c0d-1950-4c0b-b4e0-e355d18cdf64}</x14:id>
+          <x14:id>{9dcffe05-b091-4e69-bc13-b3068a1f0a60}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5758,11 +5844,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aa23e510-ef7c-42fd-ae8e-74b1a2f26120}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="83">
+          <x14:id>{21cddd8b-ae23-47d1-9716-361bf3ac720d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5770,11 +5856,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{508d8f00-53aa-47f5-ac2c-2edbb9d8068f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="82">
+          <x14:id>{44383865-8e3a-4ca9-a2f5-6c6380288d17}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5782,11 +5868,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a2600d8-8b6a-4b7a-80a1-e0c0b1f288b0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
+          <x14:id>{08c29236-230e-4ebf-b989-dc21401682ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5794,11 +5880,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4f55e5fe-2783-47e2-a4e7-e88295654a56}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="80">
+          <x14:id>{3a73d935-0567-4502-87b0-4e1b11d2c340}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5806,11 +5892,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2b2fa001-4f7f-466f-be30-6def67ea6955}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="79">
+          <x14:id>{8c34b740-ad87-4212-bc4f-5dc07631de55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5818,11 +5904,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d15e0d8-7fc8-4751-bb15-cf453325e3cc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="78">
+          <x14:id>{be67497c-e640-477a-80b6-63fc814bd750}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5830,11 +5916,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b43dc8b6-06b3-45f4-b12e-5f0b91c4dd4d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="77">
+          <x14:id>{d5ae332f-0611-41aa-94c0-b3fdc4293a78}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5842,11 +5928,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8e1115b0-8cf1-4a0f-8c2c-1c0b7efd9837}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="76">
+          <x14:id>{5060423c-8552-4fa8-9bb5-7821b99a6929}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5854,11 +5940,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f5458b1a-061a-4d91-9e2b-ec7091190009}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="75">
+          <x14:id>{fa9d7517-f34e-4745-8644-24d8da6a4a9e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5866,11 +5952,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b4026d45-e392-4708-aa7b-7a7603bd8a09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="74">
+          <x14:id>{2c582ab1-dffe-4215-a356-b66acb749bf9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5878,11 +5964,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2d010a8-247b-4207-9ac6-8ad2ff9c1a4c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="73">
+          <x14:id>{e0abef5c-0a90-4f6c-aee9-66ba4af3de4e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5890,13 +5976,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8dbe9e1e-0496-4e95-9d94-ae7589b2a2e5}</x14:id>
+          <x14:id>{7f3b33c1-d33a-4e26-b084-e723df4d8a07}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5904,11 +5990,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17e6dac8-2d13-445f-a7d7-e9a9ffc49a45}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+          <x14:id>{681def06-183c-4239-a1f4-2c8a6cd38510}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5916,11 +6002,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ae9fdb8f-e4a3-4122-af67-183cab793659}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="70">
+          <x14:id>{a78fa4b3-a9ff-4991-a634-f9bd1f8cd424}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5928,11 +6014,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98bde785-6065-4e10-991e-59b750a1d47c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="69">
+          <x14:id>{fa7a3489-75f2-49cd-94c8-dadf0215b5fb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5940,11 +6026,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1fc274c-3b83-4e5f-add8-8f5e3274c88f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="68">
+          <x14:id>{be11fb14-a12c-4ba6-aa57-80ffee943712}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5952,11 +6038,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{44e00081-7bce-467c-8692-67e3ab68122f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="67">
+          <x14:id>{27079545-87b2-441d-a514-653421cc3a4f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5964,11 +6050,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{779805e5-4042-49ab-bd61-d0c34ff90034}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="66">
+          <x14:id>{81af5672-6c05-4f61-8173-ce50558c2fb2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5976,11 +6062,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{579e0fbf-618d-4b31-b969-49beeac75846}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="65">
+          <x14:id>{4e046029-74e7-4744-84f8-ebc5dfcc950a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5988,11 +6074,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71bc23d2-6587-4423-80df-b45ef695f918}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="64">
+          <x14:id>{da8057f6-2e1b-4516-9f57-6a8e7b587184}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6000,11 +6086,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4bd9b8c9-8cef-4e76-b411-c41312246d59}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="63">
+          <x14:id>{a9c8a770-c896-4568-a445-02b7d4b28bf7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6012,11 +6098,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{79efb023-49e4-4e1f-b794-dd8cab0e4299}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="62">
+          <x14:id>{3a94703e-c85a-480d-b5f6-e08171a42cdf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6024,11 +6110,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45345bc0-6f42-481e-ad35-dafa4ea0c5de}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
+          <x14:id>{96cdde23-12bc-469a-af3e-0ac69f3f71e3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6036,13 +6122,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94e402e2-21ff-4571-9c39-705a1c6bed00}</x14:id>
+          <x14:id>{3c57a3ea-1e1c-408f-8b57-121c0f6a583c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6050,11 +6136,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0c8960ed-720b-4646-8d70-b967889cad2e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
+          <x14:id>{65a61349-922e-44ef-ac52-a5e187c3ae02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6062,11 +6148,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e11feeb8-d230-423a-a662-b5af98f8578d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
+          <x14:id>{ea3078fe-c998-4146-9974-b56cdd3304f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6074,11 +6160,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39bbb0a2-d9b2-496c-8a0b-6a5a93361726}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{8864bc2c-8ccd-44c5-939d-09c2e93ded0f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6086,11 +6172,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8c60d841-ff51-4b68-b58b-d6b80cbffd9c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{2e0846de-118c-4244-bd4e-ae0d98a56465}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6098,11 +6184,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{092e4a44-d4f4-43c7-a8d3-a3ace924aed3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{467c4d3d-48dd-444d-930f-4107d8e2cb6d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6110,11 +6196,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ddae45d-9b2d-46d2-95f0-49bd2fbcdc1d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{c2d434d2-d89c-4287-ba73-6e0377eabd27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6122,11 +6208,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5a7fbb13-442a-426f-b37b-2efb86f3d2f8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{8cd81d0c-4f85-47d3-b72e-f120f427aa23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6134,11 +6220,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ee68963-3d90-4a78-9e87-460afd39c87b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{3568cf31-2f04-4452-9bef-8a2d4974d676}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6146,11 +6232,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c7c3a20-6320-4b4d-beef-902d6e43b39b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{07b5bdc2-c900-4fea-a1ad-3d9c04d32821}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6158,11 +6244,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8869eeb2-aac1-4584-9204-e6658e1986c4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
+          <x14:id>{00d991c6-4934-4e5d-a5f8-3535ef04922c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6170,11 +6256,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0657ccf5-99cd-4aa3-ba81-bd1bd313ea30}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
+          <x14:id>{a9ad3121-07d2-41f2-97aa-9482e56b029a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6182,12 +6268,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4ff64bc-61bf-4285-ab66-138e9bfa80d6}</x14:id>
+          <x14:id>{efdbc25e-9cba-45f2-8c76-49106783feac}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I71">
+  <conditionalFormatting sqref="I56:I58">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="percent" val="0"/>
@@ -6196,7 +6282,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6798f51e-a0ac-49ae-a894-72959d95088d}</x14:id>
+          <x14:id>{8d64a9eb-f3f3-4bde-aa39-b2bd262302ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6208,7 +6294,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4dd47447-b887-4fab-9aae-503a83e027eb}</x14:id>
+          <x14:id>{6c4deb1e-ec7f-43b8-ba79-e3537a0ab1aa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6220,7 +6306,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ababeca2-4c73-4799-845e-3b2077e5e3d6}</x14:id>
+          <x14:id>{7b1b701f-79f8-4764-b5e0-d01744cab42c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6232,7 +6318,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{47bb8b31-e936-42ed-9b26-66e60571526e}</x14:id>
+          <x14:id>{6fffcc60-2f4d-47ee-9a34-a3a4cd16f3fa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6244,7 +6330,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9076e674-9d3c-42fd-816c-7cc26cdda081}</x14:id>
+          <x14:id>{bd5df05b-3ae0-41cd-8bee-40501d28890e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6256,7 +6342,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42bc0c73-cd04-40a3-8542-8271200b898f}</x14:id>
+          <x14:id>{648282ad-af03-43e8-aaf1-9a3c1c6e7f98}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6268,7 +6354,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b7968ca-3ccf-477a-869c-8190e1133b5d}</x14:id>
+          <x14:id>{a1fc4c68-ae16-4fa5-98b6-d21b9d90e10f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6280,7 +6366,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{42dd33f7-8719-4e2f-b12a-7ec4c1be6953}</x14:id>
+          <x14:id>{ccb83420-f20e-4282-8476-409b249dd059}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6292,7 +6378,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5fae0578-b7fd-402b-9a75-9012c66d5116}</x14:id>
+          <x14:id>{8a9779a5-296f-4e82-9314-99cc24a6e00f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6304,7 +6390,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eada73a1-e3d9-4d47-aece-deacf2f4c80c}</x14:id>
+          <x14:id>{d2313789-b72d-4f73-ab38-c5a6564a10d7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6316,7 +6402,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{df46f238-e338-4861-915e-77a26431db5f}</x14:id>
+          <x14:id>{78c8f89e-b0b3-4bee-a5b9-a8af25d04c5a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6328,13 +6414,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9dea78a-54a0-4df5-ac2d-9a74772e4ef4}</x14:id>
+          <x14:id>{afb44de5-5726-4366-8ee7-d66c478f6c58}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I40:I67 I72:I1048576">
-    <cfRule type="dataBar" priority="169">
+  <conditionalFormatting sqref="I62:I64">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10a67ad0-9ebc-4b6a-a153-4b2b9dd12cb2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00c6b105-437f-4056-9997-4d767c6c9432}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{990349bf-bf40-486c-9fae-912962147a8e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a1950fb9-dabf-4587-83a0-ff1bf9ddb191}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e91acce9-9118-43ea-912d-fc8f9f507b2d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cda10003-b74b-46a5-be9e-89fc16f5353b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{476b4f9f-7869-4beb-9c18-bdb2f967869d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1fc1a602-73b8-4565-aef1-1db4e4e60280}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{87567241-4933-4afb-8847-a0cc24731b38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5058c60b-7383-4e28-ab84-0ce934032f79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{32caa240-1a35-41ce-b047-8fdf2d04049f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6342,23 +6560,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6a777c43-1304-44b4-8b8c-b92fc9e83d56}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="170">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dee2443b-3e70-4ff4-905b-50b451caffd8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="171">
+          <x14:id>{007fb8ef-fecb-42bd-a5cd-3e467f1ba566}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I71">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e3a79ecf-20bd-4146-9a95-a19a2091b377}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6366,35 +6586,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{488f6f58-9987-4c8f-8b53-3b40fdc10452}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="172">
+          <x14:id>{e1149162-2bf2-45f7-9c46-738c66756efd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93a7c487-3f11-4709-a3d8-88549c712ab1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="173">
-      <dataBar>
-        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{64d8b927-ef4b-485a-b396-7a13f757f6c4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
         <color rgb="FF92D050"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c6dfda56-6997-48e1-a3e8-f2506551605c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="174">
+          <x14:id>{616c3e75-1e62-4202-9986-b1a25fb0f21b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6402,11 +6622,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ed1adb1d-8b73-4d66-91d4-643f447ed942}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="175">
+          <x14:id>{69c00638-739e-4aa7-bb83-f88cb32aa9ae}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6414,11 +6634,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a16c493-c5bc-4767-a23f-292b359ca818}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="176">
+          <x14:id>{9298b3f0-5f61-41bc-9d43-796671d1ddbd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6426,35 +6646,35 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{44af832a-b504-4f1d-b363-71517a4f4ce1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="177">
+          <x14:id>{b8c6725b-4804-4a21-926c-7599aca91a06}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b277a3af-e740-44d9-941b-ae26f8313e24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{092810f9-048b-4ed0-87ef-58e8ff796bd4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="178">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa619455-b38c-45bd-923c-4eaae1f786ac}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="179">
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24d9aed4-a2d7-4c30-b07c-5cfb4bd00678}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6462,25 +6682,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c403c774-f7b3-4b06-b270-4011f3a967ca}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="180">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5924f066-57c8-411e-b7b5-c924542da603}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26 I34:I35">
-    <cfRule type="dataBar" priority="157">
+          <x14:id>{0f296cef-31be-483c-bd7a-eaa31296f3b4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ec025f25-072f-43ce-9d3f-bba0eddacfe9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6488,23 +6706,37 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0944ace8-703f-46b3-a745-c0db3f90140a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="158">
+          <x14:id>{bdf3796f-8c57-4a63-a12e-a7d30ffbc3b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I40:I55 I59:I61 I65:I67 I72:I1048576">
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{73fcb426-54b9-4f9d-b074-91051b1e93e8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="159">
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cbbdb302-5596-4b3a-a72c-ed6868be21e1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="206">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9b435b13-a86d-4ede-a4e3-09a619972891}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6512,11 +6744,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bcb78b26-4480-4fc6-afa0-f099f59c2bb1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="160">
+          <x14:id>{a3d81f60-d2fd-4387-9d23-78e3cfe2e217}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6524,11 +6756,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f55db104-b063-49f3-8bda-78de38eb81a1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="161">
+          <x14:id>{d04b622a-a84f-498f-b28b-9d3f89bcf802}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6536,11 +6768,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1895d3c6-18a9-4800-9b5a-12c20d8d8b6e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="162">
+          <x14:id>{993e04b2-1977-4f06-994f-8c2b2ac94909}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6548,11 +6780,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f7b60e1-765c-462f-9c17-8464ed09b159}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="163">
+          <x14:id>{ee276be3-af1f-4d14-ac98-53574f1da2c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6560,11 +6792,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2cb743f-ff92-422a-8f08-dc40fcb0672f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="164">
+          <x14:id>{85f1cd11-03c2-4dfe-b254-f229f8382e57}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6572,11 +6804,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e28e356e-02cd-4ebd-89fc-5f779618f6a7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="165">
+          <x14:id>{de6a9a94-4ba2-4c6f-bc11-b8ad6a49bd8e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6584,11 +6816,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cfd91d88-8ebb-46dd-9a9c-bf5b6968ba59}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="166">
+          <x14:id>{d760b640-5d86-4993-81f1-67cbf01e622d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6596,11 +6828,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c0145eb6-45e3-4985-a1c8-ce514c2b2c81}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="167">
+          <x14:id>{b6f2d98d-dc9b-4b65-9636-92fc71d26bc5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6608,11 +6840,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d667760-9a53-4509-b6d5-51dc8ce5ea7b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="168">
+          <x14:id>{1309b12d-2b6d-43be-9cb1-34289d6edcbf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6620,7 +6852,153 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f44d8ce-dc47-449d-b546-57f87f0b7851}</x14:id>
+          <x14:id>{16bf9928-925f-425e-9a32-e1b925cb5d6e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26 I34:I35">
+    <cfRule type="dataBar" priority="193">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fb4748f6-8204-4c94-adba-3e2c93989c24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="194">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c68c946e-f3b0-4208-b002-165585bde3f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="195">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b02b547e-e0fa-448d-b6db-1613d977f0e6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="196">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{506495e6-e3df-4951-a2ff-10d15e9a8bfd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="197">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b2482b98-e5fc-46b6-8acc-39afb3a855ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="198">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f349bc69-79e2-4420-bf85-050eed68ecbd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="199">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{02f3f085-d388-4b1f-8b68-8cbcd171cd28}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="200">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{812ce7b9-fcf7-407a-8a4b-63de1eecc8e2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="201">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d2c27681-3dc7-4856-b9f1-d6a9d6659730}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="202">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f4428a23-31f4-46e1-9dba-fd123f212ee7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="203">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6c3e3408-d030-49a8-bbb0-1285189caa99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="204">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58035a55-7b34-4660-b949-651577c2027f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6632,7 +7010,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6d501277-e5c3-434f-aa8c-65f9871d3fc5}">
+          <x14:cfRule type="dataBar" id="{dc06319c-abe6-4e91-9c67-006ae940b3b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6642,7 +7020,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7eb94751-7911-4edf-bd05-76e6d6ee3371}">
+          <x14:cfRule type="dataBar" id="{6314c903-cac7-42a3-a381-d22c10600923}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6650,7 +7028,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c83b0840-08fb-4a18-a299-a7344ad43351}">
+          <x14:cfRule type="dataBar" id="{1bc03e89-587b-476e-9466-547a7757ed60}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6660,7 +7038,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{244b92bc-9a1f-40dc-b864-9363fa4693ce}">
+          <x14:cfRule type="dataBar" id="{2f075caf-1b26-4dd5-b0ec-816eeee5c38f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6670,7 +7048,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2b093bb1-e170-4871-b44a-1c2b5cdde8ed}">
+          <x14:cfRule type="dataBar" id="{687e2a47-f2fc-4b64-b691-2e7354d0be20}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6682,7 +7060,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{84d79481-092f-4a1c-a83f-8f6ee22d7ea9}">
+          <x14:cfRule type="dataBar" id="{7bb30879-84dc-4222-9570-f81e271554b4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6690,7 +7068,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f67919c0-5949-4cbe-8b9c-421835421a6e}">
+          <x14:cfRule type="dataBar" id="{9d732ef5-c5d9-4363-8f01-4264a8e8d0ef}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6702,7 +7080,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2c1faa63-a98d-4c84-8ada-e07141f973fa}">
+          <x14:cfRule type="dataBar" id="{ce724a29-19bb-443d-a15d-0f126de8ab06}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6710,7 +7088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{90d4fb48-1a21-4b62-aecf-b6da0699854d}">
+          <x14:cfRule type="dataBar" id="{88fea2d4-1716-4302-beeb-ba45de3ffd02}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6722,7 +7100,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{19820d32-a437-4e6e-a670-4ffeadda7a4a}">
+          <x14:cfRule type="dataBar" id="{cd6deae7-0eca-4828-9816-9d1e7c21ad60}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6730,7 +7108,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{687b882c-9001-4249-aae0-eedce21b2114}">
+          <x14:cfRule type="dataBar" id="{0acb5d17-ca1d-464e-9f91-3e5e72d7f3f0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6742,7 +7120,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{96eebc88-fb85-4be8-bdae-f08e8336f8c5}">
+          <x14:cfRule type="dataBar" id="{a2e88288-3e4b-44ff-b6a6-0632d16b8d52}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6757,7 +7135,7 @@
           <xm:sqref>I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{eb67c237-d9e7-42fd-b8be-033b950ecb23}">
+          <x14:cfRule type="dataBar" id="{c8d5144a-dab7-4313-a41d-c9df249dcf27}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6767,7 +7145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{40812ce9-c7ae-4379-8f9f-e064e471b677}">
+          <x14:cfRule type="dataBar" id="{4abce8eb-e034-4ebb-9a8e-e4a93c108bc4}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6775,7 +7153,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{922efbf5-732f-4197-963a-14d733396023}">
+          <x14:cfRule type="dataBar" id="{2de6fcde-5548-419b-ad14-1b77d33247fd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6785,7 +7163,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{31eed29d-bd32-4870-be31-db259628425b}">
+          <x14:cfRule type="dataBar" id="{fd5c0437-efb5-4dc9-8a49-6fd6286dae44}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6795,7 +7173,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bfcc6a30-619d-439a-9002-ef23b7edfb8e}">
+          <x14:cfRule type="dataBar" id="{c16d7471-f1f8-4d9d-a0c3-0a5025ac3384}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6807,7 +7185,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{523d7a10-42e3-40f1-a70c-00dfa17888a6}">
+          <x14:cfRule type="dataBar" id="{06a2bcc6-f3a0-4489-a978-83bb1f58a9f4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6815,7 +7193,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3763d2bf-1be0-405f-b6ab-39ea32279120}">
+          <x14:cfRule type="dataBar" id="{f74b1975-a5a8-4e80-a93a-f8083c40b1c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6827,7 +7205,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{03599efd-eaa2-48e9-8b8e-3b4056dbd6e3}">
+          <x14:cfRule type="dataBar" id="{3e069ba9-bba4-4b30-99c8-7a050b2cfc1b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6835,7 +7213,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{24118815-9648-4d58-a34d-18761ddd181b}">
+          <x14:cfRule type="dataBar" id="{dc4b8f77-bb1d-4144-8f05-813993160cd9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6847,7 +7225,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9e13e9ac-cc5b-4109-8a18-b766d4dd92dd}">
+          <x14:cfRule type="dataBar" id="{699dba08-4ef1-437c-975a-24f2bcaca3c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6855,7 +7233,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fc8bcd0a-a7fc-4e12-9cd3-983affbb7c52}">
+          <x14:cfRule type="dataBar" id="{bf358dfc-f3b2-4839-a7cc-71400be2d6c1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6867,7 +7245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{65a5db9c-d448-4d2b-9979-31905058ac62}">
+          <x14:cfRule type="dataBar" id="{05314fde-869a-4098-8cb3-169d90754e99}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6882,7 +7260,7 @@
           <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{57f8a287-6851-4c94-8d9f-bef2e55e8e5e}">
+          <x14:cfRule type="dataBar" id="{b6f1f1a1-9c9a-47db-abbb-46b7d5a77647}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6892,7 +7270,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{62036c0b-9cb2-4745-9c43-66c54ba34b8b}">
+          <x14:cfRule type="dataBar" id="{e044c38f-c608-4f88-9754-9d2b2e166570}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6900,7 +7278,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{09aeb23a-cd31-40b3-9d51-ffa36ee40f81}">
+          <x14:cfRule type="dataBar" id="{71d580f5-2e7d-4a88-a261-056a5f19c242}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6910,7 +7288,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{58945ddf-33d7-4209-a8d2-84e3bbe089c5}">
+          <x14:cfRule type="dataBar" id="{fb64639d-58f7-4cae-abcf-b77a62324da7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6920,7 +7298,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{22b426e4-f98f-4463-be56-fb769a281f0d}">
+          <x14:cfRule type="dataBar" id="{ac848ceb-0338-4ed8-90a2-282ecdf662ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6932,7 +7310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{98d5b920-fb2e-4665-8e5f-f5a5947b6948}">
+          <x14:cfRule type="dataBar" id="{9e5af884-8708-4ba4-98d9-498a82fd0a4f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6940,7 +7318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b36bdb9e-adb2-4481-b65e-5990a814cd03}">
+          <x14:cfRule type="dataBar" id="{15b2a535-ae98-457e-8305-ee28a1a5b247}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6952,7 +7330,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{84246e59-07d0-4ba7-9b6f-5056337db90c}">
+          <x14:cfRule type="dataBar" id="{6f391ec8-2f2e-4b3e-a818-725f47817d6d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6960,7 +7338,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{edaca753-6cfa-4409-9d18-bc22159a2525}">
+          <x14:cfRule type="dataBar" id="{6e97584d-71f0-4811-8ae0-04804708a655}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6972,7 +7350,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1c67fe66-e305-4093-ac8d-ab5fccf4e226}">
+          <x14:cfRule type="dataBar" id="{e6ef4419-5c5b-4368-bba0-80a88d398b66}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6980,7 +7358,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2e159c50-d035-4c35-96db-276cdfe156f5}">
+          <x14:cfRule type="dataBar" id="{dd3460bb-c617-4851-a5dd-13da04039834}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6992,7 +7370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7c80ea9e-9491-4cb8-9676-6453a73a9064}">
+          <x14:cfRule type="dataBar" id="{908af32b-0706-440e-9c0a-349e9b6b5e60}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7007,7 +7385,7 @@
           <xm:sqref>I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2e4c6586-fdaf-4c99-9486-710fb6c71d24}">
+          <x14:cfRule type="dataBar" id="{b594430b-1e87-4331-ac24-213991fc99c2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7017,7 +7395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{be2dc268-5ce4-47e1-b87b-54e0abf9ce36}">
+          <x14:cfRule type="dataBar" id="{e45b9cde-1857-4323-a4ab-671d25f0b9bb}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7025,7 +7403,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{76944b85-2fb8-446d-9d86-91191d4257aa}">
+          <x14:cfRule type="dataBar" id="{c568b2d4-12fe-4d55-acdb-f895be921eca}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7035,7 +7413,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dac0d70b-b160-4cea-93e7-0ef3c445086a}">
+          <x14:cfRule type="dataBar" id="{686e4b3d-79ec-4407-8566-9aef24ac57fd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7045,7 +7423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fde59c4a-eb70-43ff-afaa-ce90b4689037}">
+          <x14:cfRule type="dataBar" id="{7fb65915-46fd-4466-aeed-e9dc1a8abe2a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7057,7 +7435,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cd6593f4-5ed9-4156-ab3e-0d1545b1bcef}">
+          <x14:cfRule type="dataBar" id="{cba2a959-27e2-43b7-aee6-32453bb3ec8b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7065,7 +7443,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{59c61461-5d92-4677-8528-e18d6a8b716d}">
+          <x14:cfRule type="dataBar" id="{de2c41a9-4295-4d51-896f-307229d32650}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7077,7 +7455,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{37e8bdaa-b1db-4f55-a564-be36b82c8ddd}">
+          <x14:cfRule type="dataBar" id="{28457014-f18f-4c37-a7f3-8fcd60705606}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7085,7 +7463,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{841b6fce-de46-4880-aa85-c50c76ebbf54}">
+          <x14:cfRule type="dataBar" id="{06d6f48d-6475-42ba-be48-e061a7d59414}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7097,7 +7475,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4d6f82c2-d1cb-48cc-b092-317e9a7afae7}">
+          <x14:cfRule type="dataBar" id="{51c17455-5b9b-4387-a530-4de23e1fa82d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7105,7 +7483,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{86e2a82f-9ff9-4a12-9ee3-add7cac6e6c5}">
+          <x14:cfRule type="dataBar" id="{70ce2721-5e46-4e7a-944f-4c0ac8d469ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7117,7 +7495,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1626b266-b046-4191-9d64-7a77654bd259}">
+          <x14:cfRule type="dataBar" id="{32a586bb-6ac9-4266-8064-cc477f571d65}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7132,7 +7510,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ec89afe2-675d-4b5a-9ecd-170196567aca}">
+          <x14:cfRule type="dataBar" id="{0d47ffb0-b656-4d86-85c3-b385deeff5ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7142,7 +7520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{62c7f4d4-69cf-4ea2-9b58-9745ebf170d0}">
+          <x14:cfRule type="dataBar" id="{a4448331-8afa-4e20-987f-fa7301bfbba4}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7150,7 +7528,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7332d2a6-50e1-4002-93ca-6b9affc1ca76}">
+          <x14:cfRule type="dataBar" id="{d8f4a59d-61ad-4e46-98df-53dee9a4d67e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7160,7 +7538,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{005bbac7-851a-4744-95d9-68ec5f252f0a}">
+          <x14:cfRule type="dataBar" id="{f4950ab9-2b5e-41f9-9d37-a52177e7d251}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7170,7 +7548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a93c50c4-47f1-4814-af58-0d864b24a0d4}">
+          <x14:cfRule type="dataBar" id="{ccca399c-b1a3-48d6-b4d6-eded63e0dc28}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7182,7 +7560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{18b90c0a-309e-4427-af20-077e4e5472f5}">
+          <x14:cfRule type="dataBar" id="{fd917a9c-f3d2-4743-a74c-a3bf48d03f5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7190,7 +7568,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2ce74cbf-3799-49fe-89fb-dc0f98d7754d}">
+          <x14:cfRule type="dataBar" id="{668e4f7b-f3a7-43d6-8b8f-8ef568421b99}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7202,7 +7580,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5aee9664-6218-4ef5-85ab-d5be5a7eaf8b}">
+          <x14:cfRule type="dataBar" id="{fc87a12f-446c-4807-8a34-29971804f957}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7210,7 +7588,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9f53e534-b519-42b2-957e-3f8e6401056e}">
+          <x14:cfRule type="dataBar" id="{e4e70164-4ecc-46d7-8097-4bc091212c63}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7222,7 +7600,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8830eeda-e7b6-43e9-8799-83ed912639c5}">
+          <x14:cfRule type="dataBar" id="{338f9986-f5bd-43cc-bddb-8bdff532f46e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7230,7 +7608,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{99ca46aa-6d68-4be4-825c-d0aba0139438}">
+          <x14:cfRule type="dataBar" id="{cb695c21-9a68-4ac2-97da-1138f1f535dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7242,7 +7620,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cc1f794c-b959-419f-ab1a-a005dd941080}">
+          <x14:cfRule type="dataBar" id="{e4fe1092-eb79-47b8-a88e-c037c7931bcf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7257,7 +7635,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6738c8f5-7824-4293-8619-5f1a75271cf9}">
+          <x14:cfRule type="dataBar" id="{4126fd2d-1b22-4098-8b73-ea7ff4511667}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7267,7 +7645,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{925236a5-b405-475c-be1d-0a921efcab1f}">
+          <x14:cfRule type="dataBar" id="{244684f6-fc83-40d9-96f3-76dcd075474f}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7275,7 +7653,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3630b47c-faa1-4a64-8f4c-4a2dd198aad7}">
+          <x14:cfRule type="dataBar" id="{0e4de1e2-6e1c-4744-a297-e0c69593aa5c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7285,7 +7663,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{258e2f23-5d2f-4a87-8895-302410920146}">
+          <x14:cfRule type="dataBar" id="{a56625f9-35ef-43e1-8fb5-c92597fbce24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7295,7 +7673,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f2d8dcb3-17fa-4934-9fdd-2ab7d1391d6a}">
+          <x14:cfRule type="dataBar" id="{46deb763-ec28-4b1e-85eb-a802cbd5de7c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7307,7 +7685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2207cd4e-f6e0-4d38-a20f-054035e43ea8}">
+          <x14:cfRule type="dataBar" id="{db2b3ed1-6917-4e9a-a332-d10346909d32}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7315,7 +7693,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0b9c49d4-d733-4791-bb1a-01f784d4a72f}">
+          <x14:cfRule type="dataBar" id="{eff80fdd-743e-4b8c-8c86-9a98fe143ae4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7327,7 +7705,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f635dd64-9f16-4196-9ed7-ca6c40590475}">
+          <x14:cfRule type="dataBar" id="{5b330c7e-b467-4c84-abc7-a79ab5497a1f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7335,7 +7713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{41a6e32a-8043-4ccb-96dd-dc5db0f84462}">
+          <x14:cfRule type="dataBar" id="{e069475a-f2a3-4b85-95f0-e97c460904c8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7347,7 +7725,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b3e97de2-666b-422c-8edb-8825e2e3ea68}">
+          <x14:cfRule type="dataBar" id="{12d3ffad-7c39-4479-a32e-644d0be7573b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7355,7 +7733,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{46b57160-a991-4b96-86bd-7331b398154a}">
+          <x14:cfRule type="dataBar" id="{8bbd8230-abd8-4f05-a0e0-23780bfbe024}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7367,7 +7745,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{49a463ac-4b54-4818-b18a-70d5eb708813}">
+          <x14:cfRule type="dataBar" id="{3b70208c-fac9-4637-98fa-070fa29304a9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7382,7 +7760,7 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{513ee22d-b3bb-4413-9d0c-3a070bbeb40e}">
+          <x14:cfRule type="dataBar" id="{dda4c192-9297-4b46-a2c2-024868c42e57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7392,7 +7770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9472b21f-1fe4-43ba-bf2d-8c5530c6c382}">
+          <x14:cfRule type="dataBar" id="{a09ba0e2-c8bb-49d4-a86b-9e00bbbc571e}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7400,7 +7778,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{50fe63f9-4179-4432-b572-44c877ecbd04}">
+          <x14:cfRule type="dataBar" id="{1860d3bb-14bc-41ca-9e2c-8c62e92feb57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7410,7 +7788,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a09ed840-f382-49a5-9de9-10fd1d1c749d}">
+          <x14:cfRule type="dataBar" id="{3d846d00-9d54-4eeb-b6d6-efe525d2c241}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7420,7 +7798,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c3829030-eac1-4fec-8174-d7c7a56bd4a3}">
+          <x14:cfRule type="dataBar" id="{f7b0850b-8364-46f1-a03e-5d3ae414de77}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7432,7 +7810,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2a483a47-3f3e-48c8-8b06-c990bb97a117}">
+          <x14:cfRule type="dataBar" id="{bc002dca-67ca-44d6-94ab-90aadc14411e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7440,7 +7818,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a3982cbc-63b4-425c-85d1-0b393784cf5a}">
+          <x14:cfRule type="dataBar" id="{c7e3c389-248e-46c6-b4bf-3f813ebd9a23}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7452,7 +7830,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f55c67f7-c9a6-4cf2-b2e1-860ed912e879}">
+          <x14:cfRule type="dataBar" id="{8b4a5cff-420d-4b07-b867-583103e7db50}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7460,7 +7838,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{90e6e214-4acd-4212-9fff-cda8f181d933}">
+          <x14:cfRule type="dataBar" id="{ff5627fb-3b60-4683-8ab8-e257b9ba4db8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7472,7 +7850,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2d422193-37d8-4990-be48-0dffb94b59a7}">
+          <x14:cfRule type="dataBar" id="{f2d373c2-3375-4618-a908-d16e5b08ce33}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7480,7 +7858,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{65741c8d-a7a6-4ead-8f16-8f4ffefdd05a}">
+          <x14:cfRule type="dataBar" id="{99c27fb9-5edc-4f34-88ce-d68f78c64d9f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7492,7 +7870,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3e52febe-cd27-4a36-9701-894ae7d24e1b}">
+          <x14:cfRule type="dataBar" id="{97ff73b0-df2b-4f4a-b9c2-74de7bb3db75}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7507,7 +7885,7 @@
           <xm:sqref>I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5845ec59-fee2-46e7-8794-0b3db23b5ed2}">
+          <x14:cfRule type="dataBar" id="{c5e917b6-6632-4555-8d79-6af343eafa1d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7517,7 +7895,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8e0b02ef-d901-44e8-8cd2-4f151a09c6ed}">
+          <x14:cfRule type="dataBar" id="{8f7698ff-4c7e-49d5-8aca-e7ebb08cbdcb}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7525,7 +7903,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cf506082-8e02-4d71-a24a-7055b7d77e64}">
+          <x14:cfRule type="dataBar" id="{84dc218f-7983-4e27-8996-0a4851ac1003}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7535,7 +7913,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f595af45-c5e3-438f-83b3-f1ad515fba71}">
+          <x14:cfRule type="dataBar" id="{787a50ae-34ec-4e10-8e72-ef4134da6ea7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7545,7 +7923,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6985e71c-ff6d-498f-9282-061ba1d28c28}">
+          <x14:cfRule type="dataBar" id="{28a9b258-ef2e-4840-a203-3ba6d563cf35}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7557,7 +7935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f8acc096-cff2-4ec1-9480-9693a9dbf6a4}">
+          <x14:cfRule type="dataBar" id="{cd5822c1-6724-4525-80b6-3a0de248e1c3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7565,7 +7943,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b888106d-2fa1-4b52-b0de-6379d8ed397c}">
+          <x14:cfRule type="dataBar" id="{9e3f271f-e229-4524-bf86-d03935a2fe0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7577,7 +7955,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3c29a422-929e-42c8-ab7d-cfc4715548c5}">
+          <x14:cfRule type="dataBar" id="{9052de8b-a760-4b1f-b790-6c72feb86c92}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7585,7 +7963,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a09aac9c-63ac-4734-b731-2fc6329aa268}">
+          <x14:cfRule type="dataBar" id="{0a33261e-dfd3-4faa-8c77-a4d4f091f2fe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7597,7 +7975,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cd783a7e-cce7-44eb-97f0-4cda95b93807}">
+          <x14:cfRule type="dataBar" id="{3770736d-0f3b-47d5-88c6-35854b868fe7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7605,7 +7983,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f0f39acc-4d29-420a-9f83-b1b99c949811}">
+          <x14:cfRule type="dataBar" id="{f2a2c59a-baf1-4c71-8ddd-eb97913da1f9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7617,7 +7995,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b0f76a7e-05a4-4b32-8c50-2a5b9ed48267}">
+          <x14:cfRule type="dataBar" id="{6f1b88fa-404e-44c5-aa88-15edc67d2ea6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7632,7 +8010,7 @@
           <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0bffdb2a-0247-4137-bc47-efaa39e9f8a3}">
+          <x14:cfRule type="dataBar" id="{2887adab-5a73-4062-b764-6c3042a9e75d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7642,7 +8020,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f84e5190-90e0-4590-bfce-f4afb9cfa1dd}">
+          <x14:cfRule type="dataBar" id="{7cabe039-ed90-4254-8910-384107335bc4}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7650,7 +8028,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1fa690b9-2c46-48c6-93d6-074229bf756b}">
+          <x14:cfRule type="dataBar" id="{18305b64-71df-4457-af93-e6fddb953666}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7660,7 +8038,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4f60a672-bb4e-4a64-8ef6-44105781f950}">
+          <x14:cfRule type="dataBar" id="{c93479ce-936d-4289-ab4b-569583d65c36}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7670,7 +8048,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c45ce8ad-78c9-4e2b-a323-718b813025d1}">
+          <x14:cfRule type="dataBar" id="{2298282b-f292-4977-8e32-d469cc962f90}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7682,7 +8060,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2290ae47-2c93-45b2-aca5-40f8179774d1}">
+          <x14:cfRule type="dataBar" id="{7246dfab-d342-4bb0-b394-c0950df1f89f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7690,7 +8068,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{755ccaa5-6d6e-4e6e-ad62-ab7a6d83750c}">
+          <x14:cfRule type="dataBar" id="{fb92035a-e175-4017-b287-88b17778b687}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7702,7 +8080,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{97c940a4-2f68-485e-abcb-744668beb08a}">
+          <x14:cfRule type="dataBar" id="{76eec916-3dfb-4a06-94b2-7635d3aef81f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7710,7 +8088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b52598ca-d34f-4756-866d-bbb1540b3d5a}">
+          <x14:cfRule type="dataBar" id="{cac3e7dd-80b1-48b1-85f4-713280c6e989}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7722,7 +8100,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{98baf017-bfea-465e-bc31-f5bfd3a37fda}">
+          <x14:cfRule type="dataBar" id="{a07bb891-88f8-4295-ae7d-384248aa200f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7730,7 +8108,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4a5d90fe-87fd-4434-a79d-cdf3eb7770d5}">
+          <x14:cfRule type="dataBar" id="{05482d38-b90f-4722-986c-82d2d61f803b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7742,7 +8120,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{60d09c0d-1950-4c0b-b4e0-e355d18cdf64}">
+          <x14:cfRule type="dataBar" id="{9dcffe05-b091-4e69-bc13-b3068a1f0a60}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7757,7 +8135,7 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aa23e510-ef7c-42fd-ae8e-74b1a2f26120}">
+          <x14:cfRule type="dataBar" id="{21cddd8b-ae23-47d1-9716-361bf3ac720d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7767,7 +8145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{508d8f00-53aa-47f5-ac2c-2edbb9d8068f}">
+          <x14:cfRule type="dataBar" id="{44383865-8e3a-4ca9-a2f5-6c6380288d17}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7775,7 +8153,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6a2600d8-8b6a-4b7a-80a1-e0c0b1f288b0}">
+          <x14:cfRule type="dataBar" id="{08c29236-230e-4ebf-b989-dc21401682ba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7785,7 +8163,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4f55e5fe-2783-47e2-a4e7-e88295654a56}">
+          <x14:cfRule type="dataBar" id="{3a73d935-0567-4502-87b0-4e1b11d2c340}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7795,7 +8173,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2b2fa001-4f7f-466f-be30-6def67ea6955}">
+          <x14:cfRule type="dataBar" id="{8c34b740-ad87-4212-bc4f-5dc07631de55}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7807,7 +8185,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8d15e0d8-7fc8-4751-bb15-cf453325e3cc}">
+          <x14:cfRule type="dataBar" id="{be67497c-e640-477a-80b6-63fc814bd750}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7815,7 +8193,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b43dc8b6-06b3-45f4-b12e-5f0b91c4dd4d}">
+          <x14:cfRule type="dataBar" id="{d5ae332f-0611-41aa-94c0-b3fdc4293a78}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7827,7 +8205,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8e1115b0-8cf1-4a0f-8c2c-1c0b7efd9837}">
+          <x14:cfRule type="dataBar" id="{5060423c-8552-4fa8-9bb5-7821b99a6929}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7835,7 +8213,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f5458b1a-061a-4d91-9e2b-ec7091190009}">
+          <x14:cfRule type="dataBar" id="{fa9d7517-f34e-4745-8644-24d8da6a4a9e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7847,7 +8225,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b4026d45-e392-4708-aa7b-7a7603bd8a09}">
+          <x14:cfRule type="dataBar" id="{2c582ab1-dffe-4215-a356-b66acb749bf9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7855,7 +8233,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f2d010a8-247b-4207-9ac6-8ad2ff9c1a4c}">
+          <x14:cfRule type="dataBar" id="{e0abef5c-0a90-4f6c-aee9-66ba4af3de4e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7867,7 +8245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8dbe9e1e-0496-4e95-9d94-ae7589b2a2e5}">
+          <x14:cfRule type="dataBar" id="{7f3b33c1-d33a-4e26-b084-e723df4d8a07}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7882,7 +8260,7 @@
           <xm:sqref>I38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{17e6dac8-2d13-445f-a7d7-e9a9ffc49a45}">
+          <x14:cfRule type="dataBar" id="{681def06-183c-4239-a1f4-2c8a6cd38510}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7892,7 +8270,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ae9fdb8f-e4a3-4122-af67-183cab793659}">
+          <x14:cfRule type="dataBar" id="{a78fa4b3-a9ff-4991-a634-f9bd1f8cd424}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7900,7 +8278,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{98bde785-6065-4e10-991e-59b750a1d47c}">
+          <x14:cfRule type="dataBar" id="{fa7a3489-75f2-49cd-94c8-dadf0215b5fb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7910,7 +8288,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a1fc274c-3b83-4e5f-add8-8f5e3274c88f}">
+          <x14:cfRule type="dataBar" id="{be11fb14-a12c-4ba6-aa57-80ffee943712}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7920,7 +8298,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{44e00081-7bce-467c-8692-67e3ab68122f}">
+          <x14:cfRule type="dataBar" id="{27079545-87b2-441d-a514-653421cc3a4f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7932,7 +8310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{779805e5-4042-49ab-bd61-d0c34ff90034}">
+          <x14:cfRule type="dataBar" id="{81af5672-6c05-4f61-8173-ce50558c2fb2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7940,7 +8318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{579e0fbf-618d-4b31-b969-49beeac75846}">
+          <x14:cfRule type="dataBar" id="{4e046029-74e7-4744-84f8-ebc5dfcc950a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7952,7 +8330,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{71bc23d2-6587-4423-80df-b45ef695f918}">
+          <x14:cfRule type="dataBar" id="{da8057f6-2e1b-4516-9f57-6a8e7b587184}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7960,7 +8338,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4bd9b8c9-8cef-4e76-b411-c41312246d59}">
+          <x14:cfRule type="dataBar" id="{a9c8a770-c896-4568-a445-02b7d4b28bf7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7972,7 +8350,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{79efb023-49e4-4e1f-b794-dd8cab0e4299}">
+          <x14:cfRule type="dataBar" id="{3a94703e-c85a-480d-b5f6-e08171a42cdf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7980,7 +8358,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{45345bc0-6f42-481e-ad35-dafa4ea0c5de}">
+          <x14:cfRule type="dataBar" id="{96cdde23-12bc-469a-af3e-0ac69f3f71e3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7992,7 +8370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{94e402e2-21ff-4571-9c39-705a1c6bed00}">
+          <x14:cfRule type="dataBar" id="{3c57a3ea-1e1c-408f-8b57-121c0f6a583c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8007,7 +8385,7 @@
           <xm:sqref>I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0c8960ed-720b-4646-8d70-b967889cad2e}">
+          <x14:cfRule type="dataBar" id="{65a61349-922e-44ef-ac52-a5e187c3ae02}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8017,7 +8395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e11feeb8-d230-423a-a662-b5af98f8578d}">
+          <x14:cfRule type="dataBar" id="{ea3078fe-c998-4146-9974-b56cdd3304f4}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8025,7 +8403,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{39bbb0a2-d9b2-496c-8a0b-6a5a93361726}">
+          <x14:cfRule type="dataBar" id="{8864bc2c-8ccd-44c5-939d-09c2e93ded0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8035,7 +8413,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8c60d841-ff51-4b68-b58b-d6b80cbffd9c}">
+          <x14:cfRule type="dataBar" id="{2e0846de-118c-4244-bd4e-ae0d98a56465}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8045,7 +8423,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{092e4a44-d4f4-43c7-a8d3-a3ace924aed3}">
+          <x14:cfRule type="dataBar" id="{467c4d3d-48dd-444d-930f-4107d8e2cb6d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8057,7 +8435,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3ddae45d-9b2d-46d2-95f0-49bd2fbcdc1d}">
+          <x14:cfRule type="dataBar" id="{c2d434d2-d89c-4287-ba73-6e0377eabd27}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8065,7 +8443,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5a7fbb13-442a-426f-b37b-2efb86f3d2f8}">
+          <x14:cfRule type="dataBar" id="{8cd81d0c-4f85-47d3-b72e-f120f427aa23}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8077,7 +8455,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5ee68963-3d90-4a78-9e87-460afd39c87b}">
+          <x14:cfRule type="dataBar" id="{3568cf31-2f04-4452-9bef-8a2d4974d676}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8085,7 +8463,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6c7c3a20-6320-4b4d-beef-902d6e43b39b}">
+          <x14:cfRule type="dataBar" id="{07b5bdc2-c900-4fea-a1ad-3d9c04d32821}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8097,7 +8475,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8869eeb2-aac1-4584-9204-e6658e1986c4}">
+          <x14:cfRule type="dataBar" id="{00d991c6-4934-4e5d-a5f8-3535ef04922c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8105,7 +8483,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0657ccf5-99cd-4aa3-ba81-bd1bd313ea30}">
+          <x14:cfRule type="dataBar" id="{a9ad3121-07d2-41f2-97aa-9482e56b029a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8117,7 +8495,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e4ff64bc-61bf-4285-ab66-138e9bfa80d6}">
+          <x14:cfRule type="dataBar" id="{efdbc25e-9cba-45f2-8c76-49106783feac}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8132,7 +8510,7 @@
           <xm:sqref>I68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6798f51e-a0ac-49ae-a894-72959d95088d}">
+          <x14:cfRule type="dataBar" id="{8d64a9eb-f3f3-4bde-aa39-b2bd262302ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8142,7 +8520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4dd47447-b887-4fab-9aae-503a83e027eb}">
+          <x14:cfRule type="dataBar" id="{6c4deb1e-ec7f-43b8-ba79-e3537a0ab1aa}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8150,7 +8528,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ababeca2-4c73-4799-845e-3b2077e5e3d6}">
+          <x14:cfRule type="dataBar" id="{7b1b701f-79f8-4764-b5e0-d01744cab42c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8160,7 +8538,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{47bb8b31-e936-42ed-9b26-66e60571526e}">
+          <x14:cfRule type="dataBar" id="{6fffcc60-2f4d-47ee-9a34-a3a4cd16f3fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8170,7 +8548,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9076e674-9d3c-42fd-816c-7cc26cdda081}">
+          <x14:cfRule type="dataBar" id="{bd5df05b-3ae0-41cd-8bee-40501d28890e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8182,7 +8560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{42bc0c73-cd04-40a3-8542-8271200b898f}">
+          <x14:cfRule type="dataBar" id="{648282ad-af03-43e8-aaf1-9a3c1c6e7f98}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8190,7 +8568,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0b7968ca-3ccf-477a-869c-8190e1133b5d}">
+          <x14:cfRule type="dataBar" id="{a1fc4c68-ae16-4fa5-98b6-d21b9d90e10f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8202,7 +8580,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{42dd33f7-8719-4e2f-b12a-7ec4c1be6953}">
+          <x14:cfRule type="dataBar" id="{ccb83420-f20e-4282-8476-409b249dd059}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8210,7 +8588,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5fae0578-b7fd-402b-9a75-9012c66d5116}">
+          <x14:cfRule type="dataBar" id="{8a9779a5-296f-4e82-9314-99cc24a6e00f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8222,7 +8600,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{eada73a1-e3d9-4d47-aece-deacf2f4c80c}">
+          <x14:cfRule type="dataBar" id="{d2313789-b72d-4f73-ab38-c5a6564a10d7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8230,7 +8608,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{df46f238-e338-4861-915e-77a26431db5f}">
+          <x14:cfRule type="dataBar" id="{78c8f89e-b0b3-4bee-a5b9-a8af25d04c5a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8242,7 +8620,257 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a9dea78a-54a0-4df5-ac2d-9a74772e4ef4}">
+          <x14:cfRule type="dataBar" id="{afb44de5-5726-4366-8ee7-d66c478f6c58}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I56:I58</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10a67ad0-9ebc-4b6a-a153-4b2b9dd12cb2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{00c6b105-437f-4056-9997-4d767c6c9432}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{990349bf-bf40-486c-9fae-912962147a8e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a1950fb9-dabf-4587-83a0-ff1bf9ddb191}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e91acce9-9118-43ea-912d-fc8f9f507b2d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{cda10003-b74b-46a5-be9e-89fc16f5353b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{476b4f9f-7869-4beb-9c18-bdb2f967869d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1fc1a602-73b8-4565-aef1-1db4e4e60280}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{87567241-4933-4afb-8847-a0cc24731b38}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5058c60b-7383-4e28-ab84-0ce934032f79}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{32caa240-1a35-41ce-b047-8fdf2d04049f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{007fb8ef-fecb-42bd-a5cd-3e467f1ba566}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I62:I64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{e3a79ecf-20bd-4146-9a95-a19a2091b377}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e1149162-2bf2-45f7-9c46-738c66756efd}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{64d8b927-ef4b-485a-b396-7a13f757f6c4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{616c3e75-1e62-4202-9986-b1a25fb0f21b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{69c00638-739e-4aa7-bb83-f88cb32aa9ae}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9298b3f0-5f61-41bc-9d43-796671d1ddbd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b8c6725b-4804-4a21-926c-7599aca91a06}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b277a3af-e740-44d9-941b-ae26f8313e24}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{24d9aed4-a2d7-4c30-b07c-5cfb4bd00678}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0f296cef-31be-483c-bd7a-eaa31296f3b4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ec025f25-072f-43ce-9d3f-bba0eddacfe9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{bdf3796f-8c57-4a63-a12e-a7d30ffbc3b3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8257,7 +8885,7 @@
           <xm:sqref>I69:I71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6a777c43-1304-44b4-8b8c-b92fc9e83d56}">
+          <x14:cfRule type="dataBar" id="{cbbdb302-5596-4b3a-a72c-ed6868be21e1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8269,7 +8897,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dee2443b-3e70-4ff4-905b-50b451caffd8}">
+          <x14:cfRule type="dataBar" id="{9b435b13-a86d-4ede-a4e3-09a619972891}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8281,7 +8909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{488f6f58-9987-4c8f-8b53-3b40fdc10452}">
+          <x14:cfRule type="dataBar" id="{a3d81f60-d2fd-4387-9d23-78e3cfe2e217}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8289,7 +8917,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{93a7c487-3f11-4709-a3d8-88549c712ab1}">
+          <x14:cfRule type="dataBar" id="{d04b622a-a84f-498f-b28b-9d3f89bcf802}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8301,7 +8929,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c6dfda56-6997-48e1-a3e8-f2506551605c}">
+          <x14:cfRule type="dataBar" id="{993e04b2-1977-4f06-994f-8c2b2ac94909}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8309,7 +8937,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ed1adb1d-8b73-4d66-91d4-643f447ed942}">
+          <x14:cfRule type="dataBar" id="{ee276be3-af1f-4d14-ac98-53574f1da2c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8321,7 +8949,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2a16c493-c5bc-4767-a23f-292b359ca818}">
+          <x14:cfRule type="dataBar" id="{85f1cd11-03c2-4dfe-b254-f229f8382e57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8329,7 +8957,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{44af832a-b504-4f1d-b363-71517a4f4ce1}">
+          <x14:cfRule type="dataBar" id="{de6a9a94-4ba2-4c6f-bc11-b8ad6a49bd8e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8341,7 +8969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{092810f9-048b-4ed0-87ef-58e8ff796bd4}">
+          <x14:cfRule type="dataBar" id="{d760b640-5d86-4993-81f1-67cbf01e622d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8351,7 +8979,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fa619455-b38c-45bd-923c-4eaae1f786ac}">
+          <x14:cfRule type="dataBar" id="{b6f2d98d-dc9b-4b65-9636-92fc71d26bc5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8361,7 +8989,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c403c774-f7b3-4b06-b270-4011f3a967ca}">
+          <x14:cfRule type="dataBar" id="{1309b12d-2b6d-43be-9cb1-34289d6edcbf}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8369,7 +8997,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5924f066-57c8-411e-b7b5-c924542da603}">
+          <x14:cfRule type="dataBar" id="{16bf9928-925f-425e-9a32-e1b925cb5d6e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8379,10 +9007,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25 I40:I67 I72:I1048576</xm:sqref>
+          <xm:sqref>I2:I25 I40:I55 I59:I61 I65:I67 I72:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0944ace8-703f-46b3-a745-c0db3f90140a}">
+          <x14:cfRule type="dataBar" id="{fb4748f6-8204-4c94-adba-3e2c93989c24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8394,7 +9022,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{73fcb426-54b9-4f9d-b074-91051b1e93e8}">
+          <x14:cfRule type="dataBar" id="{c68c946e-f3b0-4208-b002-165585bde3f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8406,7 +9034,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bcb78b26-4480-4fc6-afa0-f099f59c2bb1}">
+          <x14:cfRule type="dataBar" id="{b02b547e-e0fa-448d-b6db-1613d977f0e6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8414,7 +9042,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f55db104-b063-49f3-8bda-78de38eb81a1}">
+          <x14:cfRule type="dataBar" id="{506495e6-e3df-4951-a2ff-10d15e9a8bfd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8426,7 +9054,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1895d3c6-18a9-4800-9b5a-12c20d8d8b6e}">
+          <x14:cfRule type="dataBar" id="{b2482b98-e5fc-46b6-8acc-39afb3a855ba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8434,7 +9062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3f7b60e1-765c-462f-9c17-8464ed09b159}">
+          <x14:cfRule type="dataBar" id="{f349bc69-79e2-4420-bf85-050eed68ecbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8446,7 +9074,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b2cb743f-ff92-422a-8f08-dc40fcb0672f}">
+          <x14:cfRule type="dataBar" id="{02f3f085-d388-4b1f-8b68-8cbcd171cd28}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8454,7 +9082,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e28e356e-02cd-4ebd-89fc-5f779618f6a7}">
+          <x14:cfRule type="dataBar" id="{812ce7b9-fcf7-407a-8a4b-63de1eecc8e2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8466,7 +9094,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cfd91d88-8ebb-46dd-9a9c-bf5b6968ba59}">
+          <x14:cfRule type="dataBar" id="{d2c27681-3dc7-4856-b9f1-d6a9d6659730}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8476,7 +9104,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c0145eb6-45e3-4985-a1c8-ce514c2b2c81}">
+          <x14:cfRule type="dataBar" id="{f4428a23-31f4-46e1-9dba-fd123f212ee7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8486,7 +9114,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8d667760-9a53-4509-b6d5-51dc8ce5ea7b}">
+          <x14:cfRule type="dataBar" id="{6c3e3408-d030-49a8-bbb0-1285189caa99}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8494,7 +9122,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7f44d8ce-dc47-449d-b546-57f87f0b7851}">
+          <x14:cfRule type="dataBar" id="{58035a55-7b34-4660-b949-651577c2027f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -647,9 +647,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -719,29 +719,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -755,7 +755,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -764,14 +779,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,14 +808,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -825,16 +824,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -848,15 +846,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,13 +901,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,25 +943,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,49 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,55 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,19 +1067,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,20 +1351,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,8 +1376,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,23 +1424,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,6 +1444,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1464,49 +1464,49 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="23">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="25">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="25">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
@@ -1515,97 +1515,97 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="29">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="23">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="28">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="28">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="22">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="24">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="31" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2169,9 +2169,9 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -3740,13 +3740,19 @@
       <c r="H53" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="51"/>
+      <c r="I53" s="51">
+        <v>1</v>
+      </c>
       <c r="J53" s="52">
         <v>1</v>
       </c>
       <c r="K53" s="44"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
+      <c r="L53" s="53">
+        <v>44525</v>
+      </c>
+      <c r="M53" s="53">
+        <v>44526</v>
+      </c>
     </row>
     <row r="54" ht="24.75" customHeight="1" spans="1:13">
       <c r="A54" s="41"/>
@@ -3906,13 +3912,19 @@
       <c r="H59" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="51"/>
+      <c r="I59" s="51">
+        <v>1</v>
+      </c>
       <c r="J59" s="52">
         <v>1</v>
       </c>
       <c r="K59" s="44"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
+      <c r="L59" s="53">
+        <v>44525</v>
+      </c>
+      <c r="M59" s="53">
+        <v>44526</v>
+      </c>
     </row>
     <row r="60" ht="24.75" customHeight="1" spans="1:13">
       <c r="A60" s="41"/>
@@ -4072,13 +4084,19 @@
       <c r="H65" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I65" s="51"/>
+      <c r="I65" s="51">
+        <v>1</v>
+      </c>
       <c r="J65" s="52">
         <v>1</v>
       </c>
       <c r="K65" s="44"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="L65" s="53">
+        <v>44525</v>
+      </c>
+      <c r="M65" s="53">
+        <v>44526</v>
+      </c>
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:13">
       <c r="A66" s="41"/>
@@ -4320,9 +4338,13 @@
         <v>17</v>
       </c>
       <c r="I74" s="51"/>
-      <c r="J74" s="52"/>
+      <c r="J74" s="52">
+        <v>1</v>
+      </c>
       <c r="K74" s="44"/>
-      <c r="L74" s="53"/>
+      <c r="L74" s="53">
+        <v>44529</v>
+      </c>
       <c r="M74" s="53"/>
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:13">
@@ -4343,9 +4365,13 @@
         <v>17</v>
       </c>
       <c r="I75" s="51"/>
-      <c r="J75" s="52"/>
+      <c r="J75" s="52">
+        <v>1</v>
+      </c>
       <c r="K75" s="44"/>
-      <c r="L75" s="53"/>
+      <c r="L75" s="53">
+        <v>44529</v>
+      </c>
       <c r="M75" s="53"/>
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:13">
@@ -4366,9 +4392,13 @@
         <v>17</v>
       </c>
       <c r="I76" s="51"/>
-      <c r="J76" s="52"/>
+      <c r="J76" s="52">
+        <v>1</v>
+      </c>
       <c r="K76" s="44"/>
-      <c r="L76" s="53"/>
+      <c r="L76" s="53">
+        <v>44529</v>
+      </c>
       <c r="M76" s="53"/>
     </row>
     <row r="77" ht="24.75" customHeight="1" spans="1:13">
@@ -4389,9 +4419,13 @@
         <v>17</v>
       </c>
       <c r="I77" s="51"/>
-      <c r="J77" s="52"/>
+      <c r="J77" s="52">
+        <v>1</v>
+      </c>
       <c r="K77" s="44"/>
-      <c r="L77" s="53"/>
+      <c r="L77" s="53">
+        <v>44529</v>
+      </c>
       <c r="M77" s="53"/>
     </row>
     <row r="78" ht="24.75" customHeight="1" spans="1:13">
@@ -4522,19 +4556,19 @@
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="I27">
-    <cfRule type="dataBar" priority="96">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc06319c-abe6-4e91-9c67-006ae940b3b6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="132">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{85d922bb-ba44-4ced-b400-9fbca79a012d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4542,23 +4576,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6314c903-cac7-42a3-a381-d22c10600923}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="94">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1bc03e89-587b-476e-9466-547a7757ed60}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="93">
+          <x14:id>{e7ee1295-a2da-4f52-9e55-ca3beb3bd194}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="130">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bc02fafa-c5c4-4205-9837-ea944afb264f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4566,11 +4600,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f075caf-1b26-4dd5-b0ec-816eeee5c38f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="92">
+          <x14:id>{f241688e-4a6e-4e15-86cd-bafad1d18d2c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4578,11 +4612,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{687e2a47-f2fc-4b64-b691-2e7354d0be20}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="91">
+          <x14:id>{b0226824-41c4-42dc-9a31-a481b12e5bd4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4590,11 +4624,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7bb30879-84dc-4222-9570-f81e271554b4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="90">
+          <x14:id>{3d08c87b-6ca8-4c34-9ee6-b1d17c335098}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4602,11 +4636,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d732ef5-c5d9-4363-8f01-4264a8e8d0ef}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="89">
+          <x14:id>{dfef4fe4-4148-4fa4-84dc-1ce932a06a50}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4614,11 +4648,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce724a29-19bb-443d-a15d-0f126de8ab06}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="88">
+          <x14:id>{dc55ad67-fa8d-4048-838e-0a30020b0711}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4626,11 +4660,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{88fea2d4-1716-4302-beeb-ba45de3ffd02}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="87">
+          <x14:id>{140c0b02-401f-4d61-8b31-19cdf58a1ec2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4638,11 +4672,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd6deae7-0eca-4828-9816-9d1e7c21ad60}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="86">
+          <x14:id>{62927f1b-0ca3-449d-a60e-6262e4104c04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4650,11 +4684,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0acb5d17-ca1d-464e-9f91-3e5e72d7f3f0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="85">
+          <x14:id>{4c976cf1-1705-46fa-98c4-1ed7f9841a23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4662,25 +4696,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a2e88288-3e4b-44ff-b6a6-0632d16b8d52}</x14:id>
+          <x14:id>{230da66e-461d-4965-829b-ae8ab3080089}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="dataBar" priority="84">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c8d5144a-dab7-4313-a41d-c9df249dcf27}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="120">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c70fef29-c9cd-426a-a6db-1f26d14627f1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4688,23 +4722,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4abce8eb-e034-4ebb-9a8e-e4a93c108bc4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="82">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2de6fcde-5548-419b-ad14-1b77d33247fd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="81">
+          <x14:id>{de0dd6da-fcb1-4dbc-91a2-96aaa3e1f9e5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="118">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8cdeced3-0e24-4666-bda1-45090c8bff83}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4712,11 +4746,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd5c0437-efb5-4dc9-8a49-6fd6286dae44}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="80">
+          <x14:id>{2f05c261-49c7-4159-9730-39cca4797f8e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4724,11 +4758,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c16d7471-f1f8-4d9d-a0c3-0a5025ac3384}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="79">
+          <x14:id>{9a4d3bae-1ad0-48d3-92b2-401a5bf7e624}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4736,11 +4770,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06a2bcc6-f3a0-4489-a978-83bb1f58a9f4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="78">
+          <x14:id>{0066e52a-43b2-4f9c-9a68-98b54de95351}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4748,11 +4782,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f74b1975-a5a8-4e80-a93a-f8083c40b1c9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="77">
+          <x14:id>{3c336875-9ab6-45d9-adc2-78be66d68f43}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4760,11 +4794,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3e069ba9-bba4-4b30-99c8-7a050b2cfc1b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="76">
+          <x14:id>{863d86cd-8164-4afc-b006-9700def2fcaa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4772,11 +4806,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc4b8f77-bb1d-4144-8f05-813993160cd9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="75">
+          <x14:id>{c7465526-281c-4c6b-a6ff-81587a02626d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4784,11 +4818,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{699dba08-4ef1-437c-975a-24f2bcaca3c9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="74">
+          <x14:id>{9d44e4d5-b324-41e5-aaff-5e7dcdbf0593}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4796,11 +4830,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bf358dfc-f3b2-4839-a7cc-71400be2d6c1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="73">
+          <x14:id>{7f48ff00-9310-433c-b030-83e3b6b9c6c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4808,25 +4842,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{05314fde-869a-4098-8cb3-169d90754e99}</x14:id>
+          <x14:id>{712fd5e4-558f-45dc-bca5-283b7597c217}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="dataBar" priority="72">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6f1f1a1-9c9a-47db-abbb-46b7d5a77647}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+    <cfRule type="dataBar" priority="108">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{aabc285a-7a15-4151-a185-e60ad9a551d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4834,23 +4868,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e044c38f-c608-4f88-9754-9d2b2e166570}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="70">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{71d580f5-2e7d-4a88-a261-056a5f19c242}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="69">
+          <x14:id>{dd8517b5-ed93-415d-aea5-d3d59e393354}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="106">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{368a46cf-8a48-4180-918e-a367c708df21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4858,11 +4892,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb64639d-58f7-4cae-abcf-b77a62324da7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="68">
+          <x14:id>{0e69344e-5918-48ca-826e-2ec1630f7b28}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4870,11 +4904,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ac848ceb-0338-4ed8-90a2-282ecdf662ce}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="67">
+          <x14:id>{300519bf-8bbb-4125-b10f-16fdc46c4454}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4882,11 +4916,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e5af884-8708-4ba4-98d9-498a82fd0a4f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="66">
+          <x14:id>{f2193b68-933f-446d-ba02-0ba8901b869d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4894,11 +4928,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15b2a535-ae98-457e-8305-ee28a1a5b247}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="65">
+          <x14:id>{2489bd9b-6ea6-4ae0-9b82-f6cb8ae58ba1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4906,11 +4940,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f391ec8-2f2e-4b3e-a818-725f47817d6d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="64">
+          <x14:id>{f17b9b8e-7535-4ae6-b237-f928c2574f75}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4918,11 +4952,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e97584d-71f0-4811-8ae0-04804708a655}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="63">
+          <x14:id>{c825b3e6-ff86-46ae-b0ff-9182ec5c129f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4930,11 +4964,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e6ef4419-5c5b-4368-bba0-80a88d398b66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="62">
+          <x14:id>{68682ce1-a109-43f8-8a29-6f38557dfc5f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4942,11 +4976,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd3460bb-c617-4851-a5dd-13da04039834}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
+          <x14:id>{4dd1820d-5cab-427e-85f6-a0bde5ad54d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4954,25 +4988,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{908af32b-0706-440e-9c0a-349e9b6b5e60}</x14:id>
+          <x14:id>{af31f93c-dd5e-437f-9519-24a47c706e53}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="dataBar" priority="192">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b594430b-1e87-4331-ac24-213991fc99c2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="191">
+    <cfRule type="dataBar" priority="228">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2532fbc9-7431-4e2e-b873-abf6110b616b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4980,23 +5014,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e45b9cde-1857-4323-a4ab-671d25f0b9bb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="190">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c568b2d4-12fe-4d55-acdb-f895be921eca}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="189">
+          <x14:id>{a74f51ca-af17-4649-88d0-b6403f765a17}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="226">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4eb758f8-2fb8-4f83-8bed-dda6fc5159df}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5004,11 +5038,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{686e4b3d-79ec-4407-8566-9aef24ac57fd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="188">
+          <x14:id>{4e29b0c1-ca8d-47e3-aa8c-3043232ed7dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5016,11 +5050,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7fb65915-46fd-4466-aeed-e9dc1a8abe2a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="187">
+          <x14:id>{b5a56cef-f82f-4162-8f9b-30e5da57b4f0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="223">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5028,11 +5062,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cba2a959-27e2-43b7-aee6-32453bb3ec8b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="186">
+          <x14:id>{862eac7f-8ddd-46dd-9267-feaad94689e6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="222">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5040,11 +5074,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de2c41a9-4295-4d51-896f-307229d32650}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="185">
+          <x14:id>{d914035a-5cd8-4474-b373-570c9c7d2313}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5052,11 +5086,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28457014-f18f-4c37-a7f3-8fcd60705606}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="184">
+          <x14:id>{244cb6b1-2b97-4436-b22a-2bea41ae48bf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5064,11 +5098,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06d6f48d-6475-42ba-be48-e061a7d59414}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="183">
+          <x14:id>{0486cbbe-e9ac-48d1-bdb2-67d1d89e74f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5076,11 +5110,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51c17455-5b9b-4387-a530-4de23e1fa82d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="182">
+          <x14:id>{4c5dd4e2-a93b-4f75-a003-b89fad732d3b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="218">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5088,11 +5122,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70ce2721-5e46-4e7a-944f-4c0ac8d469ad}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="181">
+          <x14:id>{d2c3e680-e1f7-446a-90de-5d91a3034230}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5100,25 +5134,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32a586bb-6ac9-4266-8064-cc477f571d65}</x14:id>
+          <x14:id>{6091cb27-c3ee-444a-b5d8-f976d79650e0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="dataBar" priority="180">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d47ffb0-b656-4d86-85c3-b385deeff5ad}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="216">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e3fcc81a-a6f9-44f9-9f3f-919166f7e476}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5126,23 +5160,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a4448331-8afa-4e20-987f-fa7301bfbba4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="178">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d8f4a59d-61ad-4e46-98df-53dee9a4d67e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="177">
+          <x14:id>{3ccf75f0-6448-47ca-b28c-0c3a0270b741}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="214">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1f4430e0-dada-4f13-861d-dc9ce0dfa601}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5150,11 +5184,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4950ab9-2b5e-41f9-9d37-a52177e7d251}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="176">
+          <x14:id>{0a54f7d9-cae7-4410-a3c6-a395773b5710}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5162,11 +5196,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ccca399c-b1a3-48d6-b4d6-eded63e0dc28}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="175">
+          <x14:id>{6cacdbd4-c7cd-4c2f-8693-0fff06ab8fee}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5174,11 +5208,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd917a9c-f3d2-4743-a74c-a3bf48d03f5a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="174">
+          <x14:id>{c625d1e5-20b2-414f-be0d-0fc97fefbae3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5186,11 +5220,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{668e4f7b-f3a7-43d6-8b8f-8ef568421b99}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="173">
+          <x14:id>{e2fe362d-ee06-463e-88c3-34054acef849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5198,11 +5232,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fc87a12f-446c-4807-8a34-29971804f957}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="172">
+          <x14:id>{01ef6921-e9a2-42f7-9d0f-ab639be5c78b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5210,11 +5244,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4e70164-4ecc-46d7-8097-4bc091212c63}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="171">
+          <x14:id>{e52331c3-5aeb-4a58-bcaf-f34eb7eae528}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5222,11 +5256,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{338f9986-f5bd-43cc-bddb-8bdff532f46e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="170">
+          <x14:id>{ef556984-f60c-49d5-b48a-c3459700e95f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5234,11 +5268,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cb695c21-9a68-4ac2-97da-1138f1f535dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="169">
+          <x14:id>{001eb2f4-d6b6-4434-b16d-24c3b2383bd0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5246,25 +5280,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4fe1092-eb79-47b8-a88e-c037c7931bcf}</x14:id>
+          <x14:id>{0dd1184b-d62e-4af1-b517-b523a19bd0c7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="168">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4126fd2d-1b22-4098-8b73-ea7ff4511667}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="204">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{43ba5d08-e731-4c1c-baf2-3bb540c1b9fa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5272,23 +5306,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{244684f6-fc83-40d9-96f3-76dcd075474f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="166">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e4de1e2-6e1c-4744-a297-e0c69593aa5c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="165">
+          <x14:id>{02d3e58a-64d3-4695-9f2b-c1abe2b92b2a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="202">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{248754ea-3b3d-4153-8379-a7615a8ea8f2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5296,11 +5330,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a56625f9-35ef-43e1-8fb5-c92597fbce24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="164">
+          <x14:id>{1f6b868d-0c78-456b-923d-a904cfe461a9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5308,11 +5342,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{46deb763-ec28-4b1e-85eb-a802cbd5de7c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="163">
+          <x14:id>{0d70bcda-9e91-40c6-9ea6-b380d920ba86}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5320,11 +5354,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db2b3ed1-6917-4e9a-a332-d10346909d32}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="162">
+          <x14:id>{655ce4b6-833c-45f0-861e-005865eb4a03}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="198">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5332,11 +5366,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eff80fdd-743e-4b8c-8c86-9a98fe143ae4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="161">
+          <x14:id>{7d0cae4f-9e44-4d11-8b82-1d2dd488c2f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5344,11 +5378,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5b330c7e-b467-4c84-abc7-a79ab5497a1f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="160">
+          <x14:id>{9060f23d-07bc-4865-9a75-bfc97f8bc952}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5356,11 +5390,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e069475a-f2a3-4b85-95f0-e97c460904c8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="159">
+          <x14:id>{3d78d95d-a7be-4c54-acf2-d23de3df9911}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5368,11 +5402,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12d3ffad-7c39-4479-a32e-644d0be7573b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="158">
+          <x14:id>{32e1f5a5-2653-4736-80a4-3fc38e9a0335}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5380,11 +5414,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8bbd8230-abd8-4f05-a0e0-23780bfbe024}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="157">
+          <x14:id>{aff2b965-bce9-48bf-b13a-e22f595bdebe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5392,25 +5426,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3b70208c-fac9-4637-98fa-070fa29304a9}</x14:id>
+          <x14:id>{6c799cef-3add-43da-b1f9-c3f9ea0e8f3d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="dataBar" priority="156">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dda4c192-9297-4b46-a2c2-024868c42e57}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="192">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15698ea0-a46c-409c-b111-dfc11e1fae08}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5418,23 +5452,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a09ba0e2-c8bb-49d4-a86b-9e00bbbc571e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="154">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1860d3bb-14bc-41ca-9e2c-8c62e92feb57}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="153">
+          <x14:id>{1fc4c370-496e-48e4-a186-fa594b9a145d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="190">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{319eac63-c5df-489c-adf6-8c75a2b122c8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5442,11 +5476,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d846d00-9d54-4eeb-b6d6-efe525d2c241}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="152">
+          <x14:id>{0ee7f169-25d9-41b9-b0a9-5758ee4dac2b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5454,11 +5488,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f7b0850b-8364-46f1-a03e-5d3ae414de77}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="151">
+          <x14:id>{944b89d0-3706-43f0-8e24-d67267cff15c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5466,11 +5500,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc002dca-67ca-44d6-94ab-90aadc14411e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="150">
+          <x14:id>{89e8d11b-dc8f-4619-b949-262e70e4baaf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5478,11 +5512,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c7e3c389-248e-46c6-b4bf-3f813ebd9a23}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="149">
+          <x14:id>{266efdaa-8b3a-4093-a02f-335f496a5b22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5490,11 +5524,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8b4a5cff-420d-4b07-b867-583103e7db50}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="148">
+          <x14:id>{2d552c08-be36-4684-9192-124a90f79707}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5502,11 +5536,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ff5627fb-3b60-4683-8ab8-e257b9ba4db8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="147">
+          <x14:id>{d5346d13-bb17-4dee-99b9-4ddf683c017e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5514,11 +5548,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2d373c2-3375-4618-a908-d16e5b08ce33}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="146">
+          <x14:id>{263ac08f-188c-438c-8ce0-15f58e454480}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5526,11 +5560,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99c27fb9-5edc-4f34-88ce-d68f78c64d9f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="145">
+          <x14:id>{fea44444-45b8-497d-806b-24235c624d42}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5538,25 +5572,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97ff73b0-df2b-4f4a-b9c2-74de7bb3db75}</x14:id>
+          <x14:id>{1e149fff-9008-41e0-a165-6b914eba8f8d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="dataBar" priority="144">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c5e917b6-6632-4555-8d79-6af343eafa1d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="180">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2bb93038-a42f-4e43-980f-45b82e30cd00}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5564,23 +5598,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8f7698ff-4c7e-49d5-8aca-e7ebb08cbdcb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="142">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84dc218f-7983-4e27-8996-0a4851ac1003}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="141">
+          <x14:id>{5da14dd6-26a7-448a-b324-e374e9309f79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="178">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c1a4280f-ebdf-40ee-87c2-3c71fb869eca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5588,11 +5622,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{787a50ae-34ec-4e10-8e72-ef4134da6ea7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="140">
+          <x14:id>{6b69d8de-3e17-4fa9-ae18-d46ac4154498}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5600,11 +5634,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28a9b258-ef2e-4840-a203-3ba6d563cf35}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="139">
+          <x14:id>{16286e51-4aaa-48e8-8f0f-5f1692df3322}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5612,11 +5646,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd5822c1-6724-4525-80b6-3a0de248e1c3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="138">
+          <x14:id>{da59772a-b477-45f3-b1b8-67c36072ae80}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5624,11 +5658,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9e3f271f-e229-4524-bf86-d03935a2fe0f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="137">
+          <x14:id>{33f6b120-b5e2-409f-b6d9-fec08a0a9ceb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5636,11 +5670,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9052de8b-a760-4b1f-b790-6c72feb86c92}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="136">
+          <x14:id>{f8785ef3-5fae-4b05-bc72-e6ccd0ac1e60}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5648,11 +5682,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a33261e-dfd3-4faa-8c77-a4d4f091f2fe}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="135">
+          <x14:id>{f5f0a5f5-11e8-411b-a3d5-0d2eac21f325}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5660,11 +5694,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3770736d-0f3b-47d5-88c6-35854b868fe7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="134">
+          <x14:id>{5f65a7dc-90cc-4529-a8cf-052eebb841bb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5672,11 +5706,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2a2c59a-baf1-4c71-8ddd-eb97913da1f9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="133">
+          <x14:id>{4f9bf056-ac96-4fa8-bdc2-42361da97eb6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5684,25 +5718,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f1b88fa-404e-44c5-aa88-15edc67d2ea6}</x14:id>
+          <x14:id>{c3123ebe-554a-4271-b82d-a82d33aaeaba}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="dataBar" priority="132">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2887adab-5a73-4062-b764-6c3042a9e75d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="131">
+    <cfRule type="dataBar" priority="168">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8405967a-2f56-4be9-b763-264c57e9623e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5710,23 +5744,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7cabe039-ed90-4254-8910-384107335bc4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="130">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{18305b64-71df-4457-af93-e6fddb953666}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="129">
+          <x14:id>{62fedec1-d3ab-4f0e-9f8e-630cc281753f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="166">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bf95e753-82be-443e-aca0-73e15978a0c3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5734,11 +5768,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c93479ce-936d-4289-ab4b-569583d65c36}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="128">
+          <x14:id>{6b15c934-3463-40d9-91d2-e2583cd7d0e5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5746,11 +5780,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2298282b-f292-4977-8e32-d469cc962f90}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="127">
+          <x14:id>{f626ef3f-ed9b-446a-b2cc-419b876051dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5758,11 +5792,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7246dfab-d342-4bb0-b394-c0950df1f89f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="126">
+          <x14:id>{a4575f6e-6bb9-4202-b026-0e3d98a1a911}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5770,11 +5804,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb92035a-e175-4017-b287-88b17778b687}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="125">
+          <x14:id>{c5866b7d-cb1a-46b8-ad3b-80e41b97df58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5782,11 +5816,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76eec916-3dfb-4a06-94b2-7635d3aef81f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="124">
+          <x14:id>{2cbf3c17-6211-4869-80e0-eed86ab37090}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5794,11 +5828,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cac3e7dd-80b1-48b1-85f4-713280c6e989}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="123">
+          <x14:id>{5bce4107-780a-4356-9f7b-f0326364bd4f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5806,11 +5840,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a07bb891-88f8-4295-ae7d-384248aa200f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="122">
+          <x14:id>{e743fae4-f830-4bd9-a04b-65a0ed546415}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5818,11 +5852,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{05482d38-b90f-4722-986c-82d2d61f803b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="121">
+          <x14:id>{ff18ba25-d2eb-45fd-be26-9c734fa79e85}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5830,25 +5864,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9dcffe05-b091-4e69-bc13-b3068a1f0a60}</x14:id>
+          <x14:id>{0c98e2b6-cc43-413d-ae0d-05fafb7b1161}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="dataBar" priority="120">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21cddd8b-ae23-47d1-9716-361bf3ac720d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="156">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{39335d64-8d1e-4579-9170-25ef8006c5b4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5856,23 +5890,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{44383865-8e3a-4ca9-a2f5-6c6380288d17}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="118">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{08c29236-230e-4ebf-b989-dc21401682ba}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="117">
+          <x14:id>{84508b26-14ea-45b0-b9e2-4610d50cc268}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="154">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8245eea5-e218-4a37-9dd2-d33a6dd1f53f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5880,11 +5914,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3a73d935-0567-4502-87b0-4e1b11d2c340}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="116">
+          <x14:id>{5c5dd024-6395-4cf1-ba17-25e529d349d1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5892,11 +5926,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8c34b740-ad87-4212-bc4f-5dc07631de55}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="115">
+          <x14:id>{06fb077e-a058-4c6f-b9a5-e0e8bd2305c6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5904,11 +5938,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be67497c-e640-477a-80b6-63fc814bd750}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="114">
+          <x14:id>{ebeed136-74d0-4ed1-b89f-0c6abfc5f21d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5916,11 +5950,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5ae332f-0611-41aa-94c0-b3fdc4293a78}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="113">
+          <x14:id>{05687a20-77d5-4ed7-bd74-4fed6cba1ace}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5928,11 +5962,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5060423c-8552-4fa8-9bb5-7821b99a6929}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="112">
+          <x14:id>{39f8eb67-9bc3-4425-9cd7-151faad51ed8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5940,11 +5974,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa9d7517-f34e-4745-8644-24d8da6a4a9e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="111">
+          <x14:id>{5ca4d8b7-42ef-4c7f-9766-0838ab7cf646}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5952,11 +5986,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2c582ab1-dffe-4215-a356-b66acb749bf9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="110">
+          <x14:id>{eb41b4cf-3218-491b-8332-9d5a8fb623a8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5964,11 +5998,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e0abef5c-0a90-4f6c-aee9-66ba4af3de4e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="109">
+          <x14:id>{9659700a-8de5-484e-aeb9-8b566fa0f07b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5976,25 +6010,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f3b33c1-d33a-4e26-b084-e723df4d8a07}</x14:id>
+          <x14:id>{b008d5e7-36a2-40a5-b012-c30e8e0697ab}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="dataBar" priority="108">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{681def06-183c-4239-a1f4-2c8a6cd38510}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="144">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e8f46124-16a2-44e9-b862-b9ebd2f5e35d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6002,23 +6036,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a78fa4b3-a9ff-4991-a634-f9bd1f8cd424}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="106">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa7a3489-75f2-49cd-94c8-dadf0215b5fb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="105">
+          <x14:id>{ccc369c1-3127-4e6a-986a-42d539d9badf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="142">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fa59f169-372e-4817-97a8-78a0ac67178c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6026,11 +6060,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be11fb14-a12c-4ba6-aa57-80ffee943712}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="104">
+          <x14:id>{3a3afc04-1b16-4651-9985-1ec6353be0a6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6038,11 +6072,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{27079545-87b2-441d-a514-653421cc3a4f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="103">
+          <x14:id>{c0e3f206-061a-4c6d-a220-927bf2e41809}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6050,11 +6084,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{81af5672-6c05-4f61-8173-ce50558c2fb2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="102">
+          <x14:id>{839f2a54-69a8-4f8f-8395-5ce212c9799e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6062,11 +6096,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e046029-74e7-4744-84f8-ebc5dfcc950a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="101">
+          <x14:id>{95c7e37d-a201-4709-9838-0df547b1da24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6074,11 +6108,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da8057f6-2e1b-4516-9f57-6a8e7b587184}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="100">
+          <x14:id>{d470b043-81dc-4abb-b44f-3476b4949b20}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6086,11 +6120,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9c8a770-c896-4568-a445-02b7d4b28bf7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="99">
+          <x14:id>{4db88c9d-9f6e-4f1c-a026-dc2aa7cb81f9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6098,11 +6132,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3a94703e-c85a-480d-b5f6-e08171a42cdf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="98">
+          <x14:id>{8043b762-7aa4-4379-87f2-002685ebcb7c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6110,11 +6144,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96cdde23-12bc-469a-af3e-0ac69f3f71e3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="97">
+          <x14:id>{ebb6faff-3972-4900-8f3a-a5095d6546a7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6122,25 +6156,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c57a3ea-1e1c-408f-8b57-121c0f6a583c}</x14:id>
+          <x14:id>{a3bba367-e8e3-4156-879e-93163119e0f7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68">
-    <cfRule type="dataBar" priority="60">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{65a61349-922e-44ef-ac52-a5e187c3ae02}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="I53">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ae087816-5d93-4ff8-ab41-b1dae7aaf0fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6148,23 +6182,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ea3078fe-c998-4146-9974-b56cdd3304f4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8864bc2c-8ccd-44c5-939d-09c2e93ded0f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
+          <x14:id>{bc8f7302-c6cc-4024-9109-04b6915b6e76}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63d7e957-d3bf-445d-b564-2947a131ed6f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6172,11 +6206,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2e0846de-118c-4244-bd4e-ae0d98a56465}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="56">
+          <x14:id>{6b43e84f-0646-41db-815e-be17036f00c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6184,11 +6218,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{467c4d3d-48dd-444d-930f-4107d8e2cb6d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{80e7af5d-5ed7-42b5-95b0-dfd5142d8521}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6196,11 +6230,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c2d434d2-d89c-4287-ba73-6e0377eabd27}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="54">
+          <x14:id>{d321d3b8-2f48-4f3b-8926-d41d3a51f254}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6208,11 +6242,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cd81d0c-4f85-47d3-b72e-f120f427aa23}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
+          <x14:id>{96223dc6-d84e-4f52-bb2c-9a1a2ed8e017}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6220,11 +6254,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3568cf31-2f04-4452-9bef-8a2d4974d676}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
+          <x14:id>{31155550-ffa5-4317-af4f-d0d104d6eaa0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6232,11 +6266,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{07b5bdc2-c900-4fea-a1ad-3d9c04d32821}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
+          <x14:id>{0bfb9de0-2924-406b-97dd-823e548fb826}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6244,11 +6278,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00d991c6-4934-4e5d-a5f8-3535ef04922c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
+          <x14:id>{350d58c2-d8ff-4bc4-99b3-6011efc82427}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6256,11 +6290,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9ad3121-07d2-41f2-97aa-9482e56b029a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="49">
+          <x14:id>{b33814dd-78e9-4c64-a278-d1f30a5638ed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6268,25 +6302,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{efdbc25e-9cba-45f2-8c76-49106783feac}</x14:id>
+          <x14:id>{eb5c2c5e-25c4-48d1-91c3-334f25dc6f3d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I58">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d64a9eb-f3f3-4bde-aa39-b2bd262302ad}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="I59">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3cd0b89d-1b56-4014-8a2e-c083b69f63f3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6294,23 +6328,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c4deb1e-ec7f-43b8-ba79-e3537a0ab1aa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7b1b701f-79f8-4764-b5e0-d01744cab42c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
+          <x14:id>{cf46962d-a029-4371-8c8c-3b2fff79b24d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9751ee0b-d1ad-42ba-887f-7efca9e844fe}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6318,11 +6352,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6fffcc60-2f4d-47ee-9a34-a3a4cd16f3fa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
+          <x14:id>{975eeb4a-1f21-49e4-bfa3-630ffc549c9f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6330,11 +6364,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bd5df05b-3ae0-41cd-8bee-40501d28890e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
+          <x14:id>{9323e07d-0667-4227-91d6-80f52b08b135}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6342,11 +6376,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{648282ad-af03-43e8-aaf1-9a3c1c6e7f98}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
+          <x14:id>{b72ee956-c9c0-48ef-8f74-74cf37aa3cac}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6354,11 +6388,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1fc4c68-ae16-4fa5-98b6-d21b9d90e10f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+          <x14:id>{9bd765aa-7bcc-4a43-8f0a-a46f09e8101e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6366,11 +6400,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ccb83420-f20e-4282-8476-409b249dd059}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
+          <x14:id>{9b3eaf66-4027-4b13-bdbf-fe564ca9c925}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6378,11 +6412,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a9779a5-296f-4e82-9314-99cc24a6e00f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+          <x14:id>{5804b6b1-25c5-4ab7-81a1-f5976836b875}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6390,11 +6424,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2313789-b72d-4f73-ab38-c5a6564a10d7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
+          <x14:id>{99e5706e-a6de-45c4-af0f-934a13e0faf3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6402,11 +6436,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78c8f89e-b0b3-4bee-a5b9-a8af25d04c5a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
+          <x14:id>{e14658c5-e217-4422-bfed-0585e2b486b1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6414,25 +6448,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{afb44de5-5726-4366-8ee7-d66c478f6c58}</x14:id>
+          <x14:id>{0d5edbbf-0eaf-4235-80f3-8538a34b4a6d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:I64">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{10a67ad0-9ebc-4b6a-a153-4b2b9dd12cb2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="I65">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cafbff81-e8ba-4035-87db-be30be1fc3f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6440,23 +6474,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00c6b105-437f-4056-9997-4d767c6c9432}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{990349bf-bf40-486c-9fae-912962147a8e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{7c669d4a-9b54-49ee-8e00-7aa4dea17917}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{173bddea-de6a-4365-b191-e0341719a34e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6464,11 +6498,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1950fb9-dabf-4587-83a0-ff1bf9ddb191}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{bb487764-906d-43e6-961d-0370a6a6a303}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6476,11 +6510,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e91acce9-9118-43ea-912d-fc8f9f507b2d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{0d84faa4-7291-439b-b019-94246369cbe6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6488,11 +6522,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cda10003-b74b-46a5-be9e-89fc16f5353b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{c38a23f1-3a4a-449e-b199-d7c0facef77e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6500,11 +6534,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{476b4f9f-7869-4beb-9c18-bdb2f967869d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{b30c33af-73d0-42fa-804d-7648b0a46d38}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6512,11 +6546,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1fc1a602-73b8-4565-aef1-1db4e4e60280}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{cc51102b-b280-4456-86d2-49a3972cd9ef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6524,11 +6558,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{87567241-4933-4afb-8847-a0cc24731b38}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{00b0c5de-d860-465a-9768-3568ddf48bdc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6536,11 +6570,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5058c60b-7383-4e28-ab84-0ce934032f79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
+          <x14:id>{8b0db459-4c24-42aa-8c37-a68c723bfd6b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6548,11 +6582,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32caa240-1a35-41ce-b047-8fdf2d04049f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
+          <x14:id>{c88fbb3d-4660-4c44-b5d9-4a596e3417ec}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6560,25 +6594,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{007fb8ef-fecb-42bd-a5cd-3e467f1ba566}</x14:id>
+          <x14:id>{d9afd4d4-07e4-4239-bf22-8a9898050f8b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I71">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3a79ecf-20bd-4146-9a95-a19a2091b377}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
+  <conditionalFormatting sqref="I68">
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ceef4ad5-34ed-477c-8584-b748d67df5fa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6586,23 +6620,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e1149162-2bf2-45f7-9c46-738c66756efd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{64d8b927-ef4b-485a-b396-7a13f757f6c4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="33">
+          <x14:id>{9d4e15b9-6d39-40e5-a31d-71ff05ea79c4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5129844d-967c-40f2-905d-0a1eb9a20852}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6610,11 +6644,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{616c3e75-1e62-4202-9986-b1a25fb0f21b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+          <x14:id>{e74141c1-8c39-4f7e-9ef1-c83b56177a41}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6622,11 +6656,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69c00638-739e-4aa7-bb83-f88cb32aa9ae}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
+          <x14:id>{20e11b4b-2e25-4b24-b5e1-7e270854e6ee}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6634,11 +6668,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9298b3f0-5f61-41bc-9d43-796671d1ddbd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
+          <x14:id>{6cef4371-43c9-4394-9da8-e769af346722}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6646,11 +6680,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b8c6725b-4804-4a21-926c-7599aca91a06}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
+          <x14:id>{645f5f4e-7915-49dd-bd77-d73b36466dcc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6658,11 +6692,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b277a3af-e740-44d9-941b-ae26f8313e24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+          <x14:id>{22bbb7c3-c009-49c4-91ba-9b32af5582d1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6670,11 +6704,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24d9aed4-a2d7-4c30-b07c-5cfb4bd00678}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+          <x14:id>{a66889de-eb61-45fb-99f6-1c9943174801}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="87">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6682,11 +6716,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0f296cef-31be-483c-bd7a-eaa31296f3b4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
+          <x14:id>{8d6d837f-5ad1-4d88-8042-1125ef7172cc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6694,11 +6728,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ec025f25-072f-43ce-9d3f-bba0eddacfe9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
+          <x14:id>{e280b6af-5c23-4e07-af67-65f4995db7f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6706,13 +6740,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bdf3796f-8c57-4a63-a12e-a7d30ffbc3b3}</x14:id>
+          <x14:id>{b62b357b-41d2-47f9-a5e2-0b0fe0b41cce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I40:I55 I59:I61 I65:I67 I72:I1048576">
-    <cfRule type="dataBar" priority="205">
+  <conditionalFormatting sqref="I56:I58">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f2dd9125-be9e-40ff-a755-28a86d142fc5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e9d49e68-fede-41a6-bc88-46881d5eb178}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ffd83621-9035-47b3-bccc-7347bc1d7dcf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f0a6a5ab-64bb-494a-88f9-431dcc5cbb6b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1f4b4775-c471-4caa-bc74-228f63617208}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9881d5e2-ed78-4a74-9955-feedcceda07a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f92245a7-656e-40d5-8f3c-e9988012365d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="41">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ded1d06c-bbb2-4d45-8e0e-eca1e05447a0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="40">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9613f635-c510-4805-a3b3-aa2f7f79f1f1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4dbcb74d-1853-4c3e-bb59-ed97b38c929b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2933c620-2669-4528-9c96-6a039f01b08c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6720,11 +6886,133 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cbbdb302-5596-4b3a-a72c-ed6868be21e1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="206">
+          <x14:id>{518bc989-0f35-4568-a9d3-afd94343157b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:I64">
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2a167694-6e89-4f98-8d41-59ba4a5ae01c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07655d02-4de1-4faa-b4df-ef66a0245a2c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bff5c9bd-6469-4604-8e6b-2f9d09fffd0d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b2216593-1e8c-4121-898d-14bddf2ef631}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2a9b7b63-06c7-4549-900b-69b6cbea1ab2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="55">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{946826b1-f16b-4dab-9a5b-a78bee69efe8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{631c619a-3fb5-4b65-a21f-8ff643d8812e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{644d30dc-e20d-442f-9749-aec6d7995da4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a279163b-c579-4584-a49e-4f69229c1822}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29d25611-aea4-459e-838d-b7c55a0ba4e8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6732,133 +7020,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9b435b13-a86d-4ede-a4e3-09a619972891}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="207">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3d81f60-d2fd-4387-9d23-78e3cfe2e217}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="208">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d04b622a-a84f-498f-b28b-9d3f89bcf802}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="209">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{993e04b2-1977-4f06-994f-8c2b2ac94909}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="210">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ee276be3-af1f-4d14-ac98-53574f1da2c9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="211">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85f1cd11-03c2-4dfe-b254-f229f8382e57}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="212">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de6a9a94-4ba2-4c6f-bc11-b8ad6a49bd8e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="213">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d760b640-5d86-4993-81f1-67cbf01e622d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="214">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b6f2d98d-dc9b-4b65-9636-92fc71d26bc5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="215">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1309b12d-2b6d-43be-9cb1-34289d6edcbf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="216">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{16bf9928-925f-425e-9a32-e1b925cb5d6e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26 I34:I35">
-    <cfRule type="dataBar" priority="193">
+          <x14:id>{c3181b0c-2f2c-4f90-a340-d2bec6d332a3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6866,11 +7032,133 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb4748f6-8204-4c94-adba-3e2c93989c24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="194">
+          <x14:id>{4390fc0e-3c8c-4332-86c0-49eb607a2d63}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I71">
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{49bc8095-8061-4f44-8bae-c6778f172a6d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6f14eefb-e6ae-4ab5-83d4-31db7131659d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{241b2393-44d7-4e59-a86a-c1a8a950d50f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f4bb678a-2e9c-4056-a674-1a3c5c0e29c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ec12fb27-7086-495e-90d8-a31ef9f77aa0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{347ba3b4-2b8d-418b-a272-6ab86779ceea}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09a2e16d-db3a-449e-910d-01c3a6993815}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{980250d4-8619-4c0b-9ac1-0e210f06571a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9a5e1739-76af-4dfc-96be-ba96ff01bd24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="63">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{92e9d95e-a4c3-4357-bade-85748361b06f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6878,11 +7166,49 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c68c946e-f3b0-4208-b002-165585bde3f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="195">
+          <x14:id>{5b55bb86-add1-45a7-92cb-4b11d67df3c7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4023e68c-e163-4429-a3d8-59e4e39264d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I40:I52 I54:I55 I60:I61 I66:I67 I72:I1048576">
+    <cfRule type="dataBar" priority="241">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{170383ef-7c91-4279-b27d-7e01d02f6256}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="242">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{279e868f-bc9e-4998-bfcf-6f6bc47c9c8a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6890,11 +7216,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b02b547e-e0fa-448d-b6db-1613d977f0e6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="196">
+          <x14:id>{783cad10-34f2-4c4f-9b5c-99e6fa49d642}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6902,11 +7228,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{506495e6-e3df-4951-a2ff-10d15e9a8bfd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="197">
+          <x14:id>{426311f7-86bd-4d2b-abca-bcbcb4a5002b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="245">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6914,11 +7240,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2482b98-e5fc-46b6-8acc-39afb3a855ba}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="198">
+          <x14:id>{f372aa42-ee52-4e6e-8ecf-a1615da000ff}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6926,11 +7252,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f349bc69-79e2-4420-bf85-050eed68ecbd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="199">
+          <x14:id>{3123843d-684d-49f0-9833-9232681cc3e8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6938,11 +7264,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02f3f085-d388-4b1f-8b68-8cbcd171cd28}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="200">
+          <x14:id>{297ad897-16b5-4978-9c33-19fd06c094ef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6950,11 +7276,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{812ce7b9-fcf7-407a-8a4b-63de1eecc8e2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="201">
+          <x14:id>{5e4a1261-c7fd-49c4-94b4-25f5a0905c52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6962,23 +7288,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2c27681-3dc7-4856-b9f1-d6a9d6659730}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="202">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4428a23-31f4-46e1-9dba-fd123f212ee7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="203">
+          <x14:id>{f4cba75b-a087-4895-a813-e1b90e127062}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="250">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f134bd8d-78c7-4c4f-b8c1-6930c39e9d49}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6986,19 +7312,165 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c3e3408-d030-49a8-bbb0-1285189caa99}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="204">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58035a55-7b34-4660-b949-651577c2027f}</x14:id>
+          <x14:id>{02a7538e-6516-48e7-bd69-7e9b2f2f64f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="252">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9c14b707-d953-434b-ae3e-486215af5aaf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26 I34:I35">
+    <cfRule type="dataBar" priority="229">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{06a951ea-5af0-4492-a799-dea6262122d1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="230">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6d0fb789-cb07-41d1-a1c9-5a63d42d104a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="231">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2a055ab0-70eb-448d-8bef-90c52dc06cda}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="232">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ec241a1c-7a39-48be-8269-24d714025c66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="233">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{93877364-f0b0-4108-a7c7-120e827f67dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="234">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a1cecd02-308d-488b-98ad-eef976857751}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="235">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{aee25ad0-5f40-4c87-9295-d945bb769ade}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="236">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e8b4d3f9-3a0a-46f1-b3ad-df0cc5052d58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="237">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7c56ec75-184a-4c84-b2cd-e97e6fba0b6c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="238">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0d58ed1f-597f-4244-b284-c491aa2a6765}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="239">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d118dd60-987e-4e4b-8bd3-43576cec5af7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="240">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2543d450-d43c-4086-a782-c1c683c65094}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7010,7 +7482,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dc06319c-abe6-4e91-9c67-006ae940b3b6}">
+          <x14:cfRule type="dataBar" id="{85d922bb-ba44-4ced-b400-9fbca79a012d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7020,7 +7492,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6314c903-cac7-42a3-a381-d22c10600923}">
+          <x14:cfRule type="dataBar" id="{e7ee1295-a2da-4f52-9e55-ca3beb3bd194}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7028,7 +7500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1bc03e89-587b-476e-9466-547a7757ed60}">
+          <x14:cfRule type="dataBar" id="{bc02fafa-c5c4-4205-9837-ea944afb264f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7038,7 +7510,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2f075caf-1b26-4dd5-b0ec-816eeee5c38f}">
+          <x14:cfRule type="dataBar" id="{f241688e-4a6e-4e15-86cd-bafad1d18d2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7048,7 +7520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{687e2a47-f2fc-4b64-b691-2e7354d0be20}">
+          <x14:cfRule type="dataBar" id="{b0226824-41c4-42dc-9a31-a481b12e5bd4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7060,7 +7532,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7bb30879-84dc-4222-9570-f81e271554b4}">
+          <x14:cfRule type="dataBar" id="{3d08c87b-6ca8-4c34-9ee6-b1d17c335098}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7068,7 +7540,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9d732ef5-c5d9-4363-8f01-4264a8e8d0ef}">
+          <x14:cfRule type="dataBar" id="{dfef4fe4-4148-4fa4-84dc-1ce932a06a50}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7080,7 +7552,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ce724a29-19bb-443d-a15d-0f126de8ab06}">
+          <x14:cfRule type="dataBar" id="{dc55ad67-fa8d-4048-838e-0a30020b0711}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7088,7 +7560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{88fea2d4-1716-4302-beeb-ba45de3ffd02}">
+          <x14:cfRule type="dataBar" id="{140c0b02-401f-4d61-8b31-19cdf58a1ec2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7100,7 +7572,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cd6deae7-0eca-4828-9816-9d1e7c21ad60}">
+          <x14:cfRule type="dataBar" id="{62927f1b-0ca3-449d-a60e-6262e4104c04}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7108,7 +7580,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0acb5d17-ca1d-464e-9f91-3e5e72d7f3f0}">
+          <x14:cfRule type="dataBar" id="{4c976cf1-1705-46fa-98c4-1ed7f9841a23}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7120,7 +7592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a2e88288-3e4b-44ff-b6a6-0632d16b8d52}">
+          <x14:cfRule type="dataBar" id="{230da66e-461d-4965-829b-ae8ab3080089}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7135,7 +7607,7 @@
           <xm:sqref>I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c8d5144a-dab7-4313-a41d-c9df249dcf27}">
+          <x14:cfRule type="dataBar" id="{c70fef29-c9cd-426a-a6db-1f26d14627f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7145,7 +7617,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4abce8eb-e034-4ebb-9a8e-e4a93c108bc4}">
+          <x14:cfRule type="dataBar" id="{de0dd6da-fcb1-4dbc-91a2-96aaa3e1f9e5}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7153,7 +7625,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2de6fcde-5548-419b-ad14-1b77d33247fd}">
+          <x14:cfRule type="dataBar" id="{8cdeced3-0e24-4666-bda1-45090c8bff83}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7163,7 +7635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fd5c0437-efb5-4dc9-8a49-6fd6286dae44}">
+          <x14:cfRule type="dataBar" id="{2f05c261-49c7-4159-9730-39cca4797f8e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7173,7 +7645,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c16d7471-f1f8-4d9d-a0c3-0a5025ac3384}">
+          <x14:cfRule type="dataBar" id="{9a4d3bae-1ad0-48d3-92b2-401a5bf7e624}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7185,7 +7657,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{06a2bcc6-f3a0-4489-a978-83bb1f58a9f4}">
+          <x14:cfRule type="dataBar" id="{0066e52a-43b2-4f9c-9a68-98b54de95351}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7193,7 +7665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f74b1975-a5a8-4e80-a93a-f8083c40b1c9}">
+          <x14:cfRule type="dataBar" id="{3c336875-9ab6-45d9-adc2-78be66d68f43}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7205,7 +7677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3e069ba9-bba4-4b30-99c8-7a050b2cfc1b}">
+          <x14:cfRule type="dataBar" id="{863d86cd-8164-4afc-b006-9700def2fcaa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7213,7 +7685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dc4b8f77-bb1d-4144-8f05-813993160cd9}">
+          <x14:cfRule type="dataBar" id="{c7465526-281c-4c6b-a6ff-81587a02626d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7225,7 +7697,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{699dba08-4ef1-437c-975a-24f2bcaca3c9}">
+          <x14:cfRule type="dataBar" id="{9d44e4d5-b324-41e5-aaff-5e7dcdbf0593}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7233,7 +7705,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bf358dfc-f3b2-4839-a7cc-71400be2d6c1}">
+          <x14:cfRule type="dataBar" id="{7f48ff00-9310-433c-b030-83e3b6b9c6c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7245,7 +7717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{05314fde-869a-4098-8cb3-169d90754e99}">
+          <x14:cfRule type="dataBar" id="{712fd5e4-558f-45dc-bca5-283b7597c217}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7260,7 +7732,7 @@
           <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b6f1f1a1-9c9a-47db-abbb-46b7d5a77647}">
+          <x14:cfRule type="dataBar" id="{aabc285a-7a15-4151-a185-e60ad9a551d7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7270,7 +7742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e044c38f-c608-4f88-9754-9d2b2e166570}">
+          <x14:cfRule type="dataBar" id="{dd8517b5-ed93-415d-aea5-d3d59e393354}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7278,7 +7750,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{71d580f5-2e7d-4a88-a261-056a5f19c242}">
+          <x14:cfRule type="dataBar" id="{368a46cf-8a48-4180-918e-a367c708df21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7288,7 +7760,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fb64639d-58f7-4cae-abcf-b77a62324da7}">
+          <x14:cfRule type="dataBar" id="{0e69344e-5918-48ca-826e-2ec1630f7b28}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7298,7 +7770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ac848ceb-0338-4ed8-90a2-282ecdf662ce}">
+          <x14:cfRule type="dataBar" id="{300519bf-8bbb-4125-b10f-16fdc46c4454}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7310,7 +7782,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9e5af884-8708-4ba4-98d9-498a82fd0a4f}">
+          <x14:cfRule type="dataBar" id="{f2193b68-933f-446d-ba02-0ba8901b869d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7318,7 +7790,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{15b2a535-ae98-457e-8305-ee28a1a5b247}">
+          <x14:cfRule type="dataBar" id="{2489bd9b-6ea6-4ae0-9b82-f6cb8ae58ba1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7330,7 +7802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6f391ec8-2f2e-4b3e-a818-725f47817d6d}">
+          <x14:cfRule type="dataBar" id="{f17b9b8e-7535-4ae6-b237-f928c2574f75}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7338,7 +7810,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6e97584d-71f0-4811-8ae0-04804708a655}">
+          <x14:cfRule type="dataBar" id="{c825b3e6-ff86-46ae-b0ff-9182ec5c129f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7350,7 +7822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e6ef4419-5c5b-4368-bba0-80a88d398b66}">
+          <x14:cfRule type="dataBar" id="{68682ce1-a109-43f8-8a29-6f38557dfc5f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7358,7 +7830,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dd3460bb-c617-4851-a5dd-13da04039834}">
+          <x14:cfRule type="dataBar" id="{4dd1820d-5cab-427e-85f6-a0bde5ad54d6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7370,7 +7842,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{908af32b-0706-440e-9c0a-349e9b6b5e60}">
+          <x14:cfRule type="dataBar" id="{af31f93c-dd5e-437f-9519-24a47c706e53}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7385,7 +7857,7 @@
           <xm:sqref>I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b594430b-1e87-4331-ac24-213991fc99c2}">
+          <x14:cfRule type="dataBar" id="{2532fbc9-7431-4e2e-b873-abf6110b616b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7395,7 +7867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e45b9cde-1857-4323-a4ab-671d25f0b9bb}">
+          <x14:cfRule type="dataBar" id="{a74f51ca-af17-4649-88d0-b6403f765a17}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7403,7 +7875,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c568b2d4-12fe-4d55-acdb-f895be921eca}">
+          <x14:cfRule type="dataBar" id="{4eb758f8-2fb8-4f83-8bed-dda6fc5159df}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7413,7 +7885,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{686e4b3d-79ec-4407-8566-9aef24ac57fd}">
+          <x14:cfRule type="dataBar" id="{4e29b0c1-ca8d-47e3-aa8c-3043232ed7dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7423,7 +7895,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7fb65915-46fd-4466-aeed-e9dc1a8abe2a}">
+          <x14:cfRule type="dataBar" id="{b5a56cef-f82f-4162-8f9b-30e5da57b4f0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7435,7 +7907,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cba2a959-27e2-43b7-aee6-32453bb3ec8b}">
+          <x14:cfRule type="dataBar" id="{862eac7f-8ddd-46dd-9267-feaad94689e6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7443,7 +7915,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{de2c41a9-4295-4d51-896f-307229d32650}">
+          <x14:cfRule type="dataBar" id="{d914035a-5cd8-4474-b373-570c9c7d2313}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7455,7 +7927,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{28457014-f18f-4c37-a7f3-8fcd60705606}">
+          <x14:cfRule type="dataBar" id="{244cb6b1-2b97-4436-b22a-2bea41ae48bf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7463,7 +7935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{06d6f48d-6475-42ba-be48-e061a7d59414}">
+          <x14:cfRule type="dataBar" id="{0486cbbe-e9ac-48d1-bdb2-67d1d89e74f4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7475,7 +7947,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{51c17455-5b9b-4387-a530-4de23e1fa82d}">
+          <x14:cfRule type="dataBar" id="{4c5dd4e2-a93b-4f75-a003-b89fad732d3b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7483,7 +7955,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{70ce2721-5e46-4e7a-944f-4c0ac8d469ad}">
+          <x14:cfRule type="dataBar" id="{d2c3e680-e1f7-446a-90de-5d91a3034230}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7495,7 +7967,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{32a586bb-6ac9-4266-8064-cc477f571d65}">
+          <x14:cfRule type="dataBar" id="{6091cb27-c3ee-444a-b5d8-f976d79650e0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7510,7 +7982,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0d47ffb0-b656-4d86-85c3-b385deeff5ad}">
+          <x14:cfRule type="dataBar" id="{e3fcc81a-a6f9-44f9-9f3f-919166f7e476}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7520,7 +7992,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a4448331-8afa-4e20-987f-fa7301bfbba4}">
+          <x14:cfRule type="dataBar" id="{3ccf75f0-6448-47ca-b28c-0c3a0270b741}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7528,7 +8000,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d8f4a59d-61ad-4e46-98df-53dee9a4d67e}">
+          <x14:cfRule type="dataBar" id="{1f4430e0-dada-4f13-861d-dc9ce0dfa601}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7538,7 +8010,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f4950ab9-2b5e-41f9-9d37-a52177e7d251}">
+          <x14:cfRule type="dataBar" id="{0a54f7d9-cae7-4410-a3c6-a395773b5710}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7548,7 +8020,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ccca399c-b1a3-48d6-b4d6-eded63e0dc28}">
+          <x14:cfRule type="dataBar" id="{6cacdbd4-c7cd-4c2f-8693-0fff06ab8fee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7560,7 +8032,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fd917a9c-f3d2-4743-a74c-a3bf48d03f5a}">
+          <x14:cfRule type="dataBar" id="{c625d1e5-20b2-414f-be0d-0fc97fefbae3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7568,7 +8040,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{668e4f7b-f3a7-43d6-8b8f-8ef568421b99}">
+          <x14:cfRule type="dataBar" id="{e2fe362d-ee06-463e-88c3-34054acef849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7580,7 +8052,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fc87a12f-446c-4807-8a34-29971804f957}">
+          <x14:cfRule type="dataBar" id="{01ef6921-e9a2-42f7-9d0f-ab639be5c78b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7588,7 +8060,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e4e70164-4ecc-46d7-8097-4bc091212c63}">
+          <x14:cfRule type="dataBar" id="{e52331c3-5aeb-4a58-bcaf-f34eb7eae528}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7600,7 +8072,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{338f9986-f5bd-43cc-bddb-8bdff532f46e}">
+          <x14:cfRule type="dataBar" id="{ef556984-f60c-49d5-b48a-c3459700e95f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7608,7 +8080,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cb695c21-9a68-4ac2-97da-1138f1f535dd}">
+          <x14:cfRule type="dataBar" id="{001eb2f4-d6b6-4434-b16d-24c3b2383bd0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7620,7 +8092,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e4fe1092-eb79-47b8-a88e-c037c7931bcf}">
+          <x14:cfRule type="dataBar" id="{0dd1184b-d62e-4af1-b517-b523a19bd0c7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7635,7 +8107,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4126fd2d-1b22-4098-8b73-ea7ff4511667}">
+          <x14:cfRule type="dataBar" id="{43ba5d08-e731-4c1c-baf2-3bb540c1b9fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7645,7 +8117,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{244684f6-fc83-40d9-96f3-76dcd075474f}">
+          <x14:cfRule type="dataBar" id="{02d3e58a-64d3-4695-9f2b-c1abe2b92b2a}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7653,7 +8125,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0e4de1e2-6e1c-4744-a297-e0c69593aa5c}">
+          <x14:cfRule type="dataBar" id="{248754ea-3b3d-4153-8379-a7615a8ea8f2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7663,7 +8135,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a56625f9-35ef-43e1-8fb5-c92597fbce24}">
+          <x14:cfRule type="dataBar" id="{1f6b868d-0c78-456b-923d-a904cfe461a9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7673,7 +8145,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{46deb763-ec28-4b1e-85eb-a802cbd5de7c}">
+          <x14:cfRule type="dataBar" id="{0d70bcda-9e91-40c6-9ea6-b380d920ba86}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7685,7 +8157,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{db2b3ed1-6917-4e9a-a332-d10346909d32}">
+          <x14:cfRule type="dataBar" id="{655ce4b6-833c-45f0-861e-005865eb4a03}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7693,7 +8165,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{eff80fdd-743e-4b8c-8c86-9a98fe143ae4}">
+          <x14:cfRule type="dataBar" id="{7d0cae4f-9e44-4d11-8b82-1d2dd488c2f5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7705,7 +8177,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5b330c7e-b467-4c84-abc7-a79ab5497a1f}">
+          <x14:cfRule type="dataBar" id="{9060f23d-07bc-4865-9a75-bfc97f8bc952}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7713,7 +8185,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e069475a-f2a3-4b85-95f0-e97c460904c8}">
+          <x14:cfRule type="dataBar" id="{3d78d95d-a7be-4c54-acf2-d23de3df9911}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7725,7 +8197,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{12d3ffad-7c39-4479-a32e-644d0be7573b}">
+          <x14:cfRule type="dataBar" id="{32e1f5a5-2653-4736-80a4-3fc38e9a0335}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7733,7 +8205,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8bbd8230-abd8-4f05-a0e0-23780bfbe024}">
+          <x14:cfRule type="dataBar" id="{aff2b965-bce9-48bf-b13a-e22f595bdebe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7745,7 +8217,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3b70208c-fac9-4637-98fa-070fa29304a9}">
+          <x14:cfRule type="dataBar" id="{6c799cef-3add-43da-b1f9-c3f9ea0e8f3d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7760,7 +8232,7 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dda4c192-9297-4b46-a2c2-024868c42e57}">
+          <x14:cfRule type="dataBar" id="{15698ea0-a46c-409c-b111-dfc11e1fae08}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7770,7 +8242,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a09ba0e2-c8bb-49d4-a86b-9e00bbbc571e}">
+          <x14:cfRule type="dataBar" id="{1fc4c370-496e-48e4-a186-fa594b9a145d}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7778,7 +8250,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1860d3bb-14bc-41ca-9e2c-8c62e92feb57}">
+          <x14:cfRule type="dataBar" id="{319eac63-c5df-489c-adf6-8c75a2b122c8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7788,7 +8260,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3d846d00-9d54-4eeb-b6d6-efe525d2c241}">
+          <x14:cfRule type="dataBar" id="{0ee7f169-25d9-41b9-b0a9-5758ee4dac2b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7798,7 +8270,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f7b0850b-8364-46f1-a03e-5d3ae414de77}">
+          <x14:cfRule type="dataBar" id="{944b89d0-3706-43f0-8e24-d67267cff15c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7810,7 +8282,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bc002dca-67ca-44d6-94ab-90aadc14411e}">
+          <x14:cfRule type="dataBar" id="{89e8d11b-dc8f-4619-b949-262e70e4baaf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7818,7 +8290,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c7e3c389-248e-46c6-b4bf-3f813ebd9a23}">
+          <x14:cfRule type="dataBar" id="{266efdaa-8b3a-4093-a02f-335f496a5b22}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7830,7 +8302,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8b4a5cff-420d-4b07-b867-583103e7db50}">
+          <x14:cfRule type="dataBar" id="{2d552c08-be36-4684-9192-124a90f79707}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7838,7 +8310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ff5627fb-3b60-4683-8ab8-e257b9ba4db8}">
+          <x14:cfRule type="dataBar" id="{d5346d13-bb17-4dee-99b9-4ddf683c017e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7850,7 +8322,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f2d373c2-3375-4618-a908-d16e5b08ce33}">
+          <x14:cfRule type="dataBar" id="{263ac08f-188c-438c-8ce0-15f58e454480}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7858,7 +8330,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{99c27fb9-5edc-4f34-88ce-d68f78c64d9f}">
+          <x14:cfRule type="dataBar" id="{fea44444-45b8-497d-806b-24235c624d42}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7870,7 +8342,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{97ff73b0-df2b-4f4a-b9c2-74de7bb3db75}">
+          <x14:cfRule type="dataBar" id="{1e149fff-9008-41e0-a165-6b914eba8f8d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7885,7 +8357,7 @@
           <xm:sqref>I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c5e917b6-6632-4555-8d79-6af343eafa1d}">
+          <x14:cfRule type="dataBar" id="{2bb93038-a42f-4e43-980f-45b82e30cd00}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7895,7 +8367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8f7698ff-4c7e-49d5-8aca-e7ebb08cbdcb}">
+          <x14:cfRule type="dataBar" id="{5da14dd6-26a7-448a-b324-e374e9309f79}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7903,7 +8375,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{84dc218f-7983-4e27-8996-0a4851ac1003}">
+          <x14:cfRule type="dataBar" id="{c1a4280f-ebdf-40ee-87c2-3c71fb869eca}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7913,7 +8385,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{787a50ae-34ec-4e10-8e72-ef4134da6ea7}">
+          <x14:cfRule type="dataBar" id="{6b69d8de-3e17-4fa9-ae18-d46ac4154498}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7923,7 +8395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{28a9b258-ef2e-4840-a203-3ba6d563cf35}">
+          <x14:cfRule type="dataBar" id="{16286e51-4aaa-48e8-8f0f-5f1692df3322}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7935,7 +8407,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cd5822c1-6724-4525-80b6-3a0de248e1c3}">
+          <x14:cfRule type="dataBar" id="{da59772a-b477-45f3-b1b8-67c36072ae80}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7943,7 +8415,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9e3f271f-e229-4524-bf86-d03935a2fe0f}">
+          <x14:cfRule type="dataBar" id="{33f6b120-b5e2-409f-b6d9-fec08a0a9ceb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7955,7 +8427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9052de8b-a760-4b1f-b790-6c72feb86c92}">
+          <x14:cfRule type="dataBar" id="{f8785ef3-5fae-4b05-bc72-e6ccd0ac1e60}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7963,7 +8435,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0a33261e-dfd3-4faa-8c77-a4d4f091f2fe}">
+          <x14:cfRule type="dataBar" id="{f5f0a5f5-11e8-411b-a3d5-0d2eac21f325}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7975,7 +8447,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3770736d-0f3b-47d5-88c6-35854b868fe7}">
+          <x14:cfRule type="dataBar" id="{5f65a7dc-90cc-4529-a8cf-052eebb841bb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7983,7 +8455,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f2a2c59a-baf1-4c71-8ddd-eb97913da1f9}">
+          <x14:cfRule type="dataBar" id="{4f9bf056-ac96-4fa8-bdc2-42361da97eb6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7995,7 +8467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6f1b88fa-404e-44c5-aa88-15edc67d2ea6}">
+          <x14:cfRule type="dataBar" id="{c3123ebe-554a-4271-b82d-a82d33aaeaba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8010,7 +8482,7 @@
           <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2887adab-5a73-4062-b764-6c3042a9e75d}">
+          <x14:cfRule type="dataBar" id="{8405967a-2f56-4be9-b763-264c57e9623e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8020,7 +8492,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7cabe039-ed90-4254-8910-384107335bc4}">
+          <x14:cfRule type="dataBar" id="{62fedec1-d3ab-4f0e-9f8e-630cc281753f}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8028,7 +8500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{18305b64-71df-4457-af93-e6fddb953666}">
+          <x14:cfRule type="dataBar" id="{bf95e753-82be-443e-aca0-73e15978a0c3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8038,7 +8510,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c93479ce-936d-4289-ab4b-569583d65c36}">
+          <x14:cfRule type="dataBar" id="{6b15c934-3463-40d9-91d2-e2583cd7d0e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8048,7 +8520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2298282b-f292-4977-8e32-d469cc962f90}">
+          <x14:cfRule type="dataBar" id="{f626ef3f-ed9b-446a-b2cc-419b876051dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8060,7 +8532,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7246dfab-d342-4bb0-b394-c0950df1f89f}">
+          <x14:cfRule type="dataBar" id="{a4575f6e-6bb9-4202-b026-0e3d98a1a911}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8068,7 +8540,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fb92035a-e175-4017-b287-88b17778b687}">
+          <x14:cfRule type="dataBar" id="{c5866b7d-cb1a-46b8-ad3b-80e41b97df58}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8080,7 +8552,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{76eec916-3dfb-4a06-94b2-7635d3aef81f}">
+          <x14:cfRule type="dataBar" id="{2cbf3c17-6211-4869-80e0-eed86ab37090}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8088,7 +8560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cac3e7dd-80b1-48b1-85f4-713280c6e989}">
+          <x14:cfRule type="dataBar" id="{5bce4107-780a-4356-9f7b-f0326364bd4f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8100,7 +8572,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a07bb891-88f8-4295-ae7d-384248aa200f}">
+          <x14:cfRule type="dataBar" id="{e743fae4-f830-4bd9-a04b-65a0ed546415}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8108,7 +8580,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{05482d38-b90f-4722-986c-82d2d61f803b}">
+          <x14:cfRule type="dataBar" id="{ff18ba25-d2eb-45fd-be26-9c734fa79e85}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8120,7 +8592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9dcffe05-b091-4e69-bc13-b3068a1f0a60}">
+          <x14:cfRule type="dataBar" id="{0c98e2b6-cc43-413d-ae0d-05fafb7b1161}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8135,7 +8607,7 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21cddd8b-ae23-47d1-9716-361bf3ac720d}">
+          <x14:cfRule type="dataBar" id="{39335d64-8d1e-4579-9170-25ef8006c5b4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8145,7 +8617,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{44383865-8e3a-4ca9-a2f5-6c6380288d17}">
+          <x14:cfRule type="dataBar" id="{84508b26-14ea-45b0-b9e2-4610d50cc268}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8153,7 +8625,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{08c29236-230e-4ebf-b989-dc21401682ba}">
+          <x14:cfRule type="dataBar" id="{8245eea5-e218-4a37-9dd2-d33a6dd1f53f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8163,7 +8635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3a73d935-0567-4502-87b0-4e1b11d2c340}">
+          <x14:cfRule type="dataBar" id="{5c5dd024-6395-4cf1-ba17-25e529d349d1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8173,7 +8645,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8c34b740-ad87-4212-bc4f-5dc07631de55}">
+          <x14:cfRule type="dataBar" id="{06fb077e-a058-4c6f-b9a5-e0e8bd2305c6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8185,7 +8657,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{be67497c-e640-477a-80b6-63fc814bd750}">
+          <x14:cfRule type="dataBar" id="{ebeed136-74d0-4ed1-b89f-0c6abfc5f21d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8193,7 +8665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d5ae332f-0611-41aa-94c0-b3fdc4293a78}">
+          <x14:cfRule type="dataBar" id="{05687a20-77d5-4ed7-bd74-4fed6cba1ace}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8205,7 +8677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5060423c-8552-4fa8-9bb5-7821b99a6929}">
+          <x14:cfRule type="dataBar" id="{39f8eb67-9bc3-4425-9cd7-151faad51ed8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8213,7 +8685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fa9d7517-f34e-4745-8644-24d8da6a4a9e}">
+          <x14:cfRule type="dataBar" id="{5ca4d8b7-42ef-4c7f-9766-0838ab7cf646}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8225,7 +8697,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2c582ab1-dffe-4215-a356-b66acb749bf9}">
+          <x14:cfRule type="dataBar" id="{eb41b4cf-3218-491b-8332-9d5a8fb623a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8233,7 +8705,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e0abef5c-0a90-4f6c-aee9-66ba4af3de4e}">
+          <x14:cfRule type="dataBar" id="{9659700a-8de5-484e-aeb9-8b566fa0f07b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8245,7 +8717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7f3b33c1-d33a-4e26-b084-e723df4d8a07}">
+          <x14:cfRule type="dataBar" id="{b008d5e7-36a2-40a5-b012-c30e8e0697ab}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8260,7 +8732,7 @@
           <xm:sqref>I38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{681def06-183c-4239-a1f4-2c8a6cd38510}">
+          <x14:cfRule type="dataBar" id="{e8f46124-16a2-44e9-b862-b9ebd2f5e35d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8270,7 +8742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a78fa4b3-a9ff-4991-a634-f9bd1f8cd424}">
+          <x14:cfRule type="dataBar" id="{ccc369c1-3127-4e6a-986a-42d539d9badf}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8278,7 +8750,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fa7a3489-75f2-49cd-94c8-dadf0215b5fb}">
+          <x14:cfRule type="dataBar" id="{fa59f169-372e-4817-97a8-78a0ac67178c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8288,7 +8760,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{be11fb14-a12c-4ba6-aa57-80ffee943712}">
+          <x14:cfRule type="dataBar" id="{3a3afc04-1b16-4651-9985-1ec6353be0a6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8298,7 +8770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{27079545-87b2-441d-a514-653421cc3a4f}">
+          <x14:cfRule type="dataBar" id="{c0e3f206-061a-4c6d-a220-927bf2e41809}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8310,7 +8782,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{81af5672-6c05-4f61-8173-ce50558c2fb2}">
+          <x14:cfRule type="dataBar" id="{839f2a54-69a8-4f8f-8395-5ce212c9799e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8318,7 +8790,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4e046029-74e7-4744-84f8-ebc5dfcc950a}">
+          <x14:cfRule type="dataBar" id="{95c7e37d-a201-4709-9838-0df547b1da24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8330,7 +8802,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{da8057f6-2e1b-4516-9f57-6a8e7b587184}">
+          <x14:cfRule type="dataBar" id="{d470b043-81dc-4abb-b44f-3476b4949b20}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8338,7 +8810,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a9c8a770-c896-4568-a445-02b7d4b28bf7}">
+          <x14:cfRule type="dataBar" id="{4db88c9d-9f6e-4f1c-a026-dc2aa7cb81f9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8350,7 +8822,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3a94703e-c85a-480d-b5f6-e08171a42cdf}">
+          <x14:cfRule type="dataBar" id="{8043b762-7aa4-4379-87f2-002685ebcb7c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8358,7 +8830,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{96cdde23-12bc-469a-af3e-0ac69f3f71e3}">
+          <x14:cfRule type="dataBar" id="{ebb6faff-3972-4900-8f3a-a5095d6546a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8370,7 +8842,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3c57a3ea-1e1c-408f-8b57-121c0f6a583c}">
+          <x14:cfRule type="dataBar" id="{a3bba367-e8e3-4156-879e-93163119e0f7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8385,7 +8857,7 @@
           <xm:sqref>I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{65a61349-922e-44ef-ac52-a5e187c3ae02}">
+          <x14:cfRule type="dataBar" id="{ae087816-5d93-4ff8-ab41-b1dae7aaf0fe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8395,7 +8867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ea3078fe-c998-4146-9974-b56cdd3304f4}">
+          <x14:cfRule type="dataBar" id="{bc8f7302-c6cc-4024-9109-04b6915b6e76}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8403,7 +8875,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8864bc2c-8ccd-44c5-939d-09c2e93ded0f}">
+          <x14:cfRule type="dataBar" id="{63d7e957-d3bf-445d-b564-2947a131ed6f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8413,7 +8885,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2e0846de-118c-4244-bd4e-ae0d98a56465}">
+          <x14:cfRule type="dataBar" id="{6b43e84f-0646-41db-815e-be17036f00c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8423,7 +8895,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{467c4d3d-48dd-444d-930f-4107d8e2cb6d}">
+          <x14:cfRule type="dataBar" id="{80e7af5d-5ed7-42b5-95b0-dfd5142d8521}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8435,7 +8907,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c2d434d2-d89c-4287-ba73-6e0377eabd27}">
+          <x14:cfRule type="dataBar" id="{d321d3b8-2f48-4f3b-8926-d41d3a51f254}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8443,7 +8915,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8cd81d0c-4f85-47d3-b72e-f120f427aa23}">
+          <x14:cfRule type="dataBar" id="{96223dc6-d84e-4f52-bb2c-9a1a2ed8e017}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8455,7 +8927,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3568cf31-2f04-4452-9bef-8a2d4974d676}">
+          <x14:cfRule type="dataBar" id="{31155550-ffa5-4317-af4f-d0d104d6eaa0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8463,7 +8935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{07b5bdc2-c900-4fea-a1ad-3d9c04d32821}">
+          <x14:cfRule type="dataBar" id="{0bfb9de0-2924-406b-97dd-823e548fb826}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8475,7 +8947,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{00d991c6-4934-4e5d-a5f8-3535ef04922c}">
+          <x14:cfRule type="dataBar" id="{350d58c2-d8ff-4bc4-99b3-6011efc82427}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8483,7 +8955,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a9ad3121-07d2-41f2-97aa-9482e56b029a}">
+          <x14:cfRule type="dataBar" id="{b33814dd-78e9-4c64-a278-d1f30a5638ed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8495,7 +8967,382 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{efdbc25e-9cba-45f2-8c76-49106783feac}">
+          <x14:cfRule type="dataBar" id="{eb5c2c5e-25c4-48d1-91c3-334f25dc6f3d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3cd0b89d-1b56-4014-8a2e-c083b69f63f3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{cf46962d-a029-4371-8c8c-3b2fff79b24d}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9751ee0b-d1ad-42ba-887f-7efca9e844fe}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{975eeb4a-1f21-49e4-bfa3-630ffc549c9f}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9323e07d-0667-4227-91d6-80f52b08b135}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b72ee956-c9c0-48ef-8f74-74cf37aa3cac}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9bd765aa-7bcc-4a43-8f0a-a46f09e8101e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9b3eaf66-4027-4b13-bdbf-fe564ca9c925}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5804b6b1-25c5-4ab7-81a1-f5976836b875}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{99e5706e-a6de-45c4-af0f-934a13e0faf3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e14658c5-e217-4422-bfed-0585e2b486b1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0d5edbbf-0eaf-4235-80f3-8538a34b4a6d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{cafbff81-e8ba-4035-87db-be30be1fc3f8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7c669d4a-9b54-49ee-8e00-7aa4dea17917}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{173bddea-de6a-4365-b191-e0341719a34e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{bb487764-906d-43e6-961d-0370a6a6a303}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{0d84faa4-7291-439b-b019-94246369cbe6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c38a23f1-3a4a-449e-b199-d7c0facef77e}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b30c33af-73d0-42fa-804d-7648b0a46d38}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{cc51102b-b280-4456-86d2-49a3972cd9ef}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{00b0c5de-d860-465a-9768-3568ddf48bdc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8b0db459-4c24-42aa-8c37-a68c723bfd6b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{c88fbb3d-4660-4c44-b5d9-4a596e3417ec}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d9afd4d4-07e4-4239-bf22-8a9898050f8b}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I65</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ceef4ad5-34ed-477c-8584-b748d67df5fa}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{9d4e15b9-6d39-40e5-a31d-71ff05ea79c4}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5129844d-967c-40f2-905d-0a1eb9a20852}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e74141c1-8c39-4f7e-9ef1-c83b56177a41}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{20e11b4b-2e25-4b24-b5e1-7e270854e6ee}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{6cef4371-43c9-4394-9da8-e769af346722}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{645f5f4e-7915-49dd-bd77-d73b36466dcc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{22bbb7c3-c009-49c4-91ba-9b32af5582d1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a66889de-eb61-45fb-99f6-1c9943174801}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8d6d837f-5ad1-4d88-8042-1125ef7172cc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{e280b6af-5c23-4e07-af67-65f4995db7f8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b62b357b-41d2-47f9-a5e2-0b0fe0b41cce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8510,7 +9357,7 @@
           <xm:sqref>I68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8d64a9eb-f3f3-4bde-aa39-b2bd262302ad}">
+          <x14:cfRule type="dataBar" id="{f2dd9125-be9e-40ff-a755-28a86d142fc5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8520,7 +9367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6c4deb1e-ec7f-43b8-ba79-e3537a0ab1aa}">
+          <x14:cfRule type="dataBar" id="{e9d49e68-fede-41a6-bc88-46881d5eb178}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8528,7 +9375,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7b1b701f-79f8-4764-b5e0-d01744cab42c}">
+          <x14:cfRule type="dataBar" id="{ffd83621-9035-47b3-bccc-7347bc1d7dcf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8538,7 +9385,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6fffcc60-2f4d-47ee-9a34-a3a4cd16f3fa}">
+          <x14:cfRule type="dataBar" id="{f0a6a5ab-64bb-494a-88f9-431dcc5cbb6b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8548,7 +9395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bd5df05b-3ae0-41cd-8bee-40501d28890e}">
+          <x14:cfRule type="dataBar" id="{1f4b4775-c471-4caa-bc74-228f63617208}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8560,7 +9407,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{648282ad-af03-43e8-aaf1-9a3c1c6e7f98}">
+          <x14:cfRule type="dataBar" id="{9881d5e2-ed78-4a74-9955-feedcceda07a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8568,7 +9415,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a1fc4c68-ae16-4fa5-98b6-d21b9d90e10f}">
+          <x14:cfRule type="dataBar" id="{f92245a7-656e-40d5-8f3c-e9988012365d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8580,7 +9427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ccb83420-f20e-4282-8476-409b249dd059}">
+          <x14:cfRule type="dataBar" id="{ded1d06c-bbb2-4d45-8e0e-eca1e05447a0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8588,7 +9435,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8a9779a5-296f-4e82-9314-99cc24a6e00f}">
+          <x14:cfRule type="dataBar" id="{9613f635-c510-4805-a3b3-aa2f7f79f1f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8600,7 +9447,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d2313789-b72d-4f73-ab38-c5a6564a10d7}">
+          <x14:cfRule type="dataBar" id="{4dbcb74d-1853-4c3e-bb59-ed97b38c929b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8608,7 +9455,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{78c8f89e-b0b3-4bee-a5b9-a8af25d04c5a}">
+          <x14:cfRule type="dataBar" id="{2933c620-2669-4528-9c96-6a039f01b08c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8620,7 +9467,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{afb44de5-5726-4366-8ee7-d66c478f6c58}">
+          <x14:cfRule type="dataBar" id="{518bc989-0f35-4568-a9d3-afd94343157b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8635,7 +9482,7 @@
           <xm:sqref>I56:I58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{10a67ad0-9ebc-4b6a-a153-4b2b9dd12cb2}">
+          <x14:cfRule type="dataBar" id="{2a167694-6e89-4f98-8d41-59ba4a5ae01c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8645,7 +9492,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{00c6b105-437f-4056-9997-4d767c6c9432}">
+          <x14:cfRule type="dataBar" id="{07655d02-4de1-4faa-b4df-ef66a0245a2c}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8653,7 +9500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{990349bf-bf40-486c-9fae-912962147a8e}">
+          <x14:cfRule type="dataBar" id="{bff5c9bd-6469-4604-8e6b-2f9d09fffd0d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8663,7 +9510,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a1950fb9-dabf-4587-83a0-ff1bf9ddb191}">
+          <x14:cfRule type="dataBar" id="{b2216593-1e8c-4121-898d-14bddf2ef631}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8673,7 +9520,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e91acce9-9118-43ea-912d-fc8f9f507b2d}">
+          <x14:cfRule type="dataBar" id="{2a9b7b63-06c7-4549-900b-69b6cbea1ab2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8685,7 +9532,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cda10003-b74b-46a5-be9e-89fc16f5353b}">
+          <x14:cfRule type="dataBar" id="{946826b1-f16b-4dab-9a5b-a78bee69efe8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8693,7 +9540,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{476b4f9f-7869-4beb-9c18-bdb2f967869d}">
+          <x14:cfRule type="dataBar" id="{631c619a-3fb5-4b65-a21f-8ff643d8812e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8705,7 +9552,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1fc1a602-73b8-4565-aef1-1db4e4e60280}">
+          <x14:cfRule type="dataBar" id="{644d30dc-e20d-442f-9749-aec6d7995da4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8713,7 +9560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{87567241-4933-4afb-8847-a0cc24731b38}">
+          <x14:cfRule type="dataBar" id="{a279163b-c579-4584-a49e-4f69229c1822}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8725,7 +9572,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5058c60b-7383-4e28-ab84-0ce934032f79}">
+          <x14:cfRule type="dataBar" id="{29d25611-aea4-459e-838d-b7c55a0ba4e8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8733,7 +9580,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{32caa240-1a35-41ce-b047-8fdf2d04049f}">
+          <x14:cfRule type="dataBar" id="{c3181b0c-2f2c-4f90-a340-d2bec6d332a3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8745,7 +9592,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{007fb8ef-fecb-42bd-a5cd-3e467f1ba566}">
+          <x14:cfRule type="dataBar" id="{4390fc0e-3c8c-4332-86c0-49eb607a2d63}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8760,7 +9607,7 @@
           <xm:sqref>I62:I64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3a79ecf-20bd-4146-9a95-a19a2091b377}">
+          <x14:cfRule type="dataBar" id="{49bc8095-8061-4f44-8bae-c6778f172a6d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8770,7 +9617,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e1149162-2bf2-45f7-9c46-738c66756efd}">
+          <x14:cfRule type="dataBar" id="{6f14eefb-e6ae-4ab5-83d4-31db7131659d}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8778,7 +9625,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{64d8b927-ef4b-485a-b396-7a13f757f6c4}">
+          <x14:cfRule type="dataBar" id="{241b2393-44d7-4e59-a86a-c1a8a950d50f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8788,7 +9635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{616c3e75-1e62-4202-9986-b1a25fb0f21b}">
+          <x14:cfRule type="dataBar" id="{f4bb678a-2e9c-4056-a674-1a3c5c0e29c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8798,7 +9645,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{69c00638-739e-4aa7-bb83-f88cb32aa9ae}">
+          <x14:cfRule type="dataBar" id="{ec12fb27-7086-495e-90d8-a31ef9f77aa0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8810,7 +9657,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9298b3f0-5f61-41bc-9d43-796671d1ddbd}">
+          <x14:cfRule type="dataBar" id="{347ba3b4-2b8d-418b-a272-6ab86779ceea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8818,7 +9665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b8c6725b-4804-4a21-926c-7599aca91a06}">
+          <x14:cfRule type="dataBar" id="{09a2e16d-db3a-449e-910d-01c3a6993815}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8830,7 +9677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b277a3af-e740-44d9-941b-ae26f8313e24}">
+          <x14:cfRule type="dataBar" id="{980250d4-8619-4c0b-9ac1-0e210f06571a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8838,7 +9685,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{24d9aed4-a2d7-4c30-b07c-5cfb4bd00678}">
+          <x14:cfRule type="dataBar" id="{9a5e1739-76af-4dfc-96be-ba96ff01bd24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8850,7 +9697,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0f296cef-31be-483c-bd7a-eaa31296f3b4}">
+          <x14:cfRule type="dataBar" id="{92e9d95e-a4c3-4357-bade-85748361b06f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8858,7 +9705,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ec025f25-072f-43ce-9d3f-bba0eddacfe9}">
+          <x14:cfRule type="dataBar" id="{5b55bb86-add1-45a7-92cb-4b11d67df3c7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8870,7 +9717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bdf3796f-8c57-4a63-a12e-a7d30ffbc3b3}">
+          <x14:cfRule type="dataBar" id="{4023e68c-e163-4429-a3d8-59e4e39264d7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8885,7 +9732,7 @@
           <xm:sqref>I69:I71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cbbdb302-5596-4b3a-a72c-ed6868be21e1}">
+          <x14:cfRule type="dataBar" id="{170383ef-7c91-4279-b27d-7e01d02f6256}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8897,7 +9744,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9b435b13-a86d-4ede-a4e3-09a619972891}">
+          <x14:cfRule type="dataBar" id="{279e868f-bc9e-4998-bfcf-6f6bc47c9c8a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8909,7 +9756,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a3d81f60-d2fd-4387-9d23-78e3cfe2e217}">
+          <x14:cfRule type="dataBar" id="{783cad10-34f2-4c4f-9b5c-99e6fa49d642}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8917,7 +9764,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d04b622a-a84f-498f-b28b-9d3f89bcf802}">
+          <x14:cfRule type="dataBar" id="{426311f7-86bd-4d2b-abca-bcbcb4a5002b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8929,7 +9776,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{993e04b2-1977-4f06-994f-8c2b2ac94909}">
+          <x14:cfRule type="dataBar" id="{f372aa42-ee52-4e6e-8ecf-a1615da000ff}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8937,7 +9784,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ee276be3-af1f-4d14-ac98-53574f1da2c9}">
+          <x14:cfRule type="dataBar" id="{3123843d-684d-49f0-9833-9232681cc3e8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8949,7 +9796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{85f1cd11-03c2-4dfe-b254-f229f8382e57}">
+          <x14:cfRule type="dataBar" id="{297ad897-16b5-4978-9c33-19fd06c094ef}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8957,7 +9804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{de6a9a94-4ba2-4c6f-bc11-b8ad6a49bd8e}">
+          <x14:cfRule type="dataBar" id="{5e4a1261-c7fd-49c4-94b4-25f5a0905c52}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8969,7 +9816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d760b640-5d86-4993-81f1-67cbf01e622d}">
+          <x14:cfRule type="dataBar" id="{f4cba75b-a087-4895-a813-e1b90e127062}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8979,7 +9826,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b6f2d98d-dc9b-4b65-9636-92fc71d26bc5}">
+          <x14:cfRule type="dataBar" id="{f134bd8d-78c7-4c4f-b8c1-6930c39e9d49}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8989,7 +9836,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1309b12d-2b6d-43be-9cb1-34289d6edcbf}">
+          <x14:cfRule type="dataBar" id="{02a7538e-6516-48e7-bd69-7e9b2f2f64f8}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8997,7 +9844,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{16bf9928-925f-425e-9a32-e1b925cb5d6e}">
+          <x14:cfRule type="dataBar" id="{9c14b707-d953-434b-ae3e-486215af5aaf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9007,10 +9854,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I25 I40:I55 I59:I61 I65:I67 I72:I1048576</xm:sqref>
+          <xm:sqref>I2:I25 I40:I52 I54:I55 I60:I61 I66:I67 I72:I1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fb4748f6-8204-4c94-adba-3e2c93989c24}">
+          <x14:cfRule type="dataBar" id="{06a951ea-5af0-4492-a799-dea6262122d1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9022,7 +9869,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c68c946e-f3b0-4208-b002-165585bde3f5}">
+          <x14:cfRule type="dataBar" id="{6d0fb789-cb07-41d1-a1c9-5a63d42d104a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9034,7 +9881,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b02b547e-e0fa-448d-b6db-1613d977f0e6}">
+          <x14:cfRule type="dataBar" id="{2a055ab0-70eb-448d-8bef-90c52dc06cda}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9042,7 +9889,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{506495e6-e3df-4951-a2ff-10d15e9a8bfd}">
+          <x14:cfRule type="dataBar" id="{ec241a1c-7a39-48be-8269-24d714025c66}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9054,7 +9901,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b2482b98-e5fc-46b6-8acc-39afb3a855ba}">
+          <x14:cfRule type="dataBar" id="{93877364-f0b0-4108-a7c7-120e827f67dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9062,7 +9909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f349bc69-79e2-4420-bf85-050eed68ecbd}">
+          <x14:cfRule type="dataBar" id="{a1cecd02-308d-488b-98ad-eef976857751}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9074,7 +9921,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{02f3f085-d388-4b1f-8b68-8cbcd171cd28}">
+          <x14:cfRule type="dataBar" id="{aee25ad0-5f40-4c87-9295-d945bb769ade}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9082,7 +9929,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{812ce7b9-fcf7-407a-8a4b-63de1eecc8e2}">
+          <x14:cfRule type="dataBar" id="{e8b4d3f9-3a0a-46f1-b3ad-df0cc5052d58}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9094,7 +9941,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d2c27681-3dc7-4856-b9f1-d6a9d6659730}">
+          <x14:cfRule type="dataBar" id="{7c56ec75-184a-4c84-b2cd-e97e6fba0b6c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9104,7 +9951,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f4428a23-31f4-46e1-9dba-fd123f212ee7}">
+          <x14:cfRule type="dataBar" id="{0d58ed1f-597f-4244-b284-c491aa2a6765}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9114,7 +9961,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6c3e3408-d030-49a8-bbb0-1285189caa99}">
+          <x14:cfRule type="dataBar" id="{d118dd60-987e-4e4b-8bd3-43576cec5af7}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9122,7 +9969,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{58035a55-7b34-4660-b949-651577c2027f}">
+          <x14:cfRule type="dataBar" id="{2543d450-d43c-4086-a782-c1c683c65094}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/研发过程管理/WBS.xlsx
+++ b/研发过程管理/WBS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="208">
   <si>
     <t>模块</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>优化</t>
+  </si>
+  <si>
+    <t>代码优化</t>
   </si>
   <si>
     <t>JVM优化</t>
@@ -646,10 +649,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -719,35 +722,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -762,7 +736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -784,9 +758,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1265BE"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -801,7 +805,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -823,14 +842,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -840,7 +851,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -849,14 +860,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,7 +904,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +952,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,13 +1066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,91 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,48 +1097,6 @@
           <color theme="4"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="30">
@@ -1349,11 +1352,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,23 +1394,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,24 +1429,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,31 +1467,31 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="22">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="23">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0">
@@ -1497,115 +1500,115 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="25">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="27">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="28">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="28">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="22">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="23">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="24">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="21">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="31" borderId="0">
+    <xf numFmtId="10" fontId="0" fillId="38" borderId="0">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2166,12 +2169,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="16.5" customHeight="1"/>
@@ -4337,7 +4340,9 @@
       <c r="H74" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="51"/>
+      <c r="I74" s="51">
+        <v>1</v>
+      </c>
       <c r="J74" s="52">
         <v>1</v>
       </c>
@@ -4364,7 +4369,9 @@
       <c r="H75" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I75" s="51"/>
+      <c r="I75" s="51">
+        <v>1</v>
+      </c>
       <c r="J75" s="52">
         <v>1</v>
       </c>
@@ -4391,7 +4398,9 @@
       <c r="H76" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I76" s="51"/>
+      <c r="I76" s="51">
+        <v>1</v>
+      </c>
       <c r="J76" s="52">
         <v>1</v>
       </c>
@@ -4418,8 +4427,10 @@
       <c r="H77" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I77" s="51"/>
-      <c r="J77" s="52">
+      <c r="I77" s="51">
+        <v>1</v>
+      </c>
+      <c r="J77" s="55">
         <v>1</v>
       </c>
       <c r="K77" s="44"/>
@@ -4553,22 +4564,47 @@
       <c r="L82" s="53"/>
       <c r="M82" s="53"/>
     </row>
+    <row r="83" ht="24.75" customHeight="1" spans="1:13">
+      <c r="A83" s="65"/>
+      <c r="B83" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="66"/>
+      <c r="D83" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="47"/>
+      <c r="G83" s="39">
+        <v>3</v>
+      </c>
+      <c r="H83" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="51"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+    </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
   <conditionalFormatting sqref="I27">
-    <cfRule type="dataBar" priority="132">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85d922bb-ba44-4ced-b400-9fbca79a012d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="131">
+    <cfRule type="dataBar" priority="168">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{edc5eb27-ed44-46bc-8891-bf2f3c336062}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4576,23 +4612,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e7ee1295-a2da-4f52-9e55-ca3beb3bd194}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="130">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc02fafa-c5c4-4205-9837-ea944afb264f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="129">
+          <x14:id>{ea257313-b462-4ee3-b230-c3511eafb0fa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="166">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3670cf43-1566-45b8-b4bc-467650c6a880}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4600,11 +4636,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f241688e-4a6e-4e15-86cd-bafad1d18d2c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="128">
+          <x14:id>{df918901-74de-4559-ba75-457f316078cc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4612,11 +4648,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0226824-41c4-42dc-9a31-a481b12e5bd4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="127">
+          <x14:id>{79e698df-14f0-405f-9d8d-a4cecb0395da}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4624,11 +4660,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d08c87b-6ca8-4c34-9ee6-b1d17c335098}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="126">
+          <x14:id>{19059e99-1a42-4322-a91c-865c7404b43b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4636,11 +4672,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dfef4fe4-4148-4fa4-84dc-1ce932a06a50}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="125">
+          <x14:id>{ca50363f-3de4-477f-af37-3cfce02abdd9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="161">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4648,11 +4684,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dc55ad67-fa8d-4048-838e-0a30020b0711}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="124">
+          <x14:id>{0c829e47-85fc-4d76-9a38-17b35b30426e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="160">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4660,11 +4696,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{140c0b02-401f-4d61-8b31-19cdf58a1ec2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="123">
+          <x14:id>{0963f1aa-3131-4168-9a63-7b434d01949f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="159">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4672,11 +4708,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62927f1b-0ca3-449d-a60e-6262e4104c04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="122">
+          <x14:id>{042a17b0-3e09-4bba-8135-52cff3b163dc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4684,11 +4720,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c976cf1-1705-46fa-98c4-1ed7f9841a23}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="121">
+          <x14:id>{64943eda-5f55-49e0-a6e6-d2a946c7811b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4696,25 +4732,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{230da66e-461d-4965-829b-ae8ab3080089}</x14:id>
+          <x14:id>{6af36673-5306-44fe-b8d4-cddc1470977f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="dataBar" priority="120">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c70fef29-c9cd-426a-a6db-1f26d14627f1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="156">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ed5efd12-085a-4430-aa90-1073aab17efd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4722,23 +4758,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{de0dd6da-fcb1-4dbc-91a2-96aaa3e1f9e5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="118">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cdeced3-0e24-4666-bda1-45090c8bff83}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="117">
+          <x14:id>{92027e80-3455-4559-bf2e-09a846757657}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="154">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{18708041-2cfe-4c0c-8d23-fe31091b2ead}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4746,11 +4782,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2f05c261-49c7-4159-9730-39cca4797f8e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="116">
+          <x14:id>{ff0ec0a7-fa29-4ca5-a1a9-8575c1aa0659}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="152">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4758,11 +4794,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9a4d3bae-1ad0-48d3-92b2-401a5bf7e624}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="115">
+          <x14:id>{e320c590-5936-460b-8523-bd946717d316}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="151">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4770,11 +4806,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0066e52a-43b2-4f9c-9a68-98b54de95351}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="114">
+          <x14:id>{b2303711-6462-40bd-bf62-a36b4d6bc3ca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4782,11 +4818,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c336875-9ab6-45d9-adc2-78be66d68f43}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="113">
+          <x14:id>{87441f84-4fbb-4b47-8f4b-a4e1e5dbdd2b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="149">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4794,11 +4830,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{863d86cd-8164-4afc-b006-9700def2fcaa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="112">
+          <x14:id>{1ac92270-be21-49b3-a176-d9c962a1368e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="148">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4806,11 +4842,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c7465526-281c-4c6b-a6ff-81587a02626d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="111">
+          <x14:id>{9be44e31-8eca-4f97-a7de-157b581d303f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="147">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4818,11 +4854,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d44e4d5-b324-41e5-aaff-5e7dcdbf0593}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="110">
+          <x14:id>{edda1363-6daa-4427-b255-ffd4aeb064b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="146">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4830,11 +4866,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7f48ff00-9310-433c-b030-83e3b6b9c6c9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="109">
+          <x14:id>{dd5e4b7a-af53-4d8c-b7b2-3c9838742eb0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="145">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4842,25 +4878,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{712fd5e4-558f-45dc-bca5-283b7597c217}</x14:id>
+          <x14:id>{8457fb92-9369-46eb-96bb-0a6bf83ff585}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="dataBar" priority="108">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aabc285a-7a15-4151-a185-e60ad9a551d7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="144">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{cc0546ca-4aad-412f-9027-32e608924aed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="143">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4868,23 +4904,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dd8517b5-ed93-415d-aea5-d3d59e393354}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="106">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{368a46cf-8a48-4180-918e-a367c708df21}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="105">
+          <x14:id>{5247f52e-cc30-4d04-bcdb-644d2b142704}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="142">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a9552bf7-1c49-45f7-90cc-1dde54737763}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -4892,11 +4928,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e69344e-5918-48ca-826e-2ec1630f7b28}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="104">
+          <x14:id>{8b2eb8db-508f-41d9-8869-c57e2fa3f4f2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="140">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4904,11 +4940,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{300519bf-8bbb-4125-b10f-16fdc46c4454}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="103">
+          <x14:id>{2549dda5-be98-4c42-9b92-ff7ccfe020f7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="139">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4916,11 +4952,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2193b68-933f-446d-ba02-0ba8901b869d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="102">
+          <x14:id>{8ca538ac-0558-43e1-86e4-c34750e6bc2e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="138">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4928,11 +4964,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2489bd9b-6ea6-4ae0-9b82-f6cb8ae58ba1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="101">
+          <x14:id>{39063551-b0a6-47bc-84a4-af1850f834f9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4940,11 +4976,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f17b9b8e-7535-4ae6-b237-f928c2574f75}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="100">
+          <x14:id>{37bfdc9f-b756-4b5a-8da8-4c6498ede659}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="136">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4952,11 +4988,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c825b3e6-ff86-46ae-b0ff-9182ec5c129f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="99">
+          <x14:id>{b3e24e07-b211-4d85-aaac-59ad94ec4567}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="135">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4964,11 +5000,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68682ce1-a109-43f8-8a29-6f38557dfc5f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="98">
+          <x14:id>{a0586109-42bf-43f0-b5e1-00af3b7d97ff}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4976,11 +5012,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4dd1820d-5cab-427e-85f6-a0bde5ad54d6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="97">
+          <x14:id>{b0fc2f00-e579-47e9-91ac-30f5edee1b9f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4988,25 +5024,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{af31f93c-dd5e-437f-9519-24a47c706e53}</x14:id>
+          <x14:id>{9a51b5a2-c776-4377-a621-926defd97850}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="dataBar" priority="228">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2532fbc9-7431-4e2e-b873-abf6110b616b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="227">
+    <cfRule type="dataBar" priority="264">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e3a895e3-92a5-4c99-9e20-18c8fc9a8faa}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="263">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5014,23 +5050,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a74f51ca-af17-4649-88d0-b6403f765a17}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="226">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4eb758f8-2fb8-4f83-8bed-dda6fc5159df}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="225">
+          <x14:id>{330e9962-e32f-484c-b01f-7a421b3a75e5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="262">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c1d9d0e9-0f4a-45e2-a254-70cc31d1b4e1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="261">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5038,11 +5074,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e29b0c1-ca8d-47e3-aa8c-3043232ed7dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="224">
+          <x14:id>{29995ece-ac65-4880-9a2f-fe14b061ca09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5050,11 +5086,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b5a56cef-f82f-4162-8f9b-30e5da57b4f0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="223">
+          <x14:id>{c9c79b40-1fa2-4eec-8809-888a78912f78}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="259">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5062,11 +5098,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{862eac7f-8ddd-46dd-9267-feaad94689e6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="222">
+          <x14:id>{eede814f-b802-46a2-9bd1-c96f659bbcd0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="258">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5074,11 +5110,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d914035a-5cd8-4474-b373-570c9c7d2313}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="221">
+          <x14:id>{e4361109-453e-4173-a13b-b8bc47ee74a7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="257">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5086,11 +5122,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{244cb6b1-2b97-4436-b22a-2bea41ae48bf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="220">
+          <x14:id>{4a5c7ce6-23e9-4897-8dfb-2db627c29c9d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5098,11 +5134,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0486cbbe-e9ac-48d1-bdb2-67d1d89e74f4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="219">
+          <x14:id>{38025b80-16a6-4d3a-8736-d1491126eae0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="255">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5110,11 +5146,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4c5dd4e2-a93b-4f75-a003-b89fad732d3b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="218">
+          <x14:id>{637c241e-b309-481f-9da9-b2374723fcbb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5122,11 +5158,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2c3e680-e1f7-446a-90de-5d91a3034230}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="217">
+          <x14:id>{60c28d3a-707c-4156-bb09-51629240226f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="253">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5134,25 +5170,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6091cb27-c3ee-444a-b5d8-f976d79650e0}</x14:id>
+          <x14:id>{126e9a91-2a5f-4607-bd54-6fe7d0688186}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="dataBar" priority="216">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e3fcc81a-a6f9-44f9-9f3f-919166f7e476}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="215">
+    <cfRule type="dataBar" priority="252">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2cc1542d-c434-4422-8c9b-ce4b8b5a4b39}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="251">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5160,23 +5196,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3ccf75f0-6448-47ca-b28c-0c3a0270b741}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="214">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f4430e0-dada-4f13-861d-dc9ce0dfa601}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="213">
+          <x14:id>{799e4582-556f-4158-90e0-ecff1c7eacae}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="250">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c2bb54e0-72cd-4cf5-991e-2688bb513bbd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="249">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5184,11 +5220,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a54f7d9-cae7-4410-a3c6-a395773b5710}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="212">
+          <x14:id>{d64a30b9-2b78-4451-bdd3-f4a250651fb7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5196,11 +5232,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6cacdbd4-c7cd-4c2f-8693-0fff06ab8fee}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="211">
+          <x14:id>{1270af8e-80a6-4bf8-9d4a-3fbce6778532}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="247">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5208,11 +5244,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c625d1e5-20b2-414f-be0d-0fc97fefbae3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="210">
+          <x14:id>{d9f6c16b-9630-4120-b945-d7c33eded0ce}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5220,11 +5256,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2fe362d-ee06-463e-88c3-34054acef849}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="209">
+          <x14:id>{38879233-868a-4c7e-822b-af455d3efe2b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="245">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5232,11 +5268,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{01ef6921-e9a2-42f7-9d0f-ab639be5c78b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="208">
+          <x14:id>{4196025e-3d8b-40a3-ad27-6b9b098fc1f6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5244,11 +5280,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e52331c3-5aeb-4a58-bcaf-f34eb7eae528}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="207">
+          <x14:id>{cc8e9723-c82f-448f-b55b-24ced4ab39c0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="243">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5256,11 +5292,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ef556984-f60c-49d5-b48a-c3459700e95f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="206">
+          <x14:id>{f2db1752-2360-419c-b858-3db672680a66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5268,11 +5304,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{001eb2f4-d6b6-4434-b16d-24c3b2383bd0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="205">
+          <x14:id>{e8198a6c-df13-4afb-acd4-537b786505d2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="241">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5280,25 +5316,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0dd1184b-d62e-4af1-b517-b523a19bd0c7}</x14:id>
+          <x14:id>{abfa5fd5-aae5-45c4-9e57-1d24f8235a89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="dataBar" priority="204">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43ba5d08-e731-4c1c-baf2-3bb540c1b9fa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="203">
+    <cfRule type="dataBar" priority="240">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e55f091e-a350-4fc8-b41a-dcfd0914ed53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5306,23 +5342,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02d3e58a-64d3-4695-9f2b-c1abe2b92b2a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="202">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{248754ea-3b3d-4153-8379-a7615a8ea8f2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="201">
+          <x14:id>{0b32e2c5-ceee-4dc9-a354-5a2db9b54164}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="238">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{272a9349-d763-4408-9fbc-618d9d9d6f85}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5330,11 +5366,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f6b868d-0c78-456b-923d-a904cfe461a9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="200">
+          <x14:id>{8dc5cf12-2d38-477f-beaa-d5971ea010eb}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5342,11 +5378,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d70bcda-9e91-40c6-9ea6-b380d920ba86}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="199">
+          <x14:id>{587a10ec-66ba-4d57-af02-73ce41197e8a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="235">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5354,11 +5390,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{655ce4b6-833c-45f0-861e-005865eb4a03}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="198">
+          <x14:id>{e9487c47-d3a9-4553-ab54-e494757dda42}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="234">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5366,11 +5402,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7d0cae4f-9e44-4d11-8b82-1d2dd488c2f5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="197">
+          <x14:id>{675881ac-a6e6-44c2-9eb8-ffc048d4ca47}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="233">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5378,11 +5414,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9060f23d-07bc-4865-9a75-bfc97f8bc952}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="196">
+          <x14:id>{31dad31c-f61b-4b1e-952c-556189c29326}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5390,11 +5426,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d78d95d-a7be-4c54-acf2-d23de3df9911}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="195">
+          <x14:id>{37e231a6-5f0c-43e7-b937-693f7ce4d3d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="231">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5402,11 +5438,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{32e1f5a5-2653-4736-80a4-3fc38e9a0335}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="194">
+          <x14:id>{2af8a003-c62b-47cd-81c5-b3fc2daf0baf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5414,11 +5450,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aff2b965-bce9-48bf-b13a-e22f595bdebe}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="193">
+          <x14:id>{c437266a-d2ed-44b1-b07a-13d4c77d0c21}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="229">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5426,25 +5462,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c799cef-3add-43da-b1f9-c3f9ea0e8f3d}</x14:id>
+          <x14:id>{10431a2b-7847-4d98-8e33-42821945adc6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="dataBar" priority="192">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15698ea0-a46c-409c-b111-dfc11e1fae08}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="191">
+    <cfRule type="dataBar" priority="228">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{229762c3-5905-4ad8-9959-c68b32a0729c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="227">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5452,23 +5488,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1fc4c370-496e-48e4-a186-fa594b9a145d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="190">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{319eac63-c5df-489c-adf6-8c75a2b122c8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="189">
+          <x14:id>{5b1ae31c-74eb-45da-aef1-125f14b9f44a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="226">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{72d8c6b3-3578-4875-98f3-17fd0482fe34}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="225">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5476,11 +5512,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ee7f169-25d9-41b9-b0a9-5758ee4dac2b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="188">
+          <x14:id>{c6dde554-b6b7-4214-b997-0239dfcd14c7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5488,11 +5524,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{944b89d0-3706-43f0-8e24-d67267cff15c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="187">
+          <x14:id>{b4cea0ea-c589-444b-8a57-3ea19154f2e0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="223">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5500,11 +5536,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89e8d11b-dc8f-4619-b949-262e70e4baaf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="186">
+          <x14:id>{5c5a1ec1-358c-449d-9600-8ed6f14ec511}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="222">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5512,11 +5548,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{266efdaa-8b3a-4093-a02f-335f496a5b22}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="185">
+          <x14:id>{2601db8b-108b-4527-a95d-a5098c4c7d1c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5524,11 +5560,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d552c08-be36-4684-9192-124a90f79707}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="184">
+          <x14:id>{a51ae8c1-8762-4e70-b826-cf9df12fa77b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5536,11 +5572,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d5346d13-bb17-4dee-99b9-4ddf683c017e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="183">
+          <x14:id>{176760f6-4e6d-482c-80b1-0417ae6800ac}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="219">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5548,11 +5584,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{263ac08f-188c-438c-8ce0-15f58e454480}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="182">
+          <x14:id>{da256d3b-ca60-460e-8f75-28a5385b9840}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="218">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5560,11 +5596,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fea44444-45b8-497d-806b-24235c624d42}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="181">
+          <x14:id>{dd2b39ea-2d11-40c1-8bf2-0185b1374a2c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="217">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5572,25 +5608,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1e149fff-9008-41e0-a165-6b914eba8f8d}</x14:id>
+          <x14:id>{3f89669a-1f09-4bd9-885c-26fb1a4895de}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="dataBar" priority="180">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2bb93038-a42f-4e43-980f-45b82e30cd00}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="179">
+    <cfRule type="dataBar" priority="216">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{44cb0a29-a415-4994-985f-3be65f3d9ef3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="215">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5598,23 +5634,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5da14dd6-26a7-448a-b324-e374e9309f79}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="178">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c1a4280f-ebdf-40ee-87c2-3c71fb869eca}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="177">
+          <x14:id>{567bbfb9-6800-4db5-8546-32238a891602}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="214">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82b0cfd8-6d33-45d1-a8e5-7025fb4725f6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="213">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5622,11 +5658,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b69d8de-3e17-4fa9-ae18-d46ac4154498}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="176">
+          <x14:id>{e20a5723-121c-4550-a65e-6726c0964b4b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="212">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5634,11 +5670,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{16286e51-4aaa-48e8-8f0f-5f1692df3322}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="175">
+          <x14:id>{9dec3251-6f8a-41d4-a8b6-06c858c4f029}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="211">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5646,11 +5682,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{da59772a-b477-45f3-b1b8-67c36072ae80}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="174">
+          <x14:id>{734aa819-6b55-460e-8e13-1701e46596ef}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="210">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5658,11 +5694,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33f6b120-b5e2-409f-b6d9-fec08a0a9ceb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="173">
+          <x14:id>{312a6913-e9bf-446d-b953-b297e41d81a8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="209">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5670,11 +5706,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f8785ef3-5fae-4b05-bc72-e6ccd0ac1e60}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="172">
+          <x14:id>{80063ee8-50a0-4f33-81d2-089667ed568d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="208">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5682,11 +5718,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f5f0a5f5-11e8-411b-a3d5-0d2eac21f325}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="171">
+          <x14:id>{9ca945b4-70c5-4dbd-b1f8-497c392a095c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="207">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5694,11 +5730,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5f65a7dc-90cc-4529-a8cf-052eebb841bb}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="170">
+          <x14:id>{541ddf0d-055c-42f9-8003-4ff7abd957ed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="206">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5706,11 +5742,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4f9bf056-ac96-4fa8-bdc2-42361da97eb6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="169">
+          <x14:id>{65069a38-8258-4ad8-85ab-c453e346e99f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5718,25 +5754,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3123ebe-554a-4271-b82d-a82d33aaeaba}</x14:id>
+          <x14:id>{d63d7a29-ba62-465e-a7b1-ebffac91a26c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="dataBar" priority="168">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8405967a-2f56-4be9-b763-264c57e9623e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="167">
+    <cfRule type="dataBar" priority="204">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{adb13d4e-5b64-4ef4-9108-c9921f2615c0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5744,23 +5780,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{62fedec1-d3ab-4f0e-9f8e-630cc281753f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="166">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bf95e753-82be-443e-aca0-73e15978a0c3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="165">
+          <x14:id>{bd528a70-91bf-48fb-bd30-3696ad3d1591}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="202">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9bdcf730-e02e-4866-b19d-80a274a29272}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="201">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5768,11 +5804,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b15c934-3463-40d9-91d2-e2583cd7d0e5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="164">
+          <x14:id>{6656d813-fa2d-4e02-ab10-fc48a12aa132}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="200">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5780,11 +5816,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f626ef3f-ed9b-446a-b2cc-419b876051dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="163">
+          <x14:id>{8fe5c4c6-044e-433f-903f-2362b91f876c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="199">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5792,11 +5828,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a4575f6e-6bb9-4202-b026-0e3d98a1a911}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="162">
+          <x14:id>{94d8efd1-321e-4b9d-b6cc-8db46ab45d33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="198">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5804,11 +5840,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c5866b7d-cb1a-46b8-ad3b-80e41b97df58}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="161">
+          <x14:id>{97affd94-6cca-44ce-a097-88e619fc1053}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="197">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5816,11 +5852,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2cbf3c17-6211-4869-80e0-eed86ab37090}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="160">
+          <x14:id>{f65f8b57-627f-4459-9a23-2f0b5aeb9631}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="196">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5828,11 +5864,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5bce4107-780a-4356-9f7b-f0326364bd4f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="159">
+          <x14:id>{a11b58b1-ced1-48e3-855b-a5c05efa0fd3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="195">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5840,11 +5876,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e743fae4-f830-4bd9-a04b-65a0ed546415}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="158">
+          <x14:id>{3a77134a-4f6a-40c5-8579-1a27bf1e880b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5852,11 +5888,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ff18ba25-d2eb-45fd-be26-9c734fa79e85}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="157">
+          <x14:id>{314133ee-92b4-4ef0-80e1-960e195611d2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="193">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5864,25 +5900,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0c98e2b6-cc43-413d-ae0d-05fafb7b1161}</x14:id>
+          <x14:id>{9b50cddb-ebc2-418f-9009-d346bec20954}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="dataBar" priority="156">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39335d64-8d1e-4579-9170-25ef8006c5b4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="192">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{662b26bd-febc-459b-8a50-df8133447a7a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="191">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5890,23 +5926,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84508b26-14ea-45b0-b9e2-4610d50cc268}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="154">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8245eea5-e218-4a37-9dd2-d33a6dd1f53f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="153">
+          <x14:id>{61e06d05-6220-44b8-b9b9-2cb469aa7066}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="190">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e3a72fec-f5f5-4a4e-8260-cee0147aa14b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -5914,11 +5950,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5c5dd024-6395-4cf1-ba17-25e529d349d1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="152">
+          <x14:id>{28499c63-38a1-4a4b-b6db-595137bb28c4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5926,11 +5962,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06fb077e-a058-4c6f-b9a5-e0e8bd2305c6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="151">
+          <x14:id>{6467905a-41f7-4497-8554-f97b3a7844f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5938,11 +5974,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebeed136-74d0-4ed1-b89f-0c6abfc5f21d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="150">
+          <x14:id>{2099ddc2-0012-460b-b1af-7fc8ad3ff45d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5950,11 +5986,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{05687a20-77d5-4ed7-bd74-4fed6cba1ace}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="149">
+          <x14:id>{c273bb73-7caa-4f6d-a5ad-8480c1519986}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5962,11 +5998,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{39f8eb67-9bc3-4425-9cd7-151faad51ed8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="148">
+          <x14:id>{2531ce8f-4589-412f-87bf-0f07130fb9a2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -5974,11 +6010,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5ca4d8b7-42ef-4c7f-9766-0838ab7cf646}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="147">
+          <x14:id>{a7a0ae3f-4014-4e2c-88c0-070cbe5fd9d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5986,11 +6022,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb41b4cf-3218-491b-8332-9d5a8fb623a8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="146">
+          <x14:id>{958e6712-65eb-4895-8c00-940f53a990e5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5998,11 +6034,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9659700a-8de5-484e-aeb9-8b566fa0f07b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="145">
+          <x14:id>{a6731b06-9439-481d-b029-ae422f87f821}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6010,25 +6046,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b008d5e7-36a2-40a5-b012-c30e8e0697ab}</x14:id>
+          <x14:id>{0a89e946-c5eb-4627-8cba-6bb293999681}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="dataBar" priority="144">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e8f46124-16a2-44e9-b862-b9ebd2f5e35d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="143">
+    <cfRule type="dataBar" priority="180">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c74c7466-290c-4ebd-9ad7-2667aee5423f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6036,23 +6072,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ccc369c1-3127-4e6a-986a-42d539d9badf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="142">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa59f169-372e-4817-97a8-78a0ac67178c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="141">
+          <x14:id>{c5667945-ff88-4f4e-935c-5b543ac601a9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="178">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{91231e65-ea6d-4df0-9753-ee9566689ac8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6060,11 +6096,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3a3afc04-1b16-4651-9985-1ec6353be0a6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="140">
+          <x14:id>{9ed4429d-03f1-4166-8c87-20fbb162fa19}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6072,11 +6108,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c0e3f206-061a-4c6d-a220-927bf2e41809}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="139">
+          <x14:id>{5b86e94c-723d-4588-b276-1120c45c50f1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6084,11 +6120,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{839f2a54-69a8-4f8f-8395-5ce212c9799e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="138">
+          <x14:id>{fac8d7f6-bd08-453d-9de9-637c141af1af}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6096,11 +6132,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{95c7e37d-a201-4709-9838-0df547b1da24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="137">
+          <x14:id>{41d2a7fd-3c74-4bd7-a69f-02ad874b1e0f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6108,11 +6144,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d470b043-81dc-4abb-b44f-3476b4949b20}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="136">
+          <x14:id>{977dc9f7-ebc4-4695-a5fa-8b3d7ce7bb72}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6120,11 +6156,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4db88c9d-9f6e-4f1c-a026-dc2aa7cb81f9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="135">
+          <x14:id>{e9796a6f-396f-4dee-a092-9dd7ceb35bcd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6132,11 +6168,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8043b762-7aa4-4379-87f2-002685ebcb7c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="134">
+          <x14:id>{91ed0225-2951-4038-8206-50d5757a2426}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6144,11 +6180,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ebb6faff-3972-4900-8f3a-a5095d6546a7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="133">
+          <x14:id>{2abd2c46-e38a-4518-b432-6015b3e3d1ae}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6156,25 +6192,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a3bba367-e8e3-4156-879e-93163119e0f7}</x14:id>
+          <x14:id>{572ee30a-8c2b-4a55-b29e-3c2c3396ea48}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ae087816-5d93-4ff8-ab41-b1dae7aaf0fe}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="48">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9859c6d5-c25d-4cbc-97c7-f3946301bac1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6182,23 +6218,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc8f7302-c6cc-4024-9109-04b6915b6e76}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63d7e957-d3bf-445d-b564-2947a131ed6f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="9">
+          <x14:id>{d83651ae-fc6f-4315-a5f0-65e526d4f8f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a7375db0-27f5-4d31-85b6-da0435670269}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6206,11 +6242,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b43e84f-0646-41db-815e-be17036f00c9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="8">
+          <x14:id>{bcfa5ce6-ba57-44be-a340-c7192d1b5f58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6218,11 +6254,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{80e7af5d-5ed7-42b5-95b0-dfd5142d8521}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="7">
+          <x14:id>{5558f822-8676-44f9-a0a5-7a389ee1f40d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6230,11 +6266,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d321d3b8-2f48-4f3b-8926-d41d3a51f254}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="6">
+          <x14:id>{872f0f93-8ccd-4c03-9579-b1d47024bbf9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6242,11 +6278,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{96223dc6-d84e-4f52-bb2c-9a1a2ed8e017}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="5">
+          <x14:id>{b66455ec-ed77-4fb1-ab02-3375597c230d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6254,11 +6290,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{31155550-ffa5-4317-af4f-d0d104d6eaa0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="4">
+          <x14:id>{c9434a24-de3b-48d5-b27e-98e9eb15acea}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6266,11 +6302,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0bfb9de0-2924-406b-97dd-823e548fb826}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="3">
+          <x14:id>{22df370f-2b9a-42de-a41d-edaeeb042056}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6278,11 +6314,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{350d58c2-d8ff-4bc4-99b3-6011efc82427}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="2">
+          <x14:id>{e3d49ff6-00cb-4f8c-9412-12c3bdcdb48f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6290,11 +6326,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b33814dd-78e9-4c64-a278-d1f30a5638ed}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
+          <x14:id>{1af95c98-e110-49a3-9b1f-3611412d409b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6302,25 +6338,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{eb5c2c5e-25c4-48d1-91c3-334f25dc6f3d}</x14:id>
+          <x14:id>{d072dd8d-53fc-4a12-ae6c-6995f658049f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="dataBar" priority="24">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3cd0b89d-1b56-4014-8a2e-c083b69f63f3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{f08c6723-8094-4e9a-921b-410c330324ad}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6328,23 +6364,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cf46962d-a029-4371-8c8c-3b2fff79b24d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9751ee0b-d1ad-42ba-887f-7efca9e844fe}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="21">
+          <x14:id>{7ea9e968-1587-4b40-b36a-3f8f26d2cf55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1e4c3ddc-0aa8-4baf-8130-1e1f039be183}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6352,11 +6388,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{975eeb4a-1f21-49e4-bfa3-630ffc549c9f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="20">
+          <x14:id>{5ed9a19a-25c4-48dd-b095-01814b8b40e4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6364,11 +6400,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9323e07d-0667-4227-91d6-80f52b08b135}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="19">
+          <x14:id>{2fb1c772-93db-445c-a9ce-6f6d748e2987}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6376,11 +6412,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b72ee956-c9c0-48ef-8f74-74cf37aa3cac}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="18">
+          <x14:id>{977ea283-8df7-4ba0-bfe3-8d74584916d9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6388,11 +6424,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9bd765aa-7bcc-4a43-8f0a-a46f09e8101e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="17">
+          <x14:id>{fb9c22de-07c2-40a0-9e4c-b0b88d5b248e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6400,11 +6436,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9b3eaf66-4027-4b13-bdbf-fe564ca9c925}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="16">
+          <x14:id>{4b2b4f52-9b79-4804-a831-1fa1bd97866d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6412,11 +6448,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5804b6b1-25c5-4ab7-81a1-f5976836b875}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="15">
+          <x14:id>{e851b387-2804-4f2c-971f-3925ceaa7773}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6424,11 +6460,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99e5706e-a6de-45c4-af0f-934a13e0faf3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="14">
+          <x14:id>{2782bba7-5ce0-4412-a65a-756bc9b8f6dd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6436,11 +6472,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e14658c5-e217-4422-bfed-0585e2b486b1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="13">
+          <x14:id>{fcbb94a4-89a0-43eb-b0a4-f9e01ebc5322}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6448,25 +6484,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d5edbbf-0eaf-4235-80f3-8538a34b4a6d}</x14:id>
+          <x14:id>{25b92da5-04bf-4594-8759-edf5dc749aed}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="dataBar" priority="36">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cafbff81-e8ba-4035-87db-be30be1fc3f8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ec9d679f-d758-49d0-a960-3a3d52978dc2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6474,23 +6510,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c669d4a-9b54-49ee-8e00-7aa4dea17917}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="34">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{173bddea-de6a-4365-b191-e0341719a34e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="33">
+          <x14:id>{f03d9a04-ed6e-4a93-9df1-adcf96c9f91e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="70">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{d1c73ad3-639d-42da-a0ff-afc98c11f0ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6498,11 +6534,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bb487764-906d-43e6-961d-0370a6a6a303}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="32">
+          <x14:id>{c51c4bfc-e898-4eb6-b0fc-b1dcae409523}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6510,11 +6546,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d84faa4-7291-439b-b019-94246369cbe6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="31">
+          <x14:id>{a2527e5d-5c72-4bf5-b4ff-69c555dbe73e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6522,11 +6558,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c38a23f1-3a4a-449e-b199-d7c0facef77e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="30">
+          <x14:id>{7d34d9fe-2038-4fc8-bb59-ca77efa51f56}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6534,11 +6570,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b30c33af-73d0-42fa-804d-7648b0a46d38}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="29">
+          <x14:id>{1138add8-8abd-4b88-828a-53540f6172ed}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6546,11 +6582,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cc51102b-b280-4456-86d2-49a3972cd9ef}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="28">
+          <x14:id>{a8046d2f-0429-4eae-b73d-6750437ff30b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6558,11 +6594,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00b0c5de-d860-465a-9768-3568ddf48bdc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="27">
+          <x14:id>{4de5394d-9554-49c1-b01e-0bc539e414ca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6570,11 +6606,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8b0db459-4c24-42aa-8c37-a68c723bfd6b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="26">
+          <x14:id>{033cdb94-2a63-4c77-a4e6-b9f19e3d4793}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6582,11 +6618,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c88fbb3d-4660-4c44-b5d9-4a596e3417ec}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="25">
+          <x14:id>{2a01de23-e32a-4e34-9027-e89e82f7ba11}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6594,25 +6630,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9afd4d4-07e4-4239-bf22-8a9898050f8b}</x14:id>
+          <x14:id>{14d778e3-f67a-47a7-b0fc-f0828bf886ce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="dataBar" priority="96">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ceef4ad5-34ed-477c-8584-b748d67df5fa}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="132">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c203fc14-1b25-43f3-b342-3a8a672a39e0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="131">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6620,23 +6656,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9d4e15b9-6d39-40e5-a31d-71ff05ea79c4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="94">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5129844d-967c-40f2-905d-0a1eb9a20852}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="93">
+          <x14:id>{c047484b-60d9-411f-83ec-96b647459eaf}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="130">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e1c2e0c1-0ee3-4149-82fb-f691fd1e18bc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6644,11 +6680,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e74141c1-8c39-4f7e-9ef1-c83b56177a41}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="92">
+          <x14:id>{da6f0ce7-000d-40e4-9a56-b1da5ce9b6c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6656,11 +6692,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20e11b4b-2e25-4b24-b5e1-7e270854e6ee}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="91">
+          <x14:id>{70e5a179-8c97-4bbe-ab0b-b747596cd76c}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6668,11 +6704,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6cef4371-43c9-4394-9da8-e769af346722}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="90">
+          <x14:id>{5c969a49-062a-4fd3-bfb1-aae852a3dc83}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6680,11 +6716,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{645f5f4e-7915-49dd-bd77-d73b36466dcc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="89">
+          <x14:id>{d70d88fe-61c8-4a6c-88aa-c0bb5c247094}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6692,11 +6728,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{22bbb7c3-c009-49c4-91ba-9b32af5582d1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="88">
+          <x14:id>{22b91873-bdd9-4496-bdce-c9b54b2df7ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6704,11 +6740,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a66889de-eb61-45fb-99f6-1c9943174801}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="87">
+          <x14:id>{fbbbdab4-e972-4d93-aca3-104fc75d657a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6716,11 +6752,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8d6d837f-5ad1-4d88-8042-1125ef7172cc}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="86">
+          <x14:id>{7a5aca42-5182-40d9-bfd6-ddbeed135c10}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6728,11 +6764,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e280b6af-5c23-4e07-af67-65f4995db7f8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="85">
+          <x14:id>{799bf372-31ab-414e-b99c-16961e5c4e8f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6740,25 +6776,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b62b357b-41d2-47f9-a5e2-0b0fe0b41cce}</x14:id>
+          <x14:id>{ea77cb2a-54a1-49e7-a0f6-5a52d646f63a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I58">
-    <cfRule type="dataBar" priority="48">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f2dd9125-be9e-40ff-a755-28a86d142fc5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="I77">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{da68c085-6d41-4828-9100-6cd0e4e059b4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6766,23 +6802,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e9d49e68-fede-41a6-bc88-46881d5eb178}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="46">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ffd83621-9035-47b3-bccc-7347bc1d7dcf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="45">
+          <x14:id>{695deab6-a456-4f24-b081-d144b33c1658}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e62d989c-ffe4-48a2-8c24-daa1229296b8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6790,11 +6826,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f0a6a5ab-64bb-494a-88f9-431dcc5cbb6b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="44">
+          <x14:id>{bcb0b918-6b2c-4074-bb7e-180acf133b24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6802,11 +6838,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1f4b4775-c471-4caa-bc74-228f63617208}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="43">
+          <x14:id>{6889a91b-d397-4185-99d2-14823c7617f4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6814,11 +6850,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9881d5e2-ed78-4a74-9955-feedcceda07a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="42">
+          <x14:id>{792da193-a351-4799-9330-9a3c0defa713}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6826,11 +6862,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f92245a7-656e-40d5-8f3c-e9988012365d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="41">
+          <x14:id>{1da22cc9-eba0-4fc5-9e58-006fe01b92a1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6838,11 +6874,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ded1d06c-bbb2-4d45-8e0e-eca1e05447a0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="40">
+          <x14:id>{bd14daad-c203-4c6a-9fe2-61737a77622d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6850,11 +6886,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9613f635-c510-4805-a3b3-aa2f7f79f1f1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="39">
+          <x14:id>{6fbb1f55-db8b-4a42-96a3-49f64e3782f2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6862,11 +6898,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4dbcb74d-1853-4c3e-bb59-ed97b38c929b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="38">
+          <x14:id>{1a58bbe6-66b3-4e3a-97ae-fa092d774fbd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6874,11 +6910,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2933c620-2669-4528-9c96-6a039f01b08c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="37">
+          <x14:id>{08ea8c33-1795-4b63-844a-622b5c038f80}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6886,25 +6922,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{518bc989-0f35-4568-a9d3-afd94343157b}</x14:id>
+          <x14:id>{a338ade1-09b6-4e38-99b5-b857c75b0fbc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:I64">
-    <cfRule type="dataBar" priority="60">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a167694-6e89-4f98-8d41-59ba4a5ae01c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="59">
+  <conditionalFormatting sqref="I83">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{de63ce0c-d71c-4d20-9d41-43889d746219}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6912,23 +6948,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{07655d02-4de1-4faa-b4df-ef66a0245a2c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="58">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bff5c9bd-6469-4604-8e6b-2f9d09fffd0d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="57">
+          <x14:id>{613ca7cf-0888-4a5c-8182-1abca65baace}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{72e36ca8-9232-4647-9c20-aea45cf6ecdd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -6936,11 +6972,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b2216593-1e8c-4121-898d-14bddf2ef631}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="56">
+          <x14:id>{5910d21b-8212-4501-9d95-519341129397}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6948,11 +6984,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a9b7b63-06c7-4549-900b-69b6cbea1ab2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="55">
+          <x14:id>{715b0ca2-02a3-41bb-a582-01ec4b2b9e9a}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6960,11 +6996,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{946826b1-f16b-4dab-9a5b-a78bee69efe8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="54">
+          <x14:id>{abea9e82-7f14-49e7-a69c-c877f0b24af6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6972,11 +7008,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{631c619a-3fb5-4b65-a21f-8ff643d8812e}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="53">
+          <x14:id>{858f712a-592f-4abe-a283-b2a0c26f35dc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6984,11 +7020,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{644d30dc-e20d-442f-9749-aec6d7995da4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="52">
+          <x14:id>{00bc0217-0483-4a42-bd8f-e47a7005af01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -6996,11 +7032,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a279163b-c579-4584-a49e-4f69229c1822}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="51">
+          <x14:id>{b8204674-e3e4-4e69-8f2d-b2c6e916a4d7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7008,11 +7044,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29d25611-aea4-459e-838d-b7c55a0ba4e8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="50">
+          <x14:id>{ce58aa83-cb66-469e-8771-2ea2cfd64465}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7020,11 +7056,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3181b0c-2f2c-4f90-a340-d2bec6d332a3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="49">
+          <x14:id>{2d4f79e1-8563-4991-b80f-66a9f0db847d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7032,25 +7068,25 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4390fc0e-3c8c-4332-86c0-49eb607a2d63}</x14:id>
+          <x14:id>{1c8ae63d-78ef-429a-a7a8-f11918328ed5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I71">
-    <cfRule type="dataBar" priority="72">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49bc8095-8061-4f44-8bae-c6778f172a6d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
+  <conditionalFormatting sqref="I56:I58">
+    <cfRule type="dataBar" priority="84">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82213883-33a8-49da-b5a4-2527f64f8ec7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="83">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7058,23 +7094,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6f14eefb-e6ae-4ab5-83d4-31db7131659d}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="70">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{241b2393-44d7-4e59-a86a-c1a8a950d50f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="69">
+          <x14:id>{184ad4f4-8921-4ed3-98fe-2368ea233fe8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="82">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4c3fb70f-6049-4e4f-9c0b-7147092518d9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -7082,11 +7118,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4bb678a-2e9c-4056-a674-1a3c5c0e29c9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="68">
+          <x14:id>{a3e47d10-f600-4855-ba29-403f40a411a6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -7094,11 +7130,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ec12fb27-7086-495e-90d8-a31ef9f77aa0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="67">
+          <x14:id>{82672f8a-e1bd-4c41-8dd4-16dd22bb4fd5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7106,11 +7142,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{347ba3b4-2b8d-418b-a272-6ab86779ceea}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="66">
+          <x14:id>{1228fceb-9915-430e-98ce-f3668a3a14ca}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -7118,11 +7154,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{09a2e16d-db3a-449e-910d-01c3a6993815}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="65">
+          <x14:id>{8247b98a-801d-4b1c-8191-ea82fbfe5903}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7130,11 +7166,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{980250d4-8619-4c0b-9ac1-0e210f06571a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="64">
+          <x14:id>{32883fdb-bfeb-49e8-9325-2ad20da1fc49}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -7142,11 +7178,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9a5e1739-76af-4dfc-96be-ba96ff01bd24}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="63">
+          <x14:id>{7c05a052-0a22-4df8-8f4c-fa144b574be6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7154,11 +7190,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{92e9d95e-a4c3-4357-bade-85748361b06f}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="62">
+          <x14:id>{554d6302-713b-4898-809f-bdcc93536230}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7166,11 +7202,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5b55bb86-add1-45a7-92cb-4b11d67df3c7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="61">
+          <x14:id>{d52712f1-19a5-4f49-991b-ce010041a005}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7178,13 +7214,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4023e68c-e163-4429-a3d8-59e4e39264d7}</x14:id>
+          <x14:id>{a45f8c80-9546-4f23-a50e-55eadddc866c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25 I40:I52 I54:I55 I60:I61 I66:I67 I72:I1048576">
-    <cfRule type="dataBar" priority="241">
+  <conditionalFormatting sqref="I62:I64">
+    <cfRule type="dataBar" priority="96">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b2590bee-5e71-466f-8165-7426bb57f316}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="95">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1081b1b8-7f2a-42f0-bc57-b5a43b509ad8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="94">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{237349ac-d8cb-4bc1-a594-4f472f9a6250}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="93">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b64e8781-a33b-4f7e-9bec-c3f848072b32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="92">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{199eb6a2-9984-44e0-a366-b8a02ff1d296}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="91">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{eb791156-5a16-467f-bc4b-ed1435fa295b}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="90">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{35a0ac0e-09f1-443b-bd69-363658b79c22}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="89">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{aa43cc62-dd35-49e1-a2de-1e05f67cd770}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="88">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0326d80d-7c1b-4ffd-a42a-b447632e0476}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="87">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fd9720bd-3a00-41ef-ad20-8a7d8642f3c8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="86">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3e269624-e5cb-4201-95de-1e8f25c6b1a6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7192,11 +7360,133 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{170383ef-7c91-4279-b27d-7e01d02f6256}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="242">
+          <x14:id>{cc340c19-1d08-4451-8d15-93ce0973d0c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I71">
+    <cfRule type="dataBar" priority="108">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03b27643-b965-4eeb-8a65-cc469115ebe5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="107">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{322fdea7-cc59-449c-88dd-e58196597910}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="106">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{aa55e6af-de81-4a29-ad97-7770c2374499}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="105">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4bd2e623-d7bc-450c-84a0-835a730c6ad5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="104">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bc15b83a-fb0e-4bbe-9e3e-5ade2b6cf4a6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="103">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b03c5fd5-da53-4123-bd76-8c6d538580f8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="102">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{099b9da7-0704-4399-a3a7-d5e11ccce111}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="101">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{c47dee09-a712-480e-a6d7-5e2206d5af06}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="100">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5f8cc117-c005-47fd-b3e3-c9a56d1b67c9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="99">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58f7685b-8213-4599-866f-6e184759f7b3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7204,133 +7494,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{279e868f-bc9e-4998-bfcf-6f6bc47c9c8a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="243">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{783cad10-34f2-4c4f-9b5c-99e6fa49d642}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="244">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{426311f7-86bd-4d2b-abca-bcbcb4a5002b}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="245">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f372aa42-ee52-4e6e-8ecf-a1615da000ff}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="246">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3123843d-684d-49f0-9833-9232681cc3e8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="247">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{297ad897-16b5-4978-9c33-19fd06c094ef}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="248">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5e4a1261-c7fd-49c4-94b4-25f5a0905c52}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="249">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF92D050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f4cba75b-a087-4895-a813-e1b90e127062}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="250">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f134bd8d-78c7-4c4f-b8c1-6930c39e9d49}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="251">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02a7538e-6516-48e7-bd69-7e9b2f2f64f8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="252">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9c14b707-d953-434b-ae3e-486215af5aaf}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26 I34:I35">
-    <cfRule type="dataBar" priority="229">
+          <x14:id>{60bdd531-5121-4ed7-98e3-ed51f7360ef4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7338,11 +7506,133 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06a951ea-5af0-4492-a799-dea6262122d1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="230">
+          <x14:id>{d6a8adda-2608-4cfb-9c9e-ec76d207d654}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:I76">
+    <cfRule type="dataBar" priority="36">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ab38d9a2-3b1c-4b69-8aeb-501613aa3e92}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0f89df2b-3473-424d-8161-f6b16aab86c5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="34">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fd44987d-f06a-48ea-ae88-8fff6a3c8492}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e39233b7-b1bb-4ead-9efa-4a5f5b4d2829}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{545e6935-f71f-40b3-9b19-d2caab572a43}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{a6e51b5f-68af-44dd-945a-9959db150ad1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{322ef9d4-c323-4668-a433-d59fc54cc499}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{886255e0-c518-4a04-82f8-309c48e00354}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7bcfd68f-b55e-467d-8f5e-fe441cb1a3d6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{abdaf6c0-ff48-45b3-8997-3771fb84f813}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7350,11 +7640,49 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6d0fb789-cb07-41d1-a1c9-5a63d42d104a}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="231">
+          <x14:id>{aa4ccf86-5063-4386-8a12-94d72232fca2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7b22082d-d836-4e82-9a55-23f0260c4f07}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I25 I40:I52 I54:I55 I60:I61 I66:I67 I72:I73 I78:I82 I84:I1048576">
+    <cfRule type="dataBar" priority="277">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9f0a26c5-3026-4d0e-8683-547c8ff69fde}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="278">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1adfe6bc-934d-4935-add6-4e52c79da043}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="279">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7362,11 +7690,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a055ab0-70eb-448d-8bef-90c52dc06cda}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="232">
+          <x14:id>{564d0cdd-4919-42aa-9862-3fa6efb3bac4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="280">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -7374,11 +7702,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ec241a1c-7a39-48be-8269-24d714025c66}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="233">
+          <x14:id>{3b72c5cd-72dc-42de-997e-931abf0a5718}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="281">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7386,11 +7714,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{93877364-f0b0-4108-a7c7-120e827f67dd}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="234">
+          <x14:id>{6678569e-f13d-4d59-9ec2-9a1753f0ad5f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -7398,11 +7726,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a1cecd02-308d-488b-98ad-eef976857751}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="235">
+          <x14:id>{c5a58556-44c6-43c5-9f2b-1b4c858019f5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="283">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7410,11 +7738,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aee25ad0-5f40-4c87-9295-d945bb769ade}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="236">
+          <x14:id>{d29a2755-61a9-4394-b3d9-f8525fcb9266}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="284">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -7422,11 +7750,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e8b4d3f9-3a0a-46f1-b3ad-df0cc5052d58}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="237">
+          <x14:id>{274607f3-1fe9-4bca-b4e2-6cc470ac2e48}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="285">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="max"/>
@@ -7434,23 +7762,23 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7c56ec75-184a-4c84-b2cd-e97e6fba0b6c}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="238">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0d58ed1f-597f-4244-b284-c491aa2a6765}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="239">
+          <x14:id>{5830ba65-41e5-4ca6-bae4-e6965d299df4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="286">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{904605a7-7772-40ff-b6bd-1f65b1e81df0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="287">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7458,19 +7786,165 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d118dd60-987e-4e4b-8bd3-43576cec5af7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="240">
-      <dataBar>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2543d450-d43c-4086-a782-c1c683c65094}</x14:id>
+          <x14:id>{4f76e092-821a-4c73-a136-72d5ac7bc1b4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="288">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4133fbf5-b35c-457e-822f-aeeafd3a5ca3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26 I34:I35">
+    <cfRule type="dataBar" priority="265">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{852da442-b162-49be-a2c9-995b54c7630f}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="266">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{bfe87e32-cdb4-430a-b7a3-dd0dec8cf95d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="267">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7ef8b20a-9062-46c2-8613-e4b5064de5ba}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="268">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{60b6cd7c-46f5-43ee-9fd0-e392d6e92acc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="269">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7b4bf115-e76e-4b5d-8ad7-0a27c1551fdd}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="270">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8ae75ab5-57ae-44ae-9baf-54aa8ee833f6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="271">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{e1ab4733-dc1a-4f6f-a7db-a9e714e25d27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="272">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6b3b4174-ff63-43e6-a587-0a23da056ef6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="273">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9a09111a-a8bf-48dc-8209-cdc93c3f1480}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="274">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ef1fcd2d-98a1-4cf5-8cd0-523f6583a025}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="275">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5e085b54-7e0a-4d82-8662-8ecb763cccf5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="276">
+      <dataBar>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{926c3faf-fd97-4c01-afda-f2503c1cfdec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7482,7 +7956,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85d922bb-ba44-4ced-b400-9fbca79a012d}">
+          <x14:cfRule type="dataBar" id="{edc5eb27-ed44-46bc-8891-bf2f3c336062}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7492,7 +7966,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e7ee1295-a2da-4f52-9e55-ca3beb3bd194}">
+          <x14:cfRule type="dataBar" id="{ea257313-b462-4ee3-b230-c3511eafb0fa}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7500,7 +7974,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bc02fafa-c5c4-4205-9837-ea944afb264f}">
+          <x14:cfRule type="dataBar" id="{3670cf43-1566-45b8-b4bc-467650c6a880}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7510,7 +7984,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f241688e-4a6e-4e15-86cd-bafad1d18d2c}">
+          <x14:cfRule type="dataBar" id="{df918901-74de-4559-ba75-457f316078cc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7520,7 +7994,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b0226824-41c4-42dc-9a31-a481b12e5bd4}">
+          <x14:cfRule type="dataBar" id="{79e698df-14f0-405f-9d8d-a4cecb0395da}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7532,7 +8006,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3d08c87b-6ca8-4c34-9ee6-b1d17c335098}">
+          <x14:cfRule type="dataBar" id="{19059e99-1a42-4322-a91c-865c7404b43b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7540,7 +8014,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dfef4fe4-4148-4fa4-84dc-1ce932a06a50}">
+          <x14:cfRule type="dataBar" id="{ca50363f-3de4-477f-af37-3cfce02abdd9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7552,7 +8026,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dc55ad67-fa8d-4048-838e-0a30020b0711}">
+          <x14:cfRule type="dataBar" id="{0c829e47-85fc-4d76-9a38-17b35b30426e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7560,7 +8034,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{140c0b02-401f-4d61-8b31-19cdf58a1ec2}">
+          <x14:cfRule type="dataBar" id="{0963f1aa-3131-4168-9a63-7b434d01949f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7572,7 +8046,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{62927f1b-0ca3-449d-a60e-6262e4104c04}">
+          <x14:cfRule type="dataBar" id="{042a17b0-3e09-4bba-8135-52cff3b163dc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7580,7 +8054,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4c976cf1-1705-46fa-98c4-1ed7f9841a23}">
+          <x14:cfRule type="dataBar" id="{64943eda-5f55-49e0-a6e6-d2a946c7811b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7592,7 +8066,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{230da66e-461d-4965-829b-ae8ab3080089}">
+          <x14:cfRule type="dataBar" id="{6af36673-5306-44fe-b8d4-cddc1470977f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7607,7 +8081,7 @@
           <xm:sqref>I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c70fef29-c9cd-426a-a6db-1f26d14627f1}">
+          <x14:cfRule type="dataBar" id="{ed5efd12-085a-4430-aa90-1073aab17efd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7617,7 +8091,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{de0dd6da-fcb1-4dbc-91a2-96aaa3e1f9e5}">
+          <x14:cfRule type="dataBar" id="{92027e80-3455-4559-bf2e-09a846757657}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7625,7 +8099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8cdeced3-0e24-4666-bda1-45090c8bff83}">
+          <x14:cfRule type="dataBar" id="{18708041-2cfe-4c0c-8d23-fe31091b2ead}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7635,7 +8109,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2f05c261-49c7-4159-9730-39cca4797f8e}">
+          <x14:cfRule type="dataBar" id="{ff0ec0a7-fa29-4ca5-a1a9-8575c1aa0659}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7645,7 +8119,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9a4d3bae-1ad0-48d3-92b2-401a5bf7e624}">
+          <x14:cfRule type="dataBar" id="{e320c590-5936-460b-8523-bd946717d316}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7657,7 +8131,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0066e52a-43b2-4f9c-9a68-98b54de95351}">
+          <x14:cfRule type="dataBar" id="{b2303711-6462-40bd-bf62-a36b4d6bc3ca}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7665,7 +8139,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3c336875-9ab6-45d9-adc2-78be66d68f43}">
+          <x14:cfRule type="dataBar" id="{87441f84-4fbb-4b47-8f4b-a4e1e5dbdd2b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7677,7 +8151,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{863d86cd-8164-4afc-b006-9700def2fcaa}">
+          <x14:cfRule type="dataBar" id="{1ac92270-be21-49b3-a176-d9c962a1368e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7685,7 +8159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c7465526-281c-4c6b-a6ff-81587a02626d}">
+          <x14:cfRule type="dataBar" id="{9be44e31-8eca-4f97-a7de-157b581d303f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7697,7 +8171,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9d44e4d5-b324-41e5-aaff-5e7dcdbf0593}">
+          <x14:cfRule type="dataBar" id="{edda1363-6daa-4427-b255-ffd4aeb064b8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7705,7 +8179,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7f48ff00-9310-433c-b030-83e3b6b9c6c9}">
+          <x14:cfRule type="dataBar" id="{dd5e4b7a-af53-4d8c-b7b2-3c9838742eb0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7717,7 +8191,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{712fd5e4-558f-45dc-bca5-283b7597c217}">
+          <x14:cfRule type="dataBar" id="{8457fb92-9369-46eb-96bb-0a6bf83ff585}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7732,7 +8206,7 @@
           <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aabc285a-7a15-4151-a185-e60ad9a551d7}">
+          <x14:cfRule type="dataBar" id="{cc0546ca-4aad-412f-9027-32e608924aed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7742,7 +8216,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{dd8517b5-ed93-415d-aea5-d3d59e393354}">
+          <x14:cfRule type="dataBar" id="{5247f52e-cc30-4d04-bcdb-644d2b142704}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7750,7 +8224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{368a46cf-8a48-4180-918e-a367c708df21}">
+          <x14:cfRule type="dataBar" id="{a9552bf7-1c49-45f7-90cc-1dde54737763}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7760,7 +8234,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0e69344e-5918-48ca-826e-2ec1630f7b28}">
+          <x14:cfRule type="dataBar" id="{8b2eb8db-508f-41d9-8869-c57e2fa3f4f2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7770,7 +8244,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{300519bf-8bbb-4125-b10f-16fdc46c4454}">
+          <x14:cfRule type="dataBar" id="{2549dda5-be98-4c42-9b92-ff7ccfe020f7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7782,7 +8256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f2193b68-933f-446d-ba02-0ba8901b869d}">
+          <x14:cfRule type="dataBar" id="{8ca538ac-0558-43e1-86e4-c34750e6bc2e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7790,7 +8264,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2489bd9b-6ea6-4ae0-9b82-f6cb8ae58ba1}">
+          <x14:cfRule type="dataBar" id="{39063551-b0a6-47bc-84a4-af1850f834f9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7802,7 +8276,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f17b9b8e-7535-4ae6-b237-f928c2574f75}">
+          <x14:cfRule type="dataBar" id="{37bfdc9f-b756-4b5a-8da8-4c6498ede659}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7810,7 +8284,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c825b3e6-ff86-46ae-b0ff-9182ec5c129f}">
+          <x14:cfRule type="dataBar" id="{b3e24e07-b211-4d85-aaac-59ad94ec4567}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7822,7 +8296,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{68682ce1-a109-43f8-8a29-6f38557dfc5f}">
+          <x14:cfRule type="dataBar" id="{a0586109-42bf-43f0-b5e1-00af3b7d97ff}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7830,7 +8304,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4dd1820d-5cab-427e-85f6-a0bde5ad54d6}">
+          <x14:cfRule type="dataBar" id="{b0fc2f00-e579-47e9-91ac-30f5edee1b9f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7842,7 +8316,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{af31f93c-dd5e-437f-9519-24a47c706e53}">
+          <x14:cfRule type="dataBar" id="{9a51b5a2-c776-4377-a621-926defd97850}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7857,7 +8331,7 @@
           <xm:sqref>I29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2532fbc9-7431-4e2e-b873-abf6110b616b}">
+          <x14:cfRule type="dataBar" id="{e3a895e3-92a5-4c99-9e20-18c8fc9a8faa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7867,7 +8341,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a74f51ca-af17-4649-88d0-b6403f765a17}">
+          <x14:cfRule type="dataBar" id="{330e9962-e32f-484c-b01f-7a421b3a75e5}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7875,7 +8349,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4eb758f8-2fb8-4f83-8bed-dda6fc5159df}">
+          <x14:cfRule type="dataBar" id="{c1d9d0e9-0f4a-45e2-a254-70cc31d1b4e1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7885,7 +8359,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4e29b0c1-ca8d-47e3-aa8c-3043232ed7dd}">
+          <x14:cfRule type="dataBar" id="{29995ece-ac65-4880-9a2f-fe14b061ca09}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7895,7 +8369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b5a56cef-f82f-4162-8f9b-30e5da57b4f0}">
+          <x14:cfRule type="dataBar" id="{c9c79b40-1fa2-4eec-8809-888a78912f78}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7907,7 +8381,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{862eac7f-8ddd-46dd-9267-feaad94689e6}">
+          <x14:cfRule type="dataBar" id="{eede814f-b802-46a2-9bd1-c96f659bbcd0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7915,7 +8389,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d914035a-5cd8-4474-b373-570c9c7d2313}">
+          <x14:cfRule type="dataBar" id="{e4361109-453e-4173-a13b-b8bc47ee74a7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7927,7 +8401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{244cb6b1-2b97-4436-b22a-2bea41ae48bf}">
+          <x14:cfRule type="dataBar" id="{4a5c7ce6-23e9-4897-8dfb-2db627c29c9d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7935,7 +8409,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0486cbbe-e9ac-48d1-bdb2-67d1d89e74f4}">
+          <x14:cfRule type="dataBar" id="{38025b80-16a6-4d3a-8736-d1491126eae0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7947,7 +8421,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4c5dd4e2-a93b-4f75-a003-b89fad732d3b}">
+          <x14:cfRule type="dataBar" id="{637c241e-b309-481f-9da9-b2374723fcbb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7955,7 +8429,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d2c3e680-e1f7-446a-90de-5d91a3034230}">
+          <x14:cfRule type="dataBar" id="{60c28d3a-707c-4156-bb09-51629240226f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7967,7 +8441,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6091cb27-c3ee-444a-b5d8-f976d79650e0}">
+          <x14:cfRule type="dataBar" id="{126e9a91-2a5f-4607-bd54-6fe7d0688186}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7982,7 +8456,7 @@
           <xm:sqref>I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e3fcc81a-a6f9-44f9-9f3f-919166f7e476}">
+          <x14:cfRule type="dataBar" id="{2cc1542d-c434-4422-8c9b-ce4b8b5a4b39}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7992,7 +8466,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3ccf75f0-6448-47ca-b28c-0c3a0270b741}">
+          <x14:cfRule type="dataBar" id="{799e4582-556f-4158-90e0-ecff1c7eacae}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8000,7 +8474,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1f4430e0-dada-4f13-861d-dc9ce0dfa601}">
+          <x14:cfRule type="dataBar" id="{c2bb54e0-72cd-4cf5-991e-2688bb513bbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8010,7 +8484,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0a54f7d9-cae7-4410-a3c6-a395773b5710}">
+          <x14:cfRule type="dataBar" id="{d64a30b9-2b78-4451-bdd3-f4a250651fb7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8020,7 +8494,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6cacdbd4-c7cd-4c2f-8693-0fff06ab8fee}">
+          <x14:cfRule type="dataBar" id="{1270af8e-80a6-4bf8-9d4a-3fbce6778532}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8032,7 +8506,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c625d1e5-20b2-414f-be0d-0fc97fefbae3}">
+          <x14:cfRule type="dataBar" id="{d9f6c16b-9630-4120-b945-d7c33eded0ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8040,7 +8514,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e2fe362d-ee06-463e-88c3-34054acef849}">
+          <x14:cfRule type="dataBar" id="{38879233-868a-4c7e-822b-af455d3efe2b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8052,7 +8526,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{01ef6921-e9a2-42f7-9d0f-ab639be5c78b}">
+          <x14:cfRule type="dataBar" id="{4196025e-3d8b-40a3-ad27-6b9b098fc1f6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8060,7 +8534,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e52331c3-5aeb-4a58-bcaf-f34eb7eae528}">
+          <x14:cfRule type="dataBar" id="{cc8e9723-c82f-448f-b55b-24ced4ab39c0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8072,7 +8546,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ef556984-f60c-49d5-b48a-c3459700e95f}">
+          <x14:cfRule type="dataBar" id="{f2db1752-2360-419c-b858-3db672680a66}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8080,7 +8554,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{001eb2f4-d6b6-4434-b16d-24c3b2383bd0}">
+          <x14:cfRule type="dataBar" id="{e8198a6c-df13-4afb-acd4-537b786505d2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8092,7 +8566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0dd1184b-d62e-4af1-b517-b523a19bd0c7}">
+          <x14:cfRule type="dataBar" id="{abfa5fd5-aae5-45c4-9e57-1d24f8235a89}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8107,7 +8581,7 @@
           <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43ba5d08-e731-4c1c-baf2-3bb540c1b9fa}">
+          <x14:cfRule type="dataBar" id="{e55f091e-a350-4fc8-b41a-dcfd0914ed53}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8117,7 +8591,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{02d3e58a-64d3-4695-9f2b-c1abe2b92b2a}">
+          <x14:cfRule type="dataBar" id="{0b32e2c5-ceee-4dc9-a354-5a2db9b54164}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8125,7 +8599,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{248754ea-3b3d-4153-8379-a7615a8ea8f2}">
+          <x14:cfRule type="dataBar" id="{272a9349-d763-4408-9fbc-618d9d9d6f85}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8135,7 +8609,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1f6b868d-0c78-456b-923d-a904cfe461a9}">
+          <x14:cfRule type="dataBar" id="{8dc5cf12-2d38-477f-beaa-d5971ea010eb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8145,7 +8619,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0d70bcda-9e91-40c6-9ea6-b380d920ba86}">
+          <x14:cfRule type="dataBar" id="{587a10ec-66ba-4d57-af02-73ce41197e8a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8157,7 +8631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{655ce4b6-833c-45f0-861e-005865eb4a03}">
+          <x14:cfRule type="dataBar" id="{e9487c47-d3a9-4553-ab54-e494757dda42}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8165,7 +8639,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7d0cae4f-9e44-4d11-8b82-1d2dd488c2f5}">
+          <x14:cfRule type="dataBar" id="{675881ac-a6e6-44c2-9eb8-ffc048d4ca47}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8177,7 +8651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9060f23d-07bc-4865-9a75-bfc97f8bc952}">
+          <x14:cfRule type="dataBar" id="{31dad31c-f61b-4b1e-952c-556189c29326}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8185,7 +8659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3d78d95d-a7be-4c54-acf2-d23de3df9911}">
+          <x14:cfRule type="dataBar" id="{37e231a6-5f0c-43e7-b937-693f7ce4d3d7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8197,7 +8671,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{32e1f5a5-2653-4736-80a4-3fc38e9a0335}">
+          <x14:cfRule type="dataBar" id="{2af8a003-c62b-47cd-81c5-b3fc2daf0baf}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8205,7 +8679,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{aff2b965-bce9-48bf-b13a-e22f595bdebe}">
+          <x14:cfRule type="dataBar" id="{c437266a-d2ed-44b1-b07a-13d4c77d0c21}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8217,7 +8691,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6c799cef-3add-43da-b1f9-c3f9ea0e8f3d}">
+          <x14:cfRule type="dataBar" id="{10431a2b-7847-4d98-8e33-42821945adc6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8232,7 +8706,7 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15698ea0-a46c-409c-b111-dfc11e1fae08}">
+          <x14:cfRule type="dataBar" id="{229762c3-5905-4ad8-9959-c68b32a0729c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8242,7 +8716,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1fc4c370-496e-48e4-a186-fa594b9a145d}">
+          <x14:cfRule type="dataBar" id="{5b1ae31c-74eb-45da-aef1-125f14b9f44a}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8250,7 +8724,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{319eac63-c5df-489c-adf6-8c75a2b122c8}">
+          <x14:cfRule type="dataBar" id="{72d8c6b3-3578-4875-98f3-17fd0482fe34}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8260,7 +8734,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0ee7f169-25d9-41b9-b0a9-5758ee4dac2b}">
+          <x14:cfRule type="dataBar" id="{c6dde554-b6b7-4214-b997-0239dfcd14c7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8270,7 +8744,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{944b89d0-3706-43f0-8e24-d67267cff15c}">
+          <x14:cfRule type="dataBar" id="{b4cea0ea-c589-444b-8a57-3ea19154f2e0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8282,7 +8756,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{89e8d11b-dc8f-4619-b949-262e70e4baaf}">
+          <x14:cfRule type="dataBar" id="{5c5a1ec1-358c-449d-9600-8ed6f14ec511}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8290,7 +8764,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{266efdaa-8b3a-4093-a02f-335f496a5b22}">
+          <x14:cfRule type="dataBar" id="{2601db8b-108b-4527-a95d-a5098c4c7d1c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8302,7 +8776,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2d552c08-be36-4684-9192-124a90f79707}">
+          <x14:cfRule type="dataBar" id="{a51ae8c1-8762-4e70-b826-cf9df12fa77b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8310,7 +8784,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d5346d13-bb17-4dee-99b9-4ddf683c017e}">
+          <x14:cfRule type="dataBar" id="{176760f6-4e6d-482c-80b1-0417ae6800ac}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8322,7 +8796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{263ac08f-188c-438c-8ce0-15f58e454480}">
+          <x14:cfRule type="dataBar" id="{da256d3b-ca60-460e-8f75-28a5385b9840}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8330,7 +8804,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fea44444-45b8-497d-806b-24235c624d42}">
+          <x14:cfRule type="dataBar" id="{dd2b39ea-2d11-40c1-8bf2-0185b1374a2c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8342,7 +8816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1e149fff-9008-41e0-a165-6b914eba8f8d}">
+          <x14:cfRule type="dataBar" id="{3f89669a-1f09-4bd9-885c-26fb1a4895de}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8357,7 +8831,7 @@
           <xm:sqref>I33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2bb93038-a42f-4e43-980f-45b82e30cd00}">
+          <x14:cfRule type="dataBar" id="{44cb0a29-a415-4994-985f-3be65f3d9ef3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8367,7 +8841,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5da14dd6-26a7-448a-b324-e374e9309f79}">
+          <x14:cfRule type="dataBar" id="{567bbfb9-6800-4db5-8546-32238a891602}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8375,7 +8849,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c1a4280f-ebdf-40ee-87c2-3c71fb869eca}">
+          <x14:cfRule type="dataBar" id="{82b0cfd8-6d33-45d1-a8e5-7025fb4725f6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8385,7 +8859,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6b69d8de-3e17-4fa9-ae18-d46ac4154498}">
+          <x14:cfRule type="dataBar" id="{e20a5723-121c-4550-a65e-6726c0964b4b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8395,7 +8869,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{16286e51-4aaa-48e8-8f0f-5f1692df3322}">
+          <x14:cfRule type="dataBar" id="{9dec3251-6f8a-41d4-a8b6-06c858c4f029}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8407,7 +8881,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{da59772a-b477-45f3-b1b8-67c36072ae80}">
+          <x14:cfRule type="dataBar" id="{734aa819-6b55-460e-8e13-1701e46596ef}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8415,7 +8889,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{33f6b120-b5e2-409f-b6d9-fec08a0a9ceb}">
+          <x14:cfRule type="dataBar" id="{312a6913-e9bf-446d-b953-b297e41d81a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8427,7 +8901,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f8785ef3-5fae-4b05-bc72-e6ccd0ac1e60}">
+          <x14:cfRule type="dataBar" id="{80063ee8-50a0-4f33-81d2-089667ed568d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8435,7 +8909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f5f0a5f5-11e8-411b-a3d5-0d2eac21f325}">
+          <x14:cfRule type="dataBar" id="{9ca945b4-70c5-4dbd-b1f8-497c392a095c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8447,7 +8921,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5f65a7dc-90cc-4529-a8cf-052eebb841bb}">
+          <x14:cfRule type="dataBar" id="{541ddf0d-055c-42f9-8003-4ff7abd957ed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8455,7 +8929,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4f9bf056-ac96-4fa8-bdc2-42361da97eb6}">
+          <x14:cfRule type="dataBar" id="{65069a38-8258-4ad8-85ab-c453e346e99f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8467,7 +8941,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c3123ebe-554a-4271-b82d-a82d33aaeaba}">
+          <x14:cfRule type="dataBar" id="{d63d7a29-ba62-465e-a7b1-ebffac91a26c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8482,7 +8956,7 @@
           <xm:sqref>I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8405967a-2f56-4be9-b763-264c57e9623e}">
+          <x14:cfRule type="dataBar" id="{adb13d4e-5b64-4ef4-9108-c9921f2615c0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8492,7 +8966,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{62fedec1-d3ab-4f0e-9f8e-630cc281753f}">
+          <x14:cfRule type="dataBar" id="{bd528a70-91bf-48fb-bd30-3696ad3d1591}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8500,7 +8974,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bf95e753-82be-443e-aca0-73e15978a0c3}">
+          <x14:cfRule type="dataBar" id="{9bdcf730-e02e-4866-b19d-80a274a29272}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8510,7 +8984,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6b15c934-3463-40d9-91d2-e2583cd7d0e5}">
+          <x14:cfRule type="dataBar" id="{6656d813-fa2d-4e02-ab10-fc48a12aa132}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8520,7 +8994,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f626ef3f-ed9b-446a-b2cc-419b876051dd}">
+          <x14:cfRule type="dataBar" id="{8fe5c4c6-044e-433f-903f-2362b91f876c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8532,7 +9006,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a4575f6e-6bb9-4202-b026-0e3d98a1a911}">
+          <x14:cfRule type="dataBar" id="{94d8efd1-321e-4b9d-b6cc-8db46ab45d33}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8540,7 +9014,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c5866b7d-cb1a-46b8-ad3b-80e41b97df58}">
+          <x14:cfRule type="dataBar" id="{97affd94-6cca-44ce-a097-88e619fc1053}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8552,7 +9026,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2cbf3c17-6211-4869-80e0-eed86ab37090}">
+          <x14:cfRule type="dataBar" id="{f65f8b57-627f-4459-9a23-2f0b5aeb9631}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8560,7 +9034,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5bce4107-780a-4356-9f7b-f0326364bd4f}">
+          <x14:cfRule type="dataBar" id="{a11b58b1-ced1-48e3-855b-a5c05efa0fd3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8572,7 +9046,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e743fae4-f830-4bd9-a04b-65a0ed546415}">
+          <x14:cfRule type="dataBar" id="{3a77134a-4f6a-40c5-8579-1a27bf1e880b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8580,7 +9054,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ff18ba25-d2eb-45fd-be26-9c734fa79e85}">
+          <x14:cfRule type="dataBar" id="{314133ee-92b4-4ef0-80e1-960e195611d2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8592,7 +9066,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0c98e2b6-cc43-413d-ae0d-05fafb7b1161}">
+          <x14:cfRule type="dataBar" id="{9b50cddb-ebc2-418f-9009-d346bec20954}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8607,7 +9081,7 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{39335d64-8d1e-4579-9170-25ef8006c5b4}">
+          <x14:cfRule type="dataBar" id="{662b26bd-febc-459b-8a50-df8133447a7a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8617,7 +9091,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{84508b26-14ea-45b0-b9e2-4610d50cc268}">
+          <x14:cfRule type="dataBar" id="{61e06d05-6220-44b8-b9b9-2cb469aa7066}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8625,7 +9099,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8245eea5-e218-4a37-9dd2-d33a6dd1f53f}">
+          <x14:cfRule type="dataBar" id="{e3a72fec-f5f5-4a4e-8260-cee0147aa14b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8635,7 +9109,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5c5dd024-6395-4cf1-ba17-25e529d349d1}">
+          <x14:cfRule type="dataBar" id="{28499c63-38a1-4a4b-b6db-595137bb28c4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8645,7 +9119,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{06fb077e-a058-4c6f-b9a5-e0e8bd2305c6}">
+          <x14:cfRule type="dataBar" id="{6467905a-41f7-4497-8554-f97b3a7844f4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8657,7 +9131,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ebeed136-74d0-4ed1-b89f-0c6abfc5f21d}">
+          <x14:cfRule type="dataBar" id="{2099ddc2-0012-460b-b1af-7fc8ad3ff45d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8665,7 +9139,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{05687a20-77d5-4ed7-bd74-4fed6cba1ace}">
+          <x14:cfRule type="dataBar" id="{c273bb73-7caa-4f6d-a5ad-8480c1519986}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8677,7 +9151,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{39f8eb67-9bc3-4425-9cd7-151faad51ed8}">
+          <x14:cfRule type="dataBar" id="{2531ce8f-4589-412f-87bf-0f07130fb9a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8685,7 +9159,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5ca4d8b7-42ef-4c7f-9766-0838ab7cf646}">
+          <x14:cfRule type="dataBar" id="{a7a0ae3f-4014-4e2c-88c0-070cbe5fd9d6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8697,7 +9171,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{eb41b4cf-3218-491b-8332-9d5a8fb623a8}">
+          <x14:cfRule type="dataBar" id="{958e6712-65eb-4895-8c00-940f53a990e5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8705,7 +9179,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9659700a-8de5-484e-aeb9-8b566fa0f07b}">
+          <x14:cfRule type="dataBar" id="{a6731b06-9439-481d-b029-ae422f87f821}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8717,7 +9191,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b008d5e7-36a2-40a5-b012-c30e8e0697ab}">
+          <x14:cfRule type="dataBar" id="{0a89e946-c5eb-4627-8cba-6bb293999681}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8732,7 +9206,7 @@
           <xm:sqref>I38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e8f46124-16a2-44e9-b862-b9ebd2f5e35d}">
+          <x14:cfRule type="dataBar" id="{c74c7466-290c-4ebd-9ad7-2667aee5423f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8742,7 +9216,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ccc369c1-3127-4e6a-986a-42d539d9badf}">
+          <x14:cfRule type="dataBar" id="{c5667945-ff88-4f4e-935c-5b543ac601a9}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8750,7 +9224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{fa59f169-372e-4817-97a8-78a0ac67178c}">
+          <x14:cfRule type="dataBar" id="{91231e65-ea6d-4df0-9753-ee9566689ac8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8760,7 +9234,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3a3afc04-1b16-4651-9985-1ec6353be0a6}">
+          <x14:cfRule type="dataBar" id="{9ed4429d-03f1-4166-8c87-20fbb162fa19}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8770,7 +9244,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c0e3f206-061a-4c6d-a220-927bf2e41809}">
+          <x14:cfRule type="dataBar" id="{5b86e94c-723d-4588-b276-1120c45c50f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8782,7 +9256,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{839f2a54-69a8-4f8f-8395-5ce212c9799e}">
+          <x14:cfRule type="dataBar" id="{fac8d7f6-bd08-453d-9de9-637c141af1af}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8790,7 +9264,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{95c7e37d-a201-4709-9838-0df547b1da24}">
+          <x14:cfRule type="dataBar" id="{41d2a7fd-3c74-4bd7-a69f-02ad874b1e0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8802,7 +9276,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d470b043-81dc-4abb-b44f-3476b4949b20}">
+          <x14:cfRule type="dataBar" id="{977dc9f7-ebc4-4695-a5fa-8b3d7ce7bb72}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8810,7 +9284,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4db88c9d-9f6e-4f1c-a026-dc2aa7cb81f9}">
+          <x14:cfRule type="dataBar" id="{e9796a6f-396f-4dee-a092-9dd7ceb35bcd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8822,7 +9296,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8043b762-7aa4-4379-87f2-002685ebcb7c}">
+          <x14:cfRule type="dataBar" id="{91ed0225-2951-4038-8206-50d5757a2426}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8830,7 +9304,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ebb6faff-3972-4900-8f3a-a5095d6546a7}">
+          <x14:cfRule type="dataBar" id="{2abd2c46-e38a-4518-b432-6015b3e3d1ae}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8842,7 +9316,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a3bba367-e8e3-4156-879e-93163119e0f7}">
+          <x14:cfRule type="dataBar" id="{572ee30a-8c2b-4a55-b29e-3c2c3396ea48}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8857,7 +9331,7 @@
           <xm:sqref>I39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ae087816-5d93-4ff8-ab41-b1dae7aaf0fe}">
+          <x14:cfRule type="dataBar" id="{9859c6d5-c25d-4cbc-97c7-f3946301bac1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8867,7 +9341,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bc8f7302-c6cc-4024-9109-04b6915b6e76}">
+          <x14:cfRule type="dataBar" id="{d83651ae-fc6f-4315-a5f0-65e526d4f8f8}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8875,7 +9349,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{63d7e957-d3bf-445d-b564-2947a131ed6f}">
+          <x14:cfRule type="dataBar" id="{a7375db0-27f5-4d31-85b6-da0435670269}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8885,7 +9359,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6b43e84f-0646-41db-815e-be17036f00c9}">
+          <x14:cfRule type="dataBar" id="{bcfa5ce6-ba57-44be-a340-c7192d1b5f58}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8895,7 +9369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{80e7af5d-5ed7-42b5-95b0-dfd5142d8521}">
+          <x14:cfRule type="dataBar" id="{5558f822-8676-44f9-a0a5-7a389ee1f40d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8907,7 +9381,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d321d3b8-2f48-4f3b-8926-d41d3a51f254}">
+          <x14:cfRule type="dataBar" id="{872f0f93-8ccd-4c03-9579-b1d47024bbf9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8915,7 +9389,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{96223dc6-d84e-4f52-bb2c-9a1a2ed8e017}">
+          <x14:cfRule type="dataBar" id="{b66455ec-ed77-4fb1-ab02-3375597c230d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8927,7 +9401,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{31155550-ffa5-4317-af4f-d0d104d6eaa0}">
+          <x14:cfRule type="dataBar" id="{c9434a24-de3b-48d5-b27e-98e9eb15acea}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8935,7 +9409,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0bfb9de0-2924-406b-97dd-823e548fb826}">
+          <x14:cfRule type="dataBar" id="{22df370f-2b9a-42de-a41d-edaeeb042056}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8947,7 +9421,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{350d58c2-d8ff-4bc4-99b3-6011efc82427}">
+          <x14:cfRule type="dataBar" id="{e3d49ff6-00cb-4f8c-9412-12c3bdcdb48f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8955,7 +9429,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b33814dd-78e9-4c64-a278-d1f30a5638ed}">
+          <x14:cfRule type="dataBar" id="{1af95c98-e110-49a3-9b1f-3611412d409b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8967,7 +9441,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{eb5c2c5e-25c4-48d1-91c3-334f25dc6f3d}">
+          <x14:cfRule type="dataBar" id="{d072dd8d-53fc-4a12-ae6c-6995f658049f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8982,7 +9456,7 @@
           <xm:sqref>I53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3cd0b89d-1b56-4014-8a2e-c083b69f63f3}">
+          <x14:cfRule type="dataBar" id="{f08c6723-8094-4e9a-921b-410c330324ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8992,7 +9466,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cf46962d-a029-4371-8c8c-3b2fff79b24d}">
+          <x14:cfRule type="dataBar" id="{7ea9e968-1587-4b40-b36a-3f8f26d2cf55}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9000,7 +9474,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9751ee0b-d1ad-42ba-887f-7efca9e844fe}">
+          <x14:cfRule type="dataBar" id="{1e4c3ddc-0aa8-4baf-8130-1e1f039be183}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9010,7 +9484,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{975eeb4a-1f21-49e4-bfa3-630ffc549c9f}">
+          <x14:cfRule type="dataBar" id="{5ed9a19a-25c4-48dd-b095-01814b8b40e4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9020,7 +9494,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9323e07d-0667-4227-91d6-80f52b08b135}">
+          <x14:cfRule type="dataBar" id="{2fb1c772-93db-445c-a9ce-6f6d748e2987}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9032,7 +9506,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b72ee956-c9c0-48ef-8f74-74cf37aa3cac}">
+          <x14:cfRule type="dataBar" id="{977ea283-8df7-4ba0-bfe3-8d74584916d9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9040,7 +9514,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9bd765aa-7bcc-4a43-8f0a-a46f09e8101e}">
+          <x14:cfRule type="dataBar" id="{fb9c22de-07c2-40a0-9e4c-b0b88d5b248e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9052,7 +9526,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9b3eaf66-4027-4b13-bdbf-fe564ca9c925}">
+          <x14:cfRule type="dataBar" id="{4b2b4f52-9b79-4804-a831-1fa1bd97866d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9060,7 +9534,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5804b6b1-25c5-4ab7-81a1-f5976836b875}">
+          <x14:cfRule type="dataBar" id="{e851b387-2804-4f2c-971f-3925ceaa7773}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9072,7 +9546,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{99e5706e-a6de-45c4-af0f-934a13e0faf3}">
+          <x14:cfRule type="dataBar" id="{2782bba7-5ce0-4412-a65a-756bc9b8f6dd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9080,7 +9554,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e14658c5-e217-4422-bfed-0585e2b486b1}">
+          <x14:cfRule type="dataBar" id="{fcbb94a4-89a0-43eb-b0a4-f9e01ebc5322}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9092,7 +9566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0d5edbbf-0eaf-4235-80f3-8538a34b4a6d}">
+          <x14:cfRule type="dataBar" id="{25b92da5-04bf-4594-8759-edf5dc749aed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9107,7 +9581,7 @@
           <xm:sqref>I59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cafbff81-e8ba-4035-87db-be30be1fc3f8}">
+          <x14:cfRule type="dataBar" id="{ec9d679f-d758-49d0-a960-3a3d52978dc2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9117,7 +9591,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7c669d4a-9b54-49ee-8e00-7aa4dea17917}">
+          <x14:cfRule type="dataBar" id="{f03d9a04-ed6e-4a93-9df1-adcf96c9f91e}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9125,7 +9599,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{173bddea-de6a-4365-b191-e0341719a34e}">
+          <x14:cfRule type="dataBar" id="{d1c73ad3-639d-42da-a0ff-afc98c11f0ba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9135,7 +9609,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{bb487764-906d-43e6-961d-0370a6a6a303}">
+          <x14:cfRule type="dataBar" id="{c51c4bfc-e898-4eb6-b0fc-b1dcae409523}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9145,7 +9619,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{0d84faa4-7291-439b-b019-94246369cbe6}">
+          <x14:cfRule type="dataBar" id="{a2527e5d-5c72-4bf5-b4ff-69c555dbe73e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9157,7 +9631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c38a23f1-3a4a-449e-b199-d7c0facef77e}">
+          <x14:cfRule type="dataBar" id="{7d34d9fe-2038-4fc8-bb59-ca77efa51f56}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9165,7 +9639,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b30c33af-73d0-42fa-804d-7648b0a46d38}">
+          <x14:cfRule type="dataBar" id="{1138add8-8abd-4b88-828a-53540f6172ed}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9177,7 +9651,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{cc51102b-b280-4456-86d2-49a3972cd9ef}">
+          <x14:cfRule type="dataBar" id="{a8046d2f-0429-4eae-b73d-6750437ff30b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9185,7 +9659,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{00b0c5de-d860-465a-9768-3568ddf48bdc}">
+          <x14:cfRule type="dataBar" id="{4de5394d-9554-49c1-b01e-0bc539e414ca}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9197,7 +9671,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8b0db459-4c24-42aa-8c37-a68c723bfd6b}">
+          <x14:cfRule type="dataBar" id="{033cdb94-2a63-4c77-a4e6-b9f19e3d4793}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9205,7 +9679,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{c88fbb3d-4660-4c44-b5d9-4a596e3417ec}">
+          <x14:cfRule type="dataBar" id="{2a01de23-e32a-4e34-9027-e89e82f7ba11}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9217,7 +9691,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{d9afd4d4-07e4-4239-bf22-8a9898050f8b}">
+          <x14:cfRule type="dataBar" id="{14d778e3-f67a-47a7-b0fc-f0828bf886ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9232,7 +9706,7 @@
           <xm:sqref>I65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ceef4ad5-34ed-477c-8584-b748d67df5fa}">
+          <x14:cfRule type="dataBar" id="{c203fc14-1b25-43f3-b342-3a8a672a39e0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9242,7 +9716,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9d4e15b9-6d39-40e5-a31d-71ff05ea79c4}">
+          <x14:cfRule type="dataBar" id="{c047484b-60d9-411f-83ec-96b647459eaf}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9250,7 +9724,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5129844d-967c-40f2-905d-0a1eb9a20852}">
+          <x14:cfRule type="dataBar" id="{e1c2e0c1-0ee3-4149-82fb-f691fd1e18bc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9260,7 +9734,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e74141c1-8c39-4f7e-9ef1-c83b56177a41}">
+          <x14:cfRule type="dataBar" id="{da6f0ce7-000d-40e4-9a56-b1da5ce9b6c9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9270,7 +9744,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{20e11b4b-2e25-4b24-b5e1-7e270854e6ee}">
+          <x14:cfRule type="dataBar" id="{70e5a179-8c97-4bbe-ab0b-b747596cd76c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9282,7 +9756,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{6cef4371-43c9-4394-9da8-e769af346722}">
+          <x14:cfRule type="dataBar" id="{5c969a49-062a-4fd3-bfb1-aae852a3dc83}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9290,7 +9764,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{645f5f4e-7915-49dd-bd77-d73b36466dcc}">
+          <x14:cfRule type="dataBar" id="{d70d88fe-61c8-4a6c-88aa-c0bb5c247094}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9302,7 +9776,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{22bbb7c3-c009-49c4-91ba-9b32af5582d1}">
+          <x14:cfRule type="dataBar" id="{22b91873-bdd9-4496-bdce-c9b54b2df7ba}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9310,7 +9784,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{a66889de-eb61-45fb-99f6-1c9943174801}">
+          <x14:cfRule type="dataBar" id="{fbbbdab4-e972-4d93-aca3-104fc75d657a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9322,7 +9796,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{8d6d837f-5ad1-4d88-8042-1125ef7172cc}">
+          <x14:cfRule type="dataBar" id="{7a5aca42-5182-40d9-bfd6-ddbeed135c10}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9330,7 +9804,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e280b6af-5c23-4e07-af67-65f4995db7f8}">
+          <x14:cfRule type="dataBar" id="{799bf372-31ab-414e-b99c-16961e5c4e8f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9342,7 +9816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{b62b357b-41d2-47f9-a5e2-0b0fe0b41cce}">
+          <x14:cfRule type="dataBar" id="{ea77cb2a-54a1-49e7-a0f6-5a52d646f63a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9357,7 +9831,7 @@
           <xm:sqref>I68</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f2dd9125-be9e-40ff-a755-28a86d142fc5}">
+          <x14:cfRule type="dataBar" id="{da68c085-6d41-4828-9100-6cd0e4e059b4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9367,7 +9841,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{e9d49e68-fede-41a6-bc88-46881d5eb178}">
+          <x14:cfRule type="dataBar" id="{695deab6-a456-4f24-b081-d144b33c1658}">
             <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9375,7 +9849,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ffd83621-9035-47b3-bccc-7347bc1d7dcf}">
+          <x14:cfRule type="dataBar" id="{e62d989c-ffe4-48a2-8c24-daa1229296b8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9385,7 +9859,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f0a6a5ab-64bb-494a-88f9-431dcc5cbb6b}">
+          <x14:cfRule type="dataBar" id="{bcb0b918-6b2c-4074-bb7e-180acf133b24}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9395,7 +9869,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{1f4b4775-c471-4caa-bc74-228f63617208}">
+          <x14:cfRule type="dataBar" id="{6889a91b-d397-4185-99d2-14823c7617f4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9407,7 +9881,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9881d5e2-ed78-4a74-9955-feedcceda07a}">
+          <x14:cfRule type="dataBar" id="{792da193-a351-4799-9330-9a3c0defa713}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9415,7 +9889,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{f92245a7-656e-40d5-8f3c-e9988012365d}">
+          <x14:cfRule type="dataBar" id="{1da22cc9-eba0-4fc5-9e58-006fe01b92a1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9427,7 +9901,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{ded1d06c-bbb2-4d45-8e0e-eca1e05447a0}">
+          <x14:cfRule type="dataBar" id="{bd14daad-c203-4c6a-9fe2-61737a77622d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9435,7 +9909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{9613f635-c510-4805-a3b3-aa2f7f79f1f1}">
+          <x14:cfRule type="dataBar" id="{6fbb1f55-db8b-4a42-96a3-49f64e3782f2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9447,7 +9921,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4dbcb74d-1853-4c3e-bb59-ed97b38c929b}">
+          <x14:cfRule type="dataBar" id="{1a58bbe6-66b3-4e3a-97ae-fa092d774fbd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9455,7 +9929,7 @@
               <x14:axisColor indexed="65"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{2933c620-2669-4528-9c96-6a039f01b08c}">
+          <x14:cfRule type="dataBar" id="{08ea8c33-1795-4b63-844a-622b5c038f80}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -9467,7 +9941,257 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{518bc989-0f35-4568-a9d3-afd94343157b}">
+          <x14:cfRule type="dataBar" id="{a338ade1-09b6-4e38-99b5-b857c75b0fbc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{de63ce0c-d71c-4d20-9d41-43889d746219}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{613ca7cf-0888-4a5c-8182-1abca65baace}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{72e36ca8-9232-4647-9c20-aea45cf6ecdd}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5910d21b-8212-4501-9d95-519341129397}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{715b0ca2-02a3-41bb-a582-01ec4b2b9e9a}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{abea9e82-7f14-49e7-a69c-c877f0b24af6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{858f712a-592f-4abe-a283-b2a0c26f35dc}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{00bc0217-0483-4a42-bd8f-e47a7005af01}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{b8204674-e3e4-4e69-8f2d-b2c6e916a4d7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{ce58aa83-cb66-469e-8771-2ea2cfd64465}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{2d4f79e1-8563-4991-b80f-66a9f0db847d}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1c8ae63d-78ef-429a-a7a8-f11918328ed5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I83</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82213883-33a8-49da-b5a4-2527f64f8ec7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{184ad4f4-8921-4ed3-98fe-2368ea233fe8}">
+            <x14:dataBar minLength="0" maxLength="100" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4c3fb70f-6049-4e4f-9c0b-7147092518d9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{a3e47d10-f600-4855-ba29-403f40a411a6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{82672f8a-e1bd-4c41-8dd4-16dd22bb4fd5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{1228fceb-9915-430e-98ce-f3668a3a14ca}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8247b98a-801d-4b1c-8191-ea82fbfe5903}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{32883fdb-bfeb-49e8-9325-2ad20da1fc49}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{7c05a052-0a22-4df8-8f4c-fa144b574be6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="rightToLeft">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>100</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{554d6302-713b-4898-809f-bdcc93536230}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="none">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor indexed="65"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{d52712f1-19a5-4f49-991b-ce010041a005}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
